--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55E01A-CF53-485F-ADD7-CD3565AE359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <r>
       <t>Uφ</t>
@@ -258,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -772,7 +771,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,6 +932,27 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,6 +998,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,54 +1053,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1061,107 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1127,7 +1238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,26 +1271,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,23 +1306,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1404,19 +1481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
+    <col min="3" max="3" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="3" bestFit="1" customWidth="1"/>
@@ -1498,7 +1576,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="68">
         <v>22</v>
       </c>
       <c r="B2" s="10">
@@ -1540,36 +1618,36 @@
         <f t="shared" ref="L2:L25" si="5">ABS((I2-J2)/I2)*100</f>
         <v>3.3723034059475925E-13</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="71">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="73">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="73">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
-      <c r="P2" s="75">
+      <c r="P2" s="85">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
       <c r="Q2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="54">
+      <c r="R2" s="61">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="54"/>
+      <c r="S2" s="61"/>
       <c r="T2" s="47">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1609,10 +1687,10 @@
         <f t="shared" si="5"/>
         <v>0.72551978764627878</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="76"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="86"/>
       <c r="Q3" s="12">
         <v>0.45244023302814301</v>
       </c>
@@ -1629,7 +1707,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -1669,16 +1747,16 @@
         <f t="shared" si="5"/>
         <v>1.1629029749998882E-2</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="72">
         <v>-0.35902692542820103</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="64">
         <v>-1.0914897024077701</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="64">
         <v>1.0420345935290301</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="87">
         <v>0.114810566882702</v>
       </c>
       <c r="Q4" s="12">
@@ -1697,7 +1775,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -1737,10 +1815,10 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="13">
         <v>-0.98926814124435303</v>
       </c>
@@ -1757,7 +1835,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="89">
         <v>24</v>
       </c>
       <c r="B6" s="8">
@@ -1799,15 +1877,15 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="78">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="73">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.1173271853216982</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="73">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
@@ -1818,17 +1896,17 @@
       <c r="Q6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="61">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="61"/>
       <c r="T6" s="47">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="12">
         <v>1</v>
       </c>
@@ -1864,13 +1942,13 @@
         <f t="shared" si="4"/>
         <v>1.5395663487402982</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="58">
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="81"/>
       <c r="Q7" s="12">
         <v>0.72378501135020201</v>
@@ -1888,7 +1966,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="12">
         <v>2</v>
       </c>
@@ -1928,16 +2006,16 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="76">
         <v>0.107045965641376</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="64">
         <v>-1.4426364972369801</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="64">
         <v>0.67080947092479504</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="66">
         <v>3.5326281585875897E-2</v>
       </c>
       <c r="Q8" s="12">
@@ -1956,7 +2034,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="13">
         <v>3</v>
       </c>
@@ -1992,14 +2070,14 @@
         <f t="shared" si="4"/>
         <v>1.7444810036147733</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="58">
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="13">
         <v>-0.68918261371289802</v>
       </c>
@@ -2016,7 +2094,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="68">
         <v>26</v>
       </c>
       <c r="B10" s="10">
@@ -2058,36 +2136,36 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="78">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="73">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-1.119777714966725</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="73">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>0.96355561836660841</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="75">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.18335935345765342</v>
       </c>
       <c r="Q10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="61">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="54"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="47">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="6">
         <v>1</v>
       </c>
@@ -2127,10 +2205,10 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="59"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="66"/>
       <c r="Q11" s="12">
         <v>1.7637427872387802E-2</v>
       </c>
@@ -2147,7 +2225,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -2183,20 +2261,20 @@
         <f t="shared" si="4"/>
         <v>1.7046602277292922</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="58">
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="76">
         <v>-0.104824971018492</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="64">
         <v>-1.46024818061613</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="64">
         <v>0.652876492651698</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="66">
         <v>-6.3455090952697002E-3</v>
       </c>
       <c r="Q12" s="12">
@@ -2215,7 +2293,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="7">
         <v>3</v>
       </c>
@@ -2251,14 +2329,14 @@
         <f t="shared" si="4"/>
         <v>1.8528771399089599</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L13" s="59">
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="87"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="60"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="67"/>
       <c r="Q13" s="13">
         <v>-0.69360879939984899</v>
       </c>
@@ -2275,7 +2353,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="68">
         <v>28</v>
       </c>
       <c r="B14" s="10">
@@ -2317,36 +2395,36 @@
         <f t="shared" si="5"/>
         <v>5.4943361466831562E-14</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="71">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>3.7302354651390701E-2</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="73">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.2322201399103134</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="73">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.85111319342302016</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="75">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>-3.7302354651390701E-2</v>
       </c>
       <c r="Q14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="61">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="54"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="47">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="6">
         <v>1</v>
       </c>
@@ -2386,10 +2464,10 @@
         <f t="shared" si="5"/>
         <v>15.241017762524722</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="59"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="66"/>
       <c r="Q15" s="12">
         <v>-0.36645744143242598</v>
       </c>
@@ -2406,7 +2484,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -2442,20 +2520,20 @@
         <f t="shared" si="4"/>
         <v>0.60597852498165217</v>
       </c>
-      <c r="L16" s="88">
+      <c r="L16" s="58">
         <f t="shared" si="5"/>
         <v>12.693444312828831</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="72">
         <v>-0.25599602913307401</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="64">
         <v>-1.2419024142499</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="64">
         <v>0.85538374952637497</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="66">
         <v>0.347942132695155</v>
       </c>
       <c r="Q16" s="12">
@@ -2474,7 +2552,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="28">
         <v>3</v>
       </c>
@@ -2510,14 +2588,14 @@
         <f t="shared" si="4"/>
         <v>1.0811282729108485</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="60">
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="60"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="67"/>
       <c r="Q17" s="13">
         <v>0.96875826977258095</v>
       </c>
@@ -2534,7 +2612,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="A18" s="68">
         <v>54</v>
       </c>
       <c r="B18" s="10">
@@ -2576,36 +2654,36 @@
         <f t="shared" si="5"/>
         <v>7.5054346470546418E-13</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="71">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-2.5222044975306834E-2</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="73">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-1.396649583736314</v>
       </c>
-      <c r="O18" s="66">
+      <c r="O18" s="73">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>0.68668374959701939</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="75">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>2.5222044975306834E-2</v>
       </c>
       <c r="Q18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="61">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="54"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="47">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -2645,10 +2723,10 @@
         <f t="shared" si="5"/>
         <v>1.0982352701840603</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="59"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="66"/>
       <c r="Q19" s="12">
         <v>-0.97492791218182395</v>
       </c>
@@ -2665,7 +2743,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="6">
         <v>2</v>
       </c>
@@ -2705,16 +2783,16 @@
         <f t="shared" si="5"/>
         <v>189.32564522623034</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="62">
         <v>-0.28508076834840401</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="64">
         <v>-1.23675617757671</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="64">
         <v>0.66058979494532</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P20" s="66">
         <v>-0.22494890238236101</v>
       </c>
       <c r="Q20" s="12">
@@ -2733,7 +2811,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="7">
         <v>3</v>
       </c>
@@ -2773,10 +2851,10 @@
         <f t="shared" si="5"/>
         <v>47.471908953919247</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="60"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="67"/>
       <c r="Q21" s="13">
         <v>0.79122370800502395</v>
       </c>
@@ -2793,7 +2871,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
+      <c r="A22" s="68">
         <v>65</v>
       </c>
       <c r="B22" s="10">
@@ -2835,36 +2913,36 @@
         <f t="shared" si="5"/>
         <v>5.5293279847705724E-13</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="71">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>1.1739570444985466E-2</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="73">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.32321186477652114</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="73">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.7601214685568123</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="75">
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>-1.1739570444985466E-2</v>
       </c>
       <c r="Q22" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="61">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="54"/>
+      <c r="S22" s="61"/>
       <c r="T22" s="47">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="6">
         <v>1</v>
       </c>
@@ -2904,10 +2982,10 @@
         <f t="shared" si="5"/>
         <v>6.0882051645650987</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="59"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="66"/>
       <c r="Q23" s="35">
         <v>-0.97492791218182395</v>
       </c>
@@ -2924,7 +3002,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="6">
         <v>2</v>
       </c>
@@ -2964,16 +3042,16 @@
         <f t="shared" si="5"/>
         <v>5.5017023450664944</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="62">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="64">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="64">
         <v>1.49634410244349</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="66">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q24" s="35">
@@ -2992,7 +3070,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -3032,10 +3110,10 @@
         <f t="shared" si="5"/>
         <v>70.433005295552604</v>
       </c>
-      <c r="M25" s="56"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="60"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="67"/>
       <c r="Q25" s="36">
         <v>0.79122370800502395</v>
       </c>
@@ -3052,7 +3130,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="61">
+      <c r="A26" s="68">
         <v>40</v>
       </c>
       <c r="B26" s="10">
@@ -3094,36 +3172,36 @@
         <f t="shared" ref="L26:L29" si="17">ABS((I26-J26)/I26)*100</f>
         <v>1.2677908622990758E-13</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="71">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-1.0712010084713345E-2</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="73">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-0.77543851138881104</v>
       </c>
-      <c r="O26" s="66">
+      <c r="O26" s="73">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>1.3078948219445226</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="75">
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>1.0712010084713345E-2</v>
       </c>
       <c r="Q26" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="61">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="54"/>
+      <c r="S26" s="61"/>
       <c r="T26" s="47">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="6">
         <v>1</v>
       </c>
@@ -3163,10 +3241,10 @@
         <f t="shared" si="17"/>
         <v>0.67638289986923728</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="59"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="50">
         <v>-0.97492791218182395</v>
       </c>
@@ -3183,7 +3261,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
@@ -3223,16 +3301,16 @@
         <f t="shared" si="17"/>
         <v>0.58991472309042969</v>
       </c>
-      <c r="M28" s="55">
+      <c r="M28" s="62">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="64">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="64">
         <v>1.49634410244349</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="66">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q28" s="50">
@@ -3251,7 +3329,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
@@ -3291,10 +3369,10 @@
         <f t="shared" si="17"/>
         <v>0.21526713587012794</v>
       </c>
-      <c r="M29" s="56"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="60"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="67"/>
       <c r="Q29" s="51">
         <v>0.79122370800502395</v>
       </c>
@@ -3311,7 +3389,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="61">
+      <c r="A30" s="68">
         <v>41</v>
       </c>
       <c r="B30" s="10">
@@ -3353,36 +3431,36 @@
         <f t="shared" ref="L30:L33" si="23">ABS((I30-J30)/I30)*100</f>
         <v>3.1503412759256476E-13</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="71">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>0.4167729392960593</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="73">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.94956463556768067</v>
       </c>
-      <c r="O30" s="66">
+      <c r="O30" s="73">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1337686977656527</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="75">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>-0.4167729392960593</v>
       </c>
       <c r="Q30" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="61">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="54"/>
+      <c r="S30" s="61"/>
       <c r="T30" s="47">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.93406452254290984</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="6">
         <v>1</v>
       </c>
@@ -3422,10 +3500,10 @@
         <f t="shared" si="23"/>
         <v>3.593070083600459</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="59"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="66"/>
       <c r="Q31" s="50">
         <v>-0.97492791218182395</v>
       </c>
@@ -3442,7 +3520,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="6">
         <v>2</v>
       </c>
@@ -3482,16 +3560,16 @@
         <f t="shared" si="23"/>
         <v>2.3740782496313395</v>
       </c>
-      <c r="M32" s="55">
+      <c r="M32" s="62">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="64">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="64">
         <v>1.49634410244349</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="66">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q32" s="50">
@@ -3510,7 +3588,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="7">
         <v>3</v>
       </c>
@@ -3550,10 +3628,10 @@
         <f t="shared" si="23"/>
         <v>0.36582259804552147</v>
       </c>
-      <c r="M33" s="56"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="60"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="67"/>
       <c r="Q33" s="51">
         <v>0.79122370800502395</v>
       </c>
@@ -3569,33 +3647,1668 @@
         <v>9.6071187829449602E-3</v>
       </c>
     </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="68">
+        <v>364</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.16266592302028701</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.170574160934653</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ref="E34:E37" si="24">SQRT(D34*D34+C34*C34)</f>
+        <v>0.23570266627809461</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F37" si="25">1/0.96*(E34-0.04/E34)</f>
+        <v>6.8747219821121544E-2</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" ref="G34:G37" si="26">-F34*D34/E34</f>
+        <v>-4.9751237534760857E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <v>-4.9821272710786499E-2</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" ref="I34:I37" si="27">F34*C34/E34</f>
+        <v>4.7444647715979615E-2</v>
+      </c>
+      <c r="J34" s="9">
+        <v>4.74030964458153E-2</v>
+      </c>
+      <c r="K34" s="41">
+        <f t="shared" ref="K34:K37" si="28">ABS((G34-H34)/G34)*100</f>
+        <v>0.1407707214854875</v>
+      </c>
+      <c r="L34" s="42">
+        <f t="shared" ref="L34:L37" si="29">ABS((I34-J34)/I34)*100</f>
+        <v>8.757841435151098E-2</v>
+      </c>
+      <c r="M34" s="71">
+        <f>-1/12*C34*D34/(D34*D34+C34*C34)^2</f>
+        <v>-0.74915312973798254</v>
+      </c>
+      <c r="N34" s="73">
+        <f>-1/0.96*(1-0.04*(C34*C34-D34*D34)/(C34*C34+D34*D34)^2)</f>
+        <v>-1.077243536808574</v>
+      </c>
+      <c r="O34" s="73">
+        <f>1/0.96*(1-0.04*(D34*D34-C34*C34)/(C34*C34+D34*D34)^2)</f>
+        <v>1.0060897965247595</v>
+      </c>
+      <c r="P34" s="75">
+        <f>1/12*C34*D34/(C34*C34+D34*D34)^2</f>
+        <v>0.74915312973798254</v>
+      </c>
+      <c r="Q34" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S34" s="61"/>
+      <c r="T34" s="47">
+        <f>1/R34*(T35+T36+T37)</f>
+        <v>-2.4115655385880033E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="54">
+        <v>0.16929317254114401</v>
+      </c>
+      <c r="D35" s="54">
+        <v>0.156382989326319</v>
+      </c>
+      <c r="E35" s="54">
+        <f t="shared" si="24"/>
+        <v>0.23046869119184313</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="25"/>
+        <v>5.928054674085266E-2</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="26"/>
+        <v>-4.0224418597996629E-2</v>
+      </c>
+      <c r="H35" s="54">
+        <v>-4.0422691818457701E-2</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="27"/>
+        <v>4.3545141753673973E-2</v>
+      </c>
+      <c r="J35" s="38">
+        <v>4.4621315593747102E-2</v>
+      </c>
+      <c r="K35" s="39">
+        <f t="shared" si="28"/>
+        <v>0.49291755449001512</v>
+      </c>
+      <c r="L35" s="40">
+        <f t="shared" si="29"/>
+        <v>2.4713981783796362</v>
+      </c>
+      <c r="M35" s="72"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R35" s="54">
+        <f>G35</f>
+        <v>-4.0224418597996629E-2</v>
+      </c>
+      <c r="S35" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T35" s="54">
+        <f>PRODUCT(S35,R35,Q35)</f>
+        <v>1.0111910686854858E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.17067558899268601</v>
+      </c>
+      <c r="D36" s="54">
+        <v>0.183800741121391</v>
+      </c>
+      <c r="E36" s="54">
+        <f t="shared" si="24"/>
+        <v>0.25082437902798216</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="25"/>
+        <v>9.5156507860395728E-2</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="26"/>
+        <v>-6.9729412806850896E-2</v>
+      </c>
+      <c r="H36" s="54">
+        <v>-6.9679068746406198E-2</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="27"/>
+        <v>6.4750057743583014E-2</v>
+      </c>
+      <c r="J36" s="38">
+        <v>6.3485586911665004E-2</v>
+      </c>
+      <c r="K36" s="39">
+        <f t="shared" si="28"/>
+        <v>7.2199174520730144E-2</v>
+      </c>
+      <c r="L36" s="40">
+        <f t="shared" si="29"/>
+        <v>1.9528489641282589</v>
+      </c>
+      <c r="M36" s="62">
+        <v>-0.81932865874933403</v>
+      </c>
+      <c r="N36" s="64">
+        <v>-1.02900896566263</v>
+      </c>
+      <c r="O36" s="64">
+        <v>0.97651165749386404</v>
+      </c>
+      <c r="P36" s="66">
+        <v>0.64829219454167797</v>
+      </c>
+      <c r="Q36" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R36" s="54">
+        <f>G36</f>
+        <v>-6.9729412806850896E-2</v>
+      </c>
+      <c r="S36" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T36" s="54">
+        <f>PRODUCT(S36,R36,Q36)</f>
+        <v>-5.2987687574183361E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="70"/>
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="C37" s="55">
+        <v>0.14717614193582401</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.16432717298080901</v>
+      </c>
+      <c r="E37" s="54">
+        <f t="shared" si="24"/>
+        <v>0.22059972016069862</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="25"/>
+        <v>4.0912320215221017E-2</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="26"/>
+        <v>-3.0476040115351988E-2</v>
+      </c>
+      <c r="H37" s="55">
+        <v>-3.1284129024110902E-2</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="27"/>
+        <v>2.7295217974587397E-2</v>
+      </c>
+      <c r="J37" s="55">
+        <v>2.86753663857734E-2</v>
+      </c>
+      <c r="K37" s="43">
+        <f t="shared" si="28"/>
+        <v>2.6515548138809786</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="29"/>
+        <v>5.0563743893562583</v>
+      </c>
+      <c r="M37" s="63"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R37" s="55">
+        <f>G37</f>
+        <v>-3.0476040115351988E-2</v>
+      </c>
+      <c r="S37" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T37" s="55">
+        <f>PRODUCT(S37,R37,Q37)</f>
+        <v>-5.3454037893963984E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="68">
+        <v>1477</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.132780953914101</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.16647370137800099</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" ref="E38:E41" si="30">SQRT(D38*D38+C38*C38)</f>
+        <v>0.21294195212036179</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ref="F38:F41" si="31">1/0.96*(E38-0.04/E38)</f>
+        <v>2.6143054674129057E-2</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" ref="G38:G41" si="32">-F38*D38/E38</f>
+        <v>-2.0438110168492053E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>-2.22358796421399E-2</v>
+      </c>
+      <c r="I38" s="20">
+        <f t="shared" ref="I38:I41" si="33">F38*C38/E38</f>
+        <v>1.6301624472275244E-2</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1.7483603040998299E-2</v>
+      </c>
+      <c r="K38" s="41">
+        <f t="shared" ref="K38:K41" si="34">ABS((G38-H38)/G38)*100</f>
+        <v>8.7961629467059925</v>
+      </c>
+      <c r="L38" s="42">
+        <f t="shared" ref="L38:L41" si="35">ABS((I38-J38)/I38)*100</f>
+        <v>7.2506796530203976</v>
+      </c>
+      <c r="M38" s="71">
+        <f>-1/12*C38*D38/(D38*D38+C38*C38)^2</f>
+        <v>-0.89589115662280894</v>
+      </c>
+      <c r="N38" s="73">
+        <f>-1/0.96*(1-0.04*(C38*C38-D38*D38)/(C38*C38+D38*D38)^2)</f>
+        <v>-1.2459915106056709</v>
+      </c>
+      <c r="O38" s="73">
+        <f>1/0.96*(1-0.04*(D38*D38-C38*C38)/(C38*C38+D38*D38)^2)</f>
+        <v>0.83734182272766244</v>
+      </c>
+      <c r="P38" s="75">
+        <f>1/12*C38*D38/(C38*C38+D38*D38)^2</f>
+        <v>0.89589115662280894</v>
+      </c>
+      <c r="Q38" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S38" s="61"/>
+      <c r="T38" s="47">
+        <f>1/R38*(T39+T40+T41)</f>
+        <v>0.2500691168865119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="54">
+        <v>0.14717614193582401</v>
+      </c>
+      <c r="D39" s="54">
+        <v>0.16432717298080901</v>
+      </c>
+      <c r="E39" s="54">
+        <f t="shared" si="30"/>
+        <v>0.22059972016069862</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="31"/>
+        <v>4.0912320215221017E-2</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="32"/>
+        <v>-3.0476040115351988E-2</v>
+      </c>
+      <c r="H39" s="54">
+        <v>-3.05721185498335E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="33"/>
+        <v>2.7295217974587397E-2</v>
+      </c>
+      <c r="J39" s="38">
+        <v>2.8489952245997499E-2</v>
+      </c>
+      <c r="K39" s="39">
+        <f t="shared" si="34"/>
+        <v>0.31525891854012295</v>
+      </c>
+      <c r="L39" s="40">
+        <f t="shared" si="35"/>
+        <v>4.3770827275401603</v>
+      </c>
+      <c r="M39" s="72"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R39" s="54">
+        <f>G39</f>
+        <v>-3.0476040115351988E-2</v>
+      </c>
+      <c r="S39" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T39" s="54">
+        <f>PRODUCT(S39,R39,Q39)</f>
+        <v>7.6612914860326549E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="54">
+        <v>0.12786195869158301</v>
+      </c>
+      <c r="D40" s="54">
+        <v>0.18030525493814201</v>
+      </c>
+      <c r="E40" s="54">
+        <f t="shared" si="30"/>
+        <v>0.22103996344271429</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="31"/>
+        <v>4.1747095660808725E-2</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="32"/>
+        <v>-3.4053664363728996E-2</v>
+      </c>
+      <c r="H40" s="54">
+        <v>-3.5913816134640703E-2</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="33"/>
+        <v>2.4148870356917495E-2</v>
+      </c>
+      <c r="J40" s="38">
+        <v>2.5007122904801098E-2</v>
+      </c>
+      <c r="K40" s="39">
+        <f t="shared" si="34"/>
+        <v>5.4624129463523428</v>
+      </c>
+      <c r="L40" s="40">
+        <f t="shared" si="35"/>
+        <v>3.5540070206130996</v>
+      </c>
+      <c r="M40" s="62">
+        <v>-0.75102409503844803</v>
+      </c>
+      <c r="N40" s="64">
+        <v>-1.2240644664056901</v>
+      </c>
+      <c r="O40" s="64">
+        <v>0.88608863953621098</v>
+      </c>
+      <c r="P40" s="66">
+        <v>0.83453592960603096</v>
+      </c>
+      <c r="Q40" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R40" s="54">
+        <f>G40</f>
+        <v>-3.4053664363728996E-2</v>
+      </c>
+      <c r="S40" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T40" s="54">
+        <f>PRODUCT(S40,R40,Q40)</f>
+        <v>-2.5877529372857261E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="70"/>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="55">
+        <v>0.12647954224004099</v>
+      </c>
+      <c r="D41" s="53">
+        <v>0.15288750314307001</v>
+      </c>
+      <c r="E41" s="54">
+        <f t="shared" si="30"/>
+        <v>0.19842294026289539</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="31"/>
+        <v>-3.2985978114210999E-3</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="32"/>
+        <v>2.5416132962911889E-3</v>
+      </c>
+      <c r="H41" s="55">
+        <v>0</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.1026053775323383E-3</v>
+      </c>
+      <c r="J41" s="55">
+        <v>0</v>
+      </c>
+      <c r="K41" s="43">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="L41" s="44">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="M41" s="63"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R41" s="55">
+        <f>G41</f>
+        <v>2.5416132962911889E-3</v>
+      </c>
+      <c r="S41" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T41" s="55">
+        <f>PRODUCT(S41,R41,Q41)</f>
+        <v>4.4579116229511107E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
+        <v>2852</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.17715768943628299</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.19617714751179399</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" ref="E42:E45" si="36">SQRT(D42*D42+C42*C42)</f>
+        <v>0.2643299455836714</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42:F45" si="37">1/0.96*(E42-0.04/E42)</f>
+        <v>0.11771241709197607</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" ref="G42:G45" si="38">-F42*D42/E42</f>
+        <v>-8.736235374630559E-2</v>
+      </c>
+      <c r="H42" s="9">
+        <v>-8.7475485322046798E-2</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" ref="I42:I45" si="39">F42*C42/E42</f>
+        <v>7.8892536310735395E-2</v>
+      </c>
+      <c r="J42" s="9">
+        <v>7.8693889002107206E-2</v>
+      </c>
+      <c r="K42" s="41">
+        <f t="shared" ref="K42:K45" si="40">ABS((G42-H42)/G42)*100</f>
+        <v>0.12949694106197462</v>
+      </c>
+      <c r="L42" s="42">
+        <f t="shared" ref="L42:L45" si="41">ABS((I42-J42)/I42)*100</f>
+        <v>0.25179480584294195</v>
+      </c>
+      <c r="M42" s="71">
+        <f>-1/12*C42*D42/(D42*D42+C42*C42)^2</f>
+        <v>-0.59325541444884999</v>
+      </c>
+      <c r="N42" s="73">
+        <f>-1/0.96*(1-0.04*(C42*C42-D42*D42)/(C42*C42+D42*D42)^2)</f>
+        <v>-1.1022704793938467</v>
+      </c>
+      <c r="O42" s="73">
+        <f>1/0.96*(1-0.04*(D42*D42-C42*C42)/(C42*C42+D42*D42)^2)</f>
+        <v>0.98106285393948667</v>
+      </c>
+      <c r="P42" s="75">
+        <f>1/12*C42*D42/(C42*C42+D42*D42)^2</f>
+        <v>0.59325541444884999</v>
+      </c>
+      <c r="Q42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S42" s="61"/>
+      <c r="T42" s="47">
+        <f>1/R42*(T43+T44+T45)</f>
+        <v>-0.29773700889616811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="54">
+        <v>0.17067558899268601</v>
+      </c>
+      <c r="D43" s="54">
+        <v>0.183800741121391</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" si="36"/>
+        <v>0.25082437902798216</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="37"/>
+        <v>9.5156507860395728E-2</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="38"/>
+        <v>-6.9729412806850896E-2</v>
+      </c>
+      <c r="H43" s="54">
+        <v>-6.9755873844883798E-2</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" si="39"/>
+        <v>6.4750057743583014E-2</v>
+      </c>
+      <c r="J43" s="38">
+        <v>6.4201132118491905E-2</v>
+      </c>
+      <c r="K43" s="39">
+        <f t="shared" si="40"/>
+        <v>3.7948172754872077E-2</v>
+      </c>
+      <c r="L43" s="40">
+        <f t="shared" si="41"/>
+        <v>0.84776082712530121</v>
+      </c>
+      <c r="M43" s="72"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R43" s="54">
+        <f>G43</f>
+        <v>-6.9729412806850896E-2</v>
+      </c>
+      <c r="S43" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T43" s="54">
+        <f>PRODUCT(S43,R43,Q43)</f>
+        <v>1.7529093499062454E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="54">
+        <v>0.19079091432554299</v>
+      </c>
+      <c r="D44" s="54">
+        <v>0.19916708732833099</v>
+      </c>
+      <c r="E44" s="54">
+        <f t="shared" si="36"/>
+        <v>0.27580555045906474</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="37"/>
+        <v>0.13622483003270303</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="38"/>
+        <v>-9.8371851379536634E-2</v>
+      </c>
+      <c r="H44" s="54">
+        <v>-9.8239181907517403E-2</v>
+      </c>
+      <c r="I44" s="21">
+        <f t="shared" si="39"/>
+        <v>9.4234723820899396E-2</v>
+      </c>
+      <c r="J44" s="38">
+        <v>9.4359132507671403E-2</v>
+      </c>
+      <c r="K44" s="39">
+        <f t="shared" si="40"/>
+        <v>0.13486527920204333</v>
+      </c>
+      <c r="L44" s="40">
+        <f t="shared" si="41"/>
+        <v>0.13202000465184724</v>
+      </c>
+      <c r="M44" s="62">
+        <v>-0.75102409503844803</v>
+      </c>
+      <c r="N44" s="64">
+        <v>-1.2240644664056901</v>
+      </c>
+      <c r="O44" s="64">
+        <v>0.88608863953621098</v>
+      </c>
+      <c r="P44" s="66">
+        <v>0.83453592960603096</v>
+      </c>
+      <c r="Q44" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R44" s="54">
+        <f>G44</f>
+        <v>-9.8371851379536634E-2</v>
+      </c>
+      <c r="S44" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T44" s="54">
+        <f>PRODUCT(S44,R44,Q44)</f>
+        <v>-7.4753202661140992E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="55">
+        <v>0.16867388372022299</v>
+      </c>
+      <c r="D45" s="53">
+        <v>0.20711127098282101</v>
+      </c>
+      <c r="E45" s="54">
+        <f t="shared" si="36"/>
+        <v>0.26710664090842601</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="37"/>
+        <v>0.12224345704668613</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="38"/>
+        <v>-9.4786103678167227E-2</v>
+      </c>
+      <c r="H45" s="55">
+        <v>-9.5495789160229799E-2</v>
+      </c>
+      <c r="I45" s="22">
+        <f t="shared" si="39"/>
+        <v>7.7194930793652028E-2</v>
+      </c>
+      <c r="J45" s="55">
+        <v>7.7173257560877798E-2</v>
+      </c>
+      <c r="K45" s="43">
+        <f t="shared" si="40"/>
+        <v>0.74872312978726119</v>
+      </c>
+      <c r="L45" s="44">
+        <f t="shared" si="41"/>
+        <v>2.8075979279215228E-2</v>
+      </c>
+      <c r="M45" s="63"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R45" s="55">
+        <f>G45</f>
+        <v>-9.4786103678167227E-2</v>
+      </c>
+      <c r="S45" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T45" s="55">
+        <f>PRODUCT(S45,R45,Q45)</f>
+        <v>-1.6625191326223688E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="68">
+        <v>237</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0.18440870361653799</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.148979292368354</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" ref="E46:E49" si="42">SQRT(D46*D46+C46*C46)</f>
+        <v>0.23706834357228646</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46:F49" si="43">1/0.96*(E46-0.04/E46)</f>
+        <v>7.1188154366406159E-2</v>
+      </c>
+      <c r="G46" s="20">
+        <f t="shared" ref="G46:G49" si="44">-F46*D46/E46</f>
+        <v>-4.4736301366540367E-2</v>
+      </c>
+      <c r="H46" s="9">
+        <v>-4.4646686648069402E-2</v>
+      </c>
+      <c r="I46" s="20">
+        <f t="shared" ref="I46:I49" si="45">F46*C46/E46</f>
+        <v>5.5375235097806591E-2</v>
+      </c>
+      <c r="J46" s="9">
+        <v>5.53780975932169E-2</v>
+      </c>
+      <c r="K46" s="41">
+        <f t="shared" ref="K46:K49" si="46">ABS((G46-H46)/G46)*100</f>
+        <v>0.2003176743126793</v>
+      </c>
+      <c r="L46" s="42">
+        <f t="shared" ref="L46:L49" si="47">ABS((I46-J46)/I46)*100</f>
+        <v>5.1692699909145672E-3</v>
+      </c>
+      <c r="M46" s="71">
+        <f>-1/12*C46*D46/(D46*D46+C46*C46)^2</f>
+        <v>-0.72482274799905011</v>
+      </c>
+      <c r="N46" s="73">
+        <f>-1/0.96*(1-0.04*(C46*C46-D46*D46)/(C46*C46+D46*D46)^2)</f>
+        <v>-0.88585197977901009</v>
+      </c>
+      <c r="O46" s="73">
+        <f>1/0.96*(1-0.04*(D46*D46-C46*C46)/(C46*C46+D46*D46)^2)</f>
+        <v>1.1974813535543234</v>
+      </c>
+      <c r="P46" s="75">
+        <f>1/12*C46*D46/(C46*C46+D46*D46)^2</f>
+        <v>0.72482274799905011</v>
+      </c>
+      <c r="Q46" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S46" s="61"/>
+      <c r="T46" s="47">
+        <f>1/R46*(T47+T48+T49)</f>
+        <v>0.33108809472551159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="54">
+        <v>0.198988077875493</v>
+      </c>
+      <c r="D47" s="54">
+        <v>0.15382021341055599</v>
+      </c>
+      <c r="E47" s="54">
+        <f t="shared" si="42"/>
+        <v>0.25150927058510636</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="43"/>
+        <v>9.6322299307247408E-2</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="44"/>
+        <v>-5.890962429006235E-2</v>
+      </c>
+      <c r="H47" s="54">
+        <v>-5.7907826553650399E-2</v>
+      </c>
+      <c r="I47" s="21">
+        <f t="shared" si="45"/>
+        <v>7.6207883515018657E-2</v>
+      </c>
+      <c r="J47" s="38">
+        <v>7.5901343852150402E-2</v>
+      </c>
+      <c r="K47" s="39">
+        <f t="shared" si="46"/>
+        <v>1.7005671797858459</v>
+      </c>
+      <c r="L47" s="40">
+        <f t="shared" si="47"/>
+        <v>0.40224140696394439</v>
+      </c>
+      <c r="M47" s="72"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R47" s="54">
+        <f>G47</f>
+        <v>-5.890962429006235E-2</v>
+      </c>
+      <c r="S47" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T47" s="54">
+        <f>PRODUCT(S47,R47,Q47)</f>
+        <v>1.4809135350608999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="6">
+        <v>2</v>
+      </c>
+      <c r="C48" s="54">
+        <v>0.16929317254114401</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0.156382989326319</v>
+      </c>
+      <c r="E48" s="54">
+        <f t="shared" si="42"/>
+        <v>0.23046869119184313</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="43"/>
+        <v>5.928054674085266E-2</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="44"/>
+        <v>-4.0224418597996629E-2</v>
+      </c>
+      <c r="H48" s="54">
+        <v>-4.1328236357924902E-2</v>
+      </c>
+      <c r="I48" s="21">
+        <f t="shared" si="45"/>
+        <v>4.3545141753673973E-2</v>
+      </c>
+      <c r="J48" s="38">
+        <v>4.36731455082656E-2</v>
+      </c>
+      <c r="K48" s="39">
+        <f t="shared" si="46"/>
+        <v>2.7441484511183178</v>
+      </c>
+      <c r="L48" s="40">
+        <f t="shared" si="47"/>
+        <v>0.29395645400747134</v>
+      </c>
+      <c r="M48" s="62">
+        <v>-0.75102409503844803</v>
+      </c>
+      <c r="N48" s="64">
+        <v>-1.2240644664056901</v>
+      </c>
+      <c r="O48" s="64">
+        <v>0.88608863953621098</v>
+      </c>
+      <c r="P48" s="66">
+        <v>0.83453592960603096</v>
+      </c>
+      <c r="Q48" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R48" s="54">
+        <f>G48</f>
+        <v>-4.0224418597996629E-2</v>
+      </c>
+      <c r="S48" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T48" s="54">
+        <f>PRODUCT(S48,R48,Q48)</f>
+        <v>-3.0566712664392417E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="70"/>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="55">
+        <v>0.17548863081863</v>
+      </c>
+      <c r="D49" s="53">
+        <v>0.134346645269975</v>
+      </c>
+      <c r="E49" s="54">
+        <f t="shared" si="42"/>
+        <v>0.22100968449797379</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="43"/>
+        <v>4.168972967362114E-2</v>
+      </c>
+      <c r="G49" s="22">
+        <f t="shared" si="44"/>
+        <v>-2.5342216729486704E-2</v>
+      </c>
+      <c r="H49" s="55">
+        <v>-2.6734015754154801E-2</v>
+      </c>
+      <c r="I49" s="22">
+        <f t="shared" si="45"/>
+        <v>3.310295472454583E-2</v>
+      </c>
+      <c r="J49" s="55">
+        <v>3.38277113344271E-2</v>
+      </c>
+      <c r="K49" s="43">
+        <f t="shared" si="46"/>
+        <v>5.4920176854484932</v>
+      </c>
+      <c r="L49" s="44">
+        <f t="shared" si="47"/>
+        <v>2.1894015682650338</v>
+      </c>
+      <c r="M49" s="63"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R49" s="55">
+        <f>G49</f>
+        <v>-2.5342216729486704E-2</v>
+      </c>
+      <c r="S49" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T49" s="55">
+        <f>PRODUCT(S49,R49,Q49)</f>
+        <v>-4.4449469427382815E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="68">
+        <v>265</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.17611626891648099</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.119777285151598</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" ref="E50:E53" si="48">SQRT(D50*D50+C50*C50)</f>
+        <v>0.21298717852337842</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" ref="F50:F53" si="49">1/0.96*(E50-0.04/E50)</f>
+        <v>2.6231715040579813E-2</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" ref="G50:G53" si="50">-F50*D50/E50</f>
+        <v>-1.4751890861290105E-2</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-1.5655313257074099E-2</v>
+      </c>
+      <c r="I50" s="20">
+        <f t="shared" ref="I50:I53" si="51">F50*C50/E50</f>
+        <v>2.169065674401692E-2</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2.3750757772751999E-2</v>
+      </c>
+      <c r="K50" s="41">
+        <f t="shared" ref="K50:K53" si="52">ABS((G50-H50)/G50)*100</f>
+        <v>6.1241125241417755</v>
+      </c>
+      <c r="L50" s="42">
+        <f t="shared" ref="L50:L53" si="53">ABS((I50-J50)/I50)*100</f>
+        <v>9.4976424782681139</v>
+      </c>
+      <c r="M50" s="71">
+        <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
+        <v>-0.85423793511527568</v>
+      </c>
+      <c r="N50" s="73">
+        <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
+        <v>-0.70413118701963817</v>
+      </c>
+      <c r="O50" s="73">
+        <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
+        <v>1.3792021463136952</v>
+      </c>
+      <c r="P50" s="75">
+        <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
+        <v>0.85423793511527568</v>
+      </c>
+      <c r="Q50" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S50" s="61"/>
+      <c r="T50" s="47">
+        <f>1/R50*(T51+T52+T53)</f>
+        <v>0.18112807147188245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="54">
+        <v>0.190222436080876</v>
+      </c>
+      <c r="D51" s="54">
+        <v>0.114067302087277</v>
+      </c>
+      <c r="E51" s="54">
+        <f t="shared" si="48"/>
+        <v>0.22180154326337106</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="49"/>
+        <v>4.3187653150768342E-2</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="50"/>
+        <v>-2.2210391352145184E-2</v>
+      </c>
+      <c r="H51" s="54">
+        <v>-2.3030983868594701E-2</v>
+      </c>
+      <c r="I51" s="21">
+        <f t="shared" si="51"/>
+        <v>3.7038789135926474E-2</v>
+      </c>
+      <c r="J51" s="38">
+        <v>3.9279212352311701E-2</v>
+      </c>
+      <c r="K51" s="39">
+        <f t="shared" si="52"/>
+        <v>3.6946333067213621</v>
+      </c>
+      <c r="L51" s="40">
+        <f t="shared" si="53"/>
+        <v>6.0488565329801416</v>
+      </c>
+      <c r="M51" s="72"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R51" s="54">
+        <f>G51</f>
+        <v>-2.2210391352145184E-2</v>
+      </c>
+      <c r="S51" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T51" s="54">
+        <f>PRODUCT(S51,R51,Q51)</f>
+        <v>5.5834118055884405E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.17548863081863</v>
+      </c>
+      <c r="D52" s="54">
+        <v>0.134346645269975</v>
+      </c>
+      <c r="E52" s="54">
+        <f t="shared" si="48"/>
+        <v>0.22100968449797379</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="49"/>
+        <v>4.168972967362114E-2</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="50"/>
+        <v>-2.5342216729486704E-2</v>
+      </c>
+      <c r="H52" s="54">
+        <v>-2.63582618704498E-2</v>
+      </c>
+      <c r="I52" s="21">
+        <f t="shared" si="51"/>
+        <v>3.310295472454583E-2</v>
+      </c>
+      <c r="J52" s="38">
+        <v>3.2982648593747901E-2</v>
+      </c>
+      <c r="K52" s="39">
+        <f t="shared" si="52"/>
+        <v>4.0092986016526551</v>
+      </c>
+      <c r="L52" s="40">
+        <f t="shared" si="53"/>
+        <v>0.36343018863123316</v>
+      </c>
+      <c r="M52" s="62">
+        <v>-0.75102409503844803</v>
+      </c>
+      <c r="N52" s="64">
+        <v>-1.2240644664056901</v>
+      </c>
+      <c r="O52" s="64">
+        <v>0.88608863953621098</v>
+      </c>
+      <c r="P52" s="66">
+        <v>0.83453592960603096</v>
+      </c>
+      <c r="Q52" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R52" s="54">
+        <f>G52</f>
+        <v>-2.5342216729486704E-2</v>
+      </c>
+      <c r="S52" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T52" s="54">
+        <f>PRODUCT(S52,R52,Q52)</f>
+        <v>-1.9257661988619987E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="70"/>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="55">
+        <v>0.16052753074652701</v>
+      </c>
+      <c r="D53" s="53">
+        <v>0.11663007800304</v>
+      </c>
+      <c r="E53" s="54">
+        <f t="shared" si="48"/>
+        <v>0.19842294026289492</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="49"/>
+        <v>-3.2985978114220831E-3</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="50"/>
+        <v>1.9388671467981287E-3</v>
+      </c>
+      <c r="H53" s="55">
+        <v>0</v>
+      </c>
+      <c r="I53" s="22">
+        <f t="shared" si="51"/>
+        <v>-2.6686216870484736E-3</v>
+      </c>
+      <c r="J53" s="55">
+        <v>0</v>
+      </c>
+      <c r="K53" s="43">
+        <f t="shared" si="52"/>
+        <v>100</v>
+      </c>
+      <c r="L53" s="44">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="M53" s="63"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R53" s="55">
+        <f>G53</f>
+        <v>1.9388671467981287E-3</v>
+      </c>
+      <c r="S53" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T53" s="55">
+        <f>PRODUCT(S53,R53,Q53)</f>
+        <v>3.4007133979358856E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="68">
+        <v>1419</v>
+      </c>
+      <c r="B54" s="10">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>9.1362656029267006E-2</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.19207488331744399</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" ref="E54:E57" si="54">SQRT(D54*D54+C54*C54)</f>
+        <v>0.21269672239630746</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" ref="F54:F57" si="55">1/0.96*(E54-0.04/E54)</f>
+        <v>2.5662006658557383E-2</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" ref="G54:G57" si="56">-F54*D54/E54</f>
+        <v>-2.3173967511590818E-2</v>
+      </c>
+      <c r="H54" s="9">
+        <v>-2.47660064342646E-2</v>
+      </c>
+      <c r="I54" s="20">
+        <f t="shared" ref="I54:I57" si="57">F54*C54/E54</f>
+        <v>1.1022967636511357E-2</v>
+      </c>
+      <c r="J54" s="9">
+        <v>1.18796956014718E-2</v>
+      </c>
+      <c r="K54" s="41">
+        <f t="shared" ref="K54:K57" si="58">ABS((G54-H54)/G54)*100</f>
+        <v>6.8699454328547693</v>
+      </c>
+      <c r="L54" s="42">
+        <f t="shared" ref="L54:L57" si="59">ABS((I54-J54)/I54)*100</f>
+        <v>7.772207931761538</v>
+      </c>
+      <c r="M54" s="71">
+        <f>-1/12*C54*D54/(D54*D54+C54*C54)^2</f>
+        <v>-0.71452077108437129</v>
+      </c>
+      <c r="N54" s="73">
+        <f>-1/0.96*(1-0.04*(C54*C54-D54*D54)/(C54*C54+D54*D54)^2)</f>
+        <v>-1.6228125124004411</v>
+      </c>
+      <c r="O54" s="73">
+        <f>1/0.96*(1-0.04*(D54*D54-C54*C54)/(C54*C54+D54*D54)^2)</f>
+        <v>0.46052082093289243</v>
+      </c>
+      <c r="P54" s="75">
+        <f>1/12*C54*D54/(C54*C54+D54*D54)^2</f>
+        <v>0.71452077108437129</v>
+      </c>
+      <c r="Q54" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" s="61">
+        <v>2.2071216869002101E-2</v>
+      </c>
+      <c r="S54" s="61"/>
+      <c r="T54" s="47">
+        <f>1/R54*(T55+T56+T57)</f>
+        <v>0.2943818876084543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="69"/>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.105607718609916</v>
+      </c>
+      <c r="D55" s="54">
+        <v>0.192951450932385</v>
+      </c>
+      <c r="E55" s="54">
+        <f t="shared" si="54"/>
+        <v>0.21996193454073767</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="55"/>
+        <v>3.9700300230390353E-2</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="56"/>
+        <v>-3.4825255323831572E-2</v>
+      </c>
+      <c r="H55" s="54">
+        <v>-3.5485857118764397E-2</v>
+      </c>
+      <c r="I55" s="21">
+        <f t="shared" si="57"/>
+        <v>1.9060834976807103E-2</v>
+      </c>
+      <c r="J55" s="38">
+        <v>2.0167930096840099E-2</v>
+      </c>
+      <c r="K55" s="39">
+        <f t="shared" si="58"/>
+        <v>1.896904383873282</v>
+      </c>
+      <c r="L55" s="40">
+        <f t="shared" si="59"/>
+        <v>5.8082194267989351</v>
+      </c>
+      <c r="M55" s="72"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="56">
+        <v>-0.97492791218182395</v>
+      </c>
+      <c r="R55" s="54">
+        <f>G55</f>
+        <v>-3.4825255323831572E-2</v>
+      </c>
+      <c r="S55" s="54">
+        <v>0.25785226170875097</v>
+      </c>
+      <c r="T55" s="54">
+        <f>PRODUCT(S55,R55,Q55)</f>
+        <v>8.7546292465005386E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="6">
+        <v>2</v>
+      </c>
+      <c r="C56" s="54">
+        <v>8.2926738549511395E-2</v>
+      </c>
+      <c r="D56" s="54">
+        <v>0.20362431001169901</v>
+      </c>
+      <c r="E56" s="54">
+        <f t="shared" si="54"/>
+        <v>0.21986292000744354</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="55"/>
+        <v>3.9511852401777063E-2</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="56"/>
+        <v>-3.6593590598740164E-2</v>
+      </c>
+      <c r="H56" s="54">
+        <v>-3.8356842277377297E-2</v>
+      </c>
+      <c r="I56" s="21">
+        <f t="shared" si="57"/>
+        <v>1.4902872451699087E-2</v>
+      </c>
+      <c r="J56" s="38">
+        <v>1.49908296678752E-2</v>
+      </c>
+      <c r="K56" s="39">
+        <f t="shared" si="58"/>
+        <v>4.8184713491816726</v>
+      </c>
+      <c r="L56" s="40">
+        <f t="shared" si="59"/>
+        <v>0.59020310655671626</v>
+      </c>
+      <c r="M56" s="62">
+        <v>-0.75102409503844803</v>
+      </c>
+      <c r="N56" s="64">
+        <v>-1.2240644664056901</v>
+      </c>
+      <c r="O56" s="64">
+        <v>0.88608863953621098</v>
+      </c>
+      <c r="P56" s="66">
+        <v>0.83453592960603096</v>
+      </c>
+      <c r="Q56" s="56">
+        <v>0.36645744143242598</v>
+      </c>
+      <c r="R56" s="54">
+        <f>G56</f>
+        <v>-3.6593590598740164E-2</v>
+      </c>
+      <c r="S56" s="54">
+        <v>0.20736497985691299</v>
+      </c>
+      <c r="T56" s="54">
+        <f>PRODUCT(S56,R56,Q56)</f>
+        <v>-2.7807630493528403E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="70"/>
+      <c r="B57" s="7">
+        <v>3</v>
+      </c>
+      <c r="C57" s="55">
+        <v>8.4484378935394594E-2</v>
+      </c>
+      <c r="D57" s="53">
+        <v>0.17953844417971601</v>
+      </c>
+      <c r="E57" s="54">
+        <f t="shared" si="54"/>
+        <v>0.19842294026289486</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="55"/>
+        <v>-3.2985978114221984E-3</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="56"/>
+        <v>2.9846605349800074E-3</v>
+      </c>
+      <c r="H57" s="55">
+        <v>0</v>
+      </c>
+      <c r="I57" s="22">
+        <f t="shared" si="57"/>
+        <v>-1.404474639305451E-3</v>
+      </c>
+      <c r="J57" s="55">
+        <v>0</v>
+      </c>
+      <c r="K57" s="43">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="L57" s="44">
+        <f t="shared" si="59"/>
+        <v>100</v>
+      </c>
+      <c r="M57" s="63"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="57">
+        <v>0.79122370800502395</v>
+      </c>
+      <c r="R57" s="55">
+        <f>G57</f>
+        <v>2.9846605349800074E-3</v>
+      </c>
+      <c r="S57" s="55">
+        <v>0.22167804809623901</v>
+      </c>
+      <c r="T57" s="55">
+        <f>PRODUCT(S57,R57,Q57)</f>
+        <v>5.2350028656469861E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R10:S10"/>
+  <mergeCells count="140">
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
@@ -3605,54 +5318,63 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="P20:P21"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L1048576">
+  <conditionalFormatting sqref="K2:L33 K58:L1048576">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:L37">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:L41">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:L45">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:L49">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:L53">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:L57">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -3663,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -11,21 +11,12 @@
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <r>
       <t>Uφ</t>
@@ -253,6 +244,114 @@
   <si>
     <t>S =</t>
   </si>
+  <si>
+    <t>Поток</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>С'</t>
+  </si>
+  <si>
+    <t>CC'</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>AC'</t>
+  </si>
+  <si>
+    <t>BC'</t>
+  </si>
+  <si>
+    <t>BB'</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>nx</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>l/2</t>
+  </si>
+  <si>
+    <t>U_x nx l</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>фикт</t>
+  </si>
+  <si>
+    <t>на стенке</t>
+  </si>
+  <si>
+    <t>simp</t>
+  </si>
+  <si>
+    <t>U_x</t>
+  </si>
+  <si>
+    <t>U_y</t>
+  </si>
+  <si>
+    <t>U_x ny l</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>61 63</t>
+  </si>
+  <si>
+    <t>69 68</t>
+  </si>
+  <si>
+    <t>U_y nx l</t>
+  </si>
+  <si>
+    <t>U_y ny l</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,8 +403,45 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -771,7 +913,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,130 +1071,307 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,57 +1380,7 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1187,9 +1456,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1482,35 +1748,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="104" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
+    <col min="9" max="9" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.75" style="3" customWidth="1"/>
-    <col min="13" max="14" width="12.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3"/>
+    <col min="13" max="14" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.25" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12" style="3" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="21" max="21" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,10 +1788,10 @@
       <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="98" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1576,16 +1844,16 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="70">
         <v>22</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="99">
         <v>0.39008509039914102</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="99">
         <v>0.24205055766328401</v>
       </c>
       <c r="E2" s="9">
@@ -1618,15 +1886,15 @@
         <f t="shared" ref="L2:L25" si="5">ABS((I2-J2)/I2)*100</f>
         <v>3.3723034059475925E-13</v>
       </c>
-      <c r="M2" s="71">
+      <c r="M2" s="73">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="N2" s="73">
+      <c r="N2" s="75">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="O2" s="73">
+      <c r="O2" s="75">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -1637,24 +1905,24 @@
       <c r="Q2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="61">
+      <c r="R2" s="78">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="61"/>
+      <c r="S2" s="78"/>
       <c r="T2" s="47">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="100">
         <v>0.455713651858564</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="100">
         <v>0.186443664387938</v>
       </c>
       <c r="E3" s="4">
@@ -1687,9 +1955,9 @@
         <f t="shared" si="5"/>
         <v>0.72551978764627878</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="12">
         <v>0.45244023302814301</v>
@@ -1707,14 +1975,14 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="100">
         <v>0.43767799115533501</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="100">
         <v>0.30855667592349001</v>
       </c>
       <c r="E4" s="4">
@@ -1747,13 +2015,13 @@
         <f t="shared" si="5"/>
         <v>1.1629029749998882E-2</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="74">
         <v>-0.35902692542820103</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="66">
         <v>-1.0914897024077701</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="66">
         <v>1.0420345935290301</v>
       </c>
       <c r="P4" s="87">
@@ -1775,14 +2043,14 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="101">
         <v>0.30970835329033097</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="101">
         <v>0.24363297654796201</v>
       </c>
       <c r="E5" s="23">
@@ -1815,9 +2083,9 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="88"/>
       <c r="Q5" s="13">
         <v>-0.98926814124435303</v>
@@ -1835,16 +2103,16 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6" s="79">
         <v>24</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="99">
         <v>-0.255332276066292</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="99">
         <v>0.38315658724893098</v>
       </c>
       <c r="E6" s="9">
@@ -1877,43 +2145,43 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="92">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="75">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.1173271853216982</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="75">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="90">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.18139049879196079</v>
       </c>
       <c r="Q6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6" s="78">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="61"/>
+      <c r="S6" s="78"/>
       <c r="T6" s="47">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="100">
         <v>-0.17744148364248699</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="100">
         <v>0.36711642110216602</v>
       </c>
       <c r="E7" s="4">
@@ -1942,14 +2210,14 @@
         <f t="shared" si="4"/>
         <v>1.5395663487402982</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="55">
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="81"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="91"/>
       <c r="Q7" s="12">
         <v>0.72378501135020201</v>
       </c>
@@ -1966,14 +2234,14 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="100">
         <v>-0.26553950968668799</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="100">
         <v>0.45090976790111398</v>
       </c>
       <c r="E8" s="4">
@@ -2006,16 +2274,16 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="95">
         <v>0.107045965641376</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <v>-1.4426364972369801</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="66">
         <v>0.67080947092479504</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="68">
         <v>3.5326281585875897E-2</v>
       </c>
       <c r="Q8" s="12">
@@ -2034,14 +2302,14 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="102">
         <v>-0.34109928043973198</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="102">
         <v>0.37165323940784301</v>
       </c>
       <c r="E9" s="5">
@@ -2070,14 +2338,14 @@
         <f t="shared" si="4"/>
         <v>1.7444810036147733</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="55">
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="82"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="94"/>
       <c r="Q9" s="13">
         <v>-0.68918261371289802</v>
       </c>
@@ -2094,16 +2362,16 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="70">
         <v>26</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="99">
         <v>-0.252117006049625</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="99">
         <v>-0.38144217538499098</v>
       </c>
       <c r="E10" s="9">
@@ -2136,43 +2404,43 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="92">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
-      <c r="N10" s="73">
+      <c r="N10" s="75">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-1.119777714966725</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="75">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>0.96355561836660841</v>
       </c>
-      <c r="P10" s="75">
+      <c r="P10" s="77">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.18335935345765342</v>
       </c>
       <c r="Q10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="61">
+      <c r="R10" s="78">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="47">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="100">
         <v>-0.262365946593558</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="100">
         <v>-0.44920391905367901</v>
       </c>
       <c r="E11" s="4">
@@ -2205,10 +2473,10 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="66"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="68"/>
       <c r="Q11" s="12">
         <v>1.7637427872387802E-2</v>
       </c>
@@ -2225,14 +2493,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="100">
         <v>-0.17537398139614799</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="100">
         <v>-0.365441532815589</v>
       </c>
       <c r="E12" s="4">
@@ -2261,20 +2529,20 @@
         <f t="shared" si="4"/>
         <v>1.7046602277292922</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="55">
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="95">
         <v>-0.104824971018492</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <v>-1.46024818061613</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="66">
         <v>0.652876492651698</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="68">
         <v>-6.3455090952697002E-3</v>
       </c>
       <c r="Q12" s="12">
@@ -2293,14 +2561,14 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="102">
         <v>-0.33585821510026498</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="102">
         <v>-0.36827250227382902</v>
       </c>
       <c r="E13" s="5">
@@ -2329,14 +2597,14 @@
         <f t="shared" si="4"/>
         <v>1.8528771399089599</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="56">
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="67"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="69"/>
       <c r="Q13" s="13">
         <v>-0.69360879939984899</v>
       </c>
@@ -2353,16 +2621,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="70">
         <v>28</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="99">
         <v>4.4705238141269803E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="99">
         <v>-0.46107454876618398</v>
       </c>
       <c r="E14" s="9">
@@ -2395,43 +2663,43 @@
         <f t="shared" si="5"/>
         <v>5.4943361466831562E-14</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="73">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>3.7302354651390701E-2</v>
       </c>
-      <c r="N14" s="73">
+      <c r="N14" s="75">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.2322201399103134</v>
       </c>
-      <c r="O14" s="73">
+      <c r="O14" s="75">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.85111319342302016</v>
       </c>
-      <c r="P14" s="75">
+      <c r="P14" s="77">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>-3.7302354651390701E-2</v>
       </c>
       <c r="Q14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14" s="78">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="61"/>
+      <c r="S14" s="78"/>
       <c r="T14" s="47">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="100">
         <v>-5.4119146290735297E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="100">
         <v>-0.40837772961491298</v>
       </c>
       <c r="E15" s="4">
@@ -2464,10 +2732,10 @@
         <f t="shared" si="5"/>
         <v>15.241017762524722</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="66"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="12">
         <v>-0.36645744143242598</v>
       </c>
@@ -2484,14 +2752,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="100">
         <v>2.54441154194847E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="100">
         <v>-0.52890678002862102</v>
       </c>
       <c r="E16" s="4">
@@ -2520,20 +2788,20 @@
         <f t="shared" si="4"/>
         <v>0.60597852498165217</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="55">
         <f t="shared" si="5"/>
         <v>12.693444312828831</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="74">
         <v>-0.25599602913307401</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="66">
         <v>-1.2419024142499</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="66">
         <v>0.85538374952637497</v>
       </c>
-      <c r="P16" s="66">
+      <c r="P16" s="68">
         <v>0.347942132695155</v>
       </c>
       <c r="Q16" s="12">
@@ -2552,14 +2820,14 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="101">
         <v>0.12191391367985201</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="101">
         <v>-0.490911560048095</v>
       </c>
       <c r="E17" s="23">
@@ -2588,14 +2856,14 @@
         <f t="shared" si="4"/>
         <v>1.0811282729108485</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="57">
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="94"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="67"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="13">
         <v>0.96875826977258095</v>
       </c>
@@ -2612,28 +2880,28 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="70">
         <v>54</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="99">
         <v>-1.2132952332388E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="99">
         <v>-0.34195638972249698</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" ref="E18:E21" si="6">SQRT(D18*D18+C18*C18)</f>
+        <f t="shared" ref="E18:E60" si="6">SQRT(D18*D18+C18*C18)</f>
         <v>0.34217156662169379</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18:F21" si="7">1/0.96*(E18-0.04/E18)</f>
+        <f t="shared" ref="F18:F61" si="7">1/0.96*(E18-0.04/E18)</f>
         <v>0.23465744394136334</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" ref="G18:G21" si="8">-F18*D18/E18</f>
+        <f t="shared" ref="G18:G61" si="8">-F18*D18/E18</f>
         <v>0.23450987802389311</v>
       </c>
       <c r="H18" s="9">
@@ -2654,43 +2922,43 @@
         <f t="shared" si="5"/>
         <v>7.5054346470546418E-13</v>
       </c>
-      <c r="M18" s="71">
+      <c r="M18" s="73">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-2.5222044975306834E-2</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="75">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-1.396649583736314</v>
       </c>
-      <c r="O18" s="73">
+      <c r="O18" s="75">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>0.68668374959701939</v>
       </c>
-      <c r="P18" s="75">
+      <c r="P18" s="77">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>2.5222044975306834E-2</v>
       </c>
       <c r="Q18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18" s="78">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="61"/>
+      <c r="S18" s="78"/>
       <c r="T18" s="47">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="100">
         <v>-7.3192949840351698E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="100">
         <v>-0.32067926601590202</v>
       </c>
       <c r="E19" s="4">
@@ -2723,10 +2991,10 @@
         <f t="shared" si="5"/>
         <v>1.0982352701840603</v>
       </c>
-      <c r="M19" s="72"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="66"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="68"/>
       <c r="Q19" s="12">
         <v>-0.97492791218182395</v>
       </c>
@@ -2743,14 +3011,14 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="100">
         <v>-5.4119146290735297E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="100">
         <v>-0.40837772961491298</v>
       </c>
       <c r="E20" s="4">
@@ -2783,16 +3051,16 @@
         <f t="shared" si="5"/>
         <v>189.32564522623034</v>
       </c>
-      <c r="M20" s="62">
+      <c r="M20" s="64">
         <v>-0.28508076834840401</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="66">
         <v>-1.23675617757671</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="66">
         <v>0.66058979494532</v>
       </c>
-      <c r="P20" s="66">
+      <c r="P20" s="68">
         <v>-0.22494890238236101</v>
       </c>
       <c r="Q20" s="12">
@@ -2811,14 +3079,14 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="7">
         <v>3</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="102">
         <v>2.3276848420015799E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="102">
         <v>-0.282684046035376</v>
       </c>
       <c r="E21" s="5">
@@ -2851,10 +3119,10 @@
         <f t="shared" si="5"/>
         <v>47.471908953919247</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="67"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="69"/>
       <c r="Q21" s="13">
         <v>0.79122370800502395</v>
       </c>
@@ -2871,28 +3139,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="68">
+      <c r="A22" s="70">
         <v>65</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="99">
         <v>-0.24079705792397901</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="99">
         <v>1.96718384523707E-3</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ref="E22:E25" si="9">SQRT(D22*D22+C22*C22)</f>
+        <f t="shared" si="6"/>
         <v>0.24080509321259189</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F25" si="10">1/0.96*(E22-0.04/E22)</f>
+        <f t="shared" si="7"/>
         <v>7.7807968560963697E-2</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" ref="G22:G25" si="11">-F22*D22/E22</f>
+        <f t="shared" si="8"/>
         <v>-6.3562849415611051E-4</v>
       </c>
       <c r="H22" s="9">
@@ -2913,55 +3181,55 @@
         <f t="shared" si="5"/>
         <v>5.5293279847705724E-13</v>
       </c>
-      <c r="M22" s="71">
+      <c r="M22" s="73">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>1.1739570444985466E-2</v>
       </c>
-      <c r="N22" s="73">
+      <c r="N22" s="75">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.32321186477652114</v>
       </c>
-      <c r="O22" s="73">
+      <c r="O22" s="75">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.7601214685568123</v>
       </c>
-      <c r="P22" s="75">
+      <c r="P22" s="77">
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>-1.1739570444985466E-2</v>
       </c>
       <c r="Q22" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R22" s="61">
+      <c r="R22" s="78">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="61"/>
+      <c r="S22" s="78"/>
       <c r="T22" s="47">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="100">
         <v>-0.29855670697977099</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="100">
         <v>4.6246845220202899E-2</v>
       </c>
       <c r="E23" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.30211732485149911</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1767900309942696</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-2.7062271929905481E-2</v>
       </c>
       <c r="H23" s="48">
@@ -2982,10 +3250,10 @@
         <f t="shared" si="5"/>
         <v>6.0882051645650987</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="66"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="68"/>
       <c r="Q23" s="35">
         <v>-0.97492791218182395</v>
       </c>
@@ -3002,26 +3270,26 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="6">
         <v>2</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="100">
         <v>-0.29855670697976999</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="100">
         <v>-4.0529902603308597E-2</v>
       </c>
       <c r="E24" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.30129517136462364</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17555728676318713</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.3615777516733653E-2</v>
       </c>
       <c r="H24" s="34">
@@ -3042,16 +3310,16 @@
         <f t="shared" si="5"/>
         <v>5.5017023450664944</v>
       </c>
-      <c r="M24" s="62">
+      <c r="M24" s="64">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="66">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="66">
         <v>1.49634410244349</v>
       </c>
-      <c r="P24" s="66">
+      <c r="P24" s="68">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q24" s="35">
@@ -3070,26 +3338,26 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="102">
         <v>-0.180193773580483</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="103">
         <v>-7.7715611723760899E-16</v>
       </c>
       <c r="E25" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.180193773580483</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-4.3530707556735937E-2</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-1.8774319996294773E-16</v>
       </c>
       <c r="H25" s="37">
@@ -3110,10 +3378,10 @@
         <f t="shared" si="5"/>
         <v>70.433005295552604</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="67"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="69"/>
       <c r="Q25" s="36">
         <v>0.79122370800502395</v>
       </c>
@@ -3130,121 +3398,121 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
+      <c r="A26" s="70">
         <v>40</v>
       </c>
       <c r="B26" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="99">
         <v>0.39537022096621299</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="99">
         <v>7.9508815015409007E-3</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" ref="E26:E29" si="12">SQRT(D26*D26+C26*C26)</f>
+        <f t="shared" si="6"/>
         <v>0.39545015886142165</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F29" si="13">1/0.96*(E26-0.04/E26)</f>
+        <f t="shared" si="7"/>
         <v>0.30656209537306905</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" ref="G26:G29" si="14">-F26*D26/E26</f>
+        <f t="shared" si="8"/>
         <v>-6.1637069515744162E-3</v>
       </c>
       <c r="H26" s="9">
         <v>-6.1637069515744197E-3</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" ref="I26:I29" si="15">F26*C26/E26</f>
+        <f t="shared" ref="I26:I60" si="9">F26*C26/E26</f>
         <v>0.30650012567067864</v>
       </c>
       <c r="J26" s="9">
         <v>0.30650012567067902</v>
       </c>
       <c r="K26" s="41">
-        <f t="shared" ref="K26:K29" si="16">ABS((G26-H26)/G26)*100</f>
+        <f t="shared" ref="K26:K57" si="10">ABS((G26-H26)/G26)*100</f>
         <v>5.6288317715484534E-14</v>
       </c>
       <c r="L26" s="42">
-        <f t="shared" ref="L26:L29" si="17">ABS((I26-J26)/I26)*100</f>
+        <f t="shared" ref="L26:L57" si="11">ABS((I26-J26)/I26)*100</f>
         <v>1.2677908622990758E-13</v>
       </c>
-      <c r="M26" s="71">
+      <c r="M26" s="73">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-1.0712010084713345E-2</v>
       </c>
-      <c r="N26" s="73">
+      <c r="N26" s="75">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-0.77543851138881104</v>
       </c>
-      <c r="O26" s="73">
+      <c r="O26" s="75">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>1.3078948219445226</v>
       </c>
-      <c r="P26" s="75">
+      <c r="P26" s="77">
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>1.0712010084713345E-2</v>
       </c>
       <c r="Q26" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="61">
+      <c r="R26" s="78">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="61"/>
+      <c r="S26" s="78"/>
       <c r="T26" s="47">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="6">
         <v>1</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="100">
         <v>0.43740138094217501</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="100">
         <v>-4.9015814875987898E-2</v>
       </c>
       <c r="E27" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.44013920315972627</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.36381131681019985</v>
       </c>
       <c r="G27" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>4.051560966744136E-2</v>
       </c>
       <c r="H27" s="48">
         <v>4.3588135281183202E-2</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.36154828116372939</v>
       </c>
       <c r="J27" s="38">
         <v>0.36399373191229201</v>
       </c>
       <c r="K27" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>7.5835601116745517</v>
       </c>
       <c r="L27" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.67638289986923728</v>
       </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="66"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="68"/>
       <c r="Q27" s="50">
         <v>-0.97492791218182395</v>
       </c>
@@ -3261,56 +3529,56 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="100">
         <v>0.439311549274363</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="100">
         <v>6.3484214904851705E-2</v>
       </c>
       <c r="E28" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.44387485045666469</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.36849933298197923</v>
       </c>
       <c r="G28" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-5.270379888217256E-2</v>
       </c>
       <c r="H28" s="48">
         <v>-5.51047832874694E-2</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.36471093758146478</v>
       </c>
       <c r="J28" s="38">
         <v>0.36686242109897899</v>
       </c>
       <c r="K28" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>4.5556192460900382</v>
       </c>
       <c r="L28" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.58991472309042969</v>
       </c>
-      <c r="M28" s="62">
+      <c r="M28" s="64">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="66">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="66">
         <v>1.49634410244349</v>
       </c>
-      <c r="P28" s="66">
+      <c r="P28" s="68">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q28" s="50">
@@ -3329,50 +3597,50 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="102">
         <v>0.32583384566137102</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="103">
         <v>9.0199352315710607E-3</v>
       </c>
       <c r="E29" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.32595866948136215</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.21171221363314055</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-5.8585048765289966E-3</v>
       </c>
       <c r="H29" s="49">
         <v>-6.74027903468815E-3</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.21163113977403286</v>
       </c>
       <c r="J29" s="49">
         <v>0.21117556748083199</v>
       </c>
       <c r="K29" s="43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>15.051180749064773</v>
       </c>
       <c r="L29" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.21526713587012794</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="67"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="69"/>
       <c r="Q29" s="51">
         <v>0.79122370800502395</v>
       </c>
@@ -3389,121 +3657,121 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
+      <c r="A30" s="70">
         <v>41</v>
       </c>
       <c r="B30" s="10">
         <v>0</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="99">
         <v>0.243601890128918</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="99">
         <v>-0.19564603142567499</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" ref="E30:E33" si="18">SQRT(D30*D30+C30*C30)</f>
+        <f t="shared" si="6"/>
         <v>0.31244079517085738</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ref="F30:F33" si="19">1/0.96*(E30-0.04/E30)</f>
+        <f t="shared" si="7"/>
         <v>0.19210056278918622</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" ref="G30:G33" si="20">-F30*D30/E30</f>
+        <f t="shared" si="8"/>
         <v>0.12029067050540065</v>
       </c>
       <c r="H30" s="9">
         <v>0.1202906705054</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ref="I30:I33" si="21">F30*C30/E30</f>
+        <f t="shared" si="9"/>
         <v>0.14977576844497648</v>
       </c>
       <c r="J30" s="9">
         <v>0.149775768444976</v>
       </c>
       <c r="K30" s="41">
-        <f t="shared" ref="K30:K33" si="22">ABS((G30-H30)/G30)*100</f>
+        <f t="shared" si="10"/>
         <v>5.4223326233599748E-13</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" ref="L30:L33" si="23">ABS((I30-J30)/I30)*100</f>
+        <f t="shared" si="11"/>
         <v>3.1503412759256476E-13</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="73">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>0.4167729392960593</v>
       </c>
-      <c r="N30" s="73">
+      <c r="N30" s="75">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.94956463556768067</v>
       </c>
-      <c r="O30" s="73">
+      <c r="O30" s="75">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1337686977656527</v>
       </c>
-      <c r="P30" s="75">
+      <c r="P30" s="77">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>-0.4167729392960593</v>
       </c>
       <c r="Q30" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="61">
+      <c r="R30" s="78">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="61"/>
+      <c r="S30" s="78"/>
       <c r="T30" s="47">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.93406452254290984</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="100">
         <v>0.208185326479425</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="100">
         <v>-0.26105614228856</v>
       </c>
       <c r="E31" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.33390333868940225</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.22302936491459432</v>
       </c>
       <c r="G31" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0.17437137900508048</v>
       </c>
       <c r="H31" s="48">
         <v>5</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.1390565345392796</v>
       </c>
       <c r="J31" s="38">
         <v>0.144052933281102</v>
       </c>
       <c r="K31" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>2767.4430566121291</v>
       </c>
       <c r="L31" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>3.593070083600459</v>
       </c>
-      <c r="M31" s="72"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="66"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="68"/>
       <c r="Q31" s="50">
         <v>-0.97492791218182395</v>
       </c>
@@ -3520,56 +3788,56 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="6">
         <v>2</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="100">
         <v>0.30779818495814298</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="100">
         <v>-0.23461304131639099</v>
       </c>
       <c r="E32" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.38701808978296326</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.29548307063851564</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0.17912387996872345</v>
       </c>
       <c r="H32" s="48">
         <v>0.16907534403736699</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.23499974608266361</v>
       </c>
       <c r="J32" s="38">
         <v>0.240578823941101</v>
       </c>
       <c r="K32" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>5.6098248503276178</v>
       </c>
       <c r="L32" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>2.3740782496313395</v>
       </c>
-      <c r="M32" s="62">
+      <c r="M32" s="64">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="66">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O32" s="64">
+      <c r="O32" s="66">
         <v>1.49634410244349</v>
       </c>
-      <c r="P32" s="66">
+      <c r="P32" s="68">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q32" s="50">
@@ -3588,50 +3856,50 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="7">
         <v>3</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="102">
         <v>0.224310818850464</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="103">
         <v>-0.129923195521437</v>
       </c>
       <c r="E33" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.25922071712705991</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.10928339888490782</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>5.4773586609636382E-2</v>
       </c>
       <c r="H33" s="49">
         <v>5.7055193492655101E-2</v>
       </c>
       <c r="I33" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>9.4565931929815689E-2</v>
       </c>
       <c r="J33" s="49">
         <v>9.49118754788673E-2</v>
       </c>
       <c r="K33" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>4.165523976509717</v>
       </c>
       <c r="L33" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0.36582259804552147</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="69"/>
       <c r="Q33" s="51">
         <v>0.79122370800502395</v>
       </c>
@@ -3648,1631 +3916,2424 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
+      <c r="A34" s="70">
         <v>364</v>
       </c>
       <c r="B34" s="10">
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="99">
         <v>0.16266592302028701</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="99">
         <v>0.170574160934653</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E37" si="24">SQRT(D34*D34+C34*C34)</f>
+        <f t="shared" si="6"/>
         <v>0.23570266627809461</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F37" si="25">1/0.96*(E34-0.04/E34)</f>
+        <f t="shared" si="7"/>
         <v>6.8747219821121544E-2</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" ref="G34:G37" si="26">-F34*D34/E34</f>
+        <f t="shared" si="8"/>
         <v>-4.9751237534760857E-2</v>
       </c>
       <c r="H34" s="9">
         <v>-4.9821272710786499E-2</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" ref="I34:I37" si="27">F34*C34/E34</f>
+        <f t="shared" si="9"/>
         <v>4.7444647715979615E-2</v>
       </c>
       <c r="J34" s="9">
         <v>4.74030964458153E-2</v>
       </c>
       <c r="K34" s="41">
-        <f t="shared" ref="K34:K37" si="28">ABS((G34-H34)/G34)*100</f>
+        <f t="shared" si="10"/>
         <v>0.1407707214854875</v>
       </c>
       <c r="L34" s="42">
-        <f t="shared" ref="L34:L37" si="29">ABS((I34-J34)/I34)*100</f>
+        <f t="shared" si="11"/>
         <v>8.757841435151098E-2</v>
       </c>
-      <c r="M34" s="71">
+      <c r="M34" s="73">
         <f>-1/12*C34*D34/(D34*D34+C34*C34)^2</f>
         <v>-0.74915312973798254</v>
       </c>
-      <c r="N34" s="73">
+      <c r="N34" s="75">
         <f>-1/0.96*(1-0.04*(C34*C34-D34*D34)/(C34*C34+D34*D34)^2)</f>
         <v>-1.077243536808574</v>
       </c>
-      <c r="O34" s="73">
+      <c r="O34" s="75">
         <f>1/0.96*(1-0.04*(D34*D34-C34*C34)/(C34*C34+D34*D34)^2)</f>
         <v>1.0060897965247595</v>
       </c>
-      <c r="P34" s="75">
+      <c r="P34" s="77">
         <f>1/12*C34*D34/(C34*C34+D34*D34)^2</f>
         <v>0.74915312973798254</v>
       </c>
-      <c r="Q34" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R34" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S34" s="61"/>
-      <c r="T34" s="47">
-        <f>1/R34*(T35+T36+T37)</f>
-        <v>-2.4115655385880033E-2</v>
-      </c>
+      <c r="Q34" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="47"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="6">
         <v>1</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="100">
         <v>0.16929317254114401</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="100">
         <v>0.156382989326319</v>
       </c>
-      <c r="E35" s="54">
-        <f t="shared" si="24"/>
+      <c r="E35" s="53">
+        <f t="shared" si="6"/>
         <v>0.23046869119184313</v>
       </c>
       <c r="F35" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>5.928054674085266E-2</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>-4.0224418597996629E-2</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="53">
         <v>-4.0422691818457701E-2</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>4.3545141753673973E-2</v>
       </c>
       <c r="J35" s="38">
         <v>4.4621315593747102E-2</v>
       </c>
       <c r="K35" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>0.49291755449001512</v>
       </c>
       <c r="L35" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>2.4713981783796362</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R35" s="54">
-        <f>G35</f>
-        <v>-4.0224418597996629E-2</v>
-      </c>
-      <c r="S35" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T35" s="54">
-        <f>PRODUCT(S35,R35,Q35)</f>
-        <v>1.0111910686854858E-2</v>
-      </c>
+      <c r="M35" s="74"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="62">
+        <v>-4.2545420685385204E-3</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="6">
         <v>2</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="100">
         <v>0.17067558899268601</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="100">
         <v>0.183800741121391</v>
       </c>
-      <c r="E36" s="54">
-        <f t="shared" si="24"/>
+      <c r="E36" s="53">
+        <f t="shared" si="6"/>
         <v>0.25082437902798216</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>9.5156507860395728E-2</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>-6.9729412806850896E-2</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="53">
         <v>-6.9679068746406198E-2</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>6.4750057743583014E-2</v>
       </c>
       <c r="J36" s="38">
         <v>6.3485586911665004E-2</v>
       </c>
       <c r="K36" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>7.2199174520730144E-2</v>
       </c>
       <c r="L36" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>1.9528489641282589</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="64">
         <v>-0.81932865874933403</v>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="66">
         <v>-1.02900896566263</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="66">
         <v>0.97651165749386404</v>
       </c>
-      <c r="P36" s="66">
+      <c r="P36" s="68">
         <v>0.64829219454167797</v>
       </c>
-      <c r="Q36" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R36" s="54">
-        <f>G36</f>
-        <v>-6.9729412806850896E-2</v>
-      </c>
-      <c r="S36" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T36" s="54">
-        <f>PRODUCT(S36,R36,Q36)</f>
-        <v>-5.2987687574183361E-3</v>
-      </c>
+      <c r="Q36" s="62">
+        <v>1.7049478150453099E-3</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="7">
         <v>3</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="102">
         <v>0.14717614193582401</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="103">
         <v>0.16432717298080901</v>
       </c>
-      <c r="E37" s="54">
-        <f t="shared" si="24"/>
+      <c r="E37" s="53">
+        <f t="shared" si="6"/>
         <v>0.22059972016069862</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>4.0912320215221017E-2</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>-3.0476040115351988E-2</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="54">
         <v>-3.1284129024110902E-2</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>2.7295217974587397E-2</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="54">
         <v>2.86753663857734E-2</v>
       </c>
       <c r="K37" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>2.6515548138809786</v>
       </c>
       <c r="L37" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>5.0563743893562583</v>
       </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R37" s="55">
-        <f>G37</f>
-        <v>-3.0476040115351988E-2</v>
-      </c>
-      <c r="S37" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T37" s="55">
-        <f>PRODUCT(S37,R37,Q37)</f>
-        <v>-5.3454037893963984E-3</v>
-      </c>
+      <c r="M37" s="65"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="63">
+        <v>2.0125580093833398E-3</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+      <c r="A38" s="70">
         <v>1477</v>
       </c>
       <c r="B38" s="10">
         <v>0</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="99">
         <v>0.132780953914101</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="99">
         <v>0.16647370137800099</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" ref="E38:E41" si="30">SQRT(D38*D38+C38*C38)</f>
+        <f t="shared" si="6"/>
         <v>0.21294195212036179</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38:F41" si="31">1/0.96*(E38-0.04/E38)</f>
+        <f t="shared" si="7"/>
         <v>2.6143054674129057E-2</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" ref="G38:G41" si="32">-F38*D38/E38</f>
+        <f t="shared" si="8"/>
         <v>-2.0438110168492053E-2</v>
       </c>
       <c r="H38" s="9">
         <v>-2.22358796421399E-2</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" ref="I38:I41" si="33">F38*C38/E38</f>
+        <f t="shared" si="9"/>
         <v>1.6301624472275244E-2</v>
       </c>
       <c r="J38" s="9">
         <v>1.7483603040998299E-2</v>
       </c>
       <c r="K38" s="41">
-        <f t="shared" ref="K38:K41" si="34">ABS((G38-H38)/G38)*100</f>
+        <f t="shared" si="10"/>
         <v>8.7961629467059925</v>
       </c>
       <c r="L38" s="42">
-        <f t="shared" ref="L38:L41" si="35">ABS((I38-J38)/I38)*100</f>
+        <f t="shared" si="11"/>
         <v>7.2506796530203976</v>
       </c>
-      <c r="M38" s="71">
+      <c r="M38" s="73">
         <f>-1/12*C38*D38/(D38*D38+C38*C38)^2</f>
         <v>-0.89589115662280894</v>
       </c>
-      <c r="N38" s="73">
+      <c r="N38" s="75">
         <f>-1/0.96*(1-0.04*(C38*C38-D38*D38)/(C38*C38+D38*D38)^2)</f>
         <v>-1.2459915106056709</v>
       </c>
-      <c r="O38" s="73">
+      <c r="O38" s="75">
         <f>1/0.96*(1-0.04*(D38*D38-C38*C38)/(C38*C38+D38*D38)^2)</f>
         <v>0.83734182272766244</v>
       </c>
-      <c r="P38" s="75">
+      <c r="P38" s="77">
         <f>1/12*C38*D38/(C38*C38+D38*D38)^2</f>
         <v>0.89589115662280894</v>
       </c>
-      <c r="Q38" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R38" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S38" s="61"/>
-      <c r="T38" s="47">
-        <f>1/R38*(T39+T40+T41)</f>
-        <v>0.2500691168865119</v>
-      </c>
+      <c r="Q38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="47"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="6">
         <v>1</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="100">
         <v>0.14717614193582401</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="100">
         <v>0.16432717298080901</v>
       </c>
-      <c r="E39" s="54">
-        <f t="shared" si="30"/>
+      <c r="E39" s="53">
+        <f t="shared" si="6"/>
         <v>0.22059972016069862</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="7"/>
         <v>4.0912320215221017E-2</v>
       </c>
       <c r="G39" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v>-3.0476040115351988E-2</v>
       </c>
-      <c r="H39" s="54">
+      <c r="H39" s="53">
         <v>-3.05721185498335E-2</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="9"/>
         <v>2.7295217974587397E-2</v>
       </c>
       <c r="J39" s="38">
         <v>2.8489952245997499E-2</v>
       </c>
       <c r="K39" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="10"/>
         <v>0.31525891854012295</v>
       </c>
       <c r="L39" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="11"/>
         <v>4.3770827275401603</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R39" s="54">
-        <f>G39</f>
-        <v>-3.0476040115351988E-2</v>
-      </c>
-      <c r="S39" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T39" s="54">
-        <f>PRODUCT(S39,R39,Q39)</f>
-        <v>7.6612914860326549E-3</v>
-      </c>
+      <c r="M39" s="74"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="62">
+        <v>-2.0144207752970699E-3</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="6">
         <v>2</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="100">
         <v>0.12786195869158301</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="100">
         <v>0.18030525493814201</v>
       </c>
-      <c r="E40" s="54">
-        <f t="shared" si="30"/>
+      <c r="E40" s="53">
+        <f t="shared" si="6"/>
         <v>0.22103996344271429</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="7"/>
         <v>4.1747095660808725E-2</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v>-3.4053664363728996E-2</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="53">
         <v>-3.5913816134640703E-2</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="9"/>
         <v>2.4148870356917495E-2</v>
       </c>
       <c r="J40" s="38">
         <v>2.5007122904801098E-2</v>
       </c>
       <c r="K40" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="10"/>
         <v>5.4624129463523428</v>
       </c>
       <c r="L40" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="11"/>
         <v>3.5540070206130996</v>
       </c>
-      <c r="M40" s="62">
+      <c r="M40" s="64">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N40" s="66">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="66">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P40" s="66">
+      <c r="P40" s="68">
         <v>0.83453592960603096</v>
       </c>
-      <c r="Q40" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R40" s="54">
-        <f>G40</f>
-        <v>-3.4053664363728996E-2</v>
-      </c>
-      <c r="S40" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T40" s="54">
-        <f>PRODUCT(S40,R40,Q40)</f>
-        <v>-2.5877529372857261E-3</v>
-      </c>
+      <c r="Q40" s="62">
+        <v>1.6416007021511901E-3</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="7">
         <v>3</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="102">
         <v>0.12647954224004099</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="103">
         <v>0.15288750314307001</v>
       </c>
-      <c r="E41" s="54">
-        <f t="shared" si="30"/>
+      <c r="E41" s="53">
+        <f t="shared" si="6"/>
         <v>0.19842294026289539</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="7"/>
         <v>-3.2985978114210999E-3</v>
       </c>
       <c r="G41" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v>2.5416132962911889E-3</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="54">
         <v>0</v>
       </c>
       <c r="I41" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="9"/>
         <v>-2.1026053775323383E-3</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="54">
         <v>0</v>
       </c>
       <c r="K41" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="L41" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M41" s="63"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R41" s="55">
-        <f>G41</f>
-        <v>2.5416132962911889E-3</v>
-      </c>
-      <c r="S41" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T41" s="55">
-        <f>PRODUCT(S41,R41,Q41)</f>
-        <v>4.4579116229511107E-4</v>
-      </c>
+      <c r="M41" s="65"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="63">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
+      <c r="A42" s="70">
         <v>2852</v>
       </c>
       <c r="B42" s="10">
         <v>0</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="99">
         <v>0.17715768943628299</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="99">
         <v>0.19617714751179399</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" ref="E42:E45" si="36">SQRT(D42*D42+C42*C42)</f>
+        <f t="shared" si="6"/>
         <v>0.2643299455836714</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:F45" si="37">1/0.96*(E42-0.04/E42)</f>
+        <f t="shared" si="7"/>
         <v>0.11771241709197607</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" ref="G42:G45" si="38">-F42*D42/E42</f>
+        <f t="shared" si="8"/>
         <v>-8.736235374630559E-2</v>
       </c>
       <c r="H42" s="9">
         <v>-8.7475485322046798E-2</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" ref="I42:I45" si="39">F42*C42/E42</f>
+        <f t="shared" si="9"/>
         <v>7.8892536310735395E-2</v>
       </c>
       <c r="J42" s="9">
         <v>7.8693889002107206E-2</v>
       </c>
       <c r="K42" s="41">
-        <f t="shared" ref="K42:K45" si="40">ABS((G42-H42)/G42)*100</f>
+        <f t="shared" si="10"/>
         <v>0.12949694106197462</v>
       </c>
       <c r="L42" s="42">
-        <f t="shared" ref="L42:L45" si="41">ABS((I42-J42)/I42)*100</f>
+        <f t="shared" si="11"/>
         <v>0.25179480584294195</v>
       </c>
-      <c r="M42" s="71">
+      <c r="M42" s="73">
         <f>-1/12*C42*D42/(D42*D42+C42*C42)^2</f>
         <v>-0.59325541444884999</v>
       </c>
-      <c r="N42" s="73">
+      <c r="N42" s="75">
         <f>-1/0.96*(1-0.04*(C42*C42-D42*D42)/(C42*C42+D42*D42)^2)</f>
         <v>-1.1022704793938467</v>
       </c>
-      <c r="O42" s="73">
+      <c r="O42" s="75">
         <f>1/0.96*(1-0.04*(D42*D42-C42*C42)/(C42*C42+D42*D42)^2)</f>
         <v>0.98106285393948667</v>
       </c>
-      <c r="P42" s="75">
+      <c r="P42" s="77">
         <f>1/12*C42*D42/(C42*C42+D42*D42)^2</f>
         <v>0.59325541444884999</v>
       </c>
-      <c r="Q42" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R42" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S42" s="61"/>
-      <c r="T42" s="47">
-        <f>1/R42*(T43+T44+T45)</f>
-        <v>-0.29773700889616811</v>
-      </c>
+      <c r="Q42" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="47"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6">
         <v>1</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="100">
         <v>0.17067558899268601</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="100">
         <v>0.183800741121391</v>
       </c>
-      <c r="E43" s="54">
-        <f t="shared" si="36"/>
+      <c r="E43" s="53">
+        <f t="shared" si="6"/>
         <v>0.25082437902798216</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>9.5156507860395728E-2</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="8"/>
         <v>-6.9729412806850896E-2</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="53">
         <v>-6.9755873844883798E-2</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="9"/>
         <v>6.4750057743583014E-2</v>
       </c>
       <c r="J43" s="38">
         <v>6.4201132118491905E-2</v>
       </c>
       <c r="K43" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="10"/>
         <v>3.7948172754872077E-2</v>
       </c>
       <c r="L43" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="11"/>
         <v>0.84776082712530121</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R43" s="54">
-        <f>G43</f>
-        <v>-6.9729412806850896E-2</v>
-      </c>
-      <c r="S43" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T43" s="54">
-        <f>PRODUCT(S43,R43,Q43)</f>
-        <v>1.7529093499062454E-2</v>
-      </c>
+      <c r="M43" s="74"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="62">
+        <v>-1.70347245203076E-3</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="6">
         <v>2</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="100">
         <v>0.19079091432554299</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="100">
         <v>0.19916708732833099</v>
       </c>
-      <c r="E44" s="54">
-        <f t="shared" si="36"/>
+      <c r="E44" s="53">
+        <f t="shared" si="6"/>
         <v>0.27580555045906474</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>0.13622483003270303</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="8"/>
         <v>-9.8371851379536634E-2</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H44" s="53">
         <v>-9.8239181907517403E-2</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="9"/>
         <v>9.4234723820899396E-2</v>
       </c>
       <c r="J44" s="38">
         <v>9.4359132507671403E-2</v>
       </c>
       <c r="K44" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="10"/>
         <v>0.13486527920204333</v>
       </c>
       <c r="L44" s="40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="11"/>
         <v>0.13202000465184724</v>
       </c>
-      <c r="M44" s="62">
+      <c r="M44" s="64">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N44" s="64">
+      <c r="N44" s="66">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="66">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P44" s="66">
+      <c r="P44" s="68">
         <v>0.83453592960603096</v>
       </c>
-      <c r="Q44" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R44" s="54">
-        <f>G44</f>
-        <v>-9.8371851379536634E-2</v>
-      </c>
-      <c r="S44" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T44" s="54">
-        <f>PRODUCT(S44,R44,Q44)</f>
-        <v>-7.4753202661140992E-3</v>
-      </c>
+      <c r="Q44" s="62">
+        <v>-4.2052828409205696E-3</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="7">
         <v>3</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="102">
         <v>0.16867388372022299</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="103">
         <v>0.20711127098282101</v>
       </c>
-      <c r="E45" s="54">
-        <f t="shared" si="36"/>
+      <c r="E45" s="53">
+        <f t="shared" si="6"/>
         <v>0.26710664090842601</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>0.12224345704668613</v>
       </c>
       <c r="G45" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="8"/>
         <v>-9.4786103678167227E-2</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="54">
         <v>-9.5495789160229799E-2</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="9"/>
         <v>7.7194930793652028E-2</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="54">
         <v>7.7173257560877798E-2</v>
       </c>
       <c r="K45" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="10"/>
         <v>0.74872312978726119</v>
       </c>
       <c r="L45" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="11"/>
         <v>2.8075979279215228E-2</v>
       </c>
-      <c r="M45" s="63"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R45" s="55">
-        <f>G45</f>
-        <v>-9.4786103678167227E-2</v>
-      </c>
-      <c r="S45" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T45" s="55">
-        <f>PRODUCT(S45,R45,Q45)</f>
-        <v>-1.6625191326223688E-2</v>
-      </c>
+      <c r="M45" s="65"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="63">
+        <v>6.0950430441033899E-3</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="68">
+      <c r="A46" s="70">
         <v>237</v>
       </c>
       <c r="B46" s="10">
         <v>0</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="99">
         <v>0.18440870361653799</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="99">
         <v>0.148979292368354</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" ref="E46:E49" si="42">SQRT(D46*D46+C46*C46)</f>
+        <f t="shared" si="6"/>
         <v>0.23706834357228646</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F49" si="43">1/0.96*(E46-0.04/E46)</f>
+        <f t="shared" si="7"/>
         <v>7.1188154366406159E-2</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" ref="G46:G49" si="44">-F46*D46/E46</f>
+        <f t="shared" si="8"/>
         <v>-4.4736301366540367E-2</v>
       </c>
       <c r="H46" s="9">
         <v>-4.4646686648069402E-2</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" ref="I46:I49" si="45">F46*C46/E46</f>
+        <f t="shared" si="9"/>
         <v>5.5375235097806591E-2</v>
       </c>
       <c r="J46" s="9">
         <v>5.53780975932169E-2</v>
       </c>
       <c r="K46" s="41">
-        <f t="shared" ref="K46:K49" si="46">ABS((G46-H46)/G46)*100</f>
+        <f t="shared" si="10"/>
         <v>0.2003176743126793</v>
       </c>
       <c r="L46" s="42">
-        <f t="shared" ref="L46:L49" si="47">ABS((I46-J46)/I46)*100</f>
+        <f t="shared" si="11"/>
         <v>5.1692699909145672E-3</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="73">
         <f>-1/12*C46*D46/(D46*D46+C46*C46)^2</f>
         <v>-0.72482274799905011</v>
       </c>
-      <c r="N46" s="73">
+      <c r="N46" s="75">
         <f>-1/0.96*(1-0.04*(C46*C46-D46*D46)/(C46*C46+D46*D46)^2)</f>
         <v>-0.88585197977901009</v>
       </c>
-      <c r="O46" s="73">
+      <c r="O46" s="75">
         <f>1/0.96*(1-0.04*(D46*D46-C46*C46)/(C46*C46+D46*D46)^2)</f>
         <v>1.1974813535543234</v>
       </c>
-      <c r="P46" s="75">
+      <c r="P46" s="77">
         <f>1/12*C46*D46/(C46*C46+D46*D46)^2</f>
         <v>0.72482274799905011</v>
       </c>
-      <c r="Q46" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R46" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S46" s="61"/>
-      <c r="T46" s="47">
-        <f>1/R46*(T47+T48+T49)</f>
-        <v>0.33108809472551159</v>
-      </c>
+      <c r="Q46" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="47"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="6">
         <v>1</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="100">
         <v>0.198988077875493</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="100">
         <v>0.15382021341055599</v>
       </c>
-      <c r="E47" s="54">
-        <f t="shared" si="42"/>
+      <c r="E47" s="53">
+        <f t="shared" si="6"/>
         <v>0.25150927058510636</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>9.6322299307247408E-2</v>
       </c>
       <c r="G47" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="8"/>
         <v>-5.890962429006235E-2</v>
       </c>
-      <c r="H47" s="54">
+      <c r="H47" s="53">
         <v>-5.7907826553650399E-2</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="9"/>
         <v>7.6207883515018657E-2</v>
       </c>
       <c r="J47" s="38">
         <v>7.5901343852150402E-2</v>
       </c>
       <c r="K47" s="39">
-        <f t="shared" si="46"/>
+        <f t="shared" si="10"/>
         <v>1.7005671797858459</v>
       </c>
       <c r="L47" s="40">
-        <f t="shared" si="47"/>
+        <f t="shared" si="11"/>
         <v>0.40224140696394439</v>
       </c>
-      <c r="M47" s="72"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R47" s="54">
-        <f>G47</f>
-        <v>-5.890962429006235E-2</v>
-      </c>
-      <c r="S47" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T47" s="54">
-        <f>PRODUCT(S47,R47,Q47)</f>
-        <v>1.4809135350608999E-2</v>
-      </c>
+      <c r="M47" s="74"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="62">
+        <v>-1.5975050735224101E-3</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="6">
         <v>2</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="100">
         <v>0.16929317254114401</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="100">
         <v>0.156382989326319</v>
       </c>
-      <c r="E48" s="54">
-        <f t="shared" si="42"/>
+      <c r="E48" s="53">
+        <f t="shared" si="6"/>
         <v>0.23046869119184313</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>5.928054674085266E-2</v>
       </c>
       <c r="G48" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="8"/>
         <v>-4.0224418597996629E-2</v>
       </c>
-      <c r="H48" s="54">
+      <c r="H48" s="53">
         <v>-4.1328236357924902E-2</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="9"/>
         <v>4.3545141753673973E-2</v>
       </c>
       <c r="J48" s="38">
         <v>4.36731455082656E-2</v>
       </c>
       <c r="K48" s="39">
-        <f t="shared" si="46"/>
+        <f t="shared" si="10"/>
         <v>2.7441484511183178</v>
       </c>
       <c r="L48" s="40">
-        <f t="shared" si="47"/>
+        <f t="shared" si="11"/>
         <v>0.29395645400747134</v>
       </c>
-      <c r="M48" s="62">
+      <c r="M48" s="64">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="66">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="66">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P48" s="66">
+      <c r="P48" s="68">
         <v>0.83453592960603096</v>
       </c>
-      <c r="Q48" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R48" s="54">
-        <f>G48</f>
-        <v>-4.0224418597996629E-2</v>
-      </c>
-      <c r="S48" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T48" s="54">
-        <f>PRODUCT(S48,R48,Q48)</f>
-        <v>-3.0566712664392417E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="70"/>
+      <c r="Q48" s="62">
+        <v>4.2562199198057397E-3</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="72"/>
       <c r="B49" s="7">
         <v>3</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="102">
         <v>0.17548863081863</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="103">
         <v>0.134346645269975</v>
       </c>
-      <c r="E49" s="54">
-        <f t="shared" si="42"/>
+      <c r="E49" s="53">
+        <f t="shared" si="6"/>
         <v>0.22100968449797379</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>4.168972967362114E-2</v>
       </c>
       <c r="G49" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="8"/>
         <v>-2.5342216729486704E-2</v>
       </c>
-      <c r="H49" s="55">
+      <c r="H49" s="54">
         <v>-2.6734015754154801E-2</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="9"/>
         <v>3.310295472454583E-2</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="54">
         <v>3.38277113344271E-2</v>
       </c>
       <c r="K49" s="43">
-        <f t="shared" si="46"/>
+        <f t="shared" si="10"/>
         <v>5.4920176854484932</v>
       </c>
       <c r="L49" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="11"/>
         <v>2.1894015682650338</v>
       </c>
-      <c r="M49" s="63"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R49" s="55">
-        <f>G49</f>
-        <v>-2.5342216729486704E-2</v>
-      </c>
-      <c r="S49" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T49" s="55">
-        <f>PRODUCT(S49,R49,Q49)</f>
-        <v>-4.4449469427382815E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="68">
+      <c r="M49" s="65"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="63">
+        <v>-2.1360094564363799E-3</v>
+      </c>
+      <c r="R49" s="7"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+    </row>
+    <row r="50" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="105">
         <v>265</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="106">
         <v>0</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="107">
         <v>0.17611626891648099</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="107">
         <v>0.119777285151598</v>
       </c>
-      <c r="E50" s="9">
-        <f t="shared" ref="E50:E53" si="48">SQRT(D50*D50+C50*C50)</f>
+      <c r="E50" s="108">
+        <f t="shared" si="6"/>
         <v>0.21298717852337842</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" ref="F50:F53" si="49">1/0.96*(E50-0.04/E50)</f>
+      <c r="F50" s="108">
+        <f t="shared" si="7"/>
         <v>2.6231715040579813E-2</v>
       </c>
-      <c r="G50" s="20">
-        <f t="shared" ref="G50:G53" si="50">-F50*D50/E50</f>
+      <c r="G50" s="109">
+        <f t="shared" si="8"/>
         <v>-1.4751890861290105E-2</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="108">
         <v>-1.5655313257074099E-2</v>
       </c>
-      <c r="I50" s="20">
-        <f t="shared" ref="I50:I53" si="51">F50*C50/E50</f>
+      <c r="I50" s="109">
+        <f t="shared" si="9"/>
         <v>2.169065674401692E-2</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="108">
         <v>2.3750757772751999E-2</v>
       </c>
-      <c r="K50" s="41">
-        <f t="shared" ref="K50:K53" si="52">ABS((G50-H50)/G50)*100</f>
+      <c r="K50" s="110">
+        <f t="shared" si="10"/>
         <v>6.1241125241417755</v>
       </c>
-      <c r="L50" s="42">
-        <f t="shared" ref="L50:L53" si="53">ABS((I50-J50)/I50)*100</f>
+      <c r="L50" s="111">
+        <f t="shared" si="11"/>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="112">
         <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N50" s="73">
+      <c r="N50" s="113">
         <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O50" s="73">
+      <c r="O50" s="113">
         <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P50" s="75">
+      <c r="P50" s="114">
         <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
         <v>0.85423793511527568</v>
       </c>
-      <c r="Q50" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R50" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S50" s="61"/>
-      <c r="T50" s="47">
-        <f>1/R50*(T51+T52+T53)</f>
-        <v>0.18112807147188245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="6">
+      <c r="Q50" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="117"/>
+    </row>
+    <row r="51" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="119"/>
+      <c r="B51" s="120">
         <v>1</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="121">
         <v>0.190222436080876</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="121">
         <v>0.114067302087277</v>
       </c>
-      <c r="E51" s="54">
-        <f t="shared" si="48"/>
+      <c r="E51" s="122">
+        <f t="shared" si="6"/>
         <v>0.22180154326337106</v>
       </c>
-      <c r="F51" s="14">
-        <f t="shared" si="49"/>
+      <c r="F51" s="122">
+        <f t="shared" si="7"/>
         <v>4.3187653150768342E-2</v>
       </c>
-      <c r="G51" s="21">
-        <f t="shared" si="50"/>
+      <c r="G51" s="123">
+        <f t="shared" si="8"/>
         <v>-2.2210391352145184E-2</v>
       </c>
-      <c r="H51" s="54">
+      <c r="H51" s="122">
         <v>-2.3030983868594701E-2</v>
       </c>
-      <c r="I51" s="21">
-        <f t="shared" si="51"/>
+      <c r="I51" s="123">
+        <f t="shared" si="9"/>
         <v>3.7038789135926474E-2</v>
       </c>
-      <c r="J51" s="38">
+      <c r="J51" s="124">
         <v>3.9279212352311701E-2</v>
       </c>
-      <c r="K51" s="39">
-        <f t="shared" si="52"/>
+      <c r="K51" s="125">
+        <f t="shared" si="10"/>
         <v>3.6946333067213621</v>
       </c>
-      <c r="L51" s="40">
-        <f t="shared" si="53"/>
+      <c r="L51" s="126">
+        <f t="shared" si="11"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M51" s="72"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R51" s="54">
-        <f>G51</f>
-        <v>-2.2210391352145184E-2</v>
-      </c>
-      <c r="S51" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T51" s="54">
-        <f>PRODUCT(S51,R51,Q51)</f>
-        <v>5.5834118055884405E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="6">
+      <c r="M51" s="127"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="130">
+        <v>-1.76483335659508E-3</v>
+      </c>
+      <c r="R51" s="120"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+    </row>
+    <row r="52" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="119"/>
+      <c r="B52" s="120">
         <v>2</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="121">
         <v>0.17548863081863</v>
       </c>
-      <c r="D52" s="54">
+      <c r="D52" s="121">
         <v>0.134346645269975</v>
       </c>
-      <c r="E52" s="54">
-        <f t="shared" si="48"/>
+      <c r="E52" s="122">
+        <f t="shared" si="6"/>
         <v>0.22100968449797379</v>
       </c>
-      <c r="F52" s="14">
-        <f t="shared" si="49"/>
+      <c r="F52" s="122">
+        <f t="shared" si="7"/>
         <v>4.168972967362114E-2</v>
       </c>
-      <c r="G52" s="21">
-        <f t="shared" si="50"/>
+      <c r="G52" s="123">
+        <f t="shared" si="8"/>
         <v>-2.5342216729486704E-2</v>
       </c>
-      <c r="H52" s="54">
+      <c r="H52" s="122">
         <v>-2.63582618704498E-2</v>
       </c>
-      <c r="I52" s="21">
-        <f t="shared" si="51"/>
+      <c r="I52" s="123">
+        <f t="shared" si="9"/>
         <v>3.310295472454583E-2</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52" s="124">
         <v>3.2982648593747901E-2</v>
       </c>
-      <c r="K52" s="39">
-        <f t="shared" si="52"/>
+      <c r="K52" s="125">
+        <f t="shared" si="10"/>
         <v>4.0092986016526551</v>
       </c>
-      <c r="L52" s="40">
-        <f t="shared" si="53"/>
+      <c r="L52" s="126">
+        <f t="shared" si="11"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M52" s="62">
-        <v>-0.75102409503844803</v>
-      </c>
-      <c r="N52" s="64">
-        <v>-1.2240644664056901</v>
-      </c>
-      <c r="O52" s="64">
-        <v>0.88608863953621098</v>
-      </c>
-      <c r="P52" s="66">
-        <v>0.83453592960603096</v>
-      </c>
-      <c r="Q52" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R52" s="54">
-        <f>G52</f>
-        <v>-2.5342216729486704E-2</v>
-      </c>
-      <c r="S52" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T52" s="54">
-        <f>PRODUCT(S52,R52,Q52)</f>
-        <v>-1.9257661988619987E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
-      <c r="B53" s="7">
+      <c r="M52" s="131">
+        <v>-0.83478975574671499</v>
+      </c>
+      <c r="N52" s="132">
+        <v>-0.77058253599049198</v>
+      </c>
+      <c r="O52" s="132">
+        <v>1.38140952302927</v>
+      </c>
+      <c r="P52" s="129">
+        <v>0.693161263386181</v>
+      </c>
+      <c r="Q52" s="130">
+        <v>2.1363241204087899E-3</v>
+      </c>
+      <c r="R52" s="120"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="122"/>
+    </row>
+    <row r="53" spans="1:23" s="118" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="133"/>
+      <c r="B53" s="134">
         <v>3</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="135">
         <v>0.16052753074652701</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="136">
         <v>0.11663007800304</v>
       </c>
-      <c r="E53" s="54">
-        <f t="shared" si="48"/>
+      <c r="E53" s="122">
+        <f t="shared" si="6"/>
         <v>0.19842294026289492</v>
       </c>
-      <c r="F53" s="14">
-        <f t="shared" si="49"/>
+      <c r="F53" s="122">
+        <f t="shared" si="7"/>
         <v>-3.2985978114220831E-3</v>
       </c>
-      <c r="G53" s="22">
-        <f t="shared" si="50"/>
+      <c r="G53" s="137">
+        <f t="shared" si="8"/>
         <v>1.9388671467981287E-3</v>
       </c>
-      <c r="H53" s="55">
+      <c r="H53" s="138">
         <v>0</v>
       </c>
-      <c r="I53" s="22">
-        <f t="shared" si="51"/>
+      <c r="I53" s="137">
+        <f t="shared" si="9"/>
         <v>-2.6686216870484736E-3</v>
       </c>
-      <c r="J53" s="55">
+      <c r="J53" s="138">
         <v>0</v>
       </c>
-      <c r="K53" s="43">
-        <f t="shared" si="52"/>
+      <c r="K53" s="139">
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="L53" s="44">
-        <f t="shared" si="53"/>
+      <c r="L53" s="140">
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M53" s="63"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R53" s="55">
-        <f>G53</f>
-        <v>1.9388671467981287E-3</v>
-      </c>
-      <c r="S53" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T53" s="55">
-        <f>PRODUCT(S53,R53,Q53)</f>
-        <v>3.4007133979358856E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="68">
+      <c r="M53" s="141"/>
+      <c r="N53" s="142"/>
+      <c r="O53" s="142"/>
+      <c r="P53" s="143"/>
+      <c r="Q53" s="144">
+        <v>0</v>
+      </c>
+      <c r="R53" s="134"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="70">
         <v>1419</v>
       </c>
       <c r="B54" s="10">
         <v>0</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="99">
         <v>9.1362656029267006E-2</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="99">
         <v>0.19207488331744399</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" ref="E54:E57" si="54">SQRT(D54*D54+C54*C54)</f>
+        <f t="shared" si="6"/>
         <v>0.21269672239630746</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" ref="F54:F57" si="55">1/0.96*(E54-0.04/E54)</f>
+        <f t="shared" si="7"/>
         <v>2.5662006658557383E-2</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" ref="G54:G57" si="56">-F54*D54/E54</f>
+        <f t="shared" si="8"/>
         <v>-2.3173967511590818E-2</v>
       </c>
       <c r="H54" s="9">
         <v>-2.47660064342646E-2</v>
       </c>
       <c r="I54" s="20">
-        <f t="shared" ref="I54:I57" si="57">F54*C54/E54</f>
+        <f t="shared" si="9"/>
         <v>1.1022967636511357E-2</v>
       </c>
       <c r="J54" s="9">
         <v>1.18796956014718E-2</v>
       </c>
       <c r="K54" s="41">
-        <f t="shared" ref="K54:K57" si="58">ABS((G54-H54)/G54)*100</f>
+        <f t="shared" si="10"/>
         <v>6.8699454328547693</v>
       </c>
       <c r="L54" s="42">
-        <f t="shared" ref="L54:L57" si="59">ABS((I54-J54)/I54)*100</f>
+        <f t="shared" si="11"/>
         <v>7.772207931761538</v>
       </c>
-      <c r="M54" s="71">
+      <c r="M54" s="73">
         <f>-1/12*C54*D54/(D54*D54+C54*C54)^2</f>
         <v>-0.71452077108437129</v>
       </c>
-      <c r="N54" s="73">
+      <c r="N54" s="75">
         <f>-1/0.96*(1-0.04*(C54*C54-D54*D54)/(C54*C54+D54*D54)^2)</f>
         <v>-1.6228125124004411</v>
       </c>
-      <c r="O54" s="73">
+      <c r="O54" s="75">
         <f>1/0.96*(1-0.04*(D54*D54-C54*C54)/(C54*C54+D54*D54)^2)</f>
         <v>0.46052082093289243</v>
       </c>
-      <c r="P54" s="75">
+      <c r="P54" s="77">
         <f>1/12*C54*D54/(C54*C54+D54*D54)^2</f>
         <v>0.71452077108437129</v>
       </c>
-      <c r="Q54" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R54" s="61">
-        <v>2.2071216869002101E-2</v>
-      </c>
-      <c r="S54" s="61"/>
-      <c r="T54" s="47">
-        <f>1/R54*(T55+T56+T57)</f>
-        <v>0.2943818876084543</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
+      <c r="Q54" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="47"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="71"/>
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="100">
         <v>0.105607718609916</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="100">
         <v>0.192951450932385</v>
       </c>
-      <c r="E55" s="54">
-        <f t="shared" si="54"/>
+      <c r="E55" s="53">
+        <f t="shared" si="6"/>
         <v>0.21996193454073767</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="7"/>
         <v>3.9700300230390353E-2</v>
       </c>
       <c r="G55" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>-3.4825255323831572E-2</v>
       </c>
-      <c r="H55" s="54">
+      <c r="H55" s="53">
         <v>-3.5485857118764397E-2</v>
       </c>
       <c r="I55" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="9"/>
         <v>1.9060834976807103E-2</v>
       </c>
       <c r="J55" s="38">
         <v>2.0167930096840099E-2</v>
       </c>
       <c r="K55" s="39">
-        <f t="shared" si="58"/>
+        <f t="shared" si="10"/>
         <v>1.896904383873282</v>
       </c>
       <c r="L55" s="40">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M55" s="72"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="56">
-        <v>-0.97492791218182395</v>
-      </c>
-      <c r="R55" s="54">
-        <f>G55</f>
-        <v>-3.4825255323831572E-2</v>
-      </c>
-      <c r="S55" s="54">
-        <v>0.25785226170875097</v>
-      </c>
-      <c r="T55" s="54">
-        <f>PRODUCT(S55,R55,Q55)</f>
-        <v>8.7546292465005386E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="62">
+        <v>-1.5541388968049301E-3</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="71"/>
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56" s="100">
         <v>8.2926738549511395E-2</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="100">
         <v>0.20362431001169901</v>
       </c>
-      <c r="E56" s="54">
-        <f t="shared" si="54"/>
+      <c r="E56" s="53">
+        <f t="shared" si="6"/>
         <v>0.21986292000744354</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="7"/>
         <v>3.9511852401777063E-2</v>
       </c>
       <c r="G56" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>-3.6593590598740164E-2</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="53">
         <v>-3.8356842277377297E-2</v>
       </c>
       <c r="I56" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="9"/>
         <v>1.4902872451699087E-2</v>
       </c>
       <c r="J56" s="38">
         <v>1.49908296678752E-2</v>
       </c>
       <c r="K56" s="39">
-        <f t="shared" si="58"/>
+        <f t="shared" si="10"/>
         <v>4.8184713491816726</v>
       </c>
       <c r="L56" s="40">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M56" s="62">
+      <c r="M56" s="64">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N56" s="64">
+      <c r="N56" s="66">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O56" s="64">
+      <c r="O56" s="66">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P56" s="66">
+      <c r="P56" s="68">
         <v>0.83453592960603096</v>
       </c>
-      <c r="Q56" s="56">
-        <v>0.36645744143242598</v>
-      </c>
-      <c r="R56" s="54">
-        <f>G56</f>
-        <v>-3.6593590598740164E-2</v>
-      </c>
-      <c r="S56" s="54">
-        <v>0.20736497985691299</v>
-      </c>
-      <c r="T56" s="54">
-        <f>PRODUCT(S56,R56,Q56)</f>
-        <v>-2.7807630493528403E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="B57" s="7">
+      <c r="Q56" s="62">
+        <v>1.57532063878604E-3</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="72"/>
+      <c r="B57" s="28">
         <v>3</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57" s="101">
         <v>8.4484378935394594E-2</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="145">
         <v>0.17953844417971601</v>
       </c>
-      <c r="E57" s="54">
-        <f t="shared" si="54"/>
+      <c r="E57" s="59">
+        <f t="shared" si="6"/>
         <v>0.19842294026289486</v>
       </c>
-      <c r="F57" s="14">
-        <f t="shared" si="55"/>
+      <c r="F57" s="24">
+        <f t="shared" si="7"/>
         <v>-3.2985978114221984E-3</v>
       </c>
-      <c r="G57" s="22">
-        <f t="shared" si="56"/>
+      <c r="G57" s="25">
+        <f t="shared" si="8"/>
         <v>2.9846605349800074E-3</v>
       </c>
-      <c r="H57" s="55">
+      <c r="H57" s="59">
         <v>0</v>
       </c>
-      <c r="I57" s="22">
-        <f t="shared" si="57"/>
+      <c r="I57" s="25">
+        <f t="shared" si="9"/>
         <v>-1.404474639305451E-3</v>
       </c>
-      <c r="J57" s="55">
+      <c r="J57" s="54">
         <v>0</v>
       </c>
       <c r="K57" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="L57" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M57" s="63"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="57">
-        <v>0.79122370800502395</v>
-      </c>
-      <c r="R57" s="55">
-        <f>G57</f>
-        <v>2.9846605349800074E-3</v>
-      </c>
-      <c r="S57" s="55">
-        <v>0.22167804809623901</v>
-      </c>
-      <c r="T57" s="55">
-        <f>PRODUCT(S57,R57,Q57)</f>
-        <v>5.2350028656469861E-4</v>
+      <c r="M57" s="65"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="63">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="100">
+        <v>0.18440870361653799</v>
+      </c>
+      <c r="D58" s="100">
+        <v>0.148979292368354</v>
+      </c>
+      <c r="E58" s="58">
+        <f t="shared" si="6"/>
+        <v>0.23706834357228646</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="7"/>
+        <v>7.1188154366406159E-2</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="8"/>
+        <v>-4.4736301366540367E-2</v>
+      </c>
+      <c r="H58" s="58">
+        <v>1</v>
+      </c>
+      <c r="I58" s="21">
+        <f t="shared" si="9"/>
+        <v>5.5375235097806591E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="100">
+        <v>0.20172950225219299</v>
+      </c>
+      <c r="D59" s="100">
+        <v>0.106357482253751</v>
+      </c>
+      <c r="E59" s="58">
+        <f t="shared" si="6"/>
+        <v>0.22804978866527043</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="7"/>
+        <v>5.4843223511570935E-2</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="8"/>
+        <v>-2.557769163264613E-2</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="21">
+        <f t="shared" si="9"/>
+        <v>4.8513512095965501E-2</v>
+      </c>
+      <c r="N59" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="147"/>
+      <c r="S59" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
+      <c r="V59" s="148"/>
+      <c r="W59" s="148"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="100">
+        <v>0.16052753074652701</v>
+      </c>
+      <c r="D60" s="100">
+        <v>0.11663007800304</v>
+      </c>
+      <c r="E60" s="58">
+        <f t="shared" si="6"/>
+        <v>0.19842294026289492</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="7"/>
+        <v>-3.2985978114220831E-3</v>
+      </c>
+      <c r="G60" s="21">
+        <v>0</v>
+      </c>
+      <c r="H60" s="58"/>
+      <c r="I60" s="21">
+        <f t="shared" si="9"/>
+        <v>-2.6686216870484736E-3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="V60" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="104">
+        <v>0.14493879257657299</v>
+      </c>
+      <c r="D61" s="104">
+        <v>0.113482870854482</v>
+      </c>
+      <c r="E61" s="58">
+        <f t="shared" ref="E61" si="12">SQRT(D61*D61+C61*C61)</f>
+        <v>0.18408045950325605</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="7"/>
+        <v>-3.45998182758522E-2</v>
+      </c>
+      <c r="G61" s="21">
+        <v>1.47518908612904E-2</v>
+      </c>
+      <c r="H61" s="58"/>
+      <c r="I61" s="21">
+        <f t="shared" ref="I61" si="13">F61*C61/E61</f>
+        <v>-2.7242738842588331E-2</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3">
+        <f>G58</f>
+        <v>-4.4736301366540367E-2</v>
+      </c>
+      <c r="O61" s="3">
+        <f>G58</f>
+        <v>-4.4736301366540367E-2</v>
+      </c>
+      <c r="P61" s="146">
+        <f>G58</f>
+        <v>-4.4736301366540367E-2</v>
+      </c>
+      <c r="Q61" s="3">
+        <f>G59</f>
+        <v>-2.557769163264613E-2</v>
+      </c>
+      <c r="R61" s="146">
+        <f>G59</f>
+        <v>-2.557769163264613E-2</v>
+      </c>
+      <c r="S61" s="149">
+        <f>I58</f>
+        <v>5.5375235097806591E-2</v>
+      </c>
+      <c r="T61" s="149">
+        <f>I58</f>
+        <v>5.5375235097806591E-2</v>
+      </c>
+      <c r="U61" s="150">
+        <f>I58</f>
+        <v>5.5375235097806591E-2</v>
+      </c>
+      <c r="V61" s="149">
+        <f>I59</f>
+        <v>4.8513512095965501E-2</v>
+      </c>
+      <c r="W61" s="150">
+        <f>I59</f>
+        <v>4.8513512095965501E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="104">
+        <f>0.5*(C58+C59)</f>
+        <v>0.19306910293436549</v>
+      </c>
+      <c r="D62" s="104">
+        <f t="shared" ref="D62:I64" si="14">0.5*(D58+D59)</f>
+        <v>0.12766838731105251</v>
+      </c>
+      <c r="E62" s="104">
+        <f t="shared" si="14"/>
+        <v>0.23255906611877844</v>
+      </c>
+      <c r="F62" s="104">
+        <f t="shared" si="14"/>
+        <v>6.301568893898854E-2</v>
+      </c>
+      <c r="G62" s="104">
+        <f t="shared" si="14"/>
+        <v>-3.5156996499593252E-2</v>
+      </c>
+      <c r="H62" s="104">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="104">
+        <f t="shared" si="14"/>
+        <v>5.1944373596886043E-2</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2</v>
+      </c>
+      <c r="N62" s="3">
+        <f>G62</f>
+        <v>-3.5156996499593252E-2</v>
+      </c>
+      <c r="O62" s="3">
+        <f>G63</f>
+        <v>-1.2788845816323065E-2</v>
+      </c>
+      <c r="P62" s="146">
+        <f>G64</f>
+        <v>7.3759454306452001E-3</v>
+      </c>
+      <c r="Q62" s="3">
+        <f>G65</f>
+        <v>-1.0202552819151426E-2</v>
+      </c>
+      <c r="R62" s="146">
+        <f>G66</f>
+        <v>-2.3972921157958158E-2</v>
+      </c>
+      <c r="S62" s="149">
+        <f>I62</f>
+        <v>5.1944373596886043E-2</v>
+      </c>
+      <c r="T62" s="149">
+        <f>I63</f>
+        <v>2.2922445204458512E-2</v>
+      </c>
+      <c r="U62" s="150">
+        <f>I64</f>
+        <v>-1.4955680264818402E-2</v>
+      </c>
+      <c r="V62" s="149">
+        <f>I65</f>
+        <v>1.2350817377148856E-2</v>
+      </c>
+      <c r="W62" s="150">
+        <f>I66</f>
+        <v>3.7433409400672274E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="104">
+        <f>0.5*(C60+C58)</f>
+        <v>0.17246811718153249</v>
+      </c>
+      <c r="D63" s="104">
+        <f>0.5*(D60+D58)</f>
+        <v>0.13280468518569699</v>
+      </c>
+      <c r="E63" s="104">
+        <f t="shared" si="14"/>
+        <v>0.21323636446408267</v>
+      </c>
+      <c r="F63" s="104">
+        <f t="shared" si="14"/>
+        <v>2.5772312850074426E-2</v>
+      </c>
+      <c r="G63" s="104">
+        <f t="shared" si="14"/>
+        <v>-1.2788845816323065E-2</v>
+      </c>
+      <c r="H63" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="104">
+        <f t="shared" si="14"/>
+        <v>2.2922445204458512E-2</v>
+      </c>
+      <c r="M63" s="3">
+        <v>3</v>
+      </c>
+      <c r="N63" s="3">
+        <f>G59</f>
+        <v>-2.557769163264613E-2</v>
+      </c>
+      <c r="O63" s="3">
+        <f>G60</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="146">
+        <f>G61</f>
+        <v>1.47518908612904E-2</v>
+      </c>
+      <c r="Q63" s="3">
+        <f>G60</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="146">
+        <f>G61</f>
+        <v>1.47518908612904E-2</v>
+      </c>
+      <c r="S63" s="149">
+        <f>I59</f>
+        <v>4.8513512095965501E-2</v>
+      </c>
+      <c r="T63" s="149">
+        <f>I60</f>
+        <v>-2.6686216870484736E-3</v>
+      </c>
+      <c r="U63" s="150">
+        <f>I61</f>
+        <v>-2.7242738842588331E-2</v>
+      </c>
+      <c r="V63" s="149">
+        <f>I60</f>
+        <v>-2.6686216870484736E-3</v>
+      </c>
+      <c r="W63" s="150">
+        <f>I61</f>
+        <v>-2.7242738842588331E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="104">
+        <f>0.5*(C58+C61)</f>
+        <v>0.16467374809655549</v>
+      </c>
+      <c r="D64" s="104">
+        <f>0.5*(D58+D61)</f>
+        <v>0.131231081611418</v>
+      </c>
+      <c r="E64" s="104">
+        <f t="shared" si="14"/>
+        <v>0.1912516998830755</v>
+      </c>
+      <c r="F64" s="104">
+        <f t="shared" si="14"/>
+        <v>-1.8949208043637141E-2</v>
+      </c>
+      <c r="G64" s="104">
+        <f t="shared" si="14"/>
+        <v>7.3759454306452001E-3</v>
+      </c>
+      <c r="H64" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="104">
+        <f t="shared" si="14"/>
+        <v>-1.4955680264818402E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="104">
+        <f>0.5*(C59+C60)</f>
+        <v>0.18112851649936001</v>
+      </c>
+      <c r="D65" s="104">
+        <f>0.5*(D59+D60)</f>
+        <v>0.1114937801283955</v>
+      </c>
+      <c r="E65" s="104">
+        <f t="shared" ref="E65:I65" si="15">0.5*(E61+E62)</f>
+        <v>0.20831976281101725</v>
+      </c>
+      <c r="F65" s="104">
+        <f t="shared" si="15"/>
+        <v>1.420793533156817E-2</v>
+      </c>
+      <c r="G65" s="104">
+        <f t="shared" si="15"/>
+        <v>-1.0202552819151426E-2</v>
+      </c>
+      <c r="H65" s="104">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="I65" s="104">
+        <f t="shared" si="15"/>
+        <v>1.2350817377148856E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="104">
+        <f>0.5*(C59+C61)</f>
+        <v>0.17333414741438299</v>
+      </c>
+      <c r="D66" s="104">
+        <f>0.5*(D59+D61)</f>
+        <v>0.1099201765541165</v>
+      </c>
+      <c r="E66" s="104">
+        <f t="shared" ref="E66:I66" si="16">0.5*(E62+E63)</f>
+        <v>0.22289771529143054</v>
+      </c>
+      <c r="F66" s="104">
+        <f t="shared" si="16"/>
+        <v>4.439400089453148E-2</v>
+      </c>
+      <c r="G66" s="104">
+        <f t="shared" si="16"/>
+        <v>-2.3972921157958158E-2</v>
+      </c>
+      <c r="H66" s="104">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="I66" s="104">
+        <f t="shared" si="16"/>
+        <v>3.7433409400672274E-2</v>
+      </c>
+      <c r="N66" s="146">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="146">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="146">
+        <f>N68/2</f>
+        <v>2.3003416935436949E-2</v>
+      </c>
+      <c r="O67" s="3">
+        <f>O68/2</f>
+        <v>2.3003416935436949E-2</v>
+      </c>
+      <c r="P67" s="146">
+        <f t="shared" ref="O67:S67" si="17">P68/2</f>
+        <v>2.6541805787253701E-2</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0104614443582251E-2</v>
+      </c>
+      <c r="R67" s="146">
+        <f t="shared" si="17"/>
+        <v>2.86179832805003E-2</v>
+      </c>
+      <c r="S67" s="3">
+        <f t="shared" si="17"/>
+        <v>2.1231631351488499E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" s="146">
+        <v>4.6006833870873898E-2</v>
+      </c>
+      <c r="O68" s="3">
+        <v>4.6006833870873898E-2</v>
+      </c>
+      <c r="P68" s="146">
+        <v>5.3083611574507403E-2</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>4.0209228887164501E-2</v>
+      </c>
+      <c r="R68" s="146">
+        <v>5.7235966561000599E-2</v>
+      </c>
+      <c r="S68" s="3">
+        <v>4.2463262702976998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="146">
+        <v>0.92642345774604395</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.92642345774604395</v>
+      </c>
+      <c r="P69" s="146">
+        <v>-0.66868889401109799</v>
+      </c>
+      <c r="Q69" s="45">
+        <v>-0.80452212739749096</v>
+      </c>
+      <c r="R69" s="146">
+        <v>-0.124491452295762</v>
+      </c>
+      <c r="S69" s="3">
+        <v>-0.241917250239189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N70" s="146">
+        <v>0.37648316952801902</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0.37648316952801902</v>
+      </c>
+      <c r="P70" s="146">
+        <v>0.743542307489098</v>
+      </c>
+      <c r="Q70" s="45">
+        <v>0.59392267722980097</v>
+      </c>
+      <c r="R70" s="146">
+        <v>-0.99222068024471799</v>
+      </c>
+      <c r="S70" s="3">
+        <v>-0.97029688448263496</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" s="146">
+        <v>1.1485527114568799E-3</v>
+      </c>
+      <c r="O71" s="3">
+        <v>7.8908652171143397E-4</v>
+      </c>
+      <c r="P71" s="146"/>
+      <c r="R71" s="146"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D72" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="3">
+        <f>C58-C60</f>
+        <v>2.3881172870010986E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <f>D58-D60</f>
+        <v>3.2349214365314002E-2</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="146">
+        <f>N69*N68*0.5*(N63+N61)</f>
+        <v>-1.4984548290054192E-3</v>
+      </c>
+      <c r="O72" s="3">
+        <f>O69*O68*0.5*(N63+N61)</f>
+        <v>-1.4984548290054192E-3</v>
+      </c>
+      <c r="P72" s="146">
+        <f t="shared" ref="O72:R72" si="18">P69*P68*0.5*(P63+P61)</f>
+        <v>5.3216963706966339E-4</v>
+      </c>
+      <c r="Q72" s="3">
+        <f>Q69*Q68*0.5*(O63+O61)</f>
+        <v>7.2359210140875716E-4</v>
+      </c>
+      <c r="R72" s="146">
+        <f t="shared" si="18"/>
+        <v>3.8569018704999514E-5</v>
+      </c>
+      <c r="S72" s="3">
+        <f>S69*S68*0.5*(Q63+Q61)</f>
+        <v>1.3137464317106642E-4</v>
+      </c>
+      <c r="T72" s="146">
+        <f>(R72+P72+N72)/$N$71</f>
+        <v>-0.80772624884929856</v>
+      </c>
+      <c r="U72" s="3">
+        <f>(S72+Q72+O72)/O71</f>
+        <v>-0.8154848254535475</v>
+      </c>
+      <c r="V72" s="118">
+        <f>M50</f>
+        <v>-0.85423793511527568</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D73" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="3">
+        <f>Q69</f>
+        <v>-0.80452212739749096</v>
+      </c>
+      <c r="F73" s="3">
+        <f>Q70</f>
+        <v>0.59392267722980097</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="146">
+        <f>N69*N68*(N63+4*N62+N61)/6</f>
+        <v>-1.498454829005419E-3</v>
+      </c>
+      <c r="O73" s="3">
+        <f>O69*O68*(N63+4*N62+N61)/6</f>
+        <v>-1.498454829005419E-3</v>
+      </c>
+      <c r="P73" s="146">
+        <f>P69*P68*(P63+4*P62+P61)/6</f>
+        <v>2.8434336435540082E-6</v>
+      </c>
+      <c r="Q73" s="3">
+        <f>Q69*Q68*(O63+4*O62+O61)/6</f>
+        <v>5.1700344366771025E-4</v>
+      </c>
+      <c r="R73" s="146">
+        <f t="shared" ref="O73:R73" si="19">R69*R68*(R63+4*R62+R61)/6</f>
+        <v>1.2673392566508605E-4</v>
+      </c>
+      <c r="S73" s="3">
+        <f>S69*S68*(Q63+4*Q62+Q61)/6</f>
+        <v>1.1366268153829308E-4</v>
+      </c>
+      <c r="T73" s="151">
+        <f>(R73+P73+N73)/N71</f>
+        <v>-1.1918281642994237</v>
+      </c>
+      <c r="U73" s="152">
+        <f>(S73+Q73+O73)/O71</f>
+        <v>-1.0997383429098322</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E75" s="3">
+        <f>E73*E72</f>
+        <v>-1.9212932002128483E-2</v>
+      </c>
+      <c r="F75" s="3">
+        <f>F73*F72</f>
+        <v>1.9212932002128029E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N76" s="146">
+        <f>N70*N68*0.5*(N61+N63)</f>
+        <v>-6.0894725700390436E-4</v>
+      </c>
+      <c r="O76" s="3">
+        <f>O70*O68*0.5*(N61+N63)</f>
+        <v>-6.0894725700390436E-4</v>
+      </c>
+      <c r="P76" s="146">
+        <f>P70*P68*0.5*(P61+P63)</f>
+        <v>-5.9174100761399246E-4</v>
+      </c>
+      <c r="Q76" s="3">
+        <f>Q70*Q68*0.5*(O61+O63)</f>
+        <v>-5.341776732496207E-4</v>
+      </c>
+      <c r="R76" s="146">
+        <f>R70*R68*0.5*(R61+R63)</f>
+        <v>3.0740245430608285E-4</v>
+      </c>
+      <c r="S76" s="3">
+        <f>S70*S68*0.5*(Q61+Q63)</f>
+        <v>5.2692566091450197E-4</v>
+      </c>
+      <c r="T76" s="146">
+        <f>(R76+P76+N76)/$N$71</f>
+        <v>-0.7777490762080278</v>
+      </c>
+      <c r="U76" s="3">
+        <f>(S76+Q76+O76)/O71</f>
+        <v>-0.78090203340764308</v>
+      </c>
+      <c r="V76" s="118">
+        <f>N50</f>
+        <v>-0.70413118701963817</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="146">
+        <f>N70*N68*(N61+4*N62+N63)/6</f>
+        <v>-6.0894725700390436E-4</v>
+      </c>
+      <c r="O77" s="3">
+        <f>O70*O68*(N61+4*N62+N63)/6</f>
+        <v>-6.0894725700390436E-4</v>
+      </c>
+      <c r="P77" s="146">
+        <f>P73*P72*(P67+4*P66+P65)/6</f>
+        <v>6.6937949812886527E-12</v>
+      </c>
+      <c r="Q77" s="3">
+        <f>Q70*Q68*(O61+4*O62+O63)/6</f>
+        <v>-3.8166764958155546E-4</v>
+      </c>
+      <c r="R77" s="146">
+        <f t="shared" ref="R77" si="20">R73*R72*(R67+4*R66+R65)/6</f>
+        <v>2.3314132068069583E-11</v>
+      </c>
+      <c r="S77" s="3">
+        <f>S70*S68*(Q61+4*Q62+Q63)/6</f>
+        <v>4.5588541399798873E-4</v>
+      </c>
+      <c r="T77" s="151">
+        <f>(R77+P77+N77)/N71</f>
+        <v>-0.53018657386961299</v>
+      </c>
+      <c r="U77" s="152">
+        <f>(S77+Q77+O77)/O71</f>
+        <v>-0.6776563505706662</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="P81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q81" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S81" s="153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N82" s="146">
+        <f>N69*N68*0.5*(S61+S63)</f>
+        <v>2.2139632279684646E-3</v>
+      </c>
+      <c r="O82" s="153">
+        <f>N69*N68*0.5*(S61+S63)</f>
+        <v>2.2139632279684646E-3</v>
+      </c>
+      <c r="P82" s="146">
+        <f t="shared" ref="O82:S82" si="21">P69*P68*0.5*(U61+U63)</f>
+        <v>-4.9930147265632755E-4</v>
+      </c>
+      <c r="Q82" s="153">
+        <f>Q69*Q68*0.5*(T61+T63)</f>
+        <v>-8.5250876784718002E-4</v>
+      </c>
+      <c r="R82" s="146">
+        <f>R69*R68*0.5*(W61+W63)</f>
+        <v>-7.578126263416989E-5</v>
+      </c>
+      <c r="S82" s="153">
+        <f>S69*S68*0.5*(V61+V63)</f>
+        <v>-2.3547301317061923E-4</v>
+      </c>
+      <c r="T82" s="146">
+        <f>(R82+P82+N82)/$N$71</f>
+        <v>1.426909253994213</v>
+      </c>
+      <c r="U82" s="3" t="e">
+        <f>(S82+Q82+O82)/O81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V82" s="118">
+        <f>M60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N83" s="146">
+        <f>N69*N68*(S61+4*S62+S63)/6</f>
+        <v>2.2139632279684642E-3</v>
+      </c>
+      <c r="O83" s="153">
+        <f>N69*N68*(S61+4*S62+S63)/6</f>
+        <v>2.2139632279684642E-3</v>
+      </c>
+      <c r="P83" s="146">
+        <f>P69*P68*(U61+4*U62+U63)/6</f>
+        <v>1.8748159625235216E-4</v>
+      </c>
+      <c r="Q83" s="153">
+        <f>Q69*Q68*(T61+4*T62+T63)/6</f>
+        <v>-7.7851831841319172E-4</v>
+      </c>
+      <c r="R83" s="146">
+        <f>R69*R68*(W61+4*W62+W63)/6</f>
+        <v>-2.030788132980788E-4</v>
+      </c>
+      <c r="S83" s="153">
+        <f>S69*S68*(V61+4*V62+V63)/6</f>
+        <v>-1.6307430711603175E-4</v>
+      </c>
+      <c r="T83" s="151" t="e">
+        <f>(R83+P83+N83)/N81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U83" s="152" t="e">
+        <f>(S83+Q83+O83)/O81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="O84" s="153"/>
+      <c r="Q84" s="153"/>
+      <c r="S84" s="153"/>
+      <c r="T84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="Q85" s="153"/>
+    </row>
+    <row r="86" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" s="146">
+        <f>N70*N68*0.5*(S61+S63)</f>
+        <v>8.9971803532692973E-4</v>
+      </c>
+      <c r="O86" s="153">
+        <f>O70*O68*0.5*(S61+S63)</f>
+        <v>8.9971803532692973E-4</v>
+      </c>
+      <c r="P86" s="146">
+        <f t="shared" ref="O86:S86" si="22">P70*P68*0.5*(U61+U63)</f>
+        <v>5.5519356226279562E-4</v>
+      </c>
+      <c r="Q86" s="153">
+        <f t="shared" si="22"/>
+        <v>5.4741487653101896E-4</v>
+      </c>
+      <c r="R86" s="146">
+        <f t="shared" si="22"/>
+        <v>-6.0399115420424238E-4</v>
+      </c>
+      <c r="S86" s="153">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="146">
+        <f>(R86+P86+N86)/$N$71</f>
+        <v>0.74086320540407258</v>
+      </c>
+      <c r="U86" s="3" t="e">
+        <f>(S86+Q86+O86)/O81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V86" s="118" t="str">
+        <f>N60</f>
+        <v>AB</v>
+      </c>
+    </row>
+    <row r="87" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N87" s="146">
+        <f>N70*N68*(S61+4*S62+S63)/6</f>
+        <v>8.9971803532692962E-4</v>
+      </c>
+      <c r="O87" s="153">
+        <f>O70*O68*(S61+4*S62+S63)/6</f>
+        <v>8.9971803532692962E-4</v>
+      </c>
+      <c r="P87" s="146">
+        <f t="shared" ref="O87:S87" si="23">P70*P68*(U61+4*U62+U63)/6</f>
+        <v>-2.084683923087554E-4</v>
+      </c>
+      <c r="Q87" s="153">
+        <f t="shared" si="23"/>
+        <v>3.7910629542342139E-4</v>
+      </c>
+      <c r="R87" s="146">
+        <f t="shared" si="23"/>
+        <v>-1.6185769750295485E-3</v>
+      </c>
+      <c r="S87" s="153">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="151" t="e">
+        <f>(R87+P87+N87)/N81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U87" s="152" t="e">
+        <f>(S87+Q87+O87)/O81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
+  <mergeCells count="136">
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="S59:W59"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -5297,85 +6358,103 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L33 K58:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:L37">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:L41">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L45">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:L49">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:L53">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:L57">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="120">
   <si>
     <r>
       <t>Uφ</t>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>Ux * nx</t>
+  </si>
+  <si>
+    <t>33-43-71</t>
   </si>
 </sst>
 </file>
@@ -11785,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11879,56 +11882,56 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.16434804458275601</v>
+        <v>0.209901671374076</v>
       </c>
       <c r="D2" s="5">
-        <v>-0.306231958188876</v>
+        <v>-0.31527911186869151</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E5" si="0">SQRT(D2*D2+C2*C2)</f>
-        <v>0.34754610050232049</v>
+        <v>0.37876065005005666</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F5" si="1">1/0.96*(E2-0.04/E2)</f>
-        <v>0.24213901604708857</v>
+        <v>0.28453443600823602</v>
       </c>
       <c r="G2" s="88">
         <f t="shared" ref="G2:G5" si="2">-F2*D2/E2</f>
-        <v>0.21335501946606511</v>
+        <v>0.2368455230734238</v>
       </c>
       <c r="H2" s="5">
         <v>0.213355019466066</v>
       </c>
       <c r="I2" s="88">
         <f t="shared" ref="I2:I9" si="3">F2*C2/E2</f>
-        <v>0.11450300764996178</v>
+        <v>0.15768336460959109</v>
       </c>
       <c r="J2" s="5">
         <v>0.114503007649962</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K9" si="4">ABS((G2-H2)/G2)*100</f>
-        <v>4.1629131666217638E-13</v>
+        <v>9.9180695089919748</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
-        <v>1.9392032531042902E-13</v>
+        <v>27.384218409176842</v>
       </c>
       <c r="M2" s="251">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
-        <v>0.2874644381839454</v>
+        <v>0.26796028818102563</v>
       </c>
       <c r="N2" s="253">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
-        <v>-1.2323469133988534</v>
+        <v>-1.1537099476059351</v>
       </c>
       <c r="O2" s="255">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
-        <v>0.85098641993448032</v>
+        <v>0.92962338572739811</v>
       </c>
       <c r="P2" s="251">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
-        <v>-0.2874644381839454</v>
+        <v>-0.26796028818102563</v>
       </c>
       <c r="Q2" s="239">
         <v>6.3629380283494004E-3</v>
@@ -16337,10 +16340,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16537,10 +16540,116 @@
         <v>11.114759747736748</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="273" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="274"/>
+      <c r="B17" s="146">
+        <v>0</v>
+      </c>
+      <c r="C17" s="271">
+        <v>0.29204598824893702</v>
+      </c>
+      <c r="D17" s="271">
+        <v>0.99578420321215</v>
+      </c>
+      <c r="E17" s="278">
+        <v>0.12922502054937299</v>
+      </c>
+      <c r="F17" s="148">
+        <v>6.5721405478509701E-3</v>
+      </c>
+      <c r="G17" s="148">
+        <f>C17*D17</f>
+        <v>0.29081478170977265</v>
+      </c>
+      <c r="H17" s="279">
+        <f>E17/F17</f>
+        <v>19.662546716477081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="274"/>
+      <c r="B18" s="269">
+        <v>1</v>
+      </c>
+      <c r="C18" s="272">
+        <v>0.14146439186075699</v>
+      </c>
+      <c r="D18" s="272">
+        <v>0.56899023143641003</v>
+      </c>
+      <c r="E18" s="276">
+        <v>0.132670033671275</v>
+      </c>
+      <c r="F18" s="132">
+        <v>6.5721405478509701E-3</v>
+      </c>
+      <c r="G18" s="132">
+        <f>C18*D18</f>
+        <v>8.0491857064863115E-2</v>
+      </c>
+      <c r="H18" s="280">
+        <f>E18/F18</f>
+        <v>20.186731051370607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="275"/>
+      <c r="B19" s="281">
+        <v>2</v>
+      </c>
+      <c r="C19" s="270">
+        <v>0.22015536064362801</v>
+      </c>
+      <c r="D19" s="270">
+        <v>-0.86035566494885096</v>
+      </c>
+      <c r="E19" s="277">
+        <v>0.23730672744308001</v>
+      </c>
+      <c r="F19" s="282">
+        <v>6.5721405478509701E-3</v>
+      </c>
+      <c r="G19" s="282">
+        <f>C19*D19</f>
+        <v>-0.18941191169860266</v>
+      </c>
+      <c r="H19" s="283">
+        <f>E19/F19</f>
+        <v>36.107981214838311</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
@@ -11788,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11881,57 +11881,57 @@
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.209901671374076</v>
+      <c r="C2">
+        <v>0.11572452687469635</v>
       </c>
       <c r="D2" s="5">
         <v>-0.31527911186869151</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E5" si="0">SQRT(D2*D2+C2*C2)</f>
-        <v>0.37876065005005666</v>
+        <v>0.33584681701794228</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F5" si="1">1/0.96*(E2-0.04/E2)</f>
-        <v>0.28453443600823602</v>
+        <v>0.22577593666632073</v>
       </c>
       <c r="G2" s="88">
         <f t="shared" ref="G2:G5" si="2">-F2*D2/E2</f>
-        <v>0.2368455230734238</v>
+        <v>0.21194911842703781</v>
       </c>
       <c r="H2" s="5">
         <v>0.213355019466066</v>
       </c>
       <c r="I2" s="88">
         <f t="shared" ref="I2:I9" si="3">F2*C2/E2</f>
-        <v>0.15768336460959109</v>
+        <v>7.7796817258522721E-2</v>
       </c>
       <c r="J2" s="5">
         <v>0.114503007649962</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K9" si="4">ABS((G2-H2)/G2)*100</f>
-        <v>9.9180695089919748</v>
+        <v>0.66332006920432518</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
-        <v>27.384218409176842</v>
+        <v>47.182123491585486</v>
       </c>
       <c r="M2" s="251">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
-        <v>0.26796028818102563</v>
+        <v>0.23898707823955934</v>
       </c>
       <c r="N2" s="253">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
-        <v>-1.1537099476059351</v>
+        <v>-1.3233534426094955</v>
       </c>
       <c r="O2" s="255">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
-        <v>0.92962338572739811</v>
+        <v>0.75997989072383798</v>
       </c>
       <c r="P2" s="251">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
-        <v>-0.26796028818102563</v>
+        <v>-0.23898707823955934</v>
       </c>
       <c r="Q2" s="239">
         <v>6.3629380283494004E-3</v>
@@ -16340,10 +16340,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16645,6 +16645,35 @@
         <v>36.107981214838311</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="263">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5.5247601130158697E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.17620145261923401</v>
+      </c>
+      <c r="D23">
+        <f>0.5*(B23+C23)</f>
+        <v>0.11572452687469635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-0.23074400502558101</v>
+      </c>
+      <c r="C24">
+        <v>-0.43491219231170802</v>
+      </c>
+      <c r="D24">
+        <f>0.5*(B24+C24)</f>
+        <v>-0.33282809866864449</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:A9"/>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
   <si>
     <r>
       <t>Uφ</t>
@@ -1057,6 +1057,21 @@
   <si>
     <t>33-43-71</t>
   </si>
+  <si>
+    <t>43(92)</t>
+  </si>
+  <si>
+    <t>dP/dx ан</t>
+  </si>
+  <si>
+    <t>dP/dx числ</t>
+  </si>
+  <si>
+    <t>dP/dy ан</t>
+  </si>
+  <si>
+    <t>dP/dy числ</t>
+  </si>
 </sst>
 </file>
 
@@ -1190,7 +1205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1980,13 +1995,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2447,333 +2490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2785,9 +2501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2801,15 +2514,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
@@ -2823,6 +2527,351 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3237,11 +3286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232462976"/>
-        <c:axId val="232468864"/>
+        <c:axId val="150215296"/>
+        <c:axId val="150225280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232462976"/>
+        <c:axId val="150215296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232468864"/>
+        <c:crossAx val="150225280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3259,7 +3308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232468864"/>
+        <c:axId val="150225280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,7 +3319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232462976"/>
+        <c:crossAx val="150215296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3429,11 +3478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232506496"/>
-        <c:axId val="232508032"/>
+        <c:axId val="150267008"/>
+        <c:axId val="150268544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232506496"/>
+        <c:axId val="150267008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232508032"/>
+        <c:crossAx val="150268544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3451,7 +3500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232508032"/>
+        <c:axId val="150268544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,7 +3511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232506496"/>
+        <c:crossAx val="150267008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3621,11 +3670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232996224"/>
-        <c:axId val="233014400"/>
+        <c:axId val="236596608"/>
+        <c:axId val="236614784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232996224"/>
+        <c:axId val="236596608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233014400"/>
+        <c:crossAx val="236614784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3643,7 +3692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233014400"/>
+        <c:axId val="236614784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232996224"/>
+        <c:crossAx val="236596608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3706,7 +3755,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3813,11 +3861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233076992"/>
-        <c:axId val="233082880"/>
+        <c:axId val="236689664"/>
+        <c:axId val="236691456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233076992"/>
+        <c:axId val="236689664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233082880"/>
+        <c:crossAx val="236691456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3835,7 +3883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233082880"/>
+        <c:axId val="236691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,14 +3894,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233076992"/>
+        <c:crossAx val="236689664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3898,7 +3945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4005,11 +4051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232720640"/>
-        <c:axId val="232734720"/>
+        <c:axId val="236339968"/>
+        <c:axId val="236341504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232720640"/>
+        <c:axId val="236339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232734720"/>
+        <c:crossAx val="236341504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232734720"/>
+        <c:axId val="236341504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,14 +4084,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232720640"/>
+        <c:crossAx val="236339968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4090,7 +4135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4197,11 +4241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233030784"/>
-        <c:axId val="233032320"/>
+        <c:axId val="236350464"/>
+        <c:axId val="236356352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233030784"/>
+        <c:axId val="236350464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233032320"/>
+        <c:crossAx val="236356352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4219,7 +4263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233032320"/>
+        <c:axId val="236356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,14 +4274,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233030784"/>
+        <c:crossAx val="236350464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4282,7 +4325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4389,11 +4431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233053568"/>
-        <c:axId val="232862848"/>
+        <c:axId val="236467712"/>
+        <c:axId val="236469248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233053568"/>
+        <c:axId val="236467712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232862848"/>
+        <c:crossAx val="236469248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4411,7 +4453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232862848"/>
+        <c:axId val="236469248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,14 +4464,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233053568"/>
+        <c:crossAx val="236467712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4474,7 +4515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4581,11 +4621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232898944"/>
-        <c:axId val="232900480"/>
+        <c:axId val="236511232"/>
+        <c:axId val="236512768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232898944"/>
+        <c:axId val="236511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232900480"/>
+        <c:crossAx val="236512768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4603,7 +4643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232900480"/>
+        <c:axId val="236512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4614,14 +4654,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232898944"/>
+        <c:crossAx val="236511232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4666,7 +4705,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4773,11 +4811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233392384"/>
-        <c:axId val="233394176"/>
+        <c:axId val="236996864"/>
+        <c:axId val="237002752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233392384"/>
+        <c:axId val="236996864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +4825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233394176"/>
+        <c:crossAx val="237002752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4795,7 +4833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233394176"/>
+        <c:axId val="237002752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,14 +4844,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233392384"/>
+        <c:crossAx val="236996864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5509,7 +5546,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="172">
+      <c r="A2" s="194">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -5551,36 +5588,36 @@
         <f t="shared" ref="L2:L25" si="5">ABS((I2-J2)/I2)*100</f>
         <v>3.3723034059475925E-13</v>
       </c>
-      <c r="M2" s="175">
+      <c r="M2" s="197">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="N2" s="177">
+      <c r="N2" s="199">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="O2" s="177">
+      <c r="O2" s="199">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
-      <c r="P2" s="196">
+      <c r="P2" s="213">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="171">
+      <c r="R2" s="202">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="171"/>
+      <c r="S2" s="202"/>
       <c r="T2" s="89">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -5620,10 +5657,10 @@
         <f t="shared" si="5"/>
         <v>0.72551978764627878</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="197"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="214"/>
       <c r="Q3" s="32">
         <v>0.45244023302814301</v>
       </c>
@@ -5640,7 +5677,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5680,16 +5717,16 @@
         <f t="shared" si="5"/>
         <v>1.1629029749998882E-2</v>
       </c>
-      <c r="M4" s="176">
+      <c r="M4" s="198">
         <v>-0.35902692542820103</v>
       </c>
-      <c r="N4" s="183">
+      <c r="N4" s="190">
         <v>-1.0914897024077701</v>
       </c>
-      <c r="O4" s="183">
+      <c r="O4" s="190">
         <v>1.0420345935290301</v>
       </c>
-      <c r="P4" s="198">
+      <c r="P4" s="215">
         <v>0.114810566882702</v>
       </c>
       <c r="Q4" s="32">
@@ -5708,7 +5745,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -5748,10 +5785,10 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="194"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="199"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="216"/>
       <c r="Q5" s="33">
         <v>-0.98926814124435303</v>
       </c>
@@ -5768,7 +5805,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="190">
+      <c r="A6" s="207">
         <v>24</v>
       </c>
       <c r="B6" s="4">
@@ -5810,36 +5847,36 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="188">
+      <c r="M6" s="205">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
-      <c r="N6" s="177">
+      <c r="N6" s="199">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.1173271853216982</v>
       </c>
-      <c r="O6" s="177">
+      <c r="O6" s="199">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
-      <c r="P6" s="201">
+      <c r="P6" s="218">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.18139049879196079</v>
       </c>
       <c r="Q6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="171">
+      <c r="R6" s="202">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="171"/>
+      <c r="S6" s="202"/>
       <c r="T6" s="89">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -5879,10 +5916,10 @@
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="189"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="202"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="219"/>
       <c r="Q7" s="32">
         <v>0.72378501135020201</v>
       </c>
@@ -5899,7 +5936,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="32">
         <v>2</v>
       </c>
@@ -5939,16 +5976,16 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="186">
+      <c r="M8" s="203">
         <v>0.107045965641376</v>
       </c>
-      <c r="N8" s="183">
+      <c r="N8" s="190">
         <v>-1.4426364972369801</v>
       </c>
-      <c r="O8" s="183">
+      <c r="O8" s="190">
         <v>0.67080947092479504</v>
       </c>
-      <c r="P8" s="180">
+      <c r="P8" s="192">
         <v>3.5326281585875897E-2</v>
       </c>
       <c r="Q8" s="32">
@@ -5967,7 +6004,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="33">
         <v>3</v>
       </c>
@@ -6007,10 +6044,10 @@
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="204"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="203"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="220"/>
       <c r="Q9" s="33">
         <v>-0.68918261371289802</v>
       </c>
@@ -6027,7 +6064,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="172">
+      <c r="A10" s="194">
         <v>26</v>
       </c>
       <c r="B10" s="6">
@@ -6069,36 +6106,36 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="188">
+      <c r="M10" s="205">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
-      <c r="N10" s="177">
+      <c r="N10" s="199">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-1.119777714966725</v>
       </c>
-      <c r="O10" s="177">
+      <c r="O10" s="199">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>0.96355561836660841</v>
       </c>
-      <c r="P10" s="179">
+      <c r="P10" s="201">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.18335935345765342</v>
       </c>
       <c r="Q10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="171">
+      <c r="R10" s="202">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="171"/>
+      <c r="S10" s="202"/>
       <c r="T10" s="89">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -6138,10 +6175,10 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="189"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="180"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="192"/>
       <c r="Q11" s="32">
         <v>1.7637427872387802E-2</v>
       </c>
@@ -6158,7 +6195,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -6198,16 +6235,16 @@
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="186">
+      <c r="M12" s="203">
         <v>-0.104824971018492</v>
       </c>
-      <c r="N12" s="183">
+      <c r="N12" s="190">
         <v>-1.46024818061613</v>
       </c>
-      <c r="O12" s="183">
+      <c r="O12" s="190">
         <v>0.652876492651698</v>
       </c>
-      <c r="P12" s="180">
+      <c r="P12" s="192">
         <v>-6.3455090952697002E-3</v>
       </c>
       <c r="Q12" s="32">
@@ -6226,7 +6263,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -6266,10 +6303,10 @@
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="187"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="193"/>
       <c r="Q13" s="33">
         <v>-0.69360879939984899</v>
       </c>
@@ -6286,7 +6323,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="172">
+      <c r="A14" s="194">
         <v>28</v>
       </c>
       <c r="B14" s="6">
@@ -6328,36 +6365,36 @@
         <f t="shared" si="5"/>
         <v>5.4943361466831562E-14</v>
       </c>
-      <c r="M14" s="175">
+      <c r="M14" s="197">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>3.7302354651390701E-2</v>
       </c>
-      <c r="N14" s="177">
+      <c r="N14" s="199">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.2322201399103134</v>
       </c>
-      <c r="O14" s="177">
+      <c r="O14" s="199">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.85111319342302016</v>
       </c>
-      <c r="P14" s="179">
+      <c r="P14" s="201">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>-3.7302354651390701E-2</v>
       </c>
       <c r="Q14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="171">
+      <c r="R14" s="202">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="171"/>
+      <c r="S14" s="202"/>
       <c r="T14" s="89">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -6397,10 +6434,10 @@
         <f t="shared" si="5"/>
         <v>15.241017762524722</v>
       </c>
-      <c r="M15" s="176"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="180"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="192"/>
       <c r="Q15" s="32">
         <v>-0.36645744143242598</v>
       </c>
@@ -6417,7 +6454,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -6457,16 +6494,16 @@
         <f t="shared" si="5"/>
         <v>12.693444312828831</v>
       </c>
-      <c r="M16" s="176">
+      <c r="M16" s="198">
         <v>-0.25599602913307401</v>
       </c>
-      <c r="N16" s="183">
+      <c r="N16" s="190">
         <v>-1.2419024142499</v>
       </c>
-      <c r="O16" s="183">
+      <c r="O16" s="190">
         <v>0.85538374952637497</v>
       </c>
-      <c r="P16" s="180">
+      <c r="P16" s="192">
         <v>0.347942132695155</v>
       </c>
       <c r="Q16" s="32">
@@ -6485,7 +6522,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="193"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="14">
         <v>3</v>
       </c>
@@ -6525,10 +6562,10 @@
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="195"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="193"/>
       <c r="Q17" s="33">
         <v>0.96875826977258095</v>
       </c>
@@ -6545,7 +6582,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="172">
+      <c r="A18" s="194">
         <v>54</v>
       </c>
       <c r="B18" s="6">
@@ -6587,36 +6624,36 @@
         <f t="shared" si="5"/>
         <v>7.5054346470546418E-13</v>
       </c>
-      <c r="M18" s="175">
+      <c r="M18" s="197">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-2.5222044975306834E-2</v>
       </c>
-      <c r="N18" s="177">
+      <c r="N18" s="199">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-1.396649583736314</v>
       </c>
-      <c r="O18" s="177">
+      <c r="O18" s="199">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>0.68668374959701939</v>
       </c>
-      <c r="P18" s="179">
+      <c r="P18" s="201">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>2.5222044975306834E-2</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="171">
+      <c r="R18" s="202">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="171"/>
+      <c r="S18" s="202"/>
       <c r="T18" s="89">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -6656,10 +6693,10 @@
         <f t="shared" si="5"/>
         <v>1.0982352701840603</v>
       </c>
-      <c r="M19" s="176"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="180"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="192"/>
       <c r="Q19" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -6676,7 +6713,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -6716,16 +6753,16 @@
         <f t="shared" si="5"/>
         <v>189.32564522623034</v>
       </c>
-      <c r="M20" s="181">
+      <c r="M20" s="188">
         <v>-0.28508076834840401</v>
       </c>
-      <c r="N20" s="183">
+      <c r="N20" s="190">
         <v>-1.23675617757671</v>
       </c>
-      <c r="O20" s="183">
+      <c r="O20" s="190">
         <v>0.66058979494532</v>
       </c>
-      <c r="P20" s="180">
+      <c r="P20" s="192">
         <v>-0.22494890238236101</v>
       </c>
       <c r="Q20" s="32">
@@ -6744,7 +6781,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="3">
         <v>3</v>
       </c>
@@ -6784,10 +6821,10 @@
         <f t="shared" si="5"/>
         <v>47.471908953919247</v>
       </c>
-      <c r="M21" s="182"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="193"/>
       <c r="Q21" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -6804,7 +6841,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="172">
+      <c r="A22" s="194">
         <v>65</v>
       </c>
       <c r="B22" s="6">
@@ -6846,36 +6883,36 @@
         <f t="shared" si="5"/>
         <v>5.5293279847705724E-13</v>
       </c>
-      <c r="M22" s="175">
+      <c r="M22" s="197">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>1.1739570444985466E-2</v>
       </c>
-      <c r="N22" s="177">
+      <c r="N22" s="199">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.32321186477652114</v>
       </c>
-      <c r="O22" s="177">
+      <c r="O22" s="199">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.7601214685568123</v>
       </c>
-      <c r="P22" s="179">
+      <c r="P22" s="201">
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>-1.1739570444985466E-2</v>
       </c>
       <c r="Q22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="171">
+      <c r="R22" s="202">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="171"/>
+      <c r="S22" s="202"/>
       <c r="T22" s="89">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="2">
         <v>1</v>
       </c>
@@ -6915,10 +6952,10 @@
         <f t="shared" si="5"/>
         <v>6.0882051645650987</v>
       </c>
-      <c r="M23" s="176"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="180"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="200"/>
+      <c r="P23" s="192"/>
       <c r="Q23" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -6935,7 +6972,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
@@ -6975,16 +7012,16 @@
         <f t="shared" si="5"/>
         <v>5.5017023450664944</v>
       </c>
-      <c r="M24" s="181">
+      <c r="M24" s="188">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N24" s="183">
+      <c r="N24" s="190">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O24" s="183">
+      <c r="O24" s="190">
         <v>1.49634410244349</v>
       </c>
-      <c r="P24" s="180">
+      <c r="P24" s="192">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q24" s="32">
@@ -7003,7 +7040,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -7043,10 +7080,10 @@
         <f t="shared" si="5"/>
         <v>70.433005295552604</v>
       </c>
-      <c r="M25" s="182"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="193"/>
       <c r="Q25" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -7063,7 +7100,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="172">
+      <c r="A26" s="194">
         <v>40</v>
       </c>
       <c r="B26" s="6">
@@ -7105,36 +7142,36 @@
         <f t="shared" ref="L26:L57" si="11">ABS((I26-J26)/I26)*100</f>
         <v>1.2677908622990758E-13</v>
       </c>
-      <c r="M26" s="175">
+      <c r="M26" s="197">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-1.0712010084713345E-2</v>
       </c>
-      <c r="N26" s="177">
+      <c r="N26" s="199">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-0.77543851138881104</v>
       </c>
-      <c r="O26" s="177">
+      <c r="O26" s="199">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>1.3078948219445226</v>
       </c>
-      <c r="P26" s="179">
+      <c r="P26" s="201">
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>1.0712010084713345E-2</v>
       </c>
       <c r="Q26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="171">
+      <c r="R26" s="202">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="171"/>
+      <c r="S26" s="202"/>
       <c r="T26" s="89">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -7174,10 +7211,10 @@
         <f t="shared" si="11"/>
         <v>0.67638289986923728</v>
       </c>
-      <c r="M27" s="176"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="180"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="192"/>
       <c r="Q27" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -7194,7 +7231,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -7234,16 +7271,16 @@
         <f t="shared" si="11"/>
         <v>0.58991472309042969</v>
       </c>
-      <c r="M28" s="181">
+      <c r="M28" s="188">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N28" s="183">
+      <c r="N28" s="190">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O28" s="183">
+      <c r="O28" s="190">
         <v>1.49634410244349</v>
       </c>
-      <c r="P28" s="180">
+      <c r="P28" s="192">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q28" s="32">
@@ -7262,7 +7299,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="174"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="3">
         <v>3</v>
       </c>
@@ -7302,10 +7339,10 @@
         <f t="shared" si="11"/>
         <v>0.21526713587012794</v>
       </c>
-      <c r="M29" s="182"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="185"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="193"/>
       <c r="Q29" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -7322,7 +7359,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156">
+      <c r="A30" s="173">
         <v>541</v>
       </c>
       <c r="B30" s="68">
@@ -7364,36 +7401,36 @@
         <f t="shared" si="11"/>
         <v>8.4379600867631483E-3</v>
       </c>
-      <c r="M30" s="159">
+      <c r="M30" s="176">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>-5.4975002363563528E-2</v>
       </c>
-      <c r="N30" s="161">
+      <c r="N30" s="178">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.95330562940850405</v>
       </c>
-      <c r="O30" s="161">
+      <c r="O30" s="178">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1300277039248292</v>
       </c>
-      <c r="P30" s="163">
+      <c r="P30" s="180">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>5.4975002363563528E-2</v>
       </c>
       <c r="Q30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="165">
+      <c r="R30" s="182">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="165"/>
+      <c r="S30" s="182"/>
       <c r="T30" s="74">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.14638409399961166</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="75">
         <v>1</v>
       </c>
@@ -7433,10 +7470,10 @@
         <f t="shared" si="11"/>
         <v>1.0374368421133059E-2</v>
       </c>
-      <c r="M31" s="160"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="164"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="179"/>
+      <c r="P31" s="181"/>
       <c r="Q31" s="81">
         <v>-0.97492791218182395</v>
       </c>
@@ -7453,7 +7490,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="75">
         <v>2</v>
       </c>
@@ -7493,16 +7530,16 @@
         <f t="shared" si="11"/>
         <v>1.5704774317678711E-2</v>
       </c>
-      <c r="M32" s="166">
+      <c r="M32" s="183">
         <v>-1.25962993460506E-2</v>
       </c>
-      <c r="N32" s="168">
+      <c r="N32" s="185">
         <v>-0.99529561078374396</v>
       </c>
-      <c r="O32" s="168">
+      <c r="O32" s="185">
         <v>1.08721830086341</v>
       </c>
-      <c r="P32" s="164">
+      <c r="P32" s="181">
         <v>1.1730945975606999E-2</v>
       </c>
       <c r="Q32" s="81">
@@ -7521,7 +7558,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
+      <c r="A33" s="175"/>
       <c r="B33" s="82">
         <v>3</v>
       </c>
@@ -7561,10 +7598,10 @@
         <f t="shared" si="11"/>
         <v>2.2994812962997525E-2</v>
       </c>
-      <c r="M33" s="167"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="170"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="187"/>
       <c r="Q33" s="87">
         <v>0.79122370800502395</v>
       </c>
@@ -7581,7 +7618,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="172">
+      <c r="A34" s="194">
         <v>364</v>
       </c>
       <c r="B34" s="6">
@@ -7623,19 +7660,19 @@
         <f t="shared" si="11"/>
         <v>8.757841435151098E-2</v>
       </c>
-      <c r="M34" s="175">
+      <c r="M34" s="197">
         <f>-1/12*C34*D34/(D34*D34+C34*C34)^2</f>
         <v>-0.74915312973798254</v>
       </c>
-      <c r="N34" s="177">
+      <c r="N34" s="199">
         <f>-1/0.96*(1-0.04*(C34*C34-D34*D34)/(C34*C34+D34*D34)^2)</f>
         <v>-1.077243536808574</v>
       </c>
-      <c r="O34" s="177">
+      <c r="O34" s="199">
         <f>1/0.96*(1-0.04*(D34*D34-C34*C34)/(C34*C34+D34*D34)^2)</f>
         <v>1.0060897965247595</v>
       </c>
-      <c r="P34" s="179">
+      <c r="P34" s="201">
         <f>1/12*C34*D34/(C34*C34+D34*D34)^2</f>
         <v>0.74915312973798254</v>
       </c>
@@ -7647,7 +7684,7 @@
       <c r="T34" s="89"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="195"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -7687,10 +7724,10 @@
         <f t="shared" si="11"/>
         <v>2.4713981783796362</v>
       </c>
-      <c r="M35" s="176"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="180"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="200"/>
+      <c r="O35" s="200"/>
+      <c r="P35" s="192"/>
       <c r="Q35" s="37">
         <v>-4.2545420685385204E-3</v>
       </c>
@@ -7699,7 +7736,7 @@
       <c r="T35" s="30"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
+      <c r="A36" s="195"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -7739,16 +7776,16 @@
         <f t="shared" si="11"/>
         <v>1.9528489641282589</v>
       </c>
-      <c r="M36" s="181">
+      <c r="M36" s="188">
         <v>-0.81932865874933403</v>
       </c>
-      <c r="N36" s="183">
+      <c r="N36" s="190">
         <v>-1.02900896566263</v>
       </c>
-      <c r="O36" s="183">
+      <c r="O36" s="190">
         <v>0.97651165749386404</v>
       </c>
-      <c r="P36" s="180">
+      <c r="P36" s="192">
         <v>0.64829219454167797</v>
       </c>
       <c r="Q36" s="37">
@@ -7759,7 +7796,7 @@
       <c r="T36" s="30"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="174"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="3">
         <v>3</v>
       </c>
@@ -7799,10 +7836,10 @@
         <f t="shared" si="11"/>
         <v>5.0563743893562583</v>
       </c>
-      <c r="M37" s="182"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="185"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="191"/>
+      <c r="P37" s="193"/>
       <c r="Q37" s="38">
         <v>2.0125580093833398E-3</v>
       </c>
@@ -7811,7 +7848,7 @@
       <c r="T37" s="31"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="172">
+      <c r="A38" s="194">
         <v>1477</v>
       </c>
       <c r="B38" s="6">
@@ -7853,19 +7890,19 @@
         <f t="shared" si="11"/>
         <v>7.2506796530203976</v>
       </c>
-      <c r="M38" s="175">
+      <c r="M38" s="197">
         <f>-1/12*C38*D38/(D38*D38+C38*C38)^2</f>
         <v>-0.89589115662280894</v>
       </c>
-      <c r="N38" s="177">
+      <c r="N38" s="199">
         <f>-1/0.96*(1-0.04*(C38*C38-D38*D38)/(C38*C38+D38*D38)^2)</f>
         <v>-1.2459915106056709</v>
       </c>
-      <c r="O38" s="177">
+      <c r="O38" s="199">
         <f>1/0.96*(1-0.04*(D38*D38-C38*C38)/(C38*C38+D38*D38)^2)</f>
         <v>0.83734182272766244</v>
       </c>
-      <c r="P38" s="179">
+      <c r="P38" s="201">
         <f>1/12*C38*D38/(C38*C38+D38*D38)^2</f>
         <v>0.89589115662280894</v>
       </c>
@@ -7877,7 +7914,7 @@
       <c r="T38" s="89"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
+      <c r="A39" s="195"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -7917,10 +7954,10 @@
         <f t="shared" si="11"/>
         <v>4.3770827275401603</v>
       </c>
-      <c r="M39" s="176"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="180"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="192"/>
       <c r="Q39" s="37">
         <v>-2.0144207752970699E-3</v>
       </c>
@@ -7929,7 +7966,7 @@
       <c r="T39" s="30"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
+      <c r="A40" s="195"/>
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -7969,16 +8006,16 @@
         <f t="shared" si="11"/>
         <v>3.5540070206130996</v>
       </c>
-      <c r="M40" s="181">
+      <c r="M40" s="188">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N40" s="183">
+      <c r="N40" s="190">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O40" s="183">
+      <c r="O40" s="190">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P40" s="180">
+      <c r="P40" s="192">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q40" s="37">
@@ -7989,7 +8026,7 @@
       <c r="T40" s="30"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="174"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="3">
         <v>3</v>
       </c>
@@ -8029,10 +8066,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M41" s="182"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="185"/>
+      <c r="M41" s="189"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="193"/>
       <c r="Q41" s="38">
         <v>0</v>
       </c>
@@ -8041,7 +8078,7 @@
       <c r="T41" s="31"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="172">
+      <c r="A42" s="194">
         <v>2852</v>
       </c>
       <c r="B42" s="6">
@@ -8083,19 +8120,19 @@
         <f t="shared" si="11"/>
         <v>0.25179480584294195</v>
       </c>
-      <c r="M42" s="175">
+      <c r="M42" s="197">
         <f>-1/12*C42*D42/(D42*D42+C42*C42)^2</f>
         <v>-0.59325541444884999</v>
       </c>
-      <c r="N42" s="177">
+      <c r="N42" s="199">
         <f>-1/0.96*(1-0.04*(C42*C42-D42*D42)/(C42*C42+D42*D42)^2)</f>
         <v>-1.1022704793938467</v>
       </c>
-      <c r="O42" s="177">
+      <c r="O42" s="199">
         <f>1/0.96*(1-0.04*(D42*D42-C42*C42)/(C42*C42+D42*D42)^2)</f>
         <v>0.98106285393948667</v>
       </c>
-      <c r="P42" s="179">
+      <c r="P42" s="201">
         <f>1/12*C42*D42/(C42*C42+D42*D42)^2</f>
         <v>0.59325541444884999</v>
       </c>
@@ -8107,7 +8144,7 @@
       <c r="T42" s="89"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
+      <c r="A43" s="195"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
@@ -8147,10 +8184,10 @@
         <f t="shared" si="11"/>
         <v>0.84776082712530121</v>
       </c>
-      <c r="M43" s="176"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="178"/>
-      <c r="P43" s="180"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="200"/>
+      <c r="O43" s="200"/>
+      <c r="P43" s="192"/>
       <c r="Q43" s="37">
         <v>-1.70347245203076E-3</v>
       </c>
@@ -8159,7 +8196,7 @@
       <c r="T43" s="30"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
+      <c r="A44" s="195"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -8199,16 +8236,16 @@
         <f t="shared" si="11"/>
         <v>0.13202000465184724</v>
       </c>
-      <c r="M44" s="181">
+      <c r="M44" s="188">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N44" s="183">
+      <c r="N44" s="190">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O44" s="183">
+      <c r="O44" s="190">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P44" s="180">
+      <c r="P44" s="192">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q44" s="37">
@@ -8219,7 +8256,7 @@
       <c r="T44" s="30"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="174"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -8259,10 +8296,10 @@
         <f t="shared" si="11"/>
         <v>2.8075979279215228E-2</v>
       </c>
-      <c r="M45" s="182"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="184"/>
-      <c r="P45" s="185"/>
+      <c r="M45" s="189"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="191"/>
+      <c r="P45" s="193"/>
       <c r="Q45" s="38">
         <v>6.0950430441033899E-3</v>
       </c>
@@ -8271,7 +8308,7 @@
       <c r="T45" s="31"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="172">
+      <c r="A46" s="194">
         <v>237</v>
       </c>
       <c r="B46" s="6">
@@ -8313,19 +8350,19 @@
         <f t="shared" si="11"/>
         <v>5.1692699909145672E-3</v>
       </c>
-      <c r="M46" s="175">
+      <c r="M46" s="197">
         <f>-1/12*C46*D46/(D46*D46+C46*C46)^2</f>
         <v>-0.72482274799905011</v>
       </c>
-      <c r="N46" s="177">
+      <c r="N46" s="199">
         <f>-1/0.96*(1-0.04*(C46*C46-D46*D46)/(C46*C46+D46*D46)^2)</f>
         <v>-0.88585197977901009</v>
       </c>
-      <c r="O46" s="177">
+      <c r="O46" s="199">
         <f>1/0.96*(1-0.04*(D46*D46-C46*C46)/(C46*C46+D46*D46)^2)</f>
         <v>1.1974813535543234</v>
       </c>
-      <c r="P46" s="179">
+      <c r="P46" s="201">
         <f>1/12*C46*D46/(C46*C46+D46*D46)^2</f>
         <v>0.72482274799905011</v>
       </c>
@@ -8337,7 +8374,7 @@
       <c r="T46" s="89"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="2">
         <v>1</v>
       </c>
@@ -8377,10 +8414,10 @@
         <f t="shared" si="11"/>
         <v>0.40224140696394439</v>
       </c>
-      <c r="M47" s="176"/>
-      <c r="N47" s="178"/>
-      <c r="O47" s="178"/>
-      <c r="P47" s="180"/>
+      <c r="M47" s="198"/>
+      <c r="N47" s="200"/>
+      <c r="O47" s="200"/>
+      <c r="P47" s="192"/>
       <c r="Q47" s="37">
         <v>-1.5975050735224101E-3</v>
       </c>
@@ -8389,7 +8426,7 @@
       <c r="T47" s="30"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="173"/>
+      <c r="A48" s="195"/>
       <c r="B48" s="2">
         <v>2</v>
       </c>
@@ -8429,16 +8466,16 @@
         <f t="shared" si="11"/>
         <v>0.29395645400747134</v>
       </c>
-      <c r="M48" s="181">
+      <c r="M48" s="188">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N48" s="183">
+      <c r="N48" s="190">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O48" s="183">
+      <c r="O48" s="190">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P48" s="180">
+      <c r="P48" s="192">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q48" s="37">
@@ -8449,7 +8486,7 @@
       <c r="T48" s="30"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="174"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="3">
         <v>3</v>
       </c>
@@ -8489,10 +8526,10 @@
         <f t="shared" si="11"/>
         <v>2.1894015682650338</v>
       </c>
-      <c r="M49" s="182"/>
-      <c r="N49" s="184"/>
-      <c r="O49" s="184"/>
-      <c r="P49" s="185"/>
+      <c r="M49" s="189"/>
+      <c r="N49" s="191"/>
+      <c r="O49" s="191"/>
+      <c r="P49" s="193"/>
       <c r="Q49" s="38">
         <v>-2.1360094564363799E-3</v>
       </c>
@@ -8501,7 +8538,7 @@
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="211">
+      <c r="A50" s="228">
         <v>265</v>
       </c>
       <c r="B50" s="40">
@@ -8543,19 +8580,19 @@
         <f t="shared" si="11"/>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M50" s="214">
+      <c r="M50" s="231">
         <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N50" s="216">
+      <c r="N50" s="233">
         <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O50" s="216">
+      <c r="O50" s="233">
         <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P50" s="218">
+      <c r="P50" s="235">
         <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -8567,7 +8604,7 @@
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="212"/>
+      <c r="A51" s="229"/>
       <c r="B51" s="49">
         <v>1</v>
       </c>
@@ -8607,10 +8644,10 @@
         <f t="shared" si="11"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M51" s="215"/>
-      <c r="N51" s="217"/>
-      <c r="O51" s="217"/>
-      <c r="P51" s="209"/>
+      <c r="M51" s="232"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="234"/>
+      <c r="P51" s="226"/>
       <c r="Q51" s="55">
         <v>-1.76483335659508E-3</v>
       </c>
@@ -8619,7 +8656,7 @@
       <c r="T51" s="50"/>
     </row>
     <row r="52" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="212"/>
+      <c r="A52" s="229"/>
       <c r="B52" s="49">
         <v>2</v>
       </c>
@@ -8659,16 +8696,16 @@
         <f t="shared" si="11"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M52" s="205">
+      <c r="M52" s="222">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N52" s="207">
+      <c r="N52" s="224">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O52" s="207">
+      <c r="O52" s="224">
         <v>1.38140952302927</v>
       </c>
-      <c r="P52" s="209">
+      <c r="P52" s="226">
         <v>0.693161263386181</v>
       </c>
       <c r="Q52" s="55">
@@ -8679,7 +8716,7 @@
       <c r="T52" s="50"/>
     </row>
     <row r="53" spans="1:23" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="213"/>
+      <c r="A53" s="230"/>
       <c r="B53" s="56">
         <v>3</v>
       </c>
@@ -8719,10 +8756,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M53" s="206"/>
-      <c r="N53" s="208"/>
-      <c r="O53" s="208"/>
-      <c r="P53" s="210"/>
+      <c r="M53" s="223"/>
+      <c r="N53" s="225"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="227"/>
       <c r="Q53" s="61">
         <v>0</v>
       </c>
@@ -8731,7 +8768,7 @@
       <c r="T53" s="58"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="172">
+      <c r="A54" s="194">
         <v>1419</v>
       </c>
       <c r="B54" s="6">
@@ -8773,19 +8810,19 @@
         <f t="shared" si="11"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M54" s="175">
+      <c r="M54" s="197">
         <f>-1/12*C54*D54/(D54*D54+C54*C54)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N54" s="177">
+      <c r="N54" s="199">
         <f>-1/0.96*(1-0.04*(C54*C54-D54*D54)/(C54*C54+D54*D54)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O54" s="177">
+      <c r="O54" s="199">
         <f>1/0.96*(1-0.04*(D54*D54-C54*C54)/(C54*C54+D54*D54)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P54" s="179">
+      <c r="P54" s="201">
         <f>1/12*C54*D54/(C54*C54+D54*D54)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -8797,7 +8834,7 @@
       <c r="T54" s="89"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="173"/>
+      <c r="A55" s="195"/>
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -8837,10 +8874,10 @@
         <f t="shared" si="11"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M55" s="176"/>
-      <c r="N55" s="178"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="180"/>
+      <c r="M55" s="198"/>
+      <c r="N55" s="200"/>
+      <c r="O55" s="200"/>
+      <c r="P55" s="192"/>
       <c r="Q55" s="37">
         <v>-1.5541388968049301E-3</v>
       </c>
@@ -8849,7 +8886,7 @@
       <c r="T55" s="30"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="173"/>
+      <c r="A56" s="195"/>
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -8889,16 +8926,16 @@
         <f t="shared" si="11"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M56" s="181">
+      <c r="M56" s="188">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N56" s="183">
+      <c r="N56" s="190">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O56" s="183">
+      <c r="O56" s="190">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P56" s="180">
+      <c r="P56" s="192">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q56" s="37">
@@ -8909,7 +8946,7 @@
       <c r="T56" s="30"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="174"/>
+      <c r="A57" s="196"/>
       <c r="B57" s="14">
         <v>3</v>
       </c>
@@ -8949,10 +8986,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M57" s="182"/>
-      <c r="N57" s="184"/>
-      <c r="O57" s="184"/>
-      <c r="P57" s="185"/>
+      <c r="M57" s="189"/>
+      <c r="N57" s="191"/>
+      <c r="O57" s="191"/>
+      <c r="P57" s="193"/>
       <c r="Q57" s="38">
         <v>0</v>
       </c>
@@ -9017,20 +9054,20 @@
         <f t="shared" si="9"/>
         <v>4.8513512095965501E-2</v>
       </c>
-      <c r="N59" s="154" t="s">
+      <c r="N59" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="154"/>
-      <c r="P59" s="154"/>
-      <c r="Q59" s="154"/>
-      <c r="R59" s="154"/>
-      <c r="S59" s="155" t="s">
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="155"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="155"/>
-      <c r="W59" s="155"/>
+      <c r="T59" s="172"/>
+      <c r="U59" s="172"/>
+      <c r="V59" s="172"/>
+      <c r="W59" s="172"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B60" s="30" t="s">
@@ -9099,7 +9136,7 @@
         <v>0.113482870854482</v>
       </c>
       <c r="E61" s="30">
-        <f t="shared" ref="E61" si="12">SQRT(D61*D61+C61*C61)</f>
+        <f>SQRT(D61*D61+C61*C61)</f>
         <v>0.18408045950325605</v>
       </c>
       <c r="F61" s="30">
@@ -9111,7 +9148,7 @@
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="90">
-        <f t="shared" ref="I61" si="13">F61*C61/E61</f>
+        <f>F61*C61/E61</f>
         <v>-2.7242738842588331E-2</v>
       </c>
       <c r="M61" s="1">
@@ -9167,27 +9204,27 @@
         <v>0.19306910293436549</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:I64" si="14">0.5*(D58+D59)</f>
+        <f t="shared" ref="D62:I64" si="12">0.5*(D58+D59)</f>
         <v>0.12766838731105251</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.23255906611877844</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.301568893898854E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-3.5156996499593252E-2</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.1944373596886043E-2</v>
       </c>
       <c r="M62" s="1">
@@ -9247,23 +9284,23 @@
         <v>0.13280468518569699</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.21323636446408267</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.5772312850074426E-2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-1.2788845816323065E-2</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.4256756047982751E-2</v>
       </c>
       <c r="M63" s="1">
@@ -9323,23 +9360,23 @@
         <v>0.131231081611418</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1912516998830755</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-1.8949208043637141E-2</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.3759454306452001E-3</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-1.3621369421294166E-2</v>
       </c>
     </row>
@@ -9356,23 +9393,23 @@
         <v>0.1114937801283955</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" ref="E65:I65" si="15">0.5*(E61+E62)</f>
+        <f t="shared" ref="E65:I66" si="13">0.5*(E61+E62)</f>
         <v>0.20831976281101725</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.420793533156817E-2</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.0202552819151426E-2</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.2350817377148856E-2</v>
       </c>
     </row>
@@ -9389,23 +9426,23 @@
         <v>0.1099201765541165</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:I66" si="16">0.5*(E62+E63)</f>
+        <f t="shared" si="13"/>
         <v>0.22289771529143054</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>4.439400089453148E-2</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-2.3972921157958158E-2</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>3.8100564822434395E-2</v>
       </c>
       <c r="N66" s="62">
@@ -9434,27 +9471,27 @@
         <v>33</v>
       </c>
       <c r="N67" s="62">
-        <f>N68/2</f>
+        <f t="shared" ref="N67:S67" si="14">N68/2</f>
         <v>2.3003416935436949E-2</v>
       </c>
       <c r="O67" s="1">
-        <f>O68/2</f>
+        <f t="shared" si="14"/>
         <v>2.3003416935436949E-2</v>
       </c>
       <c r="P67" s="62">
-        <f t="shared" ref="P67:S67" si="17">P68/2</f>
+        <f t="shared" si="14"/>
         <v>2.6541805787253701E-2</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.0104614443582251E-2</v>
       </c>
       <c r="R67" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.86179832805003E-2</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.1231631351488499E-2</v>
       </c>
     </row>
@@ -9579,7 +9616,7 @@
         <v>-1.4984548290054192E-3</v>
       </c>
       <c r="P72" s="62">
-        <f t="shared" ref="P72:R72" si="18">P69*P68*0.5*(P63+P61)</f>
+        <f>P69*P68*0.5*(P63+P61)</f>
         <v>5.3216963706966339E-4</v>
       </c>
       <c r="Q72" s="1">
@@ -9587,7 +9624,7 @@
         <v>7.2359210140875716E-4</v>
       </c>
       <c r="R72" s="62">
-        <f t="shared" si="18"/>
+        <f>R69*R68*0.5*(R63+R61)</f>
         <v>3.8569018704999514E-5</v>
       </c>
       <c r="S72" s="1">
@@ -9640,7 +9677,7 @@
         <v>5.1700344366771025E-4</v>
       </c>
       <c r="R73" s="62">
-        <f t="shared" ref="R73" si="19">R69*R68*(R63+4*R62+R61)/6</f>
+        <f>R69*R68*(R63+4*R62+R61)/6</f>
         <v>1.2673392566508605E-4</v>
       </c>
       <c r="S73" s="1">
@@ -9744,7 +9781,7 @@
         <v>-3.8166764958155546E-4</v>
       </c>
       <c r="R77" s="62">
-        <f t="shared" ref="R77" si="20">R73*R72*(R67+4*R66+R65)/6</f>
+        <f>R73*R72*(R67+4*R66+R65)/6</f>
         <v>2.3314132068069583E-11</v>
       </c>
       <c r="S77" s="1">
@@ -9805,7 +9842,7 @@
         <v>2.2139632279684646E-3</v>
       </c>
       <c r="P82" s="62">
-        <f t="shared" ref="P82" si="21">P69*P68*0.5*(U61+U63)</f>
+        <f>P69*P68*0.5*(U61+U63)</f>
         <v>-4.9930147265632755E-4</v>
       </c>
       <c r="Q82" s="67">
@@ -9897,7 +9934,7 @@
         <v>8.9971803532692973E-4</v>
       </c>
       <c r="P86" s="62">
-        <f t="shared" ref="P86:R86" si="22">P70*P68*0.5*(U61+U63)</f>
+        <f>P70*P68*0.5*(U61+U63)</f>
         <v>5.5519356226279562E-4</v>
       </c>
       <c r="Q86" s="67">
@@ -9905,7 +9942,7 @@
         <v>6.6121278104409854E-4</v>
       </c>
       <c r="R86" s="62">
-        <f t="shared" si="22"/>
+        <f>R70*R68*0.5*(W61+W63)</f>
         <v>-6.0399115420424238E-4</v>
       </c>
       <c r="S86" s="67">
@@ -9938,7 +9975,7 @@
         <v>8.9971803532692962E-4</v>
       </c>
       <c r="P87" s="62">
-        <f t="shared" ref="P87:R87" si="23">P70*P68*(U61+4*U62+U63)/6</f>
+        <f>P70*P68*(U61+4*U62+U63)/6</f>
         <v>-1.7335830544638124E-4</v>
       </c>
       <c r="Q87" s="67">
@@ -9946,7 +9983,7 @@
         <v>6.0659078331306681E-4</v>
       </c>
       <c r="R87" s="62">
-        <f t="shared" si="23"/>
+        <f>R70*R68*(W61+4*W62+W63)/6</f>
         <v>-1.6438357949400875E-3</v>
       </c>
       <c r="S87" s="67">
@@ -10220,7 +10257,7 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="219">
+      <c r="A2" s="236">
         <v>265</v>
       </c>
       <c r="B2" s="40">
@@ -10262,19 +10299,19 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M2" s="222">
+      <c r="M2" s="239">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N2" s="224">
+      <c r="N2" s="241">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O2" s="224">
+      <c r="O2" s="241">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P2" s="226">
+      <c r="P2" s="243">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -10287,7 +10324,7 @@
       <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
+      <c r="A3" s="237"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -10327,10 +10364,10 @@
         <f t="shared" si="5"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M3" s="223"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="227"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="244"/>
       <c r="Q3" s="106"/>
       <c r="R3" s="106"/>
       <c r="S3" s="106"/>
@@ -10340,7 +10377,7 @@
       <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -10380,16 +10417,16 @@
         <f t="shared" si="5"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M4" s="228">
+      <c r="M4" s="245">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N4" s="230">
+      <c r="N4" s="247">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O4" s="230">
+      <c r="O4" s="247">
         <v>1.38140952302927</v>
       </c>
-      <c r="P4" s="232">
+      <c r="P4" s="249">
         <v>0.693161263386181</v>
       </c>
       <c r="Q4" s="106"/>
@@ -10401,7 +10438,7 @@
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="221"/>
+      <c r="A5" s="238"/>
       <c r="B5" s="56">
         <v>3</v>
       </c>
@@ -10441,10 +10478,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M5" s="229"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="233"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="250"/>
       <c r="Q5" s="106"/>
       <c r="R5" s="106"/>
       <c r="S5" s="106"/>
@@ -10454,7 +10491,7 @@
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="172">
+      <c r="A6" s="194">
         <v>1419</v>
       </c>
       <c r="B6" s="4">
@@ -10496,19 +10533,19 @@
         <f t="shared" si="5"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M6" s="175">
+      <c r="M6" s="197">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N6" s="177">
+      <c r="N6" s="199">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O6" s="177">
+      <c r="O6" s="199">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P6" s="179">
+      <c r="P6" s="201">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -10521,7 +10558,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -10561,10 +10598,10 @@
         <f t="shared" si="5"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M7" s="176"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="180"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="192"/>
       <c r="Q7" s="103"/>
       <c r="R7" s="103"/>
       <c r="S7" s="103"/>
@@ -10574,7 +10611,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="32">
         <v>2</v>
       </c>
@@ -10614,16 +10651,16 @@
         <f t="shared" si="5"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M8" s="176">
+      <c r="M8" s="198">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N8" s="183">
+      <c r="N8" s="190">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O8" s="183">
+      <c r="O8" s="190">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P8" s="180">
+      <c r="P8" s="192">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q8" s="103"/>
@@ -10635,7 +10672,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="33">
         <v>3</v>
       </c>
@@ -10675,10 +10712,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="195"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="193"/>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
       <c r="S9" s="103"/>
@@ -10764,20 +10801,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="154" t="s">
+      <c r="N11" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="155" t="s">
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -10864,7 +10901,7 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="90">
-        <f t="shared" ref="I13" si="6">F13*C13/E13</f>
+        <f>F13*C13/E13</f>
         <v>-2.7242738842588331E-2</v>
       </c>
       <c r="J13" s="1"/>
@@ -10924,27 +10961,27 @@
         <v>0.19306910293436549</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:I18" si="7">0.5*(D10+D11)</f>
+        <f t="shared" ref="D14:I18" si="6">0.5*(D10+D11)</f>
         <v>0.12766838731105251</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.23255906611877844</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.301568893898854E-2</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.5156996499593252E-2</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.1944373596886043E-2</v>
       </c>
       <c r="J14" s="1"/>
@@ -11008,23 +11045,23 @@
         <v>0.13280468518569699</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.21323636446408267</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.5772312850074426E-2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.2788845816323065E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4256756047982751E-2</v>
       </c>
       <c r="J15" s="1"/>
@@ -11088,23 +11125,23 @@
         <v>0.131231081611418</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1912516998830755</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.8949208043637141E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3759454306452001E-3</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.3621369421294166E-2</v>
       </c>
       <c r="J16" s="1"/>
@@ -11136,23 +11173,23 @@
         <v>0.1114937801283955</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.20831976281101725</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.420793533156817E-2</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.0202552819151426E-2</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2350817377148856E-2</v>
       </c>
       <c r="J17" s="1"/>
@@ -11184,23 +11221,23 @@
         <v>0.1099201765541165</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.22289771529143054</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.439400089453148E-2</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-2.3972921157958158E-2</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.8100564822434395E-2</v>
       </c>
       <c r="J18" s="1"/>
@@ -11247,27 +11284,27 @@
         <v>33</v>
       </c>
       <c r="N19" s="62">
-        <f>N20/2</f>
+        <f t="shared" ref="N19:S19" si="7">N20/2</f>
         <v>2.3003416935436949E-2</v>
       </c>
       <c r="O19" s="1">
-        <f>O20/2</f>
+        <f t="shared" si="7"/>
         <v>2.3003416935436949E-2</v>
       </c>
       <c r="P19" s="62">
-        <f t="shared" ref="P19:S19" si="8">P20/2</f>
+        <f t="shared" si="7"/>
         <v>2.6541805787253701E-2</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.0104614443582251E-2</v>
       </c>
       <c r="R19" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.86179832805003E-2</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.1231631351488499E-2</v>
       </c>
       <c r="T19" s="1"/>
@@ -11460,7 +11497,7 @@
         <v>-1.4984548290054192E-3</v>
       </c>
       <c r="P24" s="62">
-        <f t="shared" ref="P24:R24" si="9">P21*P20*0.5*(P15+P13)</f>
+        <f>P21*P20*0.5*(P15+P13)</f>
         <v>5.3216963706966339E-4</v>
       </c>
       <c r="Q24" s="1">
@@ -11468,7 +11505,7 @@
         <v>7.2359210140875716E-4</v>
       </c>
       <c r="R24" s="62">
-        <f t="shared" si="9"/>
+        <f>R21*R20*0.5*(R15+R13)</f>
         <v>3.8569018704999514E-5</v>
       </c>
       <c r="S24" s="1">
@@ -11530,7 +11567,7 @@
         <v>5.1700344366771025E-4</v>
       </c>
       <c r="R25" s="62">
-        <f t="shared" ref="R25" si="10">R21*R20*(R15+4*R14+R13)/6</f>
+        <f>R21*R20*(R15+4*R14+R13)/6</f>
         <v>1.2673392566508605E-4</v>
       </c>
       <c r="S25" s="1">
@@ -11695,7 +11732,7 @@
         <v>-3.8166764958155546E-4</v>
       </c>
       <c r="R29" s="62">
-        <f t="shared" ref="R29" si="11">R25*R24*(R19+4*R18+R17)/6</f>
+        <f>R25*R24*(R19+4*R18+R17)/6</f>
         <v>2.3314132068069583E-11</v>
       </c>
       <c r="S29" s="1">
@@ -11786,16 +11823,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
@@ -11813,7 +11851,7 @@
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -11875,65 +11913,65 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="265" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.11572452687469635</v>
+        <v>0.16434804458275601</v>
       </c>
       <c r="D2" s="5">
-        <v>-0.31527911186869151</v>
+        <v>-0.306231958188876</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E5" si="0">SQRT(D2*D2+C2*C2)</f>
-        <v>0.33584681701794228</v>
+        <f t="shared" ref="E2:E9" si="0">SQRT(D2*D2+C2*C2)</f>
+        <v>0.34754610050232049</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F5" si="1">1/0.96*(E2-0.04/E2)</f>
-        <v>0.22577593666632073</v>
+        <f t="shared" ref="F2:F9" si="1">1/0.96*(E2-0.04/E2)</f>
+        <v>0.24213901604708857</v>
       </c>
       <c r="G2" s="88">
-        <f t="shared" ref="G2:G5" si="2">-F2*D2/E2</f>
-        <v>0.21194911842703781</v>
+        <f t="shared" ref="G2:G9" si="2">-F2*D2/E2</f>
+        <v>0.21335501946606511</v>
       </c>
       <c r="H2" s="5">
         <v>0.213355019466066</v>
       </c>
       <c r="I2" s="88">
         <f t="shared" ref="I2:I9" si="3">F2*C2/E2</f>
-        <v>7.7796817258522721E-2</v>
+        <v>0.11450300764996178</v>
       </c>
       <c r="J2" s="5">
         <v>0.114503007649962</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K9" si="4">ABS((G2-H2)/G2)*100</f>
-        <v>0.66332006920432518</v>
+        <v>4.1629131666217638E-13</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
-        <v>47.182123491585486</v>
-      </c>
-      <c r="M2" s="251">
+        <v>1.9392032531042902E-13</v>
+      </c>
+      <c r="M2" s="268">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
-        <v>0.23898707823955934</v>
-      </c>
-      <c r="N2" s="253">
+        <v>0.2874644381839454</v>
+      </c>
+      <c r="N2" s="270">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
-        <v>-1.3233534426094955</v>
-      </c>
-      <c r="O2" s="255">
+        <v>-1.2323469133988534</v>
+      </c>
+      <c r="O2" s="272">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
-        <v>0.75997989072383798</v>
-      </c>
-      <c r="P2" s="251">
+        <v>0.85098641993448032</v>
+      </c>
+      <c r="P2" s="268">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
-        <v>-0.23898707823955934</v>
-      </c>
-      <c r="Q2" s="239">
+        <v>-0.2874644381839454</v>
+      </c>
+      <c r="Q2" s="256">
         <v>6.3629380283494004E-3</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -11953,7 +11991,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249"/>
+      <c r="A3" s="266"/>
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
@@ -11993,11 +12031,11 @@
         <f t="shared" si="5"/>
         <v>6.7453890876466378</v>
       </c>
-      <c r="M3" s="252"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="240"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="257"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.20066838043017104</v>
@@ -12020,7 +12058,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="249"/>
+      <c r="A4" s="266"/>
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
@@ -12060,25 +12098,25 @@
         <f t="shared" si="5"/>
         <v>10.535141527783992</v>
       </c>
-      <c r="M4" s="244">
+      <c r="M4" s="261">
         <v>0.49003311552115603</v>
       </c>
-      <c r="N4" s="204">
+      <c r="N4" s="221">
         <v>-1.1847673396731999</v>
       </c>
-      <c r="O4" s="242">
+      <c r="O4" s="259">
         <v>0.74624297082319102</v>
       </c>
-      <c r="P4" s="244">
+      <c r="P4" s="261">
         <v>-0.211992642771656</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="274"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.26780667737880604</v>
       </c>
       <c r="S4" s="136">
-        <f t="shared" ref="S4:S5" si="6">R4/2</f>
+        <f>R4/2</f>
         <v>0.13390333868940302</v>
       </c>
       <c r="T4" s="142">
@@ -12095,7 +12133,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
+      <c r="A5" s="266"/>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
@@ -12135,17 +12173,17 @@
         <f t="shared" si="5"/>
         <v>3468381806624317.5</v>
       </c>
-      <c r="M5" s="245"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="275"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.21664393425670642</v>
       </c>
       <c r="S5" s="137">
-        <f t="shared" si="6"/>
+        <f>R5/2</f>
         <v>0.10832196712835321</v>
       </c>
       <c r="T5" s="143">
@@ -12162,7 +12200,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="249"/>
+      <c r="A6" s="266"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -12173,15 +12211,15 @@
         <v>-0.306231958188876</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6" si="7">SQRT(D6*D6+C6*C6)</f>
+        <f t="shared" si="0"/>
         <v>0.34754610050232049</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6" si="8">1/0.96*(E6-0.04/E6)</f>
+        <f t="shared" si="1"/>
         <v>0.24213901604708857</v>
       </c>
       <c r="G6" s="88">
-        <f t="shared" ref="G6" si="9">-F6*D6/E6</f>
+        <f t="shared" si="2"/>
         <v>0.21335501946606511</v>
       </c>
       <c r="H6" s="5">
@@ -12202,23 +12240,23 @@
         <f t="shared" si="5"/>
         <v>3.1190634548571303</v>
       </c>
-      <c r="M6" s="251">
+      <c r="M6" s="268">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N6" s="253">
+      <c r="N6" s="270">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O6" s="255">
+      <c r="O6" s="272">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P6" s="251">
+      <c r="P6" s="268">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q6" s="239">
+      <c r="Q6" s="256">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R6" s="144" t="s">
@@ -12236,7 +12274,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="249"/>
+      <c r="A7" s="266"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -12247,15 +12285,15 @@
         <v>-0.368064248858951</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" ref="E7:E9" si="10">SQRT(D7*D7+C7*C7)</f>
+        <f t="shared" si="0"/>
         <v>0.41483968563918827</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" ref="F7:F9" si="11">1/0.96*(E7-0.04/E7)</f>
+        <f t="shared" si="1"/>
         <v>0.33168426601976631</v>
       </c>
       <c r="G7" s="90">
-        <f t="shared" ref="G7:G9" si="12">-F7*D7/E7</f>
+        <f t="shared" si="2"/>
         <v>0.29428505626889151</v>
       </c>
       <c r="H7" s="30">
@@ -12276,11 +12314,11 @@
         <f t="shared" si="5"/>
         <v>2.6339972398281795</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="240"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="257"/>
       <c r="R7" s="128">
         <v>0.68511899206568305</v>
       </c>
@@ -12297,7 +12335,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="249"/>
+      <c r="A8" s="266"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -12308,15 +12346,15 @@
         <v>-0.26105614228856</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.33390333868940225</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0.22302936491459432</v>
       </c>
       <c r="G8" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.17437137900508048</v>
       </c>
       <c r="H8" s="30">
@@ -12337,19 +12375,19 @@
         <f t="shared" si="5"/>
         <v>1.2869566819255738</v>
       </c>
-      <c r="M8" s="244">
+      <c r="M8" s="261">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N8" s="204">
+      <c r="N8" s="221">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O8" s="242">
+      <c r="O8" s="259">
         <v>1.1537363051412</v>
       </c>
-      <c r="P8" s="244">
+      <c r="P8" s="261">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q8" s="246"/>
+      <c r="Q8" s="263"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -12365,7 +12403,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="250"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -12376,15 +12414,15 @@
         <v>-0.26337440306399601</v>
       </c>
       <c r="E9" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.28461152865736528</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0.15007196255554314</v>
       </c>
       <c r="G9" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.13887390205577918</v>
       </c>
       <c r="H9" s="31">
@@ -12405,11 +12443,11 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M9" s="245"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="247"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="260"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="264"/>
       <c r="R9" s="129">
         <v>2.1389424385951799E-2</v>
       </c>
@@ -12534,10 +12572,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="238"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -12555,13 +12593,13 @@
       </c>
     </row>
     <row r="26" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="251" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="145">
         <v>1</v>
       </c>
-      <c r="C26" s="264">
+      <c r="C26" s="155">
         <f>(T15+4*T16+T17)*R3/6</f>
         <v>-2.9698367543842977E-2</v>
       </c>
@@ -12590,11 +12628,11 @@
       </c>
     </row>
     <row r="27" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="235"/>
+      <c r="A27" s="252"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
-      <c r="C27" s="265">
+      <c r="C27" s="156">
         <f>(T3+4*T4+T5)*R4/6</f>
         <v>5.759396621022226E-2</v>
       </c>
@@ -12618,16 +12656,16 @@
         <v>6.0620231564311504E-2</v>
       </c>
       <c r="I27" s="100">
-        <f t="shared" ref="I27:I28" si="13">H27-C27</f>
+        <f>H27-C27</f>
         <v>3.0262653540892442E-3</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="235"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
-      <c r="C28" s="265">
+      <c r="C28" s="156">
         <f>(T11+4*T12+T13)*R5/6</f>
         <v>-2.8130725591190092E-2</v>
       </c>
@@ -12651,16 +12689,16 @@
         <v>-2.5993967122307757E-2</v>
       </c>
       <c r="I28" s="100">
-        <f t="shared" si="13"/>
+        <f>H28-C28</f>
         <v>2.1367584688823348E-3</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="266">
+      <c r="C29" s="157">
         <f>SUM(C26:C28)</f>
         <v>-2.3512692481080996E-4</v>
       </c>
@@ -12679,13 +12717,49 @@
         <f>SUM(G26:G28)</f>
         <v>6.3210846828399281E-3</v>
       </c>
-      <c r="H29" s="263">
+      <c r="H29" s="154">
         <f>SUM(H26:H28)</f>
         <v>6.1964316779299332E-3</v>
       </c>
     </row>
+    <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="281" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="283"/>
+      <c r="B32" s="285">
+        <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>4.066233509851179E-2</v>
+      </c>
+      <c r="C32" s="284">
+        <v>5.8037345172168901E-2</v>
+      </c>
+      <c r="D32" s="285">
+        <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>-7.5766684862985254E-2</v>
+      </c>
+      <c r="E32" s="284">
+        <v>-0.16742062448784001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N4:N5"/>
@@ -12814,7 +12888,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="265" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="6">
@@ -12856,23 +12930,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M2" s="251">
+      <c r="M2" s="268">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N2" s="253">
+      <c r="N2" s="270">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O2" s="255">
+      <c r="O2" s="272">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P2" s="251">
+      <c r="P2" s="268">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q2" s="239">
+      <c r="Q2" s="256">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -12892,7 +12966,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249"/>
+      <c r="A3" s="266"/>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
@@ -12932,11 +13006,11 @@
         <f t="shared" si="5"/>
         <v>0.32219626081740982</v>
       </c>
-      <c r="M3" s="252"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="240"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="257"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.25698704275732182</v>
@@ -12959,7 +13033,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="249"/>
+      <c r="A4" s="266"/>
       <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
@@ -12999,25 +13073,25 @@
         <f t="shared" si="5"/>
         <v>1.8865981084411843</v>
       </c>
-      <c r="M4" s="244">
+      <c r="M4" s="261">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N4" s="204">
+      <c r="N4" s="221">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O4" s="242">
+      <c r="O4" s="259">
         <v>1.1537363051412</v>
       </c>
-      <c r="P4" s="244">
+      <c r="P4" s="261">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="274"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.48488963030579385</v>
       </c>
       <c r="S4" s="136">
-        <f t="shared" ref="S4:S5" si="6">R4/2</f>
+        <f>R4/2</f>
         <v>0.24244481515289693</v>
       </c>
       <c r="T4" s="142">
@@ -13034,7 +13108,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
+      <c r="A5" s="266"/>
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
@@ -13074,17 +13148,17 @@
         <f t="shared" si="5"/>
         <v>1.7967280576689948</v>
       </c>
-      <c r="M5" s="245"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="275"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.44915396297778803</v>
       </c>
       <c r="S5" s="137">
-        <f t="shared" si="6"/>
+        <f>R5/2</f>
         <v>0.22457698148889402</v>
       </c>
       <c r="T5" s="143">
@@ -13101,7 +13175,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="249"/>
+      <c r="A6" s="266"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -13141,23 +13215,23 @@
         <f t="shared" si="5"/>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M6" s="251">
+      <c r="M6" s="268">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N6" s="253">
+      <c r="N6" s="270">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O6" s="255">
+      <c r="O6" s="272">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P6" s="251">
+      <c r="P6" s="268">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q6" s="239">
+      <c r="Q6" s="256">
         <v>-2.3529370910404901E-3</v>
       </c>
       <c r="R6" s="144" t="s">
@@ -13175,7 +13249,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="249"/>
+      <c r="A7" s="266"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -13215,11 +13289,11 @@
         <f t="shared" si="5"/>
         <v>0.20868281245301892</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="259"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="276"/>
       <c r="R7" s="128">
         <v>1.1910306360409</v>
       </c>
@@ -13236,7 +13310,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="249"/>
+      <c r="A8" s="266"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -13276,19 +13350,19 @@
         <f t="shared" si="5"/>
         <v>2.1997398620743895E-2</v>
       </c>
-      <c r="M8" s="244">
+      <c r="M8" s="261">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="N8" s="204">
+      <c r="N8" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="O8" s="242">
+      <c r="O8" s="259">
         <v>1.1344986861228901</v>
       </c>
-      <c r="P8" s="244">
+      <c r="P8" s="261">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="Q8" s="246"/>
+      <c r="Q8" s="263"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -13304,7 +13378,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="250"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -13344,11 +13418,11 @@
         <f t="shared" si="5"/>
         <v>0.61427071457097293</v>
       </c>
-      <c r="M9" s="245"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="247"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="260"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="264"/>
       <c r="R9" s="129">
         <v>5.7132752196568798E-2</v>
       </c>
@@ -13473,10 +13547,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="238"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -13494,7 +13568,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="251" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="145">
@@ -13525,7 +13599,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="235"/>
+      <c r="A27" s="252"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -13554,7 +13628,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="235"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -13583,7 +13657,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="138" t="s">
         <v>106</v>
       </c>
@@ -13606,15 +13680,13 @@
         <f>SUM(G26:G28)</f>
         <v>4.5582795437903445E-3</v>
       </c>
-      <c r="H29" s="263">
+      <c r="H29" s="154">
         <f>SUM(H26:H28)</f>
         <v>4.0826134567874539E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -13629,13 +13701,15 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
@@ -13746,7 +13820,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="265" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="6">
@@ -13788,23 +13862,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M2" s="251">
+      <c r="M2" s="268">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N2" s="253">
+      <c r="N2" s="270">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O2" s="255">
+      <c r="O2" s="272">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P2" s="251">
+      <c r="P2" s="268">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q2" s="239">
+      <c r="Q2" s="256">
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -13824,7 +13898,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249"/>
+      <c r="A3" s="266"/>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
@@ -13864,11 +13938,11 @@
         <f t="shared" si="5"/>
         <v>1.5721501854168734E+16</v>
       </c>
-      <c r="M3" s="252"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="240"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="257"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.22167804809623956</v>
@@ -13891,7 +13965,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="249"/>
+      <c r="A4" s="266"/>
       <c r="B4" s="2" t="s">
         <v>93</v>
       </c>
@@ -13931,25 +14005,25 @@
         <f t="shared" si="5"/>
         <v>5.435138479755218</v>
       </c>
-      <c r="M4" s="244">
+      <c r="M4" s="261">
         <v>0.16566277110175201</v>
       </c>
-      <c r="N4" s="204">
+      <c r="N4" s="221">
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O4" s="242">
+      <c r="O4" s="259">
         <v>0.711099224132827</v>
       </c>
-      <c r="P4" s="244">
+      <c r="P4" s="261">
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="274"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.21664393425670642</v>
       </c>
       <c r="S4" s="136">
-        <f t="shared" ref="S4:S5" si="6">R4/2</f>
+        <f>R4/2</f>
         <v>0.10832196712835321</v>
       </c>
       <c r="T4" s="142">
@@ -13966,7 +14040,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
+      <c r="A5" s="266"/>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
@@ -14006,17 +14080,17 @@
         <f t="shared" si="5"/>
         <v>3613139172902892</v>
       </c>
-      <c r="M5" s="245"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="275"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.17355349564702202</v>
       </c>
       <c r="S5" s="137">
-        <f t="shared" si="6"/>
+        <f>R5/2</f>
         <v>8.6776747823511011E-2</v>
       </c>
       <c r="T5" s="143">
@@ -14033,7 +14107,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="249"/>
+      <c r="A6" s="266"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -14073,23 +14147,23 @@
         <f t="shared" si="5"/>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M6" s="251">
+      <c r="M6" s="268">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N6" s="253">
+      <c r="N6" s="270">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O6" s="255">
+      <c r="O6" s="272">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P6" s="251">
+      <c r="P6" s="268">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q6" s="239">
+      <c r="Q6" s="256">
         <f>Q2</f>
         <v>1.7683012531248901E-4</v>
       </c>
@@ -14108,7 +14182,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="249"/>
+      <c r="A7" s="266"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -14148,11 +14222,11 @@
         <f t="shared" si="5"/>
         <v>66.89695684978372</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="259"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="276"/>
       <c r="R7" s="128">
         <v>0.611875477999968</v>
       </c>
@@ -14169,7 +14243,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="249"/>
+      <c r="A8" s="266"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -14209,23 +14283,23 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M8" s="244">
+      <c r="M8" s="261">
         <f>M4</f>
         <v>0.16566277110175201</v>
       </c>
-      <c r="N8" s="257">
-        <f t="shared" ref="N8:P8" si="7">N4</f>
+      <c r="N8" s="274">
+        <f>N4</f>
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O8" s="260">
-        <f t="shared" si="7"/>
+      <c r="O8" s="277">
+        <f>O4</f>
         <v>0.711099224132827</v>
       </c>
-      <c r="P8" s="244">
-        <f t="shared" si="7"/>
+      <c r="P8" s="261">
+        <f>P4</f>
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q8" s="246"/>
+      <c r="Q8" s="263"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -14241,7 +14315,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="250"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -14281,11 +14355,11 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="245"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="247"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="278"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="264"/>
       <c r="R9" s="129">
         <v>1.74564235241703E-2</v>
       </c>
@@ -14410,10 +14484,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="238"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -14431,7 +14505,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="251" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="145">
@@ -14458,7 +14532,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="235"/>
+      <c r="A27" s="252"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -14483,7 +14557,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="235"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -14508,7 +14582,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="138" t="s">
         <v>106</v>
       </c>
@@ -14534,8 +14608,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -14550,13 +14622,15 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
@@ -14659,7 +14733,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="194" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="6">
@@ -14672,22 +14746,22 @@
         <v>8.7535826562047503E-2</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E5" si="0">SQRT(D2*D2+C2*C2)</f>
+        <f>SQRT(D2*D2+C2*C2)</f>
         <v>0.23306294333414124</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F5" si="1">1/0.96*(E2-0.04/E2)</f>
+        <f>1/0.96*(E2-0.04/E2)</f>
         <v>6.3995299540198489E-2</v>
       </c>
       <c r="G2" s="88">
-        <f t="shared" ref="G2:G5" si="2">-F2*D2/E2</f>
+        <f>-F2*D2/E2</f>
         <v>-2.4035916483324003E-2</v>
       </c>
       <c r="H2" s="5">
         <v>-2.9028580553714899E-2</v>
       </c>
       <c r="I2" s="88">
-        <f t="shared" ref="I2:I29" si="3">F2*C2/E2</f>
+        <f t="shared" ref="I2:I29" si="0">F2*C2/E2</f>
         <v>5.9309974557795943E-2</v>
       </c>
       <c r="J2" s="5">
@@ -14697,22 +14771,22 @@
         <v>64</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L29" si="4">ABS((G2-H2)/G2)*100</f>
+        <f t="shared" ref="L2:L29" si="1">ABS((G2-H2)/G2)*100</f>
         <v>20.771681719957634</v>
       </c>
       <c r="M2" s="7">
-        <f t="shared" ref="M2:M29" si="5">ABS((I2-J2)/I2)*100</f>
+        <f t="shared" ref="M2:M29" si="2">ABS((I2-J2)/I2)*100</f>
         <v>24.274235014113916</v>
       </c>
       <c r="N2" s="117">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.53402866836813123</v>
       </c>
-      <c r="O2" s="253">
+      <c r="O2" s="270">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.49100382475466869</v>
       </c>
-      <c r="P2" s="255">
+      <c r="P2" s="272">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.5923295085786646</v>
       </c>
@@ -14720,12 +14794,12 @@
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.53402866836813123</v>
       </c>
-      <c r="R2" s="262">
+      <c r="R2" s="279">
         <v>-2.3529370910404901E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
@@ -14736,22 +14810,22 @@
         <v>6.0759982506205297E-2</v>
       </c>
       <c r="E3" s="30">
-        <f t="shared" si="0"/>
+        <f>SQRT(D3*D3+C3*C3)</f>
         <v>0.27077705137375119</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" si="1"/>
+        <f>1/0.96*(E3-0.04/E3)</f>
         <v>0.12818129720564639</v>
       </c>
       <c r="G3" s="90">
-        <f t="shared" si="2"/>
+        <f>-F3*D3/E3</f>
         <v>-2.8762752738184093E-2</v>
       </c>
       <c r="H3" s="30">
         <v>-2.71776400341752E-2</v>
       </c>
       <c r="I3" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.12491256545377782</v>
       </c>
       <c r="J3" s="30">
@@ -14761,21 +14835,21 @@
         <v>-2.0404952538293199E-2</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.5109909626437474</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.2552218510576498</v>
       </c>
       <c r="N3" s="118"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="256"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="273"/>
       <c r="Q3" s="122"/>
-      <c r="R3" s="259"/>
+      <c r="R3" s="276"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
@@ -14786,22 +14860,22 @@
         <v>0.13894313075300799</v>
       </c>
       <c r="E4" s="30">
-        <f t="shared" si="0"/>
+        <f>SQRT(D4*D4+C4*C4)</f>
         <v>0.26548282171421472</v>
       </c>
       <c r="F4" s="30">
-        <f t="shared" si="1"/>
+        <f>1/0.96*(E4-0.04/E4)</f>
         <v>0.11959785362525914</v>
       </c>
       <c r="G4" s="90">
-        <f t="shared" si="2"/>
+        <f>-F4*D4/E4</f>
         <v>-6.2592751224866738E-2</v>
       </c>
       <c r="H4" s="30">
         <v>-7.2232755478001495E-2</v>
       </c>
       <c r="I4" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10191071624648143</v>
       </c>
       <c r="J4" s="30">
@@ -14811,32 +14885,32 @@
         <v>1.8052015447252701E-2</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15.401151194812785</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.65032467158066276</v>
       </c>
       <c r="N4" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O4" s="204">
+      <c r="O4" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P4" s="242">
+      <c r="P4" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q4" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R4" s="246">
+      <c r="R4" s="263">
         <f>K3+K4+K5</f>
         <v>-2.3529370910404974E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
+      <c r="A5" s="210"/>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -14847,22 +14921,22 @@
         <v>7.81831482468031E-2</v>
       </c>
       <c r="E5" s="31">
-        <f t="shared" si="0"/>
+        <f>SQRT(D5*D5+C5*C5)</f>
         <v>0.18019377358048355</v>
       </c>
       <c r="F5" s="31">
-        <f t="shared" si="1"/>
+        <f>1/0.96*(E5-0.04/E5)</f>
         <v>-4.353070755673466E-2</v>
       </c>
       <c r="G5" s="93">
-        <f t="shared" si="2"/>
+        <f>-F5*D5/E5</f>
         <v>1.8887266161149035E-2</v>
       </c>
       <c r="H5" s="31">
         <v>0</v>
       </c>
       <c r="I5" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-3.9219812306382482E-2</v>
       </c>
       <c r="J5" s="31">
@@ -14872,21 +14946,21 @@
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="M5" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N5" s="120"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="243"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="124"/>
-      <c r="R5" s="247"/>
+      <c r="R5" s="264"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="195" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="6">
@@ -14899,22 +14973,22 @@
         <v>8.7535826562047503E-2</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6:E13" si="6">SQRT(D6*D6+C6*C6)</f>
+        <f t="shared" ref="E6:E13" si="3">SQRT(D6*D6+C6*C6)</f>
         <v>0.23306294333414124</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F13" si="7">1/0.96*(E6-0.04/E6)</f>
+        <f t="shared" ref="F6:F13" si="4">1/0.96*(E6-0.04/E6)</f>
         <v>6.3995299540198489E-2</v>
       </c>
       <c r="G6" s="88">
-        <f t="shared" ref="G6:G13" si="8">-F6*D6/E6</f>
+        <f t="shared" ref="G6:G13" si="5">-F6*D6/E6</f>
         <v>-2.4035916483324003E-2</v>
       </c>
       <c r="H6" s="5">
         <v>-2.9028580553714899E-2</v>
       </c>
       <c r="I6" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.9309974557795943E-2</v>
       </c>
       <c r="J6" s="5">
@@ -14924,22 +14998,22 @@
         <v>64</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20.771681719957634</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>24.274235014113916</v>
       </c>
       <c r="N6" s="117">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-0.53402866836813123</v>
       </c>
-      <c r="O6" s="253">
+      <c r="O6" s="270">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.49100382475466869</v>
       </c>
-      <c r="P6" s="255">
+      <c r="P6" s="272">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.5923295085786646</v>
       </c>
@@ -14947,12 +15021,12 @@
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>0.53402866836813123</v>
       </c>
-      <c r="R6" s="262">
+      <c r="R6" s="279">
         <v>1.52082465948405E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -14963,22 +15037,22 @@
         <v>6.0759982506205297E-2</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.27077705137375119</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.12818129720564639</v>
       </c>
       <c r="G7" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-2.8762752738184093E-2</v>
       </c>
       <c r="H7" s="30">
         <v>-1.9446955419259601E-2</v>
       </c>
       <c r="I7" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.12491256545377782</v>
       </c>
       <c r="J7" s="30">
@@ -14988,21 +15062,21 @@
         <v>-1.8779599346129099E-2</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>32.388406644254438</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.9566201841053297</v>
       </c>
       <c r="N7" s="118"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="256"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="273"/>
       <c r="Q7" s="122"/>
-      <c r="R7" s="259"/>
+      <c r="R7" s="276"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -15013,22 +15087,22 @@
         <v>0.13894313075300799</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.26548282171421472</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.11959785362525914</v>
       </c>
       <c r="G8" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-6.2592751224866738E-2</v>
       </c>
       <c r="H8" s="30">
         <v>-7.2147538592033295E-2</v>
       </c>
       <c r="I8" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10191071624648143</v>
       </c>
       <c r="J8" s="30">
@@ -15038,32 +15112,32 @@
         <v>3.3987845940969597E-2</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15.265006219075808</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>76.34766038299621</v>
       </c>
       <c r="N8" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O8" s="204">
+      <c r="O8" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P8" s="242">
+      <c r="P8" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q8" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R8" s="246">
+      <c r="R8" s="263">
         <f>K7+K8+K9</f>
         <v>1.5208246594840498E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -15074,22 +15148,22 @@
         <v>7.81831482468031E-2</v>
       </c>
       <c r="E9" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.18019377358048355</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.353070755673466E-2</v>
       </c>
       <c r="G9" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.8887266161149035E-2</v>
       </c>
       <c r="H9" s="31">
         <v>0</v>
       </c>
       <c r="I9" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-3.9219812306382482E-2</v>
       </c>
       <c r="J9" s="31">
@@ -15099,21 +15173,21 @@
         <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="M9" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N9" s="120"/>
-      <c r="O9" s="241"/>
-      <c r="P9" s="243"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="260"/>
       <c r="Q9" s="124"/>
-      <c r="R9" s="247"/>
+      <c r="R9" s="264"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="194" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="6">
@@ -15126,22 +15200,22 @@
         <v>0.20326976144112499</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.32056620746275061</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.20394478291438509</v>
       </c>
       <c r="G10" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-0.12932057841744343</v>
       </c>
       <c r="H10" s="5">
         <v>-0.13515577123328601</v>
       </c>
       <c r="I10" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.15770118095871546</v>
       </c>
       <c r="J10" s="5">
@@ -15151,22 +15225,22 @@
         <v>64</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.5121920171179006</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.1456577523374958</v>
       </c>
       <c r="N10" s="117">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.39761307687490022</v>
       </c>
-      <c r="O10" s="253">
+      <c r="O10" s="270">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-0.96225861994314255</v>
       </c>
-      <c r="P10" s="255">
+      <c r="P10" s="272">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>1.1210747133901908</v>
       </c>
@@ -15174,12 +15248,12 @@
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.39761307687490022</v>
       </c>
-      <c r="R10" s="262">
+      <c r="R10" s="279">
         <v>5.5289471330137504E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -15190,22 +15264,22 @@
         <v>0.24363297654796201</v>
       </c>
       <c r="E11" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.39405112784945595</v>
       </c>
       <c r="F11" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.30473068513065271</v>
       </c>
       <c r="G11" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-0.18840814964560751</v>
       </c>
       <c r="H11" s="30">
         <v>-0.18554090555397601</v>
       </c>
       <c r="I11" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.23950607425974685</v>
       </c>
       <c r="J11" s="30">
@@ -15215,21 +15289,21 @@
         <v>-3.6742325791069397E-2</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.5218259385407349</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.84487164353641009</v>
       </c>
       <c r="N11" s="118"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="256"/>
+      <c r="O11" s="271"/>
+      <c r="P11" s="273"/>
       <c r="Q11" s="122"/>
-      <c r="R11" s="259"/>
+      <c r="R11" s="276"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
@@ -15240,22 +15314,22 @@
         <v>0.26105614228856</v>
       </c>
       <c r="E12" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.33390333868940164</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.22302936491459346</v>
       </c>
       <c r="G12" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-0.1743713790050801</v>
       </c>
       <c r="H12" s="30">
         <v>-0.17841260948587401</v>
       </c>
       <c r="I12" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.13905653453927863</v>
       </c>
       <c r="J12" s="30">
@@ -15265,32 +15339,32 @@
         <v>6.0323288371335798E-2</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.3175996564643646</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.97675806869613158</v>
       </c>
       <c r="N12" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O12" s="204">
+      <c r="O12" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P12" s="242">
+      <c r="P12" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q12" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R12" s="246">
+      <c r="R12" s="263">
         <f>K11+K12+K13</f>
         <v>5.5289471330137001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
@@ -15301,22 +15375,22 @@
         <v>0.13894313075300799</v>
       </c>
       <c r="E13" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.26548282171421472</v>
       </c>
       <c r="F13" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.11959785362525914</v>
       </c>
       <c r="G13" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-6.2592751224866738E-2</v>
       </c>
       <c r="H13" s="31">
         <v>-7.2232755478001495E-2</v>
       </c>
       <c r="I13" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10191071624648143</v>
       </c>
       <c r="J13" s="31">
@@ -15326,21 +15400,21 @@
         <v>-1.8052015447252701E-2</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15.401151194812785</v>
       </c>
       <c r="M13" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.65032467158066276</v>
       </c>
       <c r="N13" s="120"/>
-      <c r="O13" s="241"/>
-      <c r="P13" s="243"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="260"/>
       <c r="Q13" s="124"/>
-      <c r="R13" s="247"/>
+      <c r="R13" s="264"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="195" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="6">
@@ -15353,22 +15427,22 @@
         <v>0.20326976144112499</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E21" si="9">SQRT(D14*D14+C14*C14)</f>
+        <f t="shared" ref="E14:E21" si="6">SQRT(D14*D14+C14*C14)</f>
         <v>0.32056620746275061</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F21" si="10">1/0.96*(E14-0.04/E14)</f>
+        <f t="shared" ref="F14:F21" si="7">1/0.96*(E14-0.04/E14)</f>
         <v>0.20394478291438509</v>
       </c>
       <c r="G14" s="88">
-        <f t="shared" ref="G14:G21" si="11">-F14*D14/E14</f>
+        <f t="shared" ref="G14:G21" si="8">-F14*D14/E14</f>
         <v>-0.12932057841744343</v>
       </c>
       <c r="H14" s="5">
         <v>-0.13515577123328601</v>
       </c>
       <c r="I14" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.15770118095871546</v>
       </c>
       <c r="J14" s="5">
@@ -15378,22 +15452,22 @@
         <v>64</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.5121920171179006</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.1456577523374958</v>
       </c>
       <c r="N14" s="117">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>-0.39761307687490022</v>
       </c>
-      <c r="O14" s="253">
+      <c r="O14" s="270">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-0.96225861994314255</v>
       </c>
-      <c r="P14" s="255">
+      <c r="P14" s="272">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>1.1210747133901908</v>
       </c>
@@ -15401,12 +15475,12 @@
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>0.39761307687490022</v>
       </c>
-      <c r="R14" s="262">
+      <c r="R14" s="279">
         <v>4.0323231025556301E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
@@ -15417,22 +15491,22 @@
         <v>0.24363297654796201</v>
       </c>
       <c r="E15" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.39405112784945595</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.30473068513065271</v>
       </c>
       <c r="G15" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.18840814964560751</v>
       </c>
       <c r="H15" s="30">
         <v>-0.10928521800916099</v>
       </c>
       <c r="I15" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.23950607425974685</v>
       </c>
       <c r="J15" s="30">
@@ -15442,21 +15516,21 @@
         <v>-1.91491551261549E-2</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>41.995493180775561</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.772372379946415</v>
       </c>
       <c r="N15" s="118"/>
-      <c r="O15" s="254"/>
-      <c r="P15" s="256"/>
+      <c r="O15" s="271"/>
+      <c r="P15" s="273"/>
       <c r="Q15" s="122"/>
-      <c r="R15" s="259"/>
+      <c r="R15" s="276"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
@@ -15467,22 +15541,22 @@
         <v>0.26105614228856</v>
       </c>
       <c r="E16" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.33390333868940164</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.22302936491459346</v>
       </c>
       <c r="G16" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.1743713790050801</v>
       </c>
       <c r="H16" s="30">
         <v>-0.23443812529143099</v>
       </c>
       <c r="I16" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.13905653453927863</v>
       </c>
       <c r="J16" s="30">
@@ -15492,32 +15566,32 @@
         <v>8.0419705098214195E-2</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>34.447594914415923</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>35.053379257900225</v>
       </c>
       <c r="N16" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O16" s="204">
+      <c r="O16" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P16" s="242">
+      <c r="P16" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q16" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R16" s="246">
+      <c r="R16" s="263">
         <f>K15+K16+K17</f>
         <v>4.0323231025556391E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
@@ -15528,22 +15602,22 @@
         <v>0.13894313075300799</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.26548282171421472</v>
       </c>
       <c r="F17" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11959785362525914</v>
       </c>
       <c r="G17" s="93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-6.2592751224866738E-2</v>
       </c>
       <c r="H17" s="31">
         <v>-9.3570629844627898E-2</v>
       </c>
       <c r="I17" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10191071624648143</v>
       </c>
       <c r="J17" s="31">
@@ -15553,21 +15627,21 @@
         <v>-2.09473189465029E-2</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>49.49115994034517</v>
       </c>
       <c r="M17" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.934974599421913</v>
       </c>
       <c r="N17" s="120"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="243"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="260"/>
       <c r="Q17" s="124"/>
-      <c r="R17" s="247"/>
+      <c r="R17" s="264"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="194" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="6">
@@ -15580,22 +15654,22 @@
         <v>0.24205055766328401</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.45908043981072943</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.38744764581092966</v>
       </c>
       <c r="G18" s="88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.20428210527228444</v>
       </c>
       <c r="H18" s="5">
         <v>-0.20361845640537399</v>
       </c>
       <c r="I18" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.32921801243242288</v>
       </c>
       <c r="J18" s="5">
@@ -15605,22 +15679,22 @@
         <v>64</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.32486882099921666</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25724984781109528</v>
       </c>
       <c r="N18" s="117">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="O18" s="253">
+      <c r="O18" s="270">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="P18" s="255">
+      <c r="P18" s="272">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -15628,12 +15702,12 @@
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="R18" s="262">
+      <c r="R18" s="279">
         <v>-4.6216095055825798E-3</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -15644,22 +15718,22 @@
         <v>0.186443664387938</v>
       </c>
       <c r="E19" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.49237807879785889</v>
       </c>
       <c r="F19" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.42827051422666923</v>
       </c>
       <c r="G19" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.16216872249202571</v>
       </c>
       <c r="H19" s="30">
         <v>-0.163882011377116</v>
       </c>
       <c r="I19" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.396379791111101</v>
       </c>
       <c r="J19" s="30">
@@ -15669,21 +15743,21 @@
         <v>-0.12358051977053899</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.0564854053003552</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.75434700306906899</v>
       </c>
       <c r="N19" s="118"/>
-      <c r="O19" s="254"/>
-      <c r="P19" s="256"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="273"/>
       <c r="Q19" s="122"/>
-      <c r="R19" s="259"/>
+      <c r="R19" s="276"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -15694,22 +15768,22 @@
         <v>0.30855667592349001</v>
       </c>
       <c r="E20" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.53550839974618802</v>
       </c>
       <c r="F20" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.48001356887306179</v>
       </c>
       <c r="G20" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.27658089262435981</v>
       </c>
       <c r="H20" s="30">
         <v>-0.27858397278539698</v>
       </c>
       <c r="I20" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.39232134295417326</v>
       </c>
       <c r="J20" s="30">
@@ -15719,32 +15793,32 @@
         <v>8.2216584473887702E-2</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.72422940790695567</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.41012516107904529</v>
       </c>
       <c r="N20" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O20" s="204">
+      <c r="O20" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P20" s="242">
+      <c r="P20" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q20" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R20" s="246">
+      <c r="R20" s="263">
         <f>K19+K20+K21</f>
         <v>-4.6216095055818945E-3</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="193"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
@@ -15755,22 +15829,22 @@
         <v>0.24363297654796201</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.39405112784945595</v>
       </c>
       <c r="F21" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.30473068513065271</v>
       </c>
       <c r="G21" s="93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-0.18840814964560751</v>
       </c>
       <c r="H21" s="31">
         <v>-0.18554090555397601</v>
       </c>
       <c r="I21" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.23950607425974685</v>
       </c>
       <c r="J21" s="31">
@@ -15780,21 +15854,21 @@
         <v>3.6742325791069397E-2</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.5218259385407349</v>
       </c>
       <c r="M21" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.84487164353641009</v>
       </c>
       <c r="N21" s="120"/>
-      <c r="O21" s="241"/>
-      <c r="P21" s="243"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="260"/>
       <c r="Q21" s="124"/>
-      <c r="R21" s="247"/>
+      <c r="R21" s="264"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="195" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="6">
@@ -15807,22 +15881,22 @@
         <v>0.24205055766328401</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ref="E22:E29" si="12">SQRT(D22*D22+C22*C22)</f>
+        <f t="shared" ref="E22:E29" si="9">SQRT(D22*D22+C22*C22)</f>
         <v>0.45908043981072943</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F29" si="13">1/0.96*(E22-0.04/E22)</f>
+        <f t="shared" ref="F22:F29" si="10">1/0.96*(E22-0.04/E22)</f>
         <v>0.38744764581092966</v>
       </c>
       <c r="G22" s="88">
-        <f t="shared" ref="G22:G28" si="14">-F22*D22/E22</f>
+        <f t="shared" ref="G22:G28" si="11">-F22*D22/E22</f>
         <v>-0.20428210527228444</v>
       </c>
       <c r="H22" s="5">
         <v>-0.20361845640537399</v>
       </c>
       <c r="I22" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.32921801243242288</v>
       </c>
       <c r="J22" s="5">
@@ -15832,22 +15906,22 @@
         <v>64</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.32486882099921666</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25724984781109528</v>
       </c>
       <c r="N22" s="117">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="O22" s="253">
+      <c r="O22" s="270">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="P22" s="255">
+      <c r="P22" s="272">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -15855,12 +15929,12 @@
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="R22" s="262">
+      <c r="R22" s="279">
         <v>5.9126179060860602E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
@@ -15871,22 +15945,22 @@
         <v>0.186443664387938</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.49237807879785889</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.42827051422666923</v>
       </c>
       <c r="G23" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.16216872249202571</v>
       </c>
       <c r="H23" s="30">
         <v>-9.2213600873070997E-2</v>
       </c>
       <c r="I23" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.396379791111101</v>
       </c>
       <c r="J23" s="30">
@@ -15896,21 +15970,21 @@
         <v>-7.67018916246021E-2</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>43.137246531861038</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>36.281615354533244</v>
       </c>
       <c r="N23" s="118"/>
-      <c r="O23" s="254"/>
-      <c r="P23" s="256"/>
+      <c r="O23" s="271"/>
+      <c r="P23" s="273"/>
       <c r="Q23" s="122"/>
-      <c r="R23" s="259"/>
+      <c r="R23" s="276"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -15921,22 +15995,22 @@
         <v>0.30855667592349001</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.53550839974618802</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.48001356887306179</v>
       </c>
       <c r="G24" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.27658089262435981</v>
       </c>
       <c r="H24" s="30">
         <v>-0.249148420634765</v>
       </c>
       <c r="I24" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.39232134295417326</v>
       </c>
       <c r="J24" s="30">
@@ -15946,32 +16020,32 @@
         <v>9.0695793797376606E-2</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9.9184262981074411</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4.0524469181195855</v>
       </c>
       <c r="N24" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O24" s="204">
+      <c r="O24" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P24" s="242">
+      <c r="P24" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q24" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R24" s="246">
+      <c r="R24" s="263">
         <f>K23+K24+K25</f>
         <v>5.9126179060860505E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
@@ -15982,22 +16056,22 @@
         <v>0.24363297654796201</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.39405112784945595</v>
       </c>
       <c r="F25" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.30473068513065271</v>
       </c>
       <c r="G25" s="93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.18840814964560751</v>
       </c>
       <c r="H25" s="31">
         <v>-0.217046816661215</v>
       </c>
       <c r="I25" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.23950607425974685</v>
       </c>
       <c r="J25" s="31">
@@ -16007,21 +16081,21 @@
         <v>4.5132276888086E-2</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15.200333461942241</v>
       </c>
       <c r="M25" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.8939922563592244</v>
       </c>
       <c r="N25" s="120"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="243"/>
+      <c r="O25" s="258"/>
+      <c r="P25" s="260"/>
       <c r="Q25" s="124"/>
-      <c r="R25" s="247"/>
+      <c r="R25" s="264"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="194" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="6">
@@ -16034,22 +16108,22 @@
         <v>0.81093605056284601</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.83862007708632547</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.82387778523416422</v>
       </c>
       <c r="G26" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.79668042246916526</v>
       </c>
       <c r="H26" s="5">
         <v>-0.79768972897205603</v>
       </c>
       <c r="I26" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.20994025211165193</v>
       </c>
       <c r="J26" s="5">
@@ -16059,22 +16133,22 @@
         <v>64</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.12668900533072111</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.0456339908291703</v>
       </c>
       <c r="N26" s="117">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-2.9197288200581158E-2</v>
       </c>
-      <c r="O26" s="253">
+      <c r="O26" s="270">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-1.0932185255859852</v>
       </c>
-      <c r="P26" s="255">
+      <c r="P26" s="272">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>0.99011480774734817</v>
       </c>
@@ -16082,12 +16156,12 @@
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>2.9197288200581158E-2</v>
       </c>
-      <c r="R26" s="262">
+      <c r="R26" s="279">
         <v>-2.3529370910404901E-3</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
@@ -16098,22 +16172,22 @@
         <v>0.80500445235153695</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.80885029884163906</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.79103894803920183</v>
       </c>
       <c r="G27" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.78727778931031545</v>
       </c>
       <c r="H27" s="30">
         <v>-0.78669057342002002</v>
       </c>
       <c r="I27" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.7047386546396243E-2</v>
       </c>
       <c r="J27" s="30">
@@ -16123,21 +16197,21 @@
         <v>-2.0404952538293199E-2</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7.4588143888810285E-2</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11.910285865887108</v>
       </c>
       <c r="N27" s="118"/>
-      <c r="O27" s="254"/>
-      <c r="P27" s="256"/>
+      <c r="O27" s="271"/>
+      <c r="P27" s="273"/>
       <c r="Q27" s="122"/>
-      <c r="R27" s="259"/>
+      <c r="R27" s="276"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
@@ -16148,22 +16222,22 @@
         <v>0.73801715424375602</v>
       </c>
       <c r="E28" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.80794001375018898</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.79003269553597311</v>
       </c>
       <c r="G28" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.72165961803602563</v>
       </c>
       <c r="H28" s="30">
         <v>-0.72636715957160303</v>
       </c>
       <c r="I28" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.32149503217302311</v>
       </c>
       <c r="J28" s="30">
@@ -16173,32 +16247,32 @@
         <v>1.8052015447252701E-2</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.65232159565597236</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.1116149525841728</v>
       </c>
       <c r="N28" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O28" s="204">
+      <c r="O28" s="221">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P28" s="242">
+      <c r="P28" s="259">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q28" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R28" s="246">
+      <c r="R28" s="263">
         <f>K27+K28+K29</f>
         <v>-2.3529370910404974E-3</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="174"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
@@ -16209,11 +16283,11 @@
         <v>0.93301270189221897</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.96592582628906765</v>
       </c>
       <c r="F29" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.96303622820069212</v>
       </c>
       <c r="G29" s="93">
@@ -16224,7 +16298,7 @@
         <v>-0.93301270189221897</v>
       </c>
       <c r="I29" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.24925211698203556</v>
       </c>
       <c r="J29" s="31">
@@ -16234,18 +16308,18 @@
         <v>0</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.30005081883309442</v>
       </c>
       <c r="M29" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.30005081883310281</v>
       </c>
       <c r="N29" s="120"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="243"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="260"/>
       <c r="Q29" s="124"/>
-      <c r="R29" s="247"/>
+      <c r="R29" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -16367,7 +16441,7 @@
       <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="268">
+      <c r="B2" s="158">
         <v>0.49174985721075398</v>
       </c>
       <c r="C2">
@@ -16386,7 +16460,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="280" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="100" t="s">
@@ -16400,7 +16474,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="267"/>
+      <c r="A7" s="280"/>
       <c r="B7" s="100">
         <v>0</v>
       </c>
@@ -16412,7 +16486,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="267"/>
+      <c r="A8" s="280"/>
       <c r="B8" s="100">
         <v>1</v>
       </c>
@@ -16424,7 +16498,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="267"/>
+      <c r="A9" s="280"/>
       <c r="B9" s="100">
         <v>2</v>
       </c>
@@ -16437,7 +16511,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="273" t="s">
+      <c r="A11" s="281" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="134" t="s">
@@ -16463,17 +16537,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="274"/>
+      <c r="A12" s="282"/>
       <c r="B12" s="146">
         <v>0</v>
       </c>
-      <c r="C12" s="271">
+      <c r="C12" s="161">
         <v>0.24551381376860401</v>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="161">
         <v>0.96253884708735205</v>
       </c>
-      <c r="E12" s="278">
+      <c r="E12" s="165">
         <v>0.24857818633508</v>
       </c>
       <c r="F12" s="148">
@@ -16483,23 +16557,23 @@
         <f>C12*D12</f>
         <v>0.23631658324885096</v>
       </c>
-      <c r="H12" s="279">
+      <c r="H12" s="166">
         <f>E12/F12</f>
         <v>11.642682234136213</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="274"/>
-      <c r="B13" s="269">
+      <c r="A13" s="282"/>
+      <c r="B13" s="159">
         <v>1</v>
       </c>
-      <c r="C13" s="272">
+      <c r="C13" s="162">
         <v>9.4932217380424497E-2</v>
       </c>
-      <c r="D13" s="272">
+      <c r="D13" s="162">
         <v>-0.18318695673410099</v>
       </c>
-      <c r="E13" s="276">
+      <c r="E13" s="163">
         <v>0.191596466394993</v>
       </c>
       <c r="F13" s="132">
@@ -16509,40 +16583,40 @@
         <f>C13*D13</f>
         <v>-1.7390343997940091E-2</v>
       </c>
-      <c r="H13" s="280">
+      <c r="H13" s="167">
         <f>E13/F13</f>
         <v>8.9738235213178044</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="275"/>
-      <c r="B14" s="281">
+      <c r="A14" s="283"/>
+      <c r="B14" s="168">
         <v>2</v>
       </c>
-      <c r="C14" s="270">
+      <c r="C14" s="160">
         <v>0.22015536064362801</v>
       </c>
-      <c r="D14" s="270">
+      <c r="D14" s="160">
         <v>-0.86035566494885096</v>
       </c>
-      <c r="E14" s="277">
+      <c r="E14" s="164">
         <v>0.23730672744308001</v>
       </c>
-      <c r="F14" s="282">
+      <c r="F14" s="169">
         <v>2.13505944194072E-2</v>
       </c>
-      <c r="G14" s="282">
+      <c r="G14" s="169">
         <f>C14*D14</f>
         <v>-0.18941191169860266</v>
       </c>
-      <c r="H14" s="283">
+      <c r="H14" s="170">
         <f>E14/F14</f>
         <v>11.114759747736748</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="273" t="s">
+      <c r="A16" s="281" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="134" t="s">
@@ -16568,17 +16642,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="274"/>
+      <c r="A17" s="282"/>
       <c r="B17" s="146">
         <v>0</v>
       </c>
-      <c r="C17" s="271">
+      <c r="C17" s="161">
         <v>0.29204598824893702</v>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="161">
         <v>0.99578420321215</v>
       </c>
-      <c r="E17" s="278">
+      <c r="E17" s="165">
         <v>0.12922502054937299</v>
       </c>
       <c r="F17" s="148">
@@ -16588,23 +16662,23 @@
         <f>C17*D17</f>
         <v>0.29081478170977265</v>
       </c>
-      <c r="H17" s="279">
+      <c r="H17" s="166">
         <f>E17/F17</f>
         <v>19.662546716477081</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="274"/>
-      <c r="B18" s="269">
+      <c r="A18" s="282"/>
+      <c r="B18" s="159">
         <v>1</v>
       </c>
-      <c r="C18" s="272">
+      <c r="C18" s="162">
         <v>0.14146439186075699</v>
       </c>
-      <c r="D18" s="272">
+      <c r="D18" s="162">
         <v>0.56899023143641003</v>
       </c>
-      <c r="E18" s="276">
+      <c r="E18" s="163">
         <v>0.132670033671275</v>
       </c>
       <c r="F18" s="132">
@@ -16614,39 +16688,39 @@
         <f>C18*D18</f>
         <v>8.0491857064863115E-2</v>
       </c>
-      <c r="H18" s="280">
+      <c r="H18" s="167">
         <f>E18/F18</f>
         <v>20.186731051370607</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="275"/>
-      <c r="B19" s="281">
+      <c r="A19" s="283"/>
+      <c r="B19" s="168">
         <v>2</v>
       </c>
-      <c r="C19" s="270">
+      <c r="C19" s="160">
         <v>0.22015536064362801</v>
       </c>
-      <c r="D19" s="270">
+      <c r="D19" s="160">
         <v>-0.86035566494885096</v>
       </c>
-      <c r="E19" s="277">
+      <c r="E19" s="164">
         <v>0.23730672744308001</v>
       </c>
-      <c r="F19" s="282">
+      <c r="F19" s="169">
         <v>6.5721405478509701E-3</v>
       </c>
-      <c r="G19" s="282">
+      <c r="G19" s="169">
         <f>C19*D19</f>
         <v>-0.18941191169860266</v>
       </c>
-      <c r="H19" s="283">
+      <c r="H19" s="170">
         <f>E19/F19</f>
         <v>36.107981214838311</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="263">
+      <c r="B22" s="154">
         <v>71</v>
       </c>
     </row>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
   <si>
     <r>
       <t>Uφ</t>
@@ -1072,6 +1072,41 @@
   <si>
     <t>dP/dy числ</t>
   </si>
+  <si>
+    <t>23(92)</t>
+  </si>
+  <si>
+    <t>71(92)</t>
+  </si>
+  <si>
+    <r>
+      <t>dP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ан</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/dx</t>
+    </r>
+  </si>
+  <si>
+    <t>77 (92)</t>
+  </si>
 </sst>
 </file>
 
@@ -2029,7 +2064,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2527,249 +2562,345 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,27 +2913,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2818,30 +2928,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2857,20 +2949,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2878,7 +2988,27 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3286,11 +3416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150215296"/>
-        <c:axId val="150225280"/>
+        <c:axId val="242420352"/>
+        <c:axId val="242430336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150215296"/>
+        <c:axId val="242420352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150225280"/>
+        <c:crossAx val="242430336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3308,7 +3438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150225280"/>
+        <c:axId val="242430336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,7 +3449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150215296"/>
+        <c:crossAx val="242420352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,11 +3608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150267008"/>
-        <c:axId val="150268544"/>
+        <c:axId val="242463872"/>
+        <c:axId val="242465408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150267008"/>
+        <c:axId val="242463872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,7 +3622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150268544"/>
+        <c:crossAx val="242465408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3500,7 +3630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150268544"/>
+        <c:axId val="242465408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150267008"/>
+        <c:crossAx val="242463872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3670,11 +3800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236596608"/>
-        <c:axId val="236614784"/>
+        <c:axId val="242482560"/>
+        <c:axId val="242955392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236596608"/>
+        <c:axId val="242482560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236614784"/>
+        <c:crossAx val="242955392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3692,7 +3822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236614784"/>
+        <c:axId val="242955392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236596608"/>
+        <c:crossAx val="242482560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3755,6 +3885,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3861,11 +3992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236689664"/>
-        <c:axId val="236691456"/>
+        <c:axId val="138979584"/>
+        <c:axId val="242712576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236689664"/>
+        <c:axId val="138979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +4006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236691456"/>
+        <c:crossAx val="242712576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3883,7 +4014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236691456"/>
+        <c:axId val="242712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3894,13 +4025,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236689664"/>
+        <c:crossAx val="138979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3945,6 +4077,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4051,11 +4184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236339968"/>
-        <c:axId val="236341504"/>
+        <c:axId val="242967296"/>
+        <c:axId val="242968832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236339968"/>
+        <c:axId val="242967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236341504"/>
+        <c:crossAx val="242968832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4073,7 +4206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236341504"/>
+        <c:axId val="242968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,13 +4217,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236339968"/>
+        <c:crossAx val="242967296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4135,6 +4269,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4241,11 +4376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236350464"/>
-        <c:axId val="236356352"/>
+        <c:axId val="242981888"/>
+        <c:axId val="242819840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236350464"/>
+        <c:axId val="242981888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236356352"/>
+        <c:crossAx val="242819840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4263,7 +4398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236356352"/>
+        <c:axId val="242819840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,13 +4409,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236350464"/>
+        <c:crossAx val="242981888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4325,6 +4461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4431,11 +4568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236467712"/>
-        <c:axId val="236469248"/>
+        <c:axId val="243353088"/>
+        <c:axId val="243354624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236467712"/>
+        <c:axId val="243353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,7 +4582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236469248"/>
+        <c:crossAx val="243354624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4453,7 +4590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236469248"/>
+        <c:axId val="243354624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,13 +4601,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236467712"/>
+        <c:crossAx val="243353088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4515,6 +4653,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4621,11 +4760,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236511232"/>
-        <c:axId val="236512768"/>
+        <c:axId val="243380224"/>
+        <c:axId val="243381760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236511232"/>
+        <c:axId val="243380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +4774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236512768"/>
+        <c:crossAx val="243381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4643,7 +4782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236512768"/>
+        <c:axId val="243381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,13 +4793,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236511232"/>
+        <c:crossAx val="243380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4705,6 +4845,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4811,11 +4952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236996864"/>
-        <c:axId val="237002752"/>
+        <c:axId val="243013888"/>
+        <c:axId val="243015680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236996864"/>
+        <c:axId val="243013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,7 +4966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237002752"/>
+        <c:crossAx val="243015680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4833,7 +4974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237002752"/>
+        <c:axId val="243015680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4844,13 +4985,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236996864"/>
+        <c:crossAx val="243013888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5600,17 +5742,17 @@
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
-      <c r="P2" s="213">
+      <c r="P2" s="223">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="202">
+      <c r="R2" s="216">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="202"/>
+      <c r="S2" s="216"/>
       <c r="T2" s="89">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
@@ -5660,7 +5802,7 @@
       <c r="M3" s="198"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
-      <c r="P3" s="214"/>
+      <c r="P3" s="224"/>
       <c r="Q3" s="32">
         <v>0.45244023302814301</v>
       </c>
@@ -5726,7 +5868,7 @@
       <c r="O4" s="190">
         <v>1.0420345935290301</v>
       </c>
-      <c r="P4" s="215">
+      <c r="P4" s="225">
         <v>0.114810566882702</v>
       </c>
       <c r="Q4" s="32">
@@ -5785,10 +5927,10 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="211"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="216"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="226"/>
       <c r="Q5" s="33">
         <v>-0.98926814124435303</v>
       </c>
@@ -5805,7 +5947,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="207">
+      <c r="A6" s="217">
         <v>24</v>
       </c>
       <c r="B6" s="4">
@@ -5847,7 +5989,7 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="205">
+      <c r="M6" s="230">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
@@ -5859,24 +6001,24 @@
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
-      <c r="P6" s="218">
+      <c r="P6" s="228">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.18139049879196079</v>
       </c>
       <c r="Q6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="202">
+      <c r="R6" s="216">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="202"/>
+      <c r="S6" s="216"/>
       <c r="T6" s="89">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -5916,10 +6058,10 @@
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="206"/>
+      <c r="M7" s="231"/>
       <c r="N7" s="200"/>
       <c r="O7" s="200"/>
-      <c r="P7" s="219"/>
+      <c r="P7" s="229"/>
       <c r="Q7" s="32">
         <v>0.72378501135020201</v>
       </c>
@@ -5936,7 +6078,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
+      <c r="A8" s="218"/>
       <c r="B8" s="32">
         <v>2</v>
       </c>
@@ -5976,7 +6118,7 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="203">
+      <c r="M8" s="233">
         <v>0.107045965641376</v>
       </c>
       <c r="N8" s="190">
@@ -6004,7 +6146,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="209"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="33">
         <v>3</v>
       </c>
@@ -6044,10 +6186,10 @@
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="221"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="220"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="232"/>
       <c r="Q9" s="33">
         <v>-0.68918261371289802</v>
       </c>
@@ -6106,7 +6248,7 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="205">
+      <c r="M10" s="230">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
@@ -6125,10 +6267,10 @@
       <c r="Q10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="202">
+      <c r="R10" s="216">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="202"/>
+      <c r="S10" s="216"/>
       <c r="T10" s="89">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
@@ -6175,7 +6317,7 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="206"/>
+      <c r="M11" s="231"/>
       <c r="N11" s="200"/>
       <c r="O11" s="200"/>
       <c r="P11" s="192"/>
@@ -6235,7 +6377,7 @@
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="203">
+      <c r="M12" s="233">
         <v>-0.104824971018492</v>
       </c>
       <c r="N12" s="190">
@@ -6303,7 +6445,7 @@
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="204"/>
+      <c r="M13" s="235"/>
       <c r="N13" s="191"/>
       <c r="O13" s="191"/>
       <c r="P13" s="193"/>
@@ -6384,10 +6526,10 @@
       <c r="Q14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="202">
+      <c r="R14" s="216">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="202"/>
+      <c r="S14" s="216"/>
       <c r="T14" s="89">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
@@ -6522,7 +6664,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="14">
         <v>3</v>
       </c>
@@ -6562,7 +6704,7 @@
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="212"/>
+      <c r="M17" s="222"/>
       <c r="N17" s="191"/>
       <c r="O17" s="191"/>
       <c r="P17" s="193"/>
@@ -6643,10 +6785,10 @@
       <c r="Q18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="202">
+      <c r="R18" s="216">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="202"/>
+      <c r="S18" s="216"/>
       <c r="T18" s="89">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
@@ -6902,10 +7044,10 @@
       <c r="Q22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="202">
+      <c r="R22" s="216">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="202"/>
+      <c r="S22" s="216"/>
       <c r="T22" s="89">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
@@ -7161,10 +7303,10 @@
       <c r="Q26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="202">
+      <c r="R26" s="216">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="202"/>
+      <c r="S26" s="216"/>
       <c r="T26" s="89">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
@@ -7359,7 +7501,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="173">
+      <c r="A30" s="238">
         <v>541</v>
       </c>
       <c r="B30" s="68">
@@ -7401,36 +7543,36 @@
         <f t="shared" si="11"/>
         <v>8.4379600867631483E-3</v>
       </c>
-      <c r="M30" s="176">
+      <c r="M30" s="241">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>-5.4975002363563528E-2</v>
       </c>
-      <c r="N30" s="178">
+      <c r="N30" s="243">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.95330562940850405</v>
       </c>
-      <c r="O30" s="178">
+      <c r="O30" s="243">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1300277039248292</v>
       </c>
-      <c r="P30" s="180">
+      <c r="P30" s="245">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>5.4975002363563528E-2</v>
       </c>
       <c r="Q30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="182">
+      <c r="R30" s="247">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="182"/>
+      <c r="S30" s="247"/>
       <c r="T30" s="74">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.14638409399961166</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="174"/>
+      <c r="A31" s="239"/>
       <c r="B31" s="75">
         <v>1</v>
       </c>
@@ -7470,10 +7612,10 @@
         <f t="shared" si="11"/>
         <v>1.0374368421133059E-2</v>
       </c>
-      <c r="M31" s="177"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="181"/>
+      <c r="M31" s="242"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="244"/>
+      <c r="P31" s="246"/>
       <c r="Q31" s="81">
         <v>-0.97492791218182395</v>
       </c>
@@ -7490,7 +7632,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="174"/>
+      <c r="A32" s="239"/>
       <c r="B32" s="75">
         <v>2</v>
       </c>
@@ -7530,16 +7672,16 @@
         <f t="shared" si="11"/>
         <v>1.5704774317678711E-2</v>
       </c>
-      <c r="M32" s="183">
+      <c r="M32" s="248">
         <v>-1.25962993460506E-2</v>
       </c>
-      <c r="N32" s="185">
+      <c r="N32" s="250">
         <v>-0.99529561078374396</v>
       </c>
-      <c r="O32" s="185">
+      <c r="O32" s="250">
         <v>1.08721830086341</v>
       </c>
-      <c r="P32" s="181">
+      <c r="P32" s="246">
         <v>1.1730945975606999E-2</v>
       </c>
       <c r="Q32" s="81">
@@ -7558,7 +7700,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="175"/>
+      <c r="A33" s="240"/>
       <c r="B33" s="82">
         <v>3</v>
       </c>
@@ -7598,10 +7740,10 @@
         <f t="shared" si="11"/>
         <v>2.2994812962997525E-2</v>
       </c>
-      <c r="M33" s="184"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="187"/>
+      <c r="M33" s="249"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="251"/>
+      <c r="P33" s="252"/>
       <c r="Q33" s="87">
         <v>0.79122370800502395</v>
       </c>
@@ -8538,7 +8680,7 @@
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="228">
+      <c r="A50" s="208">
         <v>265</v>
       </c>
       <c r="B50" s="40">
@@ -8580,19 +8722,19 @@
         <f t="shared" si="11"/>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M50" s="231">
+      <c r="M50" s="211">
         <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N50" s="233">
+      <c r="N50" s="213">
         <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O50" s="233">
+      <c r="O50" s="213">
         <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P50" s="235">
+      <c r="P50" s="215">
         <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -8604,7 +8746,7 @@
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="229"/>
+      <c r="A51" s="209"/>
       <c r="B51" s="49">
         <v>1</v>
       </c>
@@ -8644,10 +8786,10 @@
         <f t="shared" si="11"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M51" s="232"/>
-      <c r="N51" s="234"/>
-      <c r="O51" s="234"/>
-      <c r="P51" s="226"/>
+      <c r="M51" s="212"/>
+      <c r="N51" s="214"/>
+      <c r="O51" s="214"/>
+      <c r="P51" s="206"/>
       <c r="Q51" s="55">
         <v>-1.76483335659508E-3</v>
       </c>
@@ -8656,7 +8798,7 @@
       <c r="T51" s="50"/>
     </row>
     <row r="52" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="229"/>
+      <c r="A52" s="209"/>
       <c r="B52" s="49">
         <v>2</v>
       </c>
@@ -8696,16 +8838,16 @@
         <f t="shared" si="11"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M52" s="222">
+      <c r="M52" s="202">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N52" s="224">
+      <c r="N52" s="204">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O52" s="224">
+      <c r="O52" s="204">
         <v>1.38140952302927</v>
       </c>
-      <c r="P52" s="226">
+      <c r="P52" s="206">
         <v>0.693161263386181</v>
       </c>
       <c r="Q52" s="55">
@@ -8716,7 +8858,7 @@
       <c r="T52" s="50"/>
     </row>
     <row r="53" spans="1:23" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="230"/>
+      <c r="A53" s="210"/>
       <c r="B53" s="56">
         <v>3</v>
       </c>
@@ -8756,10 +8898,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M53" s="223"/>
-      <c r="N53" s="225"/>
-      <c r="O53" s="225"/>
-      <c r="P53" s="227"/>
+      <c r="M53" s="203"/>
+      <c r="N53" s="205"/>
+      <c r="O53" s="205"/>
+      <c r="P53" s="207"/>
       <c r="Q53" s="61">
         <v>0</v>
       </c>
@@ -9054,20 +9196,20 @@
         <f t="shared" si="9"/>
         <v>4.8513512095965501E-2</v>
       </c>
-      <c r="N59" s="171" t="s">
+      <c r="N59" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="172" t="s">
+      <c r="O59" s="236"/>
+      <c r="P59" s="236"/>
+      <c r="Q59" s="236"/>
+      <c r="R59" s="236"/>
+      <c r="S59" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="172"/>
-      <c r="U59" s="172"/>
-      <c r="V59" s="172"/>
-      <c r="W59" s="172"/>
+      <c r="T59" s="237"/>
+      <c r="U59" s="237"/>
+      <c r="V59" s="237"/>
+      <c r="W59" s="237"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B60" s="30" t="s">
@@ -10009,58 +10151,66 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="S59:W59"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -10085,99 +10235,91 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N59:R59"/>
-    <mergeCell ref="S59:W59"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L33 K58:L1048576">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:L37">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:L41">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L45">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:L49">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:L53">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:L57">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10257,7 +10399,7 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="236">
+      <c r="A2" s="253">
         <v>265</v>
       </c>
       <c r="B2" s="40">
@@ -10299,19 +10441,19 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M2" s="239">
+      <c r="M2" s="256">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N2" s="241">
+      <c r="N2" s="258">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O2" s="241">
+      <c r="O2" s="258">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P2" s="243">
+      <c r="P2" s="260">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -10324,7 +10466,7 @@
       <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="237"/>
+      <c r="A3" s="254"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -10364,10 +10506,10 @@
         <f t="shared" si="5"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M3" s="240"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="244"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="261"/>
       <c r="Q3" s="106"/>
       <c r="R3" s="106"/>
       <c r="S3" s="106"/>
@@ -10377,7 +10519,7 @@
       <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -10417,16 +10559,16 @@
         <f t="shared" si="5"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M4" s="245">
+      <c r="M4" s="262">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N4" s="247">
+      <c r="N4" s="264">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O4" s="247">
+      <c r="O4" s="264">
         <v>1.38140952302927</v>
       </c>
-      <c r="P4" s="249">
+      <c r="P4" s="266">
         <v>0.693161263386181</v>
       </c>
       <c r="Q4" s="106"/>
@@ -10438,7 +10580,7 @@
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="238"/>
+      <c r="A5" s="255"/>
       <c r="B5" s="56">
         <v>3</v>
       </c>
@@ -10478,10 +10620,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M5" s="246"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="250"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="267"/>
       <c r="Q5" s="106"/>
       <c r="R5" s="106"/>
       <c r="S5" s="106"/>
@@ -10712,7 +10854,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="212"/>
+      <c r="M9" s="222"/>
       <c r="N9" s="191"/>
       <c r="O9" s="191"/>
       <c r="P9" s="193"/>
@@ -10801,20 +10943,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="171" t="s">
+      <c r="N11" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="172" t="s">
+      <c r="O11" s="236"/>
+      <c r="P11" s="236"/>
+      <c r="Q11" s="236"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="237"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -11781,15 +11923,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="S11:W11"/>
     <mergeCell ref="A6:A9"/>
@@ -11801,19 +11934,28 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:L30">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L9">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11825,8 +11967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11913,7 +12055,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="290" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="6">
@@ -11955,23 +12097,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>1.9392032531042902E-13</v>
       </c>
-      <c r="M2" s="268">
+      <c r="M2" s="279">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N2" s="270">
+      <c r="N2" s="293">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O2" s="272">
+      <c r="O2" s="270">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P2" s="268">
+      <c r="P2" s="279">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q2" s="256">
+      <c r="Q2" s="272">
         <v>6.3629380283494004E-3</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -11991,7 +12133,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
+      <c r="A3" s="291"/>
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
@@ -12031,11 +12173,11 @@
         <f t="shared" si="5"/>
         <v>6.7453890876466378</v>
       </c>
-      <c r="M3" s="269"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="257"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="273"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.20066838043017104</v>
@@ -12058,7 +12200,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="266"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
@@ -12098,19 +12240,19 @@
         <f t="shared" si="5"/>
         <v>10.535141527783992</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="281">
         <v>0.49003311552115603</v>
       </c>
-      <c r="N4" s="221">
+      <c r="N4" s="234">
         <v>-1.1847673396731999</v>
       </c>
-      <c r="O4" s="259">
+      <c r="O4" s="275">
         <v>0.74624297082319102</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="281">
         <v>-0.211992642771656</v>
       </c>
-      <c r="Q4" s="274"/>
+      <c r="Q4" s="277"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.26780667737880604</v>
@@ -12133,7 +12275,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="266"/>
+      <c r="A5" s="291"/>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
@@ -12173,11 +12315,11 @@
         <f t="shared" si="5"/>
         <v>3468381806624317.5</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="275"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="278"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.21664393425670642</v>
@@ -12200,7 +12342,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="266"/>
+      <c r="A6" s="291"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -12240,23 +12382,23 @@
         <f t="shared" si="5"/>
         <v>3.1190634548571303</v>
       </c>
-      <c r="M6" s="268">
+      <c r="M6" s="279">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N6" s="270">
+      <c r="N6" s="293">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O6" s="272">
+      <c r="O6" s="270">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P6" s="268">
+      <c r="P6" s="279">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q6" s="256">
+      <c r="Q6" s="272">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R6" s="144" t="s">
@@ -12274,7 +12416,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="266"/>
+      <c r="A7" s="291"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -12314,11 +12456,11 @@
         <f t="shared" si="5"/>
         <v>2.6339972398281795</v>
       </c>
-      <c r="M7" s="269"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="257"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="273"/>
       <c r="R7" s="128">
         <v>0.68511899206568305</v>
       </c>
@@ -12335,7 +12477,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="266"/>
+      <c r="A8" s="291"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -12375,19 +12517,19 @@
         <f t="shared" si="5"/>
         <v>1.2869566819255738</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="281">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N8" s="221">
+      <c r="N8" s="234">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O8" s="259">
+      <c r="O8" s="275">
         <v>1.1537363051412</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="281">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q8" s="263"/>
+      <c r="Q8" s="288"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -12403,7 +12545,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -12443,11 +12585,11 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="260"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="264"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="276"/>
+      <c r="P9" s="282"/>
+      <c r="Q9" s="289"/>
       <c r="R9" s="129">
         <v>2.1389424385951799E-2</v>
       </c>
@@ -12572,10 +12714,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="255"/>
+      <c r="B25" s="287"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -12593,7 +12735,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="251" t="s">
+      <c r="A26" s="283" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="145">
@@ -12628,7 +12770,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="252"/>
+      <c r="A27" s="284"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -12661,7 +12803,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="252"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -12694,7 +12836,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="253"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="138" t="s">
         <v>108</v>
       </c>
@@ -12724,7 +12866,7 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="281" t="s">
+      <c r="A31" s="268" t="s">
         <v>120</v>
       </c>
       <c r="B31" s="134" t="s">
@@ -12741,24 +12883,32 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="283"/>
-      <c r="B32" s="285">
+      <c r="A32" s="269"/>
+      <c r="B32" s="187">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>4.066233509851179E-2</v>
       </c>
-      <c r="C32" s="284">
+      <c r="C32" s="186">
         <v>5.8037345172168901E-2</v>
       </c>
-      <c r="D32" s="285">
+      <c r="D32" s="187">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>-7.5766684862985254E-2</v>
       </c>
-      <c r="E32" s="284">
+      <c r="E32" s="186">
         <v>-0.16742062448784001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -12775,27 +12925,19 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12806,15 +12948,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H29"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -12888,7 +13031,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="290" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="6">
@@ -12930,23 +13073,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M2" s="268">
+      <c r="M2" s="279">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N2" s="270">
+      <c r="N2" s="293">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O2" s="272">
+      <c r="O2" s="270">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P2" s="268">
+      <c r="P2" s="279">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q2" s="256">
+      <c r="Q2" s="272">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -12966,7 +13109,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
+      <c r="A3" s="291"/>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
@@ -13006,11 +13149,11 @@
         <f t="shared" si="5"/>
         <v>0.32219626081740982</v>
       </c>
-      <c r="M3" s="269"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="257"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="273"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.25698704275732182</v>
@@ -13033,7 +13176,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="266"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
@@ -13073,19 +13216,19 @@
         <f t="shared" si="5"/>
         <v>1.8865981084411843</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="281">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N4" s="221">
+      <c r="N4" s="234">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O4" s="259">
+      <c r="O4" s="275">
         <v>1.1537363051412</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="281">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q4" s="274"/>
+      <c r="Q4" s="277"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.48488963030579385</v>
@@ -13108,7 +13251,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="266"/>
+      <c r="A5" s="291"/>
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
@@ -13148,11 +13291,11 @@
         <f t="shared" si="5"/>
         <v>1.7967280576689948</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="275"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="278"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.44915396297778803</v>
@@ -13175,7 +13318,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="266"/>
+      <c r="A6" s="291"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -13215,23 +13358,23 @@
         <f t="shared" si="5"/>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M6" s="268">
+      <c r="M6" s="279">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N6" s="270">
+      <c r="N6" s="293">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O6" s="272">
+      <c r="O6" s="270">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P6" s="268">
+      <c r="P6" s="279">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q6" s="256">
+      <c r="Q6" s="272">
         <v>-2.3529370910404901E-3</v>
       </c>
       <c r="R6" s="144" t="s">
@@ -13249,7 +13392,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="266"/>
+      <c r="A7" s="291"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -13289,11 +13432,11 @@
         <f t="shared" si="5"/>
         <v>0.20868281245301892</v>
       </c>
-      <c r="M7" s="269"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="276"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="295"/>
       <c r="R7" s="128">
         <v>1.1910306360409</v>
       </c>
@@ -13310,7 +13453,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="266"/>
+      <c r="A8" s="291"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -13350,19 +13493,19 @@
         <f t="shared" si="5"/>
         <v>2.1997398620743895E-2</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="281">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="N8" s="221">
+      <c r="N8" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="O8" s="259">
+      <c r="O8" s="275">
         <v>1.1344986861228901</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="281">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="Q8" s="263"/>
+      <c r="Q8" s="288"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -13378,7 +13521,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -13418,11 +13561,11 @@
         <f t="shared" si="5"/>
         <v>0.61427071457097293</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="260"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="264"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="276"/>
+      <c r="P9" s="282"/>
+      <c r="Q9" s="289"/>
       <c r="R9" s="129">
         <v>5.7132752196568798E-2</v>
       </c>
@@ -13547,10 +13690,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="255"/>
+      <c r="B25" s="287"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -13568,7 +13711,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="251" t="s">
+      <c r="A26" s="283" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="145">
@@ -13599,7 +13742,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="252"/>
+      <c r="A27" s="284"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -13628,7 +13771,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="252"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -13657,7 +13800,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="253"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="138" t="s">
         <v>106</v>
       </c>
@@ -13685,8 +13828,51 @@
         <v>4.0826134567874539E-3</v>
       </c>
     </row>
+    <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="268" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="269"/>
+      <c r="B32" s="187">
+        <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>0.58174051627358325</v>
+      </c>
+      <c r="C32" s="186">
+        <v>0.60958423533754003</v>
+      </c>
+      <c r="D32" s="187">
+        <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>-8.0895847185086356E-2</v>
+      </c>
+      <c r="E32" s="186">
+        <v>-0.107622571123418</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -13703,26 +13889,19 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13733,15 +13912,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
@@ -13820,7 +14000,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="290" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="6">
@@ -13862,23 +14042,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M2" s="268">
+      <c r="M2" s="279">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N2" s="270">
+      <c r="N2" s="293">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O2" s="272">
+      <c r="O2" s="270">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P2" s="268">
+      <c r="P2" s="279">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q2" s="256">
+      <c r="Q2" s="272">
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R2" s="135" t="s">
@@ -13898,7 +14078,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
+      <c r="A3" s="291"/>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
@@ -13938,11 +14118,11 @@
         <f t="shared" si="5"/>
         <v>1.5721501854168734E+16</v>
       </c>
-      <c r="M3" s="269"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="257"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="273"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.22167804809623956</v>
@@ -13965,7 +14145,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="266"/>
+      <c r="A4" s="291"/>
       <c r="B4" s="2" t="s">
         <v>93</v>
       </c>
@@ -14005,19 +14185,19 @@
         <f t="shared" si="5"/>
         <v>5.435138479755218</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="281">
         <v>0.16566277110175201</v>
       </c>
-      <c r="N4" s="221">
+      <c r="N4" s="234">
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O4" s="259">
+      <c r="O4" s="275">
         <v>0.711099224132827</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="281">
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q4" s="274"/>
+      <c r="Q4" s="277"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.21664393425670642</v>
@@ -14040,7 +14220,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="266"/>
+      <c r="A5" s="291"/>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
@@ -14080,11 +14260,11 @@
         <f t="shared" si="5"/>
         <v>3613139172902892</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="275"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="278"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.17355349564702202</v>
@@ -14107,7 +14287,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="266"/>
+      <c r="A6" s="291"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -14147,23 +14327,23 @@
         <f t="shared" si="5"/>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M6" s="268">
+      <c r="M6" s="279">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N6" s="270">
+      <c r="N6" s="293">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O6" s="272">
+      <c r="O6" s="270">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P6" s="268">
+      <c r="P6" s="279">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q6" s="256">
+      <c r="Q6" s="272">
         <f>Q2</f>
         <v>1.7683012531248901E-4</v>
       </c>
@@ -14182,7 +14362,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="266"/>
+      <c r="A7" s="291"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -14222,11 +14402,11 @@
         <f t="shared" si="5"/>
         <v>66.89695684978372</v>
       </c>
-      <c r="M7" s="269"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="276"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="295"/>
       <c r="R7" s="128">
         <v>0.611875477999968</v>
       </c>
@@ -14243,7 +14423,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="266"/>
+      <c r="A8" s="291"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -14283,23 +14463,23 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="281">
         <f>M4</f>
         <v>0.16566277110175201</v>
       </c>
-      <c r="N8" s="274">
+      <c r="N8" s="277">
         <f>N4</f>
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O8" s="277">
+      <c r="O8" s="296">
         <f>O4</f>
         <v>0.711099224132827</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="281">
         <f>P4</f>
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q8" s="263"/>
+      <c r="Q8" s="288"/>
       <c r="R8" s="134" t="s">
         <v>74</v>
       </c>
@@ -14315,7 +14495,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -14355,11 +14535,11 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="275"/>
-      <c r="O9" s="278"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="264"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="278"/>
+      <c r="O9" s="297"/>
+      <c r="P9" s="282"/>
+      <c r="Q9" s="289"/>
       <c r="R9" s="129">
         <v>1.74564235241703E-2</v>
       </c>
@@ -14484,10 +14664,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="255"/>
+      <c r="B25" s="287"/>
       <c r="C25" s="130" t="s">
         <v>100</v>
       </c>
@@ -14505,7 +14685,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="251" t="s">
+      <c r="A26" s="283" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="145">
@@ -14532,7 +14712,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="252"/>
+      <c r="A27" s="284"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -14557,7 +14737,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="252"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -14582,7 +14762,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="253"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="138" t="s">
         <v>106</v>
       </c>
@@ -14606,8 +14786,51 @@
         <v>1.9599339345337599E-4</v>
       </c>
     </row>
+    <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="269"/>
+      <c r="B32" s="187">
+        <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>-5.5508505866866488E-2</v>
+      </c>
+      <c r="C32" s="186">
+        <v>2.4811671720539299E-2</v>
+      </c>
+      <c r="D32" s="187">
+        <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>0.23183368498718282</v>
+      </c>
+      <c r="E32" s="186">
+        <v>-9.7776092756626506E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -14624,26 +14847,19 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14654,10 +14870,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14671,12 +14890,11 @@
     <col min="13" max="13" width="9.5" style="101" customWidth="1"/>
     <col min="14" max="14" width="10.75" style="101" customWidth="1"/>
     <col min="15" max="16" width="11.375" style="101" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.125" style="101" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="101" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="101"/>
+    <col min="17" max="20" width="12.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -14716,23 +14934,29 @@
       <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="180" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="174" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="174" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="194" t="s">
         <v>60</v>
       </c>
@@ -14740,29 +14964,29 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.215999570887704</v>
-      </c>
-      <c r="D2" s="5">
-        <v>8.7535826562047503E-2</v>
+        <v>-0.180193773580483</v>
+      </c>
+      <c r="D2" s="310">
+        <v>-7.7715611723760899E-16</v>
       </c>
       <c r="E2" s="5">
         <f>SQRT(D2*D2+C2*C2)</f>
-        <v>0.23306294333414124</v>
+        <v>0.180193773580483</v>
       </c>
       <c r="F2" s="5">
         <f>1/0.96*(E2-0.04/E2)</f>
-        <v>6.3995299540198489E-2</v>
+        <v>-4.3530707556735937E-2</v>
       </c>
       <c r="G2" s="88">
         <f>-F2*D2/E2</f>
-        <v>-2.4035916483324003E-2</v>
+        <v>-1.8774319996294773E-16</v>
       </c>
       <c r="H2" s="5">
         <v>-2.9028580553714899E-2</v>
       </c>
       <c r="I2" s="88">
         <f t="shared" ref="I2:I29" si="0">F2*C2/E2</f>
-        <v>5.9309974557795943E-2</v>
+        <v>4.3530707556735937E-2</v>
       </c>
       <c r="J2" s="5">
         <v>7.37070171687665E-2</v>
@@ -14772,33 +14996,41 @@
       </c>
       <c r="L2" s="4">
         <f t="shared" ref="L2:L29" si="1">ABS((G2-H2)/G2)*100</f>
-        <v>20.771681719957634</v>
+        <v>1.5461854575528532E+16</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" ref="M2:M29" si="2">ABS((I2-J2)/I2)*100</f>
-        <v>24.274235014113916</v>
+        <v>69.321890926537648</v>
       </c>
       <c r="N2" s="117">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
-        <v>-0.53402866836813123</v>
-      </c>
-      <c r="O2" s="270">
+        <v>-1.1068982043822117E-14</v>
+      </c>
+      <c r="O2" s="293">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
-        <v>-0.49100382475466869</v>
-      </c>
-      <c r="P2" s="272">
+        <v>0.24157720154127904</v>
+      </c>
+      <c r="P2" s="270">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
-        <v>1.5923295085786646</v>
+        <v>2.3249105348746126</v>
       </c>
       <c r="Q2" s="121">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
-        <v>0.53402866836813123</v>
-      </c>
-      <c r="R2" s="279">
+        <v>1.1068982043822117E-14</v>
+      </c>
+      <c r="R2" s="298">
         <v>-2.3529370910404901E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="301">
+        <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>0.58293949024837999</v>
+      </c>
+      <c r="T2" s="301">
+        <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>2.5141545227896315E-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="195"/>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -14843,12 +15075,14 @@
         <v>7.2552218510576498</v>
       </c>
       <c r="N3" s="118"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="273"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="271"/>
       <c r="Q3" s="122"/>
-      <c r="R3" s="276"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="295"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="302"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="195"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
@@ -14895,22 +15129,28 @@
       <c r="N4" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O4" s="221">
+      <c r="O4" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P4" s="259">
+      <c r="P4" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q4" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R4" s="263">
+      <c r="R4" s="288">
         <f>K3+K4+K5</f>
         <v>-2.3529370910404974E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="210"/>
+      <c r="S4" s="303">
+        <v>7.5368687073901403E-2</v>
+      </c>
+      <c r="T4" s="303">
+        <v>3.2331313633133803E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="220"/>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -14954,12 +15194,14 @@
         <v>100</v>
       </c>
       <c r="N5" s="120"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="260"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="276"/>
       <c r="Q5" s="124"/>
-      <c r="R5" s="264"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="289"/>
+      <c r="S5" s="304"/>
+      <c r="T5" s="304"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="195" t="s">
         <v>61</v>
       </c>
@@ -15009,11 +15251,11 @@
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-0.53402866836813123</v>
       </c>
-      <c r="O6" s="270">
+      <c r="O6" s="293">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.49100382475466869</v>
       </c>
-      <c r="P6" s="272">
+      <c r="P6" s="270">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.5923295085786646</v>
       </c>
@@ -15021,11 +15263,19 @@
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>0.53402866836813123</v>
       </c>
-      <c r="R6" s="279">
+      <c r="R6" s="298">
         <v>1.52082465948405E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="301">
+        <f>1/0.96/0.96*(C6-0.08*C6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*C6/(POWER(C6*C6+D6*D6,2)))</f>
+        <v>-0.23790973065728516</v>
+      </c>
+      <c r="T6" s="301">
+        <f>1/0.96/0.96*(D6-0.08*D6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*D6/(POWER(C6*C6+D6*D6,2)))</f>
+        <v>-9.6415121727563904E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="195"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
@@ -15070,12 +15320,14 @@
         <v>2.9566201841053297</v>
       </c>
       <c r="N7" s="118"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="273"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="271"/>
       <c r="Q7" s="122"/>
-      <c r="R7" s="276"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="295"/>
+      <c r="S7" s="302"/>
+      <c r="T7" s="302"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="195"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
@@ -15122,21 +15374,27 @@
       <c r="N8" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O8" s="221">
+      <c r="O8" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P8" s="259">
+      <c r="P8" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q8" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R8" s="263">
+      <c r="R8" s="288">
         <f>K7+K8+K9</f>
         <v>1.5208246594840498E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="303">
+        <v>7.5368687073901403E-2</v>
+      </c>
+      <c r="T8" s="303">
+        <v>3.2331313633133803E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="196"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
@@ -15181,12 +15439,14 @@
         <v>100</v>
       </c>
       <c r="N9" s="120"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="260"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="276"/>
       <c r="Q9" s="124"/>
-      <c r="R9" s="264"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="289"/>
+      <c r="S9" s="304"/>
+      <c r="T9" s="304"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="194" t="s">
         <v>65</v>
       </c>
@@ -15236,11 +15496,11 @@
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.39761307687490022</v>
       </c>
-      <c r="O10" s="270">
+      <c r="O10" s="293">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-0.96225861994314255</v>
       </c>
-      <c r="P10" s="272">
+      <c r="P10" s="270">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>1.1210747133901908</v>
       </c>
@@ -15248,11 +15508,19 @@
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.39761307687490022</v>
       </c>
-      <c r="R10" s="279">
+      <c r="R10" s="298">
         <v>5.5289471330137504E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="301">
+        <f>1/0.96/0.96*(C10-0.08*C10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*C10/(POWER(C10*C10+D10*D10,2)))</f>
+        <v>1.8826196159772688E-2</v>
+      </c>
+      <c r="T10" s="301">
+        <f>1/0.96/0.96*(D10-0.08*D10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*D10/(POWER(C10*C10+D10*D10,2)))</f>
+        <v>1.5438150570472962E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="195"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -15297,12 +15565,14 @@
         <v>0.84487164353641009</v>
       </c>
       <c r="N11" s="118"/>
-      <c r="O11" s="271"/>
-      <c r="P11" s="273"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="271"/>
       <c r="Q11" s="122"/>
-      <c r="R11" s="276"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="295"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="302"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="195"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
@@ -15349,22 +15619,28 @@
       <c r="N12" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O12" s="221">
+      <c r="O12" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P12" s="259">
+      <c r="P12" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q12" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R12" s="263">
+      <c r="R12" s="288">
         <f>K11+K12+K13</f>
         <v>5.5289471330137001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="210"/>
+      <c r="S12" s="303">
+        <v>0.14579811590467601</v>
+      </c>
+      <c r="T12" s="303">
+        <v>8.0937587487820595E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="220"/>
       <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
@@ -15408,12 +15684,14 @@
         <v>0.65032467158066276</v>
       </c>
       <c r="N13" s="120"/>
-      <c r="O13" s="258"/>
-      <c r="P13" s="260"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="276"/>
       <c r="Q13" s="124"/>
-      <c r="R13" s="264"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="289"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="195" t="s">
         <v>66</v>
       </c>
@@ -15463,11 +15741,11 @@
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>-0.39761307687490022</v>
       </c>
-      <c r="O14" s="270">
+      <c r="O14" s="293">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-0.96225861994314255</v>
       </c>
-      <c r="P14" s="272">
+      <c r="P14" s="270">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>1.1210747133901908</v>
       </c>
@@ -15475,11 +15753,19 @@
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>0.39761307687490022</v>
       </c>
-      <c r="R14" s="279">
+      <c r="R14" s="298">
         <v>4.0323231025556301E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="301">
+        <f>1/0.96/0.96*(C14-0.08*C14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*C14/(POWER(C14*C14+D14*D14,2)))</f>
+        <v>1.8826196159772688E-2</v>
+      </c>
+      <c r="T14" s="301">
+        <f>1/0.96/0.96*(D14-0.08*D14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*D14/(POWER(C14*C14+D14*D14,2)))</f>
+        <v>1.5438150570472962E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="195"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -15524,12 +15810,14 @@
         <v>12.772372379946415</v>
       </c>
       <c r="N15" s="118"/>
-      <c r="O15" s="271"/>
-      <c r="P15" s="273"/>
+      <c r="O15" s="294"/>
+      <c r="P15" s="271"/>
       <c r="Q15" s="122"/>
-      <c r="R15" s="276"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="295"/>
+      <c r="S15" s="302"/>
+      <c r="T15" s="302"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="195"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
@@ -15576,21 +15864,27 @@
       <c r="N16" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O16" s="221">
+      <c r="O16" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P16" s="259">
+      <c r="P16" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q16" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R16" s="263">
+      <c r="R16" s="288">
         <f>K15+K16+K17</f>
         <v>4.0323231025556391E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S16" s="303">
+        <v>0.14579811590467601</v>
+      </c>
+      <c r="T16" s="303">
+        <v>8.0937587487820595E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="196"/>
       <c r="B17" s="3" t="s">
         <v>57</v>
@@ -15635,12 +15929,14 @@
         <v>16.934974599421913</v>
       </c>
       <c r="N17" s="120"/>
-      <c r="O17" s="258"/>
-      <c r="P17" s="260"/>
+      <c r="O17" s="274"/>
+      <c r="P17" s="276"/>
       <c r="Q17" s="124"/>
-      <c r="R17" s="264"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="289"/>
+      <c r="S17" s="304"/>
+      <c r="T17" s="304"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="194" t="s">
         <v>67</v>
       </c>
@@ -15690,11 +15986,11 @@
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="O18" s="270">
+      <c r="O18" s="293">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="P18" s="272">
+      <c r="P18" s="270">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -15702,11 +15998,19 @@
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="R18" s="279">
+      <c r="R18" s="298">
         <v>-4.6216095055825798E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="301">
+        <f>1/0.96/0.96*(C18-0.08*C18/(C18*C18+D18*D18)-0.5*0.04*0.04*2*C18/(POWER(C18*C18+D18*D18,2)))</f>
+        <v>0.24735454129767298</v>
+      </c>
+      <c r="T18" s="301">
+        <f>1/0.96/0.96*(D18-0.08*D18/(C18*C18+D18*D18)-0.5*0.04*0.04*2*D18/(POWER(C18*C18+D18*D18,2)))</f>
+        <v>0.15348524241309838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="195"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -15751,12 +16055,14 @@
         <v>0.75434700306906899</v>
       </c>
       <c r="N19" s="118"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="273"/>
+      <c r="O19" s="294"/>
+      <c r="P19" s="271"/>
       <c r="Q19" s="122"/>
-      <c r="R19" s="276"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="295"/>
+      <c r="S19" s="302"/>
+      <c r="T19" s="302"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="195"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
@@ -15803,22 +16109,28 @@
       <c r="N20" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O20" s="221">
+      <c r="O20" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P20" s="259">
+      <c r="P20" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q20" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R20" s="263">
+      <c r="R20" s="288">
         <f>K19+K20+K21</f>
         <v>-4.6216095055818945E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
+      <c r="S20" s="303">
+        <v>0.26502318375103501</v>
+      </c>
+      <c r="T20" s="303">
+        <v>0.193669042946988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="220"/>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
@@ -15862,12 +16174,14 @@
         <v>0.84487164353641009</v>
       </c>
       <c r="N21" s="120"/>
-      <c r="O21" s="258"/>
-      <c r="P21" s="260"/>
+      <c r="O21" s="274"/>
+      <c r="P21" s="276"/>
       <c r="Q21" s="124"/>
-      <c r="R21" s="264"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="289"/>
+      <c r="S21" s="304"/>
+      <c r="T21" s="304"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="195" t="s">
         <v>68</v>
       </c>
@@ -15917,11 +16231,11 @@
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="O22" s="270">
+      <c r="O22" s="293">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="P22" s="272">
+      <c r="P22" s="270">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -15929,11 +16243,19 @@
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="R22" s="279">
+      <c r="R22" s="298">
         <v>5.9126179060860602E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="301">
+        <f>1/0.96/0.96*(C22-0.08*C22/(C22*C22+D22*D22)-0.5*0.04*0.04*2*C22/(POWER(C22*C22+D22*D22,2)))</f>
+        <v>0.24735454129767298</v>
+      </c>
+      <c r="T22" s="301">
+        <f>1/0.96/0.96*(D22-0.08*D22/(C22*C22+D22*D22)-0.5*0.04*0.04*2*D22/(POWER(C22*C22+D22*D22,2)))</f>
+        <v>0.15348524241309838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="195"/>
       <c r="B23" s="2" t="s">
         <v>55</v>
@@ -15978,12 +16300,14 @@
         <v>36.281615354533244</v>
       </c>
       <c r="N23" s="118"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="273"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="271"/>
       <c r="Q23" s="122"/>
-      <c r="R23" s="276"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="295"/>
+      <c r="S23" s="302"/>
+      <c r="T23" s="302"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="195"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
@@ -16030,21 +16354,27 @@
       <c r="N24" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O24" s="221">
+      <c r="O24" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P24" s="259">
+      <c r="P24" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q24" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R24" s="263">
+      <c r="R24" s="288">
         <f>K23+K24+K25</f>
         <v>5.9126179060860505E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="303">
+        <v>0.26502318375103501</v>
+      </c>
+      <c r="T24" s="303">
+        <v>0.193669042946988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="196"/>
       <c r="B25" s="3" t="s">
         <v>57</v>
@@ -16089,12 +16419,14 @@
         <v>8.8939922563592244</v>
       </c>
       <c r="N25" s="120"/>
-      <c r="O25" s="258"/>
-      <c r="P25" s="260"/>
+      <c r="O25" s="274"/>
+      <c r="P25" s="276"/>
       <c r="Q25" s="124"/>
-      <c r="R25" s="264"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="289"/>
+      <c r="S25" s="304"/>
+      <c r="T25" s="304"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="194" t="s">
         <v>69</v>
       </c>
@@ -16144,11 +16476,11 @@
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-2.9197288200581158E-2</v>
       </c>
-      <c r="O26" s="270">
+      <c r="O26" s="293">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-1.0932185255859852</v>
       </c>
-      <c r="P26" s="272">
+      <c r="P26" s="270">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>0.99011480774734817</v>
       </c>
@@ -16156,11 +16488,19 @@
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>2.9197288200581158E-2</v>
       </c>
-      <c r="R26" s="279">
+      <c r="R26" s="298">
         <v>-2.3529370910404901E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="301">
+        <f>1/0.96/0.96*(C26-0.08*C26/(C26*C26+D26*D26)-0.5*0.04*0.04*2*C26/(POWER(C26*C26+D26*D26,2)))</f>
+        <v>0.20474948049889674</v>
+      </c>
+      <c r="T26" s="301">
+        <f>1/0.96/0.96*(D26-0.08*D26/(C26*C26+D26*D26)-0.5*0.04*0.04*2*D26/(POWER(C26*C26+D26*D26,2)))</f>
+        <v>0.77698250327646345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="195"/>
       <c r="B27" s="2" t="s">
         <v>55</v>
@@ -16205,12 +16545,14 @@
         <v>11.910285865887108</v>
       </c>
       <c r="N27" s="118"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="273"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="271"/>
       <c r="Q27" s="122"/>
-      <c r="R27" s="276"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="295"/>
+      <c r="S27" s="302"/>
+      <c r="T27" s="302"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="195"/>
       <c r="B28" s="2" t="s">
         <v>56</v>
@@ -16257,21 +16599,27 @@
       <c r="N28" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O28" s="221">
+      <c r="O28" s="234">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P28" s="259">
+      <c r="P28" s="275">
         <v>1.1344986861228901</v>
       </c>
       <c r="Q28" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R28" s="263">
+      <c r="R28" s="288">
         <f>K27+K28+K29</f>
         <v>-2.3529370910404974E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="303">
+        <v>0.137911809141127</v>
+      </c>
+      <c r="T28" s="303">
+        <v>0.51568724964624202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="196"/>
       <c r="B29" s="3" t="s">
         <v>57</v>
@@ -16316,40 +16664,311 @@
         <v>0.30005081883310281</v>
       </c>
       <c r="N29" s="120"/>
-      <c r="O29" s="258"/>
-      <c r="P29" s="260"/>
+      <c r="O29" s="274"/>
+      <c r="P29" s="276"/>
       <c r="Q29" s="124"/>
-      <c r="R29" s="264"/>
+      <c r="R29" s="289"/>
+      <c r="S29" s="304"/>
+      <c r="T29" s="304"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.31133214968949902</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-0.49109580408029302</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:E33" si="12">SQRT(D30*D30+C30*C30)</f>
+        <v>0.58146607486211455</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F33" si="13">1/0.96*(E30-0.04/E30)</f>
+        <v>0.53403587841561473</v>
+      </c>
+      <c r="G30" s="88">
+        <f t="shared" ref="G30:G33" si="14">-F30*D30/E30</f>
+        <v>0.45103711197671054</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.45103711197671098</v>
+      </c>
+      <c r="I30" s="88">
+        <f t="shared" ref="I30:I33" si="15">F30*C30/E30</f>
+        <v>0.28593678157041197</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.28593678157041202</v>
+      </c>
+      <c r="K30" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" ref="L30:L33" si="16">ABS((G30-H30)/G30)*100</f>
+        <v>9.845957196377964E-14</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" ref="M30:M33" si="17">ABS((I30-J30)/I30)*100</f>
+        <v>1.9413784727652534E-14</v>
+      </c>
+      <c r="N30" s="117">
+        <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
+        <v>0.111458045423386</v>
+      </c>
+      <c r="O30" s="181">
+        <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
+        <v>-1.0942440745313051</v>
+      </c>
+      <c r="P30" s="183">
+        <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
+        <v>0.98908925880202847</v>
+      </c>
+      <c r="Q30" s="121">
+        <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
+        <v>-0.111458045423386</v>
+      </c>
+      <c r="R30" s="185">
+        <v>-4.49849201298115E-4</v>
+      </c>
+      <c r="S30" s="308">
+        <f>1/0.96/0.96*(C30-0.08*C30/(C30*C30+D30*D30)-0.5*0.04*0.04*2*C30/(POWER(C30*C30+D30*D30,2)))</f>
+        <v>0.25315633713118235</v>
+      </c>
+      <c r="T30" s="308">
+        <f>1/0.96/0.96*(D30-0.08*D30/(C30*C30+D30*D30)-0.5*0.04*0.04*2*D30/(POWER(C30*C30+D30*D30,2)))</f>
+        <v>-0.39932918930939787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="195"/>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="171">
+        <v>0.38204106659149101</v>
+      </c>
+      <c r="D31" s="171">
+        <v>-0.449110797408868</v>
+      </c>
+      <c r="E31" s="171">
+        <f t="shared" si="12"/>
+        <v>0.58962351115910683</v>
+      </c>
+      <c r="F31" s="171">
+        <f t="shared" si="13"/>
+        <v>0.54352459501867567</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="14"/>
+        <v>0.41399767760329287</v>
+      </c>
+      <c r="H31" s="171">
+        <v>0.41232651668722298</v>
+      </c>
+      <c r="I31" s="90">
+        <f t="shared" si="15"/>
+        <v>0.35217170290824806</v>
+      </c>
+      <c r="J31" s="171">
+        <v>0.35749074951548998</v>
+      </c>
+      <c r="K31" s="126">
+        <v>0.13335875839748401</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="16"/>
+        <v>0.40366432143884068</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="17"/>
+        <v>1.5103560460187508</v>
+      </c>
+      <c r="N31" s="118"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="309"/>
+      <c r="T31" s="309"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="195"/>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="171">
+        <v>0.222221318157757</v>
+      </c>
+      <c r="D32" s="171">
+        <v>-0.48859329927265899</v>
+      </c>
+      <c r="E32" s="171">
+        <f t="shared" si="12"/>
+        <v>0.536754810260619</v>
+      </c>
+      <c r="F32" s="171">
+        <f t="shared" si="13"/>
+        <v>0.4814925921387459</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="14"/>
+        <v>0.43828960574044601</v>
+      </c>
+      <c r="H32" s="171">
+        <v>0.43874583814825902</v>
+      </c>
+      <c r="I32" s="90">
+        <f t="shared" si="15"/>
+        <v>0.19934226291575291</v>
+      </c>
+      <c r="J32" s="171">
+        <v>0.201682953696359</v>
+      </c>
+      <c r="K32" s="126">
+        <v>-7.9783176357517596E-2</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="16"/>
+        <v>0.1040938233162632</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="17"/>
+        <v>1.1742069877050214</v>
+      </c>
+      <c r="N32" s="119">
+        <v>0.138104716632167</v>
+      </c>
+      <c r="O32" s="173">
+        <v>-1.07050713037479</v>
+      </c>
+      <c r="P32" s="176">
+        <v>0.98159061692759597</v>
+      </c>
+      <c r="Q32" s="123">
+        <v>-8.1823273502626706E-2</v>
+      </c>
+      <c r="R32" s="178">
+        <f>K31+K32+K33</f>
+        <v>-3.1575996537858142E-4</v>
+      </c>
+      <c r="S32" s="305">
+        <v>0.26478945956039002</v>
+      </c>
+      <c r="T32" s="305">
+        <v>-0.45057251237367202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="196"/>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="172">
+        <v>0.312589692162144</v>
+      </c>
+      <c r="D33" s="172">
+        <v>-0.57195810859801299</v>
+      </c>
+      <c r="E33" s="172">
+        <f t="shared" si="12"/>
+        <v>0.651803953376351</v>
+      </c>
+      <c r="F33" s="172">
+        <f t="shared" si="13"/>
+        <v>0.61503729962872311</v>
+      </c>
+      <c r="G33" s="93">
+        <f>-F33*D33/E33</f>
+        <v>0.53969536206503943</v>
+      </c>
+      <c r="H33" s="172">
+        <v>0.53549143665926102</v>
+      </c>
+      <c r="I33" s="93">
+        <f t="shared" si="15"/>
+        <v>0.29495727843211073</v>
+      </c>
+      <c r="J33" s="172">
+        <v>0.30089030373211101</v>
+      </c>
+      <c r="K33" s="127">
+        <v>-5.3891342005344997E-2</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="16"/>
+        <v>0.77894414169002757</v>
+      </c>
+      <c r="M33" s="102">
+        <f t="shared" si="17"/>
+        <v>2.0114863181333114</v>
+      </c>
+      <c r="N33" s="120"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="101">
+        <f>(625 * E2 *E2 * E2 * E2 - 50 * E2 * E2 + 1)/(576 * E2 * E2 * E2)</f>
+        <v>1.0516026512668088E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="101">
+        <f>(E2-0.08/E2+0.04*0.04/E2/E2/E2)/0.96/0.96</f>
+        <v>1.0516026512668071E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
+  <mergeCells count="78">
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="R6:R7"/>
@@ -16362,53 +16981,76 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:M5">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M9">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:M13">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:M29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M17">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M21">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:M33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16460,7 +17102,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="299" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="100" t="s">
@@ -16474,7 +17116,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="280"/>
+      <c r="A7" s="299"/>
       <c r="B7" s="100">
         <v>0</v>
       </c>
@@ -16486,7 +17128,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="280"/>
+      <c r="A8" s="299"/>
       <c r="B8" s="100">
         <v>1</v>
       </c>
@@ -16498,7 +17140,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="280"/>
+      <c r="A9" s="299"/>
       <c r="B9" s="100">
         <v>2</v>
       </c>
@@ -16511,7 +17153,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="281" t="s">
+      <c r="A11" s="268" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="134" t="s">
@@ -16537,7 +17179,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
+      <c r="A12" s="300"/>
       <c r="B12" s="146">
         <v>0</v>
       </c>
@@ -16563,7 +17205,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
+      <c r="A13" s="300"/>
       <c r="B13" s="159">
         <v>1</v>
       </c>
@@ -16589,7 +17231,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="283"/>
+      <c r="A14" s="269"/>
       <c r="B14" s="168">
         <v>2</v>
       </c>
@@ -16616,7 +17258,7 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="281" t="s">
+      <c r="A16" s="268" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="134" t="s">
@@ -16642,7 +17284,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
+      <c r="A17" s="300"/>
       <c r="B17" s="146">
         <v>0</v>
       </c>
@@ -16668,7 +17310,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
+      <c r="A18" s="300"/>
       <c r="B18" s="159">
         <v>1</v>
       </c>
@@ -16694,7 +17336,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="283"/>
+      <c r="A19" s="269"/>
       <c r="B19" s="168">
         <v>2</v>
       </c>

--- a/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.7/Documents/Different/1. Проверка кода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="Лист2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="121">
   <si>
     <r>
       <t>Uφ</t>
@@ -388,9 +389,6 @@
     <t>66 (92)      М</t>
   </si>
   <si>
-    <t>66 (92)      СВ</t>
-  </si>
-  <si>
     <r>
       <t>Ux</t>
     </r>
@@ -429,13 +427,7 @@
     <t>42 (92)      М</t>
   </si>
   <si>
-    <t>42 (92)      СВ</t>
-  </si>
-  <si>
     <t>22 (92)      М</t>
-  </si>
-  <si>
-    <t>22 (92)      СВ</t>
   </si>
   <si>
     <t>64 (92)      М</t>
@@ -1025,39 +1017,6 @@
     </r>
   </si>
   <si>
-    <t>33-41-43</t>
-  </si>
-  <si>
-    <t>71-41-43</t>
-  </si>
-  <si>
-    <t>71-33-43</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>U_vert</t>
-  </si>
-  <si>
-    <t>nx*U_vert*l</t>
-  </si>
-  <si>
-    <t>33-41-71</t>
-  </si>
-  <si>
-    <t>Ux</t>
-  </si>
-  <si>
-    <t>l / S</t>
-  </si>
-  <si>
-    <t>Ux * nx</t>
-  </si>
-  <si>
-    <t>33-43-71</t>
-  </si>
-  <si>
     <t>43(92)</t>
   </si>
   <si>
@@ -1106,6 +1065,50 @@
   </si>
   <si>
     <t>77 (92)</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ан</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>расч</t>
+    </r>
+  </si>
+  <si>
+    <t>δP(M)</t>
+  </si>
+  <si>
+    <t>1(N0)</t>
+  </si>
+  <si>
+    <t>30 (92)      М</t>
+  </si>
+  <si>
+    <t>1(P0)</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1992,46 +1995,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2064,7 +2027,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2537,31 +2500,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2607,300 +2545,360 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2919,21 +2917,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2943,43 +2926,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2988,7 +2953,87 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3309,7 +3354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3416,11 +3460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242420352"/>
-        <c:axId val="242430336"/>
+        <c:axId val="239494656"/>
+        <c:axId val="239496192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242420352"/>
+        <c:axId val="239494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242430336"/>
+        <c:crossAx val="239496192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3438,7 +3482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242430336"/>
+        <c:axId val="239496192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,14 +3493,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242420352"/>
+        <c:crossAx val="239494656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3501,7 +3544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3608,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242463872"/>
-        <c:axId val="242465408"/>
+        <c:axId val="239521792"/>
+        <c:axId val="239523328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242463872"/>
+        <c:axId val="239521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242465408"/>
+        <c:crossAx val="239523328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3630,7 +3672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242465408"/>
+        <c:axId val="239523328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,14 +3683,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242463872"/>
+        <c:crossAx val="239521792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3693,7 +3734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3800,11 +3840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242482560"/>
-        <c:axId val="242955392"/>
+        <c:axId val="229796096"/>
+        <c:axId val="229797888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242482560"/>
+        <c:axId val="229796096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,7 +3854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242955392"/>
+        <c:crossAx val="229797888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3822,7 +3862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242955392"/>
+        <c:axId val="229797888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,14 +3873,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242482560"/>
+        <c:crossAx val="229796096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3885,7 +3924,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3992,11 +4030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138979584"/>
-        <c:axId val="242712576"/>
+        <c:axId val="239805568"/>
+        <c:axId val="239807104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138979584"/>
+        <c:axId val="239805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242712576"/>
+        <c:crossAx val="239807104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242712576"/>
+        <c:axId val="239807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,14 +4063,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138979584"/>
+        <c:crossAx val="239805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4077,7 +4114,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4184,11 +4220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242967296"/>
-        <c:axId val="242968832"/>
+        <c:axId val="239824256"/>
+        <c:axId val="239850624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242967296"/>
+        <c:axId val="239824256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242968832"/>
+        <c:crossAx val="239850624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4206,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242968832"/>
+        <c:axId val="239850624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,14 +4253,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242967296"/>
+        <c:crossAx val="239824256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4269,7 +4304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4376,11 +4410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242981888"/>
-        <c:axId val="242819840"/>
+        <c:axId val="239949696"/>
+        <c:axId val="239951232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242981888"/>
+        <c:axId val="239949696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242819840"/>
+        <c:crossAx val="239951232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4398,7 +4432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242819840"/>
+        <c:axId val="239951232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4443,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242981888"/>
+        <c:crossAx val="239949696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4461,7 +4494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4568,11 +4600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243353088"/>
-        <c:axId val="243354624"/>
+        <c:axId val="239977216"/>
+        <c:axId val="239978752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243353088"/>
+        <c:axId val="239977216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243354624"/>
+        <c:crossAx val="239978752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4590,7 +4622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243354624"/>
+        <c:axId val="239978752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,14 +4633,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243353088"/>
+        <c:crossAx val="239977216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4653,7 +4684,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4760,11 +4790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243380224"/>
-        <c:axId val="243381760"/>
+        <c:axId val="239991808"/>
+        <c:axId val="240018176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243380224"/>
+        <c:axId val="239991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4774,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243381760"/>
+        <c:crossAx val="240018176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4782,7 +4812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243381760"/>
+        <c:axId val="240018176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,14 +4823,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243380224"/>
+        <c:crossAx val="239991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4845,7 +4874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4952,11 +4980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243013888"/>
-        <c:axId val="243015680"/>
+        <c:axId val="240047616"/>
+        <c:axId val="240049152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243013888"/>
+        <c:axId val="240047616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +4994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243015680"/>
+        <c:crossAx val="240049152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4974,7 +5002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243015680"/>
+        <c:axId val="240049152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4985,14 +5013,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243013888"/>
+        <c:crossAx val="240047616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5593,9 +5620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5688,7 +5717,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="194">
+      <c r="A2" s="213">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -5730,36 +5759,36 @@
         <f t="shared" ref="L2:L25" si="5">ABS((I2-J2)/I2)*100</f>
         <v>3.3723034059475925E-13</v>
       </c>
-      <c r="M2" s="197">
+      <c r="M2" s="216">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="N2" s="199">
+      <c r="N2" s="218">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="O2" s="199">
+      <c r="O2" s="218">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
-      <c r="P2" s="223">
+      <c r="P2" s="232">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="216">
+      <c r="R2" s="221">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="216"/>
+      <c r="S2" s="221"/>
       <c r="T2" s="89">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="195"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -5799,10 +5828,10 @@
         <f t="shared" si="5"/>
         <v>0.72551978764627878</v>
       </c>
-      <c r="M3" s="198"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="224"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="233"/>
       <c r="Q3" s="32">
         <v>0.45244023302814301</v>
       </c>
@@ -5819,7 +5848,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
+      <c r="A4" s="214"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5859,16 +5888,16 @@
         <f t="shared" si="5"/>
         <v>1.1629029749998882E-2</v>
       </c>
-      <c r="M4" s="198">
+      <c r="M4" s="217">
         <v>-0.35902692542820103</v>
       </c>
-      <c r="N4" s="190">
+      <c r="N4" s="209">
         <v>-1.0914897024077701</v>
       </c>
-      <c r="O4" s="190">
+      <c r="O4" s="209">
         <v>1.0420345935290301</v>
       </c>
-      <c r="P4" s="225">
+      <c r="P4" s="234">
         <v>0.114810566882702</v>
       </c>
       <c r="Q4" s="32">
@@ -5887,7 +5916,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -5927,10 +5956,10 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="221"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="226"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="235"/>
       <c r="Q5" s="33">
         <v>-0.98926814124435303</v>
       </c>
@@ -5947,7 +5976,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="217">
+      <c r="A6" s="226">
         <v>24</v>
       </c>
       <c r="B6" s="4">
@@ -5989,36 +6018,36 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="230">
+      <c r="M6" s="224">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
-      <c r="N6" s="199">
+      <c r="N6" s="218">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.1173271853216982</v>
       </c>
-      <c r="O6" s="199">
+      <c r="O6" s="218">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
-      <c r="P6" s="228">
+      <c r="P6" s="237">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.18139049879196079</v>
       </c>
       <c r="Q6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="216">
+      <c r="R6" s="221">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="216"/>
+      <c r="S6" s="221"/>
       <c r="T6" s="89">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="218"/>
+      <c r="A7" s="227"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -6058,10 +6087,10 @@
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="231"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="229"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="238"/>
       <c r="Q7" s="32">
         <v>0.72378501135020201</v>
       </c>
@@ -6078,7 +6107,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
+      <c r="A8" s="227"/>
       <c r="B8" s="32">
         <v>2</v>
       </c>
@@ -6118,16 +6147,16 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="233">
+      <c r="M8" s="222">
         <v>0.107045965641376</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="209">
         <v>-1.4426364972369801</v>
       </c>
-      <c r="O8" s="190">
+      <c r="O8" s="209">
         <v>0.67080947092479504</v>
       </c>
-      <c r="P8" s="192">
+      <c r="P8" s="211">
         <v>3.5326281585875897E-2</v>
       </c>
       <c r="Q8" s="32">
@@ -6146,7 +6175,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="219"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="33">
         <v>3</v>
       </c>
@@ -6186,10 +6215,10 @@
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="234"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="232"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="236"/>
+      <c r="P9" s="239"/>
       <c r="Q9" s="33">
         <v>-0.68918261371289802</v>
       </c>
@@ -6206,7 +6235,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="194">
+      <c r="A10" s="213">
         <v>26</v>
       </c>
       <c r="B10" s="6">
@@ -6248,36 +6277,36 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="230">
+      <c r="M10" s="224">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
-      <c r="N10" s="199">
+      <c r="N10" s="218">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-1.119777714966725</v>
       </c>
-      <c r="O10" s="199">
+      <c r="O10" s="218">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>0.96355561836660841</v>
       </c>
-      <c r="P10" s="201">
+      <c r="P10" s="220">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.18335935345765342</v>
       </c>
       <c r="Q10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="216">
+      <c r="R10" s="221">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="216"/>
+      <c r="S10" s="221"/>
       <c r="T10" s="89">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
+      <c r="A11" s="214"/>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -6317,10 +6346,10 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="231"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="192"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="211"/>
       <c r="Q11" s="32">
         <v>1.7637427872387802E-2</v>
       </c>
@@ -6337,7 +6366,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -6377,16 +6406,16 @@
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="233">
+      <c r="M12" s="222">
         <v>-0.104824971018492</v>
       </c>
-      <c r="N12" s="190">
+      <c r="N12" s="209">
         <v>-1.46024818061613</v>
       </c>
-      <c r="O12" s="190">
+      <c r="O12" s="209">
         <v>0.652876492651698</v>
       </c>
-      <c r="P12" s="192">
+      <c r="P12" s="211">
         <v>-6.3455090952697002E-3</v>
       </c>
       <c r="Q12" s="32">
@@ -6405,7 +6434,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -6445,10 +6474,10 @@
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="235"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="193"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="212"/>
       <c r="Q13" s="33">
         <v>-0.69360879939984899</v>
       </c>
@@ -6465,7 +6494,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="194">
+      <c r="A14" s="213">
         <v>28</v>
       </c>
       <c r="B14" s="6">
@@ -6507,36 +6536,36 @@
         <f t="shared" si="5"/>
         <v>5.4943361466831562E-14</v>
       </c>
-      <c r="M14" s="197">
+      <c r="M14" s="216">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>3.7302354651390701E-2</v>
       </c>
-      <c r="N14" s="199">
+      <c r="N14" s="218">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.2322201399103134</v>
       </c>
-      <c r="O14" s="199">
+      <c r="O14" s="218">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.85111319342302016</v>
       </c>
-      <c r="P14" s="201">
+      <c r="P14" s="220">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>-3.7302354651390701E-2</v>
       </c>
       <c r="Q14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="216">
+      <c r="R14" s="221">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="216"/>
+      <c r="S14" s="221"/>
       <c r="T14" s="89">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="195"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -6576,10 +6605,10 @@
         <f t="shared" si="5"/>
         <v>15.241017762524722</v>
       </c>
-      <c r="M15" s="198"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="192"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="211"/>
       <c r="Q15" s="32">
         <v>-0.36645744143242598</v>
       </c>
@@ -6596,7 +6625,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -6636,16 +6665,16 @@
         <f t="shared" si="5"/>
         <v>12.693444312828831</v>
       </c>
-      <c r="M16" s="198">
+      <c r="M16" s="217">
         <v>-0.25599602913307401</v>
       </c>
-      <c r="N16" s="190">
+      <c r="N16" s="209">
         <v>-1.2419024142499</v>
       </c>
-      <c r="O16" s="190">
+      <c r="O16" s="209">
         <v>0.85538374952637497</v>
       </c>
-      <c r="P16" s="192">
+      <c r="P16" s="211">
         <v>0.347942132695155</v>
       </c>
       <c r="Q16" s="32">
@@ -6664,7 +6693,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220"/>
+      <c r="A17" s="229"/>
       <c r="B17" s="14">
         <v>3</v>
       </c>
@@ -6704,10 +6733,10 @@
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="222"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="193"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="212"/>
       <c r="Q17" s="33">
         <v>0.96875826977258095</v>
       </c>
@@ -6724,7 +6753,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="194">
+      <c r="A18" s="213">
         <v>54</v>
       </c>
       <c r="B18" s="6">
@@ -6766,36 +6795,36 @@
         <f t="shared" si="5"/>
         <v>7.5054346470546418E-13</v>
       </c>
-      <c r="M18" s="197">
+      <c r="M18" s="216">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-2.5222044975306834E-2</v>
       </c>
-      <c r="N18" s="199">
+      <c r="N18" s="218">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-1.396649583736314</v>
       </c>
-      <c r="O18" s="199">
+      <c r="O18" s="218">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>0.68668374959701939</v>
       </c>
-      <c r="P18" s="201">
+      <c r="P18" s="220">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>2.5222044975306834E-2</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="216">
+      <c r="R18" s="221">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="216"/>
+      <c r="S18" s="221"/>
       <c r="T18" s="89">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -6835,10 +6864,10 @@
         <f t="shared" si="5"/>
         <v>1.0982352701840603</v>
       </c>
-      <c r="M19" s="198"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="192"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="211"/>
       <c r="Q19" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -6855,7 +6884,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
+      <c r="A20" s="214"/>
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -6895,16 +6924,16 @@
         <f t="shared" si="5"/>
         <v>189.32564522623034</v>
       </c>
-      <c r="M20" s="188">
+      <c r="M20" s="207">
         <v>-0.28508076834840401</v>
       </c>
-      <c r="N20" s="190">
+      <c r="N20" s="209">
         <v>-1.23675617757671</v>
       </c>
-      <c r="O20" s="190">
+      <c r="O20" s="209">
         <v>0.66058979494532</v>
       </c>
-      <c r="P20" s="192">
+      <c r="P20" s="211">
         <v>-0.22494890238236101</v>
       </c>
       <c r="Q20" s="32">
@@ -6923,7 +6952,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="3">
         <v>3</v>
       </c>
@@ -6963,10 +6992,10 @@
         <f t="shared" si="5"/>
         <v>47.471908953919247</v>
       </c>
-      <c r="M21" s="189"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="191"/>
-      <c r="P21" s="193"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="210"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="212"/>
       <c r="Q21" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -6983,7 +7012,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="194">
+      <c r="A22" s="213">
         <v>65</v>
       </c>
       <c r="B22" s="6">
@@ -7025,36 +7054,36 @@
         <f t="shared" si="5"/>
         <v>5.5293279847705724E-13</v>
       </c>
-      <c r="M22" s="197">
+      <c r="M22" s="216">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>1.1739570444985466E-2</v>
       </c>
-      <c r="N22" s="199">
+      <c r="N22" s="218">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.32321186477652114</v>
       </c>
-      <c r="O22" s="199">
+      <c r="O22" s="218">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.7601214685568123</v>
       </c>
-      <c r="P22" s="201">
+      <c r="P22" s="220">
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>-1.1739570444985466E-2</v>
       </c>
       <c r="Q22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="216">
+      <c r="R22" s="221">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="216"/>
+      <c r="S22" s="221"/>
       <c r="T22" s="89">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
+      <c r="A23" s="214"/>
       <c r="B23" s="2">
         <v>1</v>
       </c>
@@ -7094,10 +7123,10 @@
         <f t="shared" si="5"/>
         <v>6.0882051645650987</v>
       </c>
-      <c r="M23" s="198"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="192"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="211"/>
       <c r="Q23" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -7114,7 +7143,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
@@ -7154,16 +7183,16 @@
         <f t="shared" si="5"/>
         <v>5.5017023450664944</v>
       </c>
-      <c r="M24" s="188">
+      <c r="M24" s="207">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N24" s="190">
+      <c r="N24" s="209">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O24" s="190">
+      <c r="O24" s="209">
         <v>1.49634410244349</v>
       </c>
-      <c r="P24" s="192">
+      <c r="P24" s="211">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q24" s="32">
@@ -7182,7 +7211,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
+      <c r="A25" s="215"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -7222,10 +7251,10 @@
         <f t="shared" si="5"/>
         <v>70.433005295552604</v>
       </c>
-      <c r="M25" s="189"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="193"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="212"/>
       <c r="Q25" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -7242,7 +7271,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="194">
+      <c r="A26" s="213">
         <v>40</v>
       </c>
       <c r="B26" s="6">
@@ -7284,36 +7313,36 @@
         <f t="shared" ref="L26:L57" si="11">ABS((I26-J26)/I26)*100</f>
         <v>1.2677908622990758E-13</v>
       </c>
-      <c r="M26" s="197">
+      <c r="M26" s="216">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-1.0712010084713345E-2</v>
       </c>
-      <c r="N26" s="199">
+      <c r="N26" s="218">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-0.77543851138881104</v>
       </c>
-      <c r="O26" s="199">
+      <c r="O26" s="218">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>1.3078948219445226</v>
       </c>
-      <c r="P26" s="201">
+      <c r="P26" s="220">
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>1.0712010084713345E-2</v>
       </c>
       <c r="Q26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="216">
+      <c r="R26" s="221">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="216"/>
+      <c r="S26" s="221"/>
       <c r="T26" s="89">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="195"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -7353,10 +7382,10 @@
         <f t="shared" si="11"/>
         <v>0.67638289986923728</v>
       </c>
-      <c r="M27" s="198"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="192"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="211"/>
       <c r="Q27" s="32">
         <v>-0.97492791218182395</v>
       </c>
@@ -7373,7 +7402,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="195"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -7413,16 +7442,16 @@
         <f t="shared" si="11"/>
         <v>0.58991472309042969</v>
       </c>
-      <c r="M28" s="188">
+      <c r="M28" s="207">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N28" s="190">
+      <c r="N28" s="209">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O28" s="190">
+      <c r="O28" s="209">
         <v>1.49634410244349</v>
       </c>
-      <c r="P28" s="192">
+      <c r="P28" s="211">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q28" s="32">
@@ -7441,7 +7470,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="3">
         <v>3</v>
       </c>
@@ -7481,10 +7510,10 @@
         <f t="shared" si="11"/>
         <v>0.21526713587012794</v>
       </c>
-      <c r="M29" s="189"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="193"/>
+      <c r="M29" s="208"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="212"/>
       <c r="Q29" s="33">
         <v>0.79122370800502395</v>
       </c>
@@ -7501,7 +7530,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="238">
+      <c r="A30" s="192">
         <v>541</v>
       </c>
       <c r="B30" s="68">
@@ -7543,36 +7572,36 @@
         <f t="shared" si="11"/>
         <v>8.4379600867631483E-3</v>
       </c>
-      <c r="M30" s="241">
+      <c r="M30" s="195">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>-5.4975002363563528E-2</v>
       </c>
-      <c r="N30" s="243">
+      <c r="N30" s="197">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.95330562940850405</v>
       </c>
-      <c r="O30" s="243">
+      <c r="O30" s="197">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1300277039248292</v>
       </c>
-      <c r="P30" s="245">
+      <c r="P30" s="199">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>5.4975002363563528E-2</v>
       </c>
       <c r="Q30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="247">
+      <c r="R30" s="201">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="247"/>
+      <c r="S30" s="201"/>
       <c r="T30" s="74">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.14638409399961166</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
+      <c r="A31" s="193"/>
       <c r="B31" s="75">
         <v>1</v>
       </c>
@@ -7612,10 +7641,10 @@
         <f t="shared" si="11"/>
         <v>1.0374368421133059E-2</v>
       </c>
-      <c r="M31" s="242"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="244"/>
-      <c r="P31" s="246"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="200"/>
       <c r="Q31" s="81">
         <v>-0.97492791218182395</v>
       </c>
@@ -7632,7 +7661,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="239"/>
+      <c r="A32" s="193"/>
       <c r="B32" s="75">
         <v>2</v>
       </c>
@@ -7672,16 +7701,16 @@
         <f t="shared" si="11"/>
         <v>1.5704774317678711E-2</v>
       </c>
-      <c r="M32" s="248">
+      <c r="M32" s="202">
         <v>-1.25962993460506E-2</v>
       </c>
-      <c r="N32" s="250">
+      <c r="N32" s="204">
         <v>-0.99529561078374396</v>
       </c>
-      <c r="O32" s="250">
+      <c r="O32" s="204">
         <v>1.08721830086341</v>
       </c>
-      <c r="P32" s="246">
+      <c r="P32" s="200">
         <v>1.1730945975606999E-2</v>
       </c>
       <c r="Q32" s="81">
@@ -7700,7 +7729,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="240"/>
+      <c r="A33" s="194"/>
       <c r="B33" s="82">
         <v>3</v>
       </c>
@@ -7740,10 +7769,10 @@
         <f t="shared" si="11"/>
         <v>2.2994812962997525E-2</v>
       </c>
-      <c r="M33" s="249"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="251"/>
-      <c r="P33" s="252"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="206"/>
       <c r="Q33" s="87">
         <v>0.79122370800502395</v>
       </c>
@@ -7760,7 +7789,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="194">
+      <c r="A34" s="213">
         <v>364</v>
       </c>
       <c r="B34" s="6">
@@ -7802,19 +7831,19 @@
         <f t="shared" si="11"/>
         <v>8.757841435151098E-2</v>
       </c>
-      <c r="M34" s="197">
+      <c r="M34" s="216">
         <f>-1/12*C34*D34/(D34*D34+C34*C34)^2</f>
         <v>-0.74915312973798254</v>
       </c>
-      <c r="N34" s="199">
+      <c r="N34" s="218">
         <f>-1/0.96*(1-0.04*(C34*C34-D34*D34)/(C34*C34+D34*D34)^2)</f>
         <v>-1.077243536808574</v>
       </c>
-      <c r="O34" s="199">
+      <c r="O34" s="218">
         <f>1/0.96*(1-0.04*(D34*D34-C34*C34)/(C34*C34+D34*D34)^2)</f>
         <v>1.0060897965247595</v>
       </c>
-      <c r="P34" s="201">
+      <c r="P34" s="220">
         <f>1/12*C34*D34/(C34*C34+D34*D34)^2</f>
         <v>0.74915312973798254</v>
       </c>
@@ -7826,7 +7855,7 @@
       <c r="T34" s="89"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="195"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -7866,10 +7895,10 @@
         <f t="shared" si="11"/>
         <v>2.4713981783796362</v>
       </c>
-      <c r="M35" s="198"/>
-      <c r="N35" s="200"/>
-      <c r="O35" s="200"/>
-      <c r="P35" s="192"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="219"/>
+      <c r="P35" s="211"/>
       <c r="Q35" s="37">
         <v>-4.2545420685385204E-3</v>
       </c>
@@ -7878,7 +7907,7 @@
       <c r="T35" s="30"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="195"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -7918,16 +7947,16 @@
         <f t="shared" si="11"/>
         <v>1.9528489641282589</v>
       </c>
-      <c r="M36" s="188">
+      <c r="M36" s="207">
         <v>-0.81932865874933403</v>
       </c>
-      <c r="N36" s="190">
+      <c r="N36" s="209">
         <v>-1.02900896566263</v>
       </c>
-      <c r="O36" s="190">
+      <c r="O36" s="209">
         <v>0.97651165749386404</v>
       </c>
-      <c r="P36" s="192">
+      <c r="P36" s="211">
         <v>0.64829219454167797</v>
       </c>
       <c r="Q36" s="37">
@@ -7938,7 +7967,7 @@
       <c r="T36" s="30"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="3">
         <v>3</v>
       </c>
@@ -7978,10 +8007,10 @@
         <f t="shared" si="11"/>
         <v>5.0563743893562583</v>
       </c>
-      <c r="M37" s="189"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="193"/>
+      <c r="M37" s="208"/>
+      <c r="N37" s="210"/>
+      <c r="O37" s="210"/>
+      <c r="P37" s="212"/>
       <c r="Q37" s="38">
         <v>2.0125580093833398E-3</v>
       </c>
@@ -7990,7 +8019,7 @@
       <c r="T37" s="31"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="194">
+      <c r="A38" s="213">
         <v>1477</v>
       </c>
       <c r="B38" s="6">
@@ -8032,19 +8061,19 @@
         <f t="shared" si="11"/>
         <v>7.2506796530203976</v>
       </c>
-      <c r="M38" s="197">
+      <c r="M38" s="216">
         <f>-1/12*C38*D38/(D38*D38+C38*C38)^2</f>
         <v>-0.89589115662280894</v>
       </c>
-      <c r="N38" s="199">
+      <c r="N38" s="218">
         <f>-1/0.96*(1-0.04*(C38*C38-D38*D38)/(C38*C38+D38*D38)^2)</f>
         <v>-1.2459915106056709</v>
       </c>
-      <c r="O38" s="199">
+      <c r="O38" s="218">
         <f>1/0.96*(1-0.04*(D38*D38-C38*C38)/(C38*C38+D38*D38)^2)</f>
         <v>0.83734182272766244</v>
       </c>
-      <c r="P38" s="201">
+      <c r="P38" s="220">
         <f>1/12*C38*D38/(C38*C38+D38*D38)^2</f>
         <v>0.89589115662280894</v>
       </c>
@@ -8056,7 +8085,7 @@
       <c r="T38" s="89"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="195"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -8096,10 +8125,10 @@
         <f t="shared" si="11"/>
         <v>4.3770827275401603</v>
       </c>
-      <c r="M39" s="198"/>
-      <c r="N39" s="200"/>
-      <c r="O39" s="200"/>
-      <c r="P39" s="192"/>
+      <c r="M39" s="217"/>
+      <c r="N39" s="219"/>
+      <c r="O39" s="219"/>
+      <c r="P39" s="211"/>
       <c r="Q39" s="37">
         <v>-2.0144207752970699E-3</v>
       </c>
@@ -8108,7 +8137,7 @@
       <c r="T39" s="30"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="195"/>
+      <c r="A40" s="214"/>
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -8148,16 +8177,16 @@
         <f t="shared" si="11"/>
         <v>3.5540070206130996</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="207">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N40" s="190">
+      <c r="N40" s="209">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O40" s="190">
+      <c r="O40" s="209">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P40" s="192">
+      <c r="P40" s="211">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q40" s="37">
@@ -8168,7 +8197,7 @@
       <c r="T40" s="30"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="196"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="3">
         <v>3</v>
       </c>
@@ -8208,10 +8237,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M41" s="189"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="193"/>
+      <c r="M41" s="208"/>
+      <c r="N41" s="210"/>
+      <c r="O41" s="210"/>
+      <c r="P41" s="212"/>
       <c r="Q41" s="38">
         <v>0</v>
       </c>
@@ -8220,7 +8249,7 @@
       <c r="T41" s="31"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="194">
+      <c r="A42" s="213">
         <v>2852</v>
       </c>
       <c r="B42" s="6">
@@ -8262,19 +8291,19 @@
         <f t="shared" si="11"/>
         <v>0.25179480584294195</v>
       </c>
-      <c r="M42" s="197">
+      <c r="M42" s="216">
         <f>-1/12*C42*D42/(D42*D42+C42*C42)^2</f>
         <v>-0.59325541444884999</v>
       </c>
-      <c r="N42" s="199">
+      <c r="N42" s="218">
         <f>-1/0.96*(1-0.04*(C42*C42-D42*D42)/(C42*C42+D42*D42)^2)</f>
         <v>-1.1022704793938467</v>
       </c>
-      <c r="O42" s="199">
+      <c r="O42" s="218">
         <f>1/0.96*(1-0.04*(D42*D42-C42*C42)/(C42*C42+D42*D42)^2)</f>
         <v>0.98106285393948667</v>
       </c>
-      <c r="P42" s="201">
+      <c r="P42" s="220">
         <f>1/12*C42*D42/(C42*C42+D42*D42)^2</f>
         <v>0.59325541444884999</v>
       </c>
@@ -8286,7 +8315,7 @@
       <c r="T42" s="89"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="195"/>
+      <c r="A43" s="214"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
@@ -8326,10 +8355,10 @@
         <f t="shared" si="11"/>
         <v>0.84776082712530121</v>
       </c>
-      <c r="M43" s="198"/>
-      <c r="N43" s="200"/>
-      <c r="O43" s="200"/>
-      <c r="P43" s="192"/>
+      <c r="M43" s="217"/>
+      <c r="N43" s="219"/>
+      <c r="O43" s="219"/>
+      <c r="P43" s="211"/>
       <c r="Q43" s="37">
         <v>-1.70347245203076E-3</v>
       </c>
@@ -8338,7 +8367,7 @@
       <c r="T43" s="30"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="195"/>
+      <c r="A44" s="214"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -8378,16 +8407,16 @@
         <f t="shared" si="11"/>
         <v>0.13202000465184724</v>
       </c>
-      <c r="M44" s="188">
+      <c r="M44" s="207">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N44" s="190">
+      <c r="N44" s="209">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O44" s="190">
+      <c r="O44" s="209">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P44" s="192">
+      <c r="P44" s="211">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q44" s="37">
@@ -8398,7 +8427,7 @@
       <c r="T44" s="30"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="196"/>
+      <c r="A45" s="215"/>
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -8438,10 +8467,10 @@
         <f t="shared" si="11"/>
         <v>2.8075979279215228E-2</v>
       </c>
-      <c r="M45" s="189"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="193"/>
+      <c r="M45" s="208"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="210"/>
+      <c r="P45" s="212"/>
       <c r="Q45" s="38">
         <v>6.0950430441033899E-3</v>
       </c>
@@ -8450,7 +8479,7 @@
       <c r="T45" s="31"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="194">
+      <c r="A46" s="213">
         <v>237</v>
       </c>
       <c r="B46" s="6">
@@ -8492,19 +8521,19 @@
         <f t="shared" si="11"/>
         <v>5.1692699909145672E-3</v>
       </c>
-      <c r="M46" s="197">
+      <c r="M46" s="216">
         <f>-1/12*C46*D46/(D46*D46+C46*C46)^2</f>
         <v>-0.72482274799905011</v>
       </c>
-      <c r="N46" s="199">
+      <c r="N46" s="218">
         <f>-1/0.96*(1-0.04*(C46*C46-D46*D46)/(C46*C46+D46*D46)^2)</f>
         <v>-0.88585197977901009</v>
       </c>
-      <c r="O46" s="199">
+      <c r="O46" s="218">
         <f>1/0.96*(1-0.04*(D46*D46-C46*C46)/(C46*C46+D46*D46)^2)</f>
         <v>1.1974813535543234</v>
       </c>
-      <c r="P46" s="201">
+      <c r="P46" s="220">
         <f>1/12*C46*D46/(C46*C46+D46*D46)^2</f>
         <v>0.72482274799905011</v>
       </c>
@@ -8516,7 +8545,7 @@
       <c r="T46" s="89"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="195"/>
+      <c r="A47" s="214"/>
       <c r="B47" s="2">
         <v>1</v>
       </c>
@@ -8556,10 +8585,10 @@
         <f t="shared" si="11"/>
         <v>0.40224140696394439</v>
       </c>
-      <c r="M47" s="198"/>
-      <c r="N47" s="200"/>
-      <c r="O47" s="200"/>
-      <c r="P47" s="192"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="219"/>
+      <c r="O47" s="219"/>
+      <c r="P47" s="211"/>
       <c r="Q47" s="37">
         <v>-1.5975050735224101E-3</v>
       </c>
@@ -8568,7 +8597,7 @@
       <c r="T47" s="30"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="195"/>
+      <c r="A48" s="214"/>
       <c r="B48" s="2">
         <v>2</v>
       </c>
@@ -8608,16 +8637,16 @@
         <f t="shared" si="11"/>
         <v>0.29395645400747134</v>
       </c>
-      <c r="M48" s="188">
+      <c r="M48" s="207">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N48" s="190">
+      <c r="N48" s="209">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O48" s="190">
+      <c r="O48" s="209">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P48" s="192">
+      <c r="P48" s="211">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q48" s="37">
@@ -8628,7 +8657,7 @@
       <c r="T48" s="30"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="196"/>
+      <c r="A49" s="215"/>
       <c r="B49" s="3">
         <v>3</v>
       </c>
@@ -8668,10 +8697,10 @@
         <f t="shared" si="11"/>
         <v>2.1894015682650338</v>
       </c>
-      <c r="M49" s="189"/>
-      <c r="N49" s="191"/>
-      <c r="O49" s="191"/>
-      <c r="P49" s="193"/>
+      <c r="M49" s="208"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="212"/>
       <c r="Q49" s="38">
         <v>-2.1360094564363799E-3</v>
       </c>
@@ -8680,7 +8709,7 @@
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="208">
+      <c r="A50" s="247">
         <v>265</v>
       </c>
       <c r="B50" s="40">
@@ -8722,19 +8751,19 @@
         <f t="shared" si="11"/>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M50" s="211">
+      <c r="M50" s="250">
         <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N50" s="213">
+      <c r="N50" s="252">
         <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O50" s="213">
+      <c r="O50" s="252">
         <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P50" s="215">
+      <c r="P50" s="254">
         <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -8746,7 +8775,7 @@
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="209"/>
+      <c r="A51" s="248"/>
       <c r="B51" s="49">
         <v>1</v>
       </c>
@@ -8786,10 +8815,10 @@
         <f t="shared" si="11"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M51" s="212"/>
-      <c r="N51" s="214"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="206"/>
+      <c r="M51" s="251"/>
+      <c r="N51" s="253"/>
+      <c r="O51" s="253"/>
+      <c r="P51" s="245"/>
       <c r="Q51" s="55">
         <v>-1.76483335659508E-3</v>
       </c>
@@ -8798,7 +8827,7 @@
       <c r="T51" s="50"/>
     </row>
     <row r="52" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="209"/>
+      <c r="A52" s="248"/>
       <c r="B52" s="49">
         <v>2</v>
       </c>
@@ -8838,16 +8867,16 @@
         <f t="shared" si="11"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M52" s="202">
+      <c r="M52" s="241">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N52" s="204">
+      <c r="N52" s="243">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O52" s="204">
+      <c r="O52" s="243">
         <v>1.38140952302927</v>
       </c>
-      <c r="P52" s="206">
+      <c r="P52" s="245">
         <v>0.693161263386181</v>
       </c>
       <c r="Q52" s="55">
@@ -8858,7 +8887,7 @@
       <c r="T52" s="50"/>
     </row>
     <row r="53" spans="1:23" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="210"/>
+      <c r="A53" s="249"/>
       <c r="B53" s="56">
         <v>3</v>
       </c>
@@ -8898,10 +8927,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M53" s="203"/>
-      <c r="N53" s="205"/>
-      <c r="O53" s="205"/>
-      <c r="P53" s="207"/>
+      <c r="M53" s="242"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="244"/>
+      <c r="P53" s="246"/>
       <c r="Q53" s="61">
         <v>0</v>
       </c>
@@ -8910,7 +8939,7 @@
       <c r="T53" s="58"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="194">
+      <c r="A54" s="213">
         <v>1419</v>
       </c>
       <c r="B54" s="6">
@@ -8952,19 +8981,19 @@
         <f t="shared" si="11"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M54" s="197">
+      <c r="M54" s="216">
         <f>-1/12*C54*D54/(D54*D54+C54*C54)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N54" s="199">
+      <c r="N54" s="218">
         <f>-1/0.96*(1-0.04*(C54*C54-D54*D54)/(C54*C54+D54*D54)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O54" s="199">
+      <c r="O54" s="218">
         <f>1/0.96*(1-0.04*(D54*D54-C54*C54)/(C54*C54+D54*D54)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P54" s="201">
+      <c r="P54" s="220">
         <f>1/12*C54*D54/(C54*C54+D54*D54)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -8976,7 +9005,7 @@
       <c r="T54" s="89"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="195"/>
+      <c r="A55" s="214"/>
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -9016,10 +9045,10 @@
         <f t="shared" si="11"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M55" s="198"/>
-      <c r="N55" s="200"/>
-      <c r="O55" s="200"/>
-      <c r="P55" s="192"/>
+      <c r="M55" s="217"/>
+      <c r="N55" s="219"/>
+      <c r="O55" s="219"/>
+      <c r="P55" s="211"/>
       <c r="Q55" s="37">
         <v>-1.5541388968049301E-3</v>
       </c>
@@ -9028,7 +9057,7 @@
       <c r="T55" s="30"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="195"/>
+      <c r="A56" s="214"/>
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -9068,16 +9097,16 @@
         <f t="shared" si="11"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M56" s="188">
+      <c r="M56" s="207">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N56" s="190">
+      <c r="N56" s="209">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O56" s="190">
+      <c r="O56" s="209">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P56" s="192">
+      <c r="P56" s="211">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q56" s="37">
@@ -9088,7 +9117,7 @@
       <c r="T56" s="30"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="196"/>
+      <c r="A57" s="215"/>
       <c r="B57" s="14">
         <v>3</v>
       </c>
@@ -9128,10 +9157,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M57" s="189"/>
-      <c r="N57" s="191"/>
-      <c r="O57" s="191"/>
-      <c r="P57" s="193"/>
+      <c r="M57" s="208"/>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="212"/>
       <c r="Q57" s="38">
         <v>0</v>
       </c>
@@ -9196,20 +9225,20 @@
         <f t="shared" si="9"/>
         <v>4.8513512095965501E-2</v>
       </c>
-      <c r="N59" s="236" t="s">
+      <c r="N59" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="236"/>
-      <c r="P59" s="236"/>
-      <c r="Q59" s="236"/>
-      <c r="R59" s="236"/>
-      <c r="S59" s="237" t="s">
+      <c r="O59" s="190"/>
+      <c r="P59" s="190"/>
+      <c r="Q59" s="190"/>
+      <c r="R59" s="190"/>
+      <c r="S59" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="237"/>
-      <c r="U59" s="237"/>
-      <c r="V59" s="237"/>
-      <c r="W59" s="237"/>
+      <c r="T59" s="191"/>
+      <c r="U59" s="191"/>
+      <c r="V59" s="191"/>
+      <c r="W59" s="191"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B60" s="30" t="s">
@@ -10151,6 +10180,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M20:M21"/>
     <mergeCell ref="N59:R59"/>
     <mergeCell ref="S59:W59"/>
     <mergeCell ref="A30:A33"/>
@@ -10175,151 +10316,39 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="O40:O41"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L33 K58:L1048576">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:L37">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:L41">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L45">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:L49">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:L53">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:L57">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10333,7 +10362,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10399,7 +10428,7 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="253">
+      <c r="A2" s="255">
         <v>265</v>
       </c>
       <c r="B2" s="40">
@@ -10441,19 +10470,19 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M2" s="256">
+      <c r="M2" s="258">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N2" s="258">
+      <c r="N2" s="260">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O2" s="258">
+      <c r="O2" s="260">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P2" s="260">
+      <c r="P2" s="262">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -10466,7 +10495,7 @@
       <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="254"/>
+      <c r="A3" s="256"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -10506,10 +10535,10 @@
         <f t="shared" si="5"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M3" s="257"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="261"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="263"/>
       <c r="Q3" s="106"/>
       <c r="R3" s="106"/>
       <c r="S3" s="106"/>
@@ -10519,7 +10548,7 @@
       <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="254"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -10559,16 +10588,16 @@
         <f t="shared" si="5"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M4" s="262">
+      <c r="M4" s="264">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N4" s="264">
+      <c r="N4" s="266">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O4" s="264">
+      <c r="O4" s="266">
         <v>1.38140952302927</v>
       </c>
-      <c r="P4" s="266">
+      <c r="P4" s="268">
         <v>0.693161263386181</v>
       </c>
       <c r="Q4" s="106"/>
@@ -10580,7 +10609,7 @@
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255"/>
+      <c r="A5" s="257"/>
       <c r="B5" s="56">
         <v>3</v>
       </c>
@@ -10620,10 +10649,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M5" s="263"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="267"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="269"/>
       <c r="Q5" s="106"/>
       <c r="R5" s="106"/>
       <c r="S5" s="106"/>
@@ -10633,7 +10662,7 @@
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="194">
+      <c r="A6" s="213">
         <v>1419</v>
       </c>
       <c r="B6" s="4">
@@ -10675,19 +10704,19 @@
         <f t="shared" si="5"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M6" s="197">
+      <c r="M6" s="216">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N6" s="199">
+      <c r="N6" s="218">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O6" s="199">
+      <c r="O6" s="218">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P6" s="201">
+      <c r="P6" s="220">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -10700,7 +10729,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="32">
         <v>1</v>
       </c>
@@ -10740,10 +10769,10 @@
         <f t="shared" si="5"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M7" s="198"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="192"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="211"/>
       <c r="Q7" s="103"/>
       <c r="R7" s="103"/>
       <c r="S7" s="103"/>
@@ -10753,7 +10782,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="32">
         <v>2</v>
       </c>
@@ -10793,16 +10822,16 @@
         <f t="shared" si="5"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M8" s="198">
+      <c r="M8" s="217">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="209">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O8" s="190">
+      <c r="O8" s="209">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P8" s="192">
+      <c r="P8" s="211">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q8" s="103"/>
@@ -10814,7 +10843,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="33">
         <v>3</v>
       </c>
@@ -10854,10 +10883,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="222"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="193"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="212"/>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
       <c r="S9" s="103"/>
@@ -10943,20 +10972,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="236" t="s">
+      <c r="N11" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="236"/>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="236"/>
-      <c r="R11" s="236"/>
-      <c r="S11" s="237" t="s">
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
+      <c r="T11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="191"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -11923,6 +11952,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="S11:W11"/>
     <mergeCell ref="A6:A9"/>
@@ -11934,28 +11972,19 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:L30">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L9">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12009,13 +12038,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>10</v>
@@ -12045,18 +12074,18 @@
         <v>33</v>
       </c>
       <c r="T1" s="112" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V1" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
-        <v>70</v>
+      <c r="A2" s="270" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -12097,45 +12126,45 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>1.9392032531042902E-13</v>
       </c>
-      <c r="M2" s="279">
+      <c r="M2" s="273">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N2" s="293">
+      <c r="N2" s="275">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O2" s="270">
+      <c r="O2" s="277">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P2" s="279">
+      <c r="P2" s="273">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q2" s="272">
+      <c r="Q2" s="283">
         <v>6.3629380283494004E-3</v>
       </c>
       <c r="R2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291"/>
+      <c r="A3" s="271"/>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="30">
         <v>9.1057883631293995E-2</v>
@@ -12173,11 +12202,11 @@
         <f t="shared" si="5"/>
         <v>6.7453890876466378</v>
       </c>
-      <c r="M3" s="280"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="273"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="284"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.20066838043017104</v>
@@ -12200,9 +12229,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="291"/>
+      <c r="A4" s="271"/>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="30">
         <v>0.29167269258710399</v>
@@ -12240,19 +12269,19 @@
         <f t="shared" si="5"/>
         <v>10.535141527783992</v>
       </c>
-      <c r="M4" s="281">
+      <c r="M4" s="279">
         <v>0.49003311552115603</v>
       </c>
-      <c r="N4" s="234">
+      <c r="N4" s="240">
         <v>-1.1847673396731999</v>
       </c>
-      <c r="O4" s="275">
+      <c r="O4" s="286">
         <v>0.74624297082319102</v>
       </c>
-      <c r="P4" s="281">
+      <c r="P4" s="279">
         <v>-0.211992642771656</v>
       </c>
-      <c r="Q4" s="277"/>
+      <c r="Q4" s="288"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.26780667737880604</v>
@@ -12275,9 +12304,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="291"/>
+      <c r="A5" s="271"/>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="31">
         <v>0.12469796037174601</v>
@@ -12315,11 +12344,11 @@
         <f t="shared" si="5"/>
         <v>3468381806624317.5</v>
       </c>
-      <c r="M5" s="282"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="278"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="289"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.21664393425670642</v>
@@ -12342,7 +12371,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="291"/>
+      <c r="A6" s="271"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -12382,30 +12411,30 @@
         <f t="shared" si="5"/>
         <v>3.1190634548571303</v>
       </c>
-      <c r="M6" s="279">
+      <c r="M6" s="273">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N6" s="293">
+      <c r="N6" s="275">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O6" s="270">
+      <c r="O6" s="277">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P6" s="279">
+      <c r="P6" s="273">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q6" s="272">
+      <c r="Q6" s="283">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R6" s="144" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S6" s="144" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T6" s="140" t="s">
         <v>31</v>
@@ -12416,7 +12445,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="291"/>
+      <c r="A7" s="271"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -12456,11 +12485,11 @@
         <f t="shared" si="5"/>
         <v>2.6339972398281795</v>
       </c>
-      <c r="M7" s="280"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="273"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="278"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="284"/>
       <c r="R7" s="128">
         <v>0.68511899206568305</v>
       </c>
@@ -12477,7 +12506,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="291"/>
+      <c r="A8" s="271"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -12517,24 +12546,24 @@
         <f t="shared" si="5"/>
         <v>1.2869566819255738</v>
       </c>
-      <c r="M8" s="281">
+      <c r="M8" s="279">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N8" s="234">
+      <c r="N8" s="240">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O8" s="275">
+      <c r="O8" s="286">
         <v>1.1537363051412</v>
       </c>
-      <c r="P8" s="281">
+      <c r="P8" s="279">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q8" s="288"/>
+      <c r="Q8" s="295"/>
       <c r="R8" s="134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S8" s="139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8" s="136">
         <v>0.78183148246802903</v>
@@ -12545,7 +12574,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="272"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -12585,11 +12614,11 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M9" s="282"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="289"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="280"/>
+      <c r="Q9" s="296"/>
       <c r="R9" s="129">
         <v>2.1389424385951799E-2</v>
       </c>
@@ -12608,10 +12637,10 @@
     <row r="10" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R10" s="133"/>
       <c r="T10" s="112" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V10" s="130" t="s">
         <v>3</v>
@@ -12661,10 +12690,10 @@
     </row>
     <row r="14" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T14" s="112" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V14" s="130" t="s">
         <v>3</v>
@@ -12714,29 +12743,29 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="293" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="294"/>
+      <c r="C25" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="130" t="s">
+      <c r="F25" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="134" t="s">
-        <v>103</v>
-      </c>
       <c r="G25" s="134" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="283" t="s">
-        <v>70</v>
+      <c r="A26" s="290" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="145">
         <v>1</v>
@@ -12770,7 +12799,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="284"/>
+      <c r="A27" s="291"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -12803,7 +12832,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="284"/>
+      <c r="A28" s="291"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -12836,9 +12865,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="285"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="138" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" s="157">
         <f>SUM(C26:C28)</f>
@@ -12866,49 +12895,41 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="268" t="s">
-        <v>120</v>
+      <c r="A31" s="281" t="s">
+        <v>106</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C31" s="134" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D31" s="134" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E31" s="134" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="269"/>
-      <c r="B32" s="187">
+      <c r="A32" s="282"/>
+      <c r="B32" s="174">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>4.066233509851179E-2</v>
       </c>
-      <c r="C32" s="186">
+      <c r="C32" s="173">
         <v>5.8037345172168901E-2</v>
       </c>
-      <c r="D32" s="187">
+      <c r="D32" s="174">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>-7.5766684862985254E-2</v>
       </c>
-      <c r="E32" s="186">
+      <c r="E32" s="173">
         <v>-0.16742062448784001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -12925,19 +12946,27 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12985,13 +13014,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>10</v>
@@ -13021,18 +13050,18 @@
         <v>33</v>
       </c>
       <c r="T1" s="112" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V1" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
-        <v>82</v>
+      <c r="A2" s="270" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -13073,45 +13102,45 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M2" s="279">
+      <c r="M2" s="273">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N2" s="293">
+      <c r="N2" s="275">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O2" s="270">
+      <c r="O2" s="277">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P2" s="279">
+      <c r="P2" s="273">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q2" s="272">
+      <c r="Q2" s="283">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291"/>
+      <c r="A3" s="271"/>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="30">
         <v>0.55087908455516699</v>
@@ -13149,11 +13178,11 @@
         <f t="shared" si="5"/>
         <v>0.32219626081740982</v>
       </c>
-      <c r="M3" s="280"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="273"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="284"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.25698704275732182</v>
@@ -13176,9 +13205,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="291"/>
+      <c r="A4" s="271"/>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="30">
         <v>0.58415171647529496</v>
@@ -13216,19 +13245,19 @@
         <f t="shared" si="5"/>
         <v>1.8865981084411843</v>
       </c>
-      <c r="M4" s="281">
+      <c r="M4" s="279">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N4" s="234">
+      <c r="N4" s="240">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O4" s="275">
+      <c r="O4" s="286">
         <v>1.1537363051412</v>
       </c>
-      <c r="P4" s="281">
+      <c r="P4" s="279">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q4" s="277"/>
+      <c r="Q4" s="288"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.48488963030579385</v>
@@ -13251,9 +13280,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="291"/>
+      <c r="A5" s="271"/>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
@@ -13291,11 +13320,11 @@
         <f t="shared" si="5"/>
         <v>1.7967280576689948</v>
       </c>
-      <c r="M5" s="282"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="278"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="289"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.44915396297778803</v>
@@ -13318,7 +13347,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="291"/>
+      <c r="A6" s="271"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -13358,30 +13387,30 @@
         <f t="shared" si="5"/>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M6" s="279">
+      <c r="M6" s="273">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N6" s="293">
+      <c r="N6" s="275">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O6" s="270">
+      <c r="O6" s="277">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P6" s="279">
+      <c r="P6" s="273">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q6" s="272">
+      <c r="Q6" s="283">
         <v>-2.3529370910404901E-3</v>
       </c>
       <c r="R6" s="144" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S6" s="144" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T6" s="140" t="s">
         <v>31</v>
@@ -13392,7 +13421,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="291"/>
+      <c r="A7" s="271"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -13432,11 +13461,11 @@
         <f t="shared" si="5"/>
         <v>0.20868281245301892</v>
       </c>
-      <c r="M7" s="280"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="295"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="278"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="297"/>
       <c r="R7" s="128">
         <v>1.1910306360409</v>
       </c>
@@ -13453,7 +13482,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="291"/>
+      <c r="A8" s="271"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -13493,24 +13522,24 @@
         <f t="shared" si="5"/>
         <v>2.1997398620743895E-2</v>
       </c>
-      <c r="M8" s="281">
+      <c r="M8" s="279">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="N8" s="234">
+      <c r="N8" s="240">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="O8" s="275">
+      <c r="O8" s="286">
         <v>1.1344986861228901</v>
       </c>
-      <c r="P8" s="281">
+      <c r="P8" s="279">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="Q8" s="288"/>
+      <c r="Q8" s="295"/>
       <c r="R8" s="134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S8" s="139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8" s="136">
         <v>0.51429340171910298</v>
@@ -13521,7 +13550,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="272"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -13561,11 +13590,11 @@
         <f t="shared" si="5"/>
         <v>0.61427071457097293</v>
       </c>
-      <c r="M9" s="282"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="289"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="280"/>
+      <c r="Q9" s="296"/>
       <c r="R9" s="129">
         <v>5.7132752196568798E-2</v>
       </c>
@@ -13584,10 +13613,10 @@
     <row r="10" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R10" s="133"/>
       <c r="T10" s="112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V10" s="130" t="s">
         <v>3</v>
@@ -13637,10 +13666,10 @@
     </row>
     <row r="14" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T14" s="112" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V14" s="130" t="s">
         <v>3</v>
@@ -13690,29 +13719,29 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="293" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="294"/>
+      <c r="C25" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="130" t="s">
+      <c r="F25" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="134" t="s">
-        <v>103</v>
-      </c>
       <c r="G25" s="134" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="283" t="s">
-        <v>82</v>
+      <c r="A26" s="290" t="s">
+        <v>79</v>
       </c>
       <c r="B26" s="145">
         <v>1</v>
@@ -13742,7 +13771,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="284"/>
+      <c r="A27" s="291"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -13771,7 +13800,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="284"/>
+      <c r="A28" s="291"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -13800,9 +13829,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="285"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="138" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="150">
         <f>SUM(C26:C28)</f>
@@ -13830,49 +13859,41 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="268" t="s">
-        <v>125</v>
+      <c r="A31" s="281" t="s">
+        <v>111</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C31" s="134" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D31" s="134" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E31" s="134" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="269"/>
-      <c r="B32" s="187">
+      <c r="A32" s="282"/>
+      <c r="B32" s="174">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.58174051627358325</v>
       </c>
-      <c r="C32" s="186">
+      <c r="C32" s="173">
         <v>0.60958423533754003</v>
       </c>
-      <c r="D32" s="187">
+      <c r="D32" s="174">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>-8.0895847185086356E-2</v>
       </c>
-      <c r="E32" s="186">
+      <c r="E32" s="173">
         <v>-0.107622571123418</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -13889,19 +13910,27 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13954,13 +13983,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>10</v>
@@ -13990,18 +14019,18 @@
         <v>33</v>
       </c>
       <c r="T1" s="112" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V1" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
-        <v>91</v>
+      <c r="A2" s="270" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -14042,45 +14071,45 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M2" s="279">
+      <c r="M2" s="273">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N2" s="293">
+      <c r="N2" s="275">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O2" s="270">
+      <c r="O2" s="277">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P2" s="279">
+      <c r="P2" s="273">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q2" s="272">
+      <c r="Q2" s="283">
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291"/>
+      <c r="A3" s="271"/>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="30">
         <v>-4.45041867912623E-2</v>
@@ -14118,11 +14147,11 @@
         <f t="shared" si="5"/>
         <v>1.5721501854168734E+16</v>
       </c>
-      <c r="M3" s="280"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="273"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="284"/>
       <c r="R3" s="136">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.22167804809623956</v>
@@ -14145,9 +14174,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="291"/>
+      <c r="A4" s="271"/>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="30">
         <v>9.1057883631293995E-2</v>
@@ -14185,19 +14214,19 @@
         <f t="shared" si="5"/>
         <v>5.435138479755218</v>
       </c>
-      <c r="M4" s="281">
+      <c r="M4" s="279">
         <v>0.16566277110175201</v>
       </c>
-      <c r="N4" s="234">
+      <c r="N4" s="240">
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O4" s="275">
+      <c r="O4" s="286">
         <v>0.711099224132827</v>
       </c>
-      <c r="P4" s="281">
+      <c r="P4" s="279">
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q4" s="277"/>
+      <c r="Q4" s="288"/>
       <c r="R4" s="136">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.21664393425670642</v>
@@ -14220,9 +14249,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="291"/>
+      <c r="A5" s="271"/>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="31">
         <v>0.12469796037174601</v>
@@ -14260,11 +14289,11 @@
         <f t="shared" si="5"/>
         <v>3613139172902892</v>
       </c>
-      <c r="M5" s="282"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="278"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="289"/>
       <c r="R5" s="137">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.17355349564702202</v>
@@ -14287,7 +14316,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="291"/>
+      <c r="A6" s="271"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -14327,31 +14356,31 @@
         <f t="shared" si="5"/>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M6" s="279">
+      <c r="M6" s="273">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N6" s="293">
+      <c r="N6" s="275">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O6" s="270">
+      <c r="O6" s="277">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P6" s="279">
+      <c r="P6" s="273">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q6" s="272">
+      <c r="Q6" s="283">
         <f>Q2</f>
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R6" s="144" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S6" s="144" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T6" s="140" t="s">
         <v>31</v>
@@ -14362,7 +14391,7 @@
       <c r="V6" s="135"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="291"/>
+      <c r="A7" s="271"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -14402,11 +14431,11 @@
         <f t="shared" si="5"/>
         <v>66.89695684978372</v>
       </c>
-      <c r="M7" s="280"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="295"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="278"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="297"/>
       <c r="R7" s="128">
         <v>0.611875477999968</v>
       </c>
@@ -14423,7 +14452,7 @@
       <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" s="100" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="291"/>
+      <c r="A8" s="271"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -14463,28 +14492,28 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M8" s="281">
+      <c r="M8" s="279">
         <f>M4</f>
         <v>0.16566277110175201</v>
       </c>
-      <c r="N8" s="277">
+      <c r="N8" s="288">
         <f>N4</f>
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O8" s="296">
+      <c r="O8" s="298">
         <f>O4</f>
         <v>0.711099224132827</v>
       </c>
-      <c r="P8" s="281">
+      <c r="P8" s="279">
         <f>P4</f>
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q8" s="288"/>
+      <c r="Q8" s="295"/>
       <c r="R8" s="134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S8" s="139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8" s="136">
         <v>0.987870783805048</v>
@@ -14495,7 +14524,7 @@
       <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="292"/>
+      <c r="A9" s="272"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -14535,11 +14564,11 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="282"/>
-      <c r="N9" s="278"/>
-      <c r="O9" s="297"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="289"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="289"/>
+      <c r="O9" s="299"/>
+      <c r="P9" s="280"/>
+      <c r="Q9" s="296"/>
       <c r="R9" s="129">
         <v>1.74564235241703E-2</v>
       </c>
@@ -14558,10 +14587,10 @@
     <row r="10" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R10" s="133"/>
       <c r="T10" s="112" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V10" s="130" t="s">
         <v>3</v>
@@ -14611,10 +14640,10 @@
     </row>
     <row r="14" spans="1:22" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T14" s="112" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V14" s="130" t="s">
         <v>3</v>
@@ -14664,29 +14693,29 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="293" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="294"/>
+      <c r="C25" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="130" t="s">
+      <c r="F25" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="134" t="s">
-        <v>103</v>
-      </c>
       <c r="G25" s="134" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="283" t="s">
-        <v>91</v>
+      <c r="A26" s="290" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="145">
         <v>1</v>
@@ -14712,7 +14741,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="284"/>
+      <c r="A27" s="291"/>
       <c r="B27" s="147">
         <v>2</v>
       </c>
@@ -14737,7 +14766,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="284"/>
+      <c r="A28" s="291"/>
       <c r="B28" s="147">
         <v>3</v>
       </c>
@@ -14762,9 +14791,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="285"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="138" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="150">
         <f>SUM(C26:C28)</f>
@@ -14788,49 +14817,41 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="268" t="s">
-        <v>126</v>
+      <c r="A31" s="281" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C31" s="134" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D31" s="134" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E31" s="134" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="269"/>
-      <c r="B32" s="187">
+      <c r="A32" s="282"/>
+      <c r="B32" s="174">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>-5.5508505866866488E-2</v>
       </c>
-      <c r="C32" s="186">
+      <c r="C32" s="173">
         <v>2.4811671720539299E-2</v>
       </c>
-      <c r="D32" s="187">
+      <c r="D32" s="174">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.23183368498718282</v>
       </c>
-      <c r="E32" s="186">
+      <c r="E32" s="173">
         <v>-9.7776092756626506E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -14847,19 +14868,27 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14870,13 +14899,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16:O17"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14889,12 +14918,13 @@
     <col min="12" max="12" width="10.25" style="101" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="101" customWidth="1"/>
     <col min="14" max="14" width="10.75" style="101" customWidth="1"/>
-    <col min="15" max="16" width="11.375" style="101" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.125" style="101" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="101"/>
+    <col min="15" max="17" width="11.375" style="101" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="12.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="101" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -14917,121 +14947,141 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="187" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="180" t="s">
+      <c r="P1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="180" t="s">
+      <c r="R1" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="180" t="s">
+      <c r="S1" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="180" t="s">
+      <c r="T1" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="180" t="s">
+      <c r="U1" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="174" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="174" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
+      <c r="V1" s="161" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="161" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="213" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>-0.180193773580483</v>
-      </c>
-      <c r="D2" s="310">
-        <v>-7.7715611723760899E-16</v>
+        <v>0.455713651858564</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.186443664387938</v>
       </c>
       <c r="E2" s="5">
-        <f>SQRT(D2*D2+C2*C2)</f>
-        <v>0.180193773580483</v>
+        <f t="shared" ref="E2:E21" si="0">SQRT(D2*D2+C2*C2)</f>
+        <v>0.49237807879785889</v>
       </c>
       <c r="F2" s="5">
-        <f>1/0.96*(E2-0.04/E2)</f>
-        <v>-4.3530707556735937E-2</v>
+        <f t="shared" ref="F2:F21" si="1">1/0.96*(E2-0.04/E2)</f>
+        <v>0.42827051422666923</v>
       </c>
       <c r="G2" s="88">
-        <f>-F2*D2/E2</f>
-        <v>-1.8774319996294773E-16</v>
+        <f t="shared" ref="G2:G21" si="2">-F2*D2/E2</f>
+        <v>-0.16216872249202571</v>
       </c>
       <c r="H2" s="5">
-        <v>-2.9028580553714899E-2</v>
+        <v>2.10846793494604E-2</v>
       </c>
       <c r="I2" s="88">
-        <f t="shared" ref="I2:I29" si="0">F2*C2/E2</f>
-        <v>4.3530707556735937E-2</v>
+        <f t="shared" ref="I2:I17" si="3">F2*C2/E2</f>
+        <v>0.396379791111101</v>
       </c>
       <c r="J2" s="5">
-        <v>7.37070171687665E-2</v>
-      </c>
-      <c r="K2" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L29" si="1">ABS((G2-H2)/G2)*100</f>
-        <v>1.5461854575528532E+16</v>
-      </c>
-      <c r="M2" s="7">
-        <f t="shared" ref="M2:M29" si="2">ABS((I2-J2)/I2)*100</f>
-        <v>69.321890926537648</v>
-      </c>
-      <c r="N2" s="117">
+        <v>5.7379539272277097E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E2 * E2 - 0.04) -0.08 * LN(5 * E2) - 0.5 * 0.04 * 0.04 * (1/E2/E2 - 25))</f>
+        <v>4.9743802100800649E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.81588720589412E-4</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" ref="N2:N21" si="4">ABS((G2-H2)/G2)*100</f>
+        <v>113.00169294390119</v>
+      </c>
+      <c r="O2" s="7">
+        <f t="shared" ref="O2:O21" si="5">ABS((I2-J2)/I2)*100</f>
+        <v>85.524100733936194</v>
+      </c>
+      <c r="P2" s="36">
+        <f>ABS((K2-L2)/K2)*100</f>
+        <v>99.63495206855832</v>
+      </c>
+      <c r="Q2" s="117">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
-        <v>-1.1068982043822117E-14</v>
-      </c>
-      <c r="O2" s="293">
+        <v>-0.12046574900487043</v>
+      </c>
+      <c r="R2" s="275">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
-        <v>0.24157720154127904</v>
-      </c>
-      <c r="P2" s="270">
+        <v>-0.91908562554715478</v>
+      </c>
+      <c r="S2" s="277">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
-        <v>2.3249105348746126</v>
-      </c>
-      <c r="Q2" s="121">
+        <v>1.1642477077861786</v>
+      </c>
+      <c r="T2" s="121">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
-        <v>1.1068982043822117E-14</v>
-      </c>
-      <c r="R2" s="298">
+        <v>0.12046574900487043</v>
+      </c>
+      <c r="U2" s="304">
         <v>-2.3529370910404901E-3</v>
       </c>
-      <c r="S2" s="301">
+      <c r="V2" s="300">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
-        <v>0.58293949024837999</v>
-      </c>
-      <c r="T2" s="301">
+        <v>0.3178493532196468</v>
+      </c>
+      <c r="W2" s="300">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
-        <v>2.5141545227896315E-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
+        <v>0.13003998869886679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="214"/>
       <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
@@ -15042,48 +15092,59 @@
         <v>6.0759982506205297E-2</v>
       </c>
       <c r="E3" s="30">
-        <f>SQRT(D3*D3+C3*C3)</f>
+        <f t="shared" si="0"/>
         <v>0.27077705137375119</v>
       </c>
       <c r="F3" s="30">
-        <f>1/0.96*(E3-0.04/E3)</f>
+        <f t="shared" si="1"/>
         <v>0.12818129720564639</v>
       </c>
       <c r="G3" s="90">
-        <f>-F3*D3/E3</f>
+        <f t="shared" si="2"/>
         <v>-2.8762752738184093E-2</v>
       </c>
       <c r="H3" s="30">
         <v>-2.71776400341752E-2</v>
       </c>
       <c r="I3" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12491256545377782</v>
       </c>
       <c r="J3" s="30">
         <v>0.133975249197297</v>
       </c>
-      <c r="K3" s="126">
+      <c r="K3" s="158">
+        <f t="shared" ref="K3:K21" si="6">1 /0.96 /0.96 * (0.5 * ( E3 * E3 - 0.04) -0.08 * LN(5 * E3) - 0.5 * 0.04 * 0.04 * (1/E3/E3 - 25))</f>
+        <v>1.6393102753701708E-3</v>
+      </c>
+      <c r="L3" s="158">
+        <v>1.63931027537017E-3</v>
+      </c>
+      <c r="M3" s="126">
         <v>-2.0404952538293199E-2</v>
       </c>
-      <c r="L3" s="16">
-        <f t="shared" si="1"/>
+      <c r="N3" s="16">
+        <f t="shared" si="4"/>
         <v>5.5109909626437474</v>
       </c>
-      <c r="M3" s="8">
-        <f t="shared" si="2"/>
+      <c r="O3" s="8">
+        <f t="shared" si="5"/>
         <v>7.2552218510576498</v>
       </c>
-      <c r="N3" s="118"/>
-      <c r="O3" s="294"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="295"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="302"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
+      <c r="P3" s="189">
+        <f t="shared" ref="P3:P21" si="7">ABS((K3-L3)/K3)*100</f>
+        <v>5.2910162952071147E-14</v>
+      </c>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="276"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="301"/>
+      <c r="W3" s="301"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="214"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
@@ -15094,63 +15155,74 @@
         <v>0.13894313075300799</v>
       </c>
       <c r="E4" s="30">
-        <f>SQRT(D4*D4+C4*C4)</f>
+        <f t="shared" si="0"/>
         <v>0.26548282171421472</v>
       </c>
       <c r="F4" s="30">
-        <f>1/0.96*(E4-0.04/E4)</f>
+        <f t="shared" si="1"/>
         <v>0.11959785362525914</v>
       </c>
       <c r="G4" s="90">
-        <f>-F4*D4/E4</f>
+        <f t="shared" si="2"/>
         <v>-6.2592751224866738E-2</v>
       </c>
       <c r="H4" s="30">
         <v>-7.2232755478001495E-2</v>
       </c>
       <c r="I4" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10191071624648143</v>
       </c>
       <c r="J4" s="30">
         <v>0.101247965715746</v>
       </c>
-      <c r="K4" s="126">
+      <c r="K4" s="113">
+        <f t="shared" si="6"/>
+        <v>1.3361400216007448E-3</v>
+      </c>
+      <c r="L4" s="158">
+        <v>1.33614002160076E-3</v>
+      </c>
+      <c r="M4" s="126">
         <v>1.8052015447252701E-2</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="1"/>
+      <c r="N4" s="16">
+        <f t="shared" si="4"/>
         <v>15.401151194812785</v>
       </c>
-      <c r="M4" s="8">
-        <f t="shared" si="2"/>
+      <c r="O4" s="8">
+        <f t="shared" si="5"/>
         <v>0.65032467158066276</v>
       </c>
-      <c r="N4" s="119">
+      <c r="P4" s="189">
+        <f t="shared" si="7"/>
+        <v>1.1360209386297902E-12</v>
+      </c>
+      <c r="Q4" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O4" s="234">
+      <c r="R4" s="240">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P4" s="275">
+      <c r="S4" s="286">
         <v>1.1344986861228901</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="T4" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R4" s="288">
-        <f>K3+K4+K5</f>
+      <c r="U4" s="295">
+        <f>M3+M4+M5</f>
         <v>-2.3529370910404974E-3</v>
       </c>
-      <c r="S4" s="303">
+      <c r="V4" s="302">
         <v>7.5368687073901403E-2</v>
       </c>
-      <c r="T4" s="303">
+      <c r="W4" s="302">
         <v>3.2331313633133803E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
+    <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="229"/>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -15161,1891 +15233,1261 @@
         <v>7.81831482468031E-2</v>
       </c>
       <c r="E5" s="31">
-        <f>SQRT(D5*D5+C5*C5)</f>
+        <f t="shared" si="0"/>
         <v>0.18019377358048355</v>
       </c>
       <c r="F5" s="31">
-        <f>1/0.96*(E5-0.04/E5)</f>
+        <f t="shared" si="1"/>
         <v>-4.353070755673466E-2</v>
       </c>
       <c r="G5" s="93">
-        <f>-F5*D5/E5</f>
+        <f t="shared" si="2"/>
         <v>1.8887266161149035E-2</v>
       </c>
       <c r="H5" s="31">
         <v>0</v>
       </c>
       <c r="I5" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.9219812306382482E-2</v>
       </c>
       <c r="J5" s="31">
         <v>0</v>
       </c>
-      <c r="K5" s="127">
+      <c r="K5" s="113">
+        <f t="shared" si="6"/>
+        <v>-6.5775029452851819E-5</v>
+      </c>
+      <c r="L5" s="29">
+        <v>-6.5775029452853703E-5</v>
+      </c>
+      <c r="M5" s="127">
         <v>0</v>
       </c>
-      <c r="L5" s="19">
-        <f t="shared" si="1"/>
+      <c r="N5" s="19">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="M5" s="102">
-        <f t="shared" si="2"/>
+      <c r="O5" s="102">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="276"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="289"/>
-      <c r="S5" s="304"/>
-      <c r="T5" s="304"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
-        <v>61</v>
+      <c r="P5" s="188">
+        <f t="shared" si="7"/>
+        <v>2.8640067368482E-12</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="287"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="303"/>
+      <c r="W5" s="303"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="213" t="s">
+        <v>64</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>0.215999570887704</v>
+        <v>0.247879199310308</v>
       </c>
       <c r="D6" s="5">
-        <v>8.7535826562047503E-2</v>
+        <v>0.20326976144112499</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6:E13" si="3">SQRT(D6*D6+C6*C6)</f>
-        <v>0.23306294333414124</v>
+        <f t="shared" si="0"/>
+        <v>0.32056620746275061</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F13" si="4">1/0.96*(E6-0.04/E6)</f>
-        <v>6.3995299540198489E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.20394478291438509</v>
       </c>
       <c r="G6" s="88">
-        <f t="shared" ref="G6:G13" si="5">-F6*D6/E6</f>
-        <v>-2.4035916483324003E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.12932057841744343</v>
       </c>
       <c r="H6" s="5">
-        <v>-2.9028580553714899E-2</v>
+        <v>-0.13515577123328601</v>
       </c>
       <c r="I6" s="88">
-        <f t="shared" si="0"/>
-        <v>5.9309974557795943E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15770118095871546</v>
       </c>
       <c r="J6" s="5">
-        <v>7.37070171687665E-2</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>20.771681719957634</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="2"/>
-        <v>24.274235014113916</v>
-      </c>
-      <c r="N6" s="117">
+        <v>0.154317453343947</v>
+      </c>
+      <c r="K6" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E6 * E6 - 0.04) -0.08 * LN(5 * E6) - 0.5 * 0.04 * 0.04 * (1/E6/E6 - 25))</f>
+        <v>6.3527595546166837E-3</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5121920171179006</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1456577523374958</v>
+      </c>
+      <c r="P6" s="36">
+        <f>ABS((K6-L6)/K6)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q6" s="117">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
-        <v>-0.53402866836813123</v>
-      </c>
-      <c r="O6" s="293">
+        <v>-0.39761307687490022</v>
+      </c>
+      <c r="R6" s="275">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
-        <v>-0.49100382475466869</v>
-      </c>
-      <c r="P6" s="270">
+        <v>-0.96225861994314255</v>
+      </c>
+      <c r="S6" s="277">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
-        <v>1.5923295085786646</v>
-      </c>
-      <c r="Q6" s="121">
+        <v>1.1210747133901908</v>
+      </c>
+      <c r="T6" s="121">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
-        <v>0.53402866836813123</v>
-      </c>
-      <c r="R6" s="298">
-        <v>1.52082465948405E-2</v>
-      </c>
-      <c r="S6" s="301">
+        <v>0.39761307687490022</v>
+      </c>
+      <c r="U6" s="304">
+        <v>5.5289471330137504E-3</v>
+      </c>
+      <c r="V6" s="300">
         <f>1/0.96/0.96*(C6-0.08*C6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*C6/(POWER(C6*C6+D6*D6,2)))</f>
-        <v>-0.23790973065728516</v>
-      </c>
-      <c r="T6" s="301">
+        <v>1.8826196159772688E-2</v>
+      </c>
+      <c r="W6" s="300">
         <f>1/0.96/0.96*(D6-0.08*D6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*D6/(POWER(C6*C6+D6*D6,2)))</f>
-        <v>-9.6415121727563904E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="195"/>
+        <v>1.5438150570472962E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="214"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="30">
-        <v>0.26387200699677998</v>
+        <v>0.30970835329033097</v>
       </c>
       <c r="D7" s="30">
-        <v>6.0759982506205297E-2</v>
+        <v>0.24363297654796201</v>
       </c>
       <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.39405112784945595</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="1"/>
+        <v>0.30473068513065271</v>
+      </c>
+      <c r="G7" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.18840814964560751</v>
+      </c>
+      <c r="H7" s="30">
+        <v>-0.18554090555397601</v>
+      </c>
+      <c r="I7" s="90">
         <f t="shared" si="3"/>
-        <v>0.27077705137375119</v>
-      </c>
-      <c r="F7" s="30">
+        <v>0.23950607425974685</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.23748255535377899</v>
+      </c>
+      <c r="K7" s="158">
+        <f t="shared" si="6"/>
+        <v>1.9784044140255658E-2</v>
+      </c>
+      <c r="L7" s="158"/>
+      <c r="M7" s="126">
+        <v>-3.6742325791069397E-2</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="4"/>
-        <v>0.12818129720564639</v>
-      </c>
-      <c r="G7" s="90">
+        <v>1.5218259385407349</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8762752738184093E-2</v>
-      </c>
-      <c r="H7" s="30">
-        <v>-1.9446955419259601E-2</v>
-      </c>
-      <c r="I7" s="90">
-        <f t="shared" si="0"/>
-        <v>0.12491256545377782</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0.128605755576468</v>
-      </c>
-      <c r="K7" s="126">
-        <v>-1.8779599346129099E-2</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="1"/>
-        <v>32.388406644254438</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="2"/>
-        <v>2.9566201841053297</v>
-      </c>
-      <c r="N7" s="118"/>
-      <c r="O7" s="294"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="302"/>
-      <c r="T7" s="302"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
+        <v>0.84487164353641009</v>
+      </c>
+      <c r="P7" s="189">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="276"/>
+      <c r="S7" s="278"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="297"/>
+      <c r="V7" s="301"/>
+      <c r="W7" s="301"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="214"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="30">
-        <v>0.22622098718265299</v>
+        <v>0.208185326479424</v>
       </c>
       <c r="D8" s="30">
-        <v>0.13894313075300799</v>
+        <v>0.26105614228856</v>
       </c>
       <c r="E8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33390333868940164</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="1"/>
+        <v>0.22302936491459346</v>
+      </c>
+      <c r="G8" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.1743713790050801</v>
+      </c>
+      <c r="H8" s="30">
+        <v>-0.17841260948587401</v>
+      </c>
+      <c r="I8" s="90">
         <f t="shared" si="3"/>
-        <v>0.26548282171421472</v>
-      </c>
-      <c r="F8" s="30">
+        <v>0.13905653453927863</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.137698288618117</v>
+      </c>
+      <c r="K8" s="113">
+        <f t="shared" si="6"/>
+        <v>8.2113136432218695E-3</v>
+      </c>
+      <c r="L8" s="158"/>
+      <c r="M8" s="126">
+        <v>6.0323288371335798E-2</v>
+      </c>
+      <c r="N8" s="16">
         <f t="shared" si="4"/>
-        <v>0.11959785362525914</v>
-      </c>
-      <c r="G8" s="90">
+        <v>2.3175996564643646</v>
+      </c>
+      <c r="O8" s="8">
         <f t="shared" si="5"/>
-        <v>-6.2592751224866738E-2</v>
-      </c>
-      <c r="H8" s="30">
-        <v>-7.2147538592033295E-2</v>
-      </c>
-      <c r="I8" s="90">
-        <f t="shared" si="0"/>
-        <v>0.10191071624648143</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0.17971716378022401</v>
-      </c>
-      <c r="K8" s="126">
-        <v>3.3987845940969597E-2</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="1"/>
-        <v>15.265006219075808</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="2"/>
-        <v>76.34766038299621</v>
-      </c>
-      <c r="N8" s="119">
+        <v>0.97675806869613158</v>
+      </c>
+      <c r="P8" s="189">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O8" s="234">
+      <c r="R8" s="240">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P8" s="275">
+      <c r="S8" s="286">
         <v>1.1344986861228901</v>
       </c>
-      <c r="Q8" s="123">
+      <c r="T8" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R8" s="288">
-        <f>K7+K8+K9</f>
-        <v>1.5208246594840498E-2</v>
-      </c>
-      <c r="S8" s="303">
-        <v>7.5368687073901403E-2</v>
-      </c>
-      <c r="T8" s="303">
-        <v>3.2331313633133803E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+      <c r="U8" s="295">
+        <f>M7+M8+M9</f>
+        <v>5.5289471330137001E-3</v>
+      </c>
+      <c r="V8" s="302">
+        <v>0.14579811590467601</v>
+      </c>
+      <c r="W8" s="302">
+        <v>8.0937587487820595E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="229"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="31">
-        <v>0.16234898018587299</v>
+        <v>0.22622098718265299</v>
       </c>
       <c r="D9" s="31">
-        <v>7.81831482468031E-2</v>
+        <v>0.13894313075300799</v>
       </c>
       <c r="E9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.26548282171421472</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.11959785362525914</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="2"/>
+        <v>-6.2592751224866738E-2</v>
+      </c>
+      <c r="H9" s="31">
+        <v>-7.2232755478001495E-2</v>
+      </c>
+      <c r="I9" s="93">
         <f t="shared" si="3"/>
-        <v>0.18019377358048355</v>
-      </c>
-      <c r="F9" s="31">
+        <v>0.10191071624648143</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.101247965715746</v>
+      </c>
+      <c r="K9" s="113">
+        <f t="shared" si="6"/>
+        <v>1.3361400216007448E-3</v>
+      </c>
+      <c r="L9" s="159"/>
+      <c r="M9" s="127">
+        <v>-1.8052015447252701E-2</v>
+      </c>
+      <c r="N9" s="19">
         <f t="shared" si="4"/>
-        <v>-4.353070755673466E-2</v>
-      </c>
-      <c r="G9" s="93">
+        <v>15.401151194812785</v>
+      </c>
+      <c r="O9" s="102">
         <f t="shared" si="5"/>
-        <v>1.8887266161149035E-2</v>
-      </c>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="93">
-        <f t="shared" si="0"/>
-        <v>-3.9219812306382482E-2</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="127">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <f t="shared" si="1"/>
+        <v>0.65032467158066276</v>
+      </c>
+      <c r="P9" s="188">
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="M9" s="102">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="304"/>
-      <c r="T9" s="304"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="194" t="s">
+      <c r="Q9" s="120"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="287"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="213" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>0.247879199310308</v>
+        <v>0.39008509039914102</v>
       </c>
       <c r="D10" s="5">
-        <v>0.20326976144112499</v>
+        <v>0.24205055766328401</v>
       </c>
       <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45908043981072943</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38744764581092966</v>
+      </c>
+      <c r="G10" s="88">
+        <f t="shared" si="2"/>
+        <v>-0.20428210527228444</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-0.20361845640537399</v>
+      </c>
+      <c r="I10" s="88">
         <f t="shared" si="3"/>
-        <v>0.32056620746275061</v>
-      </c>
-      <c r="F10" s="5">
+        <v>0.32921801243242288</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.330064925268372</v>
+      </c>
+      <c r="K10" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E10 * E10 - 0.04) -0.08 * LN(5 * E10) - 0.5 * 0.04 * 0.04 * (1/E10/E10 - 25))</f>
+        <v>3.8095593987146507E-2</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="4"/>
-        <v>0.20394478291438509</v>
-      </c>
-      <c r="G10" s="88">
+        <v>0.32486882099921666</v>
+      </c>
+      <c r="O10" s="7">
         <f t="shared" si="5"/>
-        <v>-0.12932057841744343</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-0.13515577123328601</v>
-      </c>
-      <c r="I10" s="88">
-        <f t="shared" si="0"/>
-        <v>0.15770118095871546</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.154317453343947</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>4.5121920171179006</v>
-      </c>
-      <c r="M10" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1456577523374958</v>
-      </c>
-      <c r="N10" s="117">
+        <v>0.25724984781109528</v>
+      </c>
+      <c r="P10" s="36">
+        <f>ABS((K10-L10)/K10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q10" s="117">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
-        <v>-0.39761307687490022</v>
-      </c>
-      <c r="O10" s="293">
+        <v>-0.17714505627851754</v>
+      </c>
+      <c r="R10" s="275">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
-        <v>-0.96225861994314255</v>
-      </c>
-      <c r="P10" s="270">
+        <v>-0.95388437356372024</v>
+      </c>
+      <c r="S10" s="277">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
-        <v>1.1210747133901908</v>
-      </c>
-      <c r="Q10" s="121">
+        <v>1.1294489597696131</v>
+      </c>
+      <c r="T10" s="121">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
-        <v>0.39761307687490022</v>
-      </c>
-      <c r="R10" s="298">
-        <v>5.5289471330137504E-3</v>
-      </c>
-      <c r="S10" s="301">
+        <v>0.17714505627851754</v>
+      </c>
+      <c r="U10" s="304">
+        <v>-4.6216095055825798E-3</v>
+      </c>
+      <c r="V10" s="300">
         <f>1/0.96/0.96*(C10-0.08*C10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*C10/(POWER(C10*C10+D10*D10,2)))</f>
-        <v>1.8826196159772688E-2</v>
-      </c>
-      <c r="T10" s="301">
+        <v>0.24735454129767298</v>
+      </c>
+      <c r="W10" s="300">
         <f>1/0.96/0.96*(D10-0.08*D10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*D10/(POWER(C10*C10+D10*D10,2)))</f>
-        <v>1.5438150570472962E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="195"/>
+        <v>0.15348524241309838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="214"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="30">
-        <v>0.30970835329033097</v>
+        <v>0.455713651858564</v>
       </c>
       <c r="D11" s="30">
-        <v>0.24363297654796201</v>
+        <v>0.186443664387938</v>
       </c>
       <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.49237807879785889</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="1"/>
+        <v>0.42827051422666923</v>
+      </c>
+      <c r="G11" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.16216872249202571</v>
+      </c>
+      <c r="H11" s="30">
+        <v>-0.163882011377116</v>
+      </c>
+      <c r="I11" s="90">
         <f t="shared" si="3"/>
-        <v>0.39405112784945595</v>
-      </c>
-      <c r="F11" s="30">
+        <v>0.396379791111101</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.39936987018611902</v>
+      </c>
+      <c r="K11" s="158">
+        <f t="shared" si="6"/>
+        <v>4.9743802100800649E-2</v>
+      </c>
+      <c r="L11" s="158"/>
+      <c r="M11" s="126">
+        <v>-0.12358051977053899</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="4"/>
-        <v>0.30473068513065271</v>
-      </c>
-      <c r="G11" s="90">
+        <v>1.0564854053003552</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" si="5"/>
-        <v>-0.18840814964560751</v>
-      </c>
-      <c r="H11" s="30">
-        <v>-0.18554090555397601</v>
-      </c>
-      <c r="I11" s="90">
-        <f t="shared" si="0"/>
-        <v>0.23950607425974685</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0.23748255535377899</v>
-      </c>
-      <c r="K11" s="126">
-        <v>-3.6742325791069397E-2</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="1"/>
-        <v>1.5218259385407349</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.84487164353641009</v>
-      </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="294"/>
-      <c r="P11" s="271"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="295"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="302"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
+        <v>0.75434700306906899</v>
+      </c>
+      <c r="P11" s="189">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="301"/>
+      <c r="W11" s="301"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="214"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="30">
-        <v>0.208185326479424</v>
+        <v>0.43767799115533501</v>
       </c>
       <c r="D12" s="30">
-        <v>0.26105614228856</v>
+        <v>0.30855667592349001</v>
       </c>
       <c r="E12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53550839974618802</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>0.48001356887306179</v>
+      </c>
+      <c r="G12" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.27658089262435981</v>
+      </c>
+      <c r="H12" s="30">
+        <v>-0.27858397278539698</v>
+      </c>
+      <c r="I12" s="90">
         <f t="shared" si="3"/>
-        <v>0.33390333868940164</v>
-      </c>
-      <c r="F12" s="30">
+        <v>0.39232134295417326</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.39071233441443498</v>
+      </c>
+      <c r="K12" s="113">
+        <f t="shared" si="6"/>
+        <v>6.7060532722723484E-2</v>
+      </c>
+      <c r="L12" s="158"/>
+      <c r="M12" s="126">
+        <v>8.2216584473887702E-2</v>
+      </c>
+      <c r="N12" s="16">
         <f t="shared" si="4"/>
-        <v>0.22302936491459346</v>
-      </c>
-      <c r="G12" s="90">
+        <v>0.72422940790695567</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" si="5"/>
-        <v>-0.1743713790050801</v>
-      </c>
-      <c r="H12" s="30">
-        <v>-0.17841260948587401</v>
-      </c>
-      <c r="I12" s="90">
-        <f t="shared" si="0"/>
-        <v>0.13905653453927863</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0.137698288618117</v>
-      </c>
-      <c r="K12" s="126">
-        <v>6.0323288371335798E-2</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3175996564643646</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.97675806869613158</v>
-      </c>
-      <c r="N12" s="119">
+        <v>0.41012516107904529</v>
+      </c>
+      <c r="P12" s="189">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q12" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O12" s="234">
+      <c r="R12" s="240">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P12" s="275">
+      <c r="S12" s="286">
         <v>1.1344986861228901</v>
       </c>
-      <c r="Q12" s="123">
+      <c r="T12" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R12" s="288">
-        <f>K11+K12+K13</f>
-        <v>5.5289471330137001E-3</v>
-      </c>
-      <c r="S12" s="303">
-        <v>0.14579811590467601</v>
-      </c>
-      <c r="T12" s="303">
-        <v>8.0937587487820595E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220"/>
+      <c r="U12" s="295">
+        <f>M11+M12+M13</f>
+        <v>-4.6216095055818945E-3</v>
+      </c>
+      <c r="V12" s="302">
+        <v>0.26502318375103501</v>
+      </c>
+      <c r="W12" s="302">
+        <v>0.193669042946988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="229"/>
       <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="31">
-        <v>0.22622098718265299</v>
+        <v>0.30970835329033097</v>
       </c>
       <c r="D13" s="31">
-        <v>0.13894313075300799</v>
+        <v>0.24363297654796201</v>
       </c>
       <c r="E13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.39405112784945595</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" si="1"/>
+        <v>0.30473068513065271</v>
+      </c>
+      <c r="G13" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.18840814964560751</v>
+      </c>
+      <c r="H13" s="31">
+        <v>-0.18554090555397601</v>
+      </c>
+      <c r="I13" s="93">
         <f t="shared" si="3"/>
-        <v>0.26548282171421472</v>
-      </c>
-      <c r="F13" s="31">
+        <v>0.23950607425974685</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.23748255535377899</v>
+      </c>
+      <c r="K13" s="113">
+        <f t="shared" si="6"/>
+        <v>1.9784044140255658E-2</v>
+      </c>
+      <c r="L13" s="159"/>
+      <c r="M13" s="127">
+        <v>3.6742325791069397E-2</v>
+      </c>
+      <c r="N13" s="19">
         <f t="shared" si="4"/>
-        <v>0.11959785362525914</v>
-      </c>
-      <c r="G13" s="93">
+        <v>1.5218259385407349</v>
+      </c>
+      <c r="O13" s="102">
         <f t="shared" si="5"/>
-        <v>-6.2592751224866738E-2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>-7.2232755478001495E-2</v>
-      </c>
-      <c r="I13" s="93">
-        <f t="shared" si="0"/>
-        <v>0.10191071624648143</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0.101247965715746</v>
-      </c>
-      <c r="K13" s="127">
-        <v>-1.8052015447252701E-2</v>
-      </c>
-      <c r="L13" s="19">
-        <f t="shared" si="1"/>
-        <v>15.401151194812785</v>
-      </c>
-      <c r="M13" s="102">
-        <f t="shared" si="2"/>
-        <v>0.65032467158066276</v>
-      </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="274"/>
-      <c r="P13" s="276"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="289"/>
-      <c r="S13" s="304"/>
-      <c r="T13" s="304"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
+        <v>0.84487164353641009</v>
+      </c>
+      <c r="P13" s="188">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="287"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="296"/>
+      <c r="V13" s="303"/>
+      <c r="W13" s="303"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="213" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
       </c>
       <c r="C14" s="5">
-        <v>0.247879199310308</v>
+        <v>0.21369687781951299</v>
       </c>
       <c r="D14" s="5">
-        <v>0.20326976144112499</v>
+        <v>0.81093605056284601</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E21" si="6">SQRT(D14*D14+C14*C14)</f>
-        <v>0.32056620746275061</v>
+        <f t="shared" si="0"/>
+        <v>0.83862007708632547</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F21" si="7">1/0.96*(E14-0.04/E14)</f>
-        <v>0.20394478291438509</v>
+        <f t="shared" si="1"/>
+        <v>0.82387778523416422</v>
       </c>
       <c r="G14" s="88">
-        <f t="shared" ref="G14:G21" si="8">-F14*D14/E14</f>
-        <v>-0.12932057841744343</v>
+        <f t="shared" si="2"/>
+        <v>-0.79668042246916526</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.13515577123328601</v>
+        <v>-0.79768972897205603</v>
       </c>
       <c r="I14" s="88">
-        <f t="shared" si="0"/>
-        <v>0.15770118095871546</v>
+        <f t="shared" si="3"/>
+        <v>0.20994025211165193</v>
       </c>
       <c r="J14" s="5">
-        <v>0.154317453343947</v>
-      </c>
-      <c r="K14" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>4.5121920171179006</v>
-      </c>
-      <c r="M14" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1456577523374958</v>
-      </c>
-      <c r="N14" s="117">
+        <v>0.20354624043290701</v>
+      </c>
+      <c r="K14" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E14 * E14 - 0.04) -0.08 * LN(5 * E14) - 0.5 * 0.04 * 0.04 * (1/E14/E14 - 25))</f>
+        <v>0.25589091035092093</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.12668900533072111</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="5"/>
+        <v>3.0456339908291703</v>
+      </c>
+      <c r="P14" s="36">
+        <f>ABS((K14-L14)/K14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q14" s="117">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
-        <v>-0.39761307687490022</v>
-      </c>
-      <c r="O14" s="293">
+        <v>-2.9197288200581158E-2</v>
+      </c>
+      <c r="R14" s="275">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
-        <v>-0.96225861994314255</v>
-      </c>
-      <c r="P14" s="270">
+        <v>-1.0932185255859852</v>
+      </c>
+      <c r="S14" s="277">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
-        <v>1.1210747133901908</v>
-      </c>
-      <c r="Q14" s="121">
+        <v>0.99011480774734817</v>
+      </c>
+      <c r="T14" s="121">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
-        <v>0.39761307687490022</v>
-      </c>
-      <c r="R14" s="298">
-        <v>4.0323231025556301E-2</v>
-      </c>
-      <c r="S14" s="301">
+        <v>2.9197288200581158E-2</v>
+      </c>
+      <c r="U14" s="304">
+        <v>-2.3529370910404901E-3</v>
+      </c>
+      <c r="V14" s="300">
         <f>1/0.96/0.96*(C14-0.08*C14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*C14/(POWER(C14*C14+D14*D14,2)))</f>
-        <v>1.8826196159772688E-2</v>
-      </c>
-      <c r="T14" s="301">
+        <v>0.20474948049889674</v>
+      </c>
+      <c r="W14" s="300">
         <f>1/0.96/0.96*(D14-0.08*D14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*D14/(POWER(C14*C14+D14*D14,2)))</f>
-        <v>1.5438150570472962E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195"/>
+        <v>0.77698250327646345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="214"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="30">
-        <v>0.30970835329033097</v>
+        <v>7.8782216460385301E-2</v>
       </c>
       <c r="D15" s="30">
-        <v>0.24363297654796201</v>
+        <v>0.80500445235153695</v>
       </c>
       <c r="E15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.80885029884163906</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="1"/>
+        <v>0.79103894803920183</v>
+      </c>
+      <c r="G15" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.78727778931031545</v>
+      </c>
+      <c r="H15" s="30">
+        <v>-0.78669057342002002</v>
+      </c>
+      <c r="I15" s="90">
+        <f t="shared" si="3"/>
+        <v>7.7047386546396243E-2</v>
+      </c>
+      <c r="J15" s="30">
+        <v>6.7870822556525406E-2</v>
+      </c>
+      <c r="K15" s="158">
         <f t="shared" si="6"/>
-        <v>0.39405112784945595</v>
-      </c>
-      <c r="F15" s="30">
+        <v>0.23232735327916307</v>
+      </c>
+      <c r="L15" s="158"/>
+      <c r="M15" s="126">
+        <v>-2.0404952538293199E-2</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="4"/>
+        <v>7.4588143888810285E-2</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="5"/>
+        <v>11.910285865887108</v>
+      </c>
+      <c r="P15" s="189">
         <f t="shared" si="7"/>
-        <v>0.30473068513065271</v>
-      </c>
-      <c r="G15" s="90">
-        <f t="shared" si="8"/>
-        <v>-0.18840814964560751</v>
-      </c>
-      <c r="H15" s="30">
-        <v>-0.10928521800916099</v>
-      </c>
-      <c r="I15" s="90">
-        <f t="shared" si="0"/>
-        <v>0.23950607425974685</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0.20891546658270099</v>
-      </c>
-      <c r="K15" s="126">
-        <v>-1.91491551261549E-2</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="1"/>
-        <v>41.995493180775561</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="2"/>
-        <v>12.772372379946415</v>
-      </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="294"/>
-      <c r="P15" s="271"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="295"/>
-      <c r="S15" s="302"/>
-      <c r="T15" s="302"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
+        <v>100</v>
+      </c>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="276"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="297"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="301"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="214"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="30">
-        <v>0.208185326479424</v>
+        <v>0.32878221646038502</v>
       </c>
       <c r="D16" s="30">
-        <v>0.26105614228856</v>
+        <v>0.73801715424375602</v>
       </c>
       <c r="E16" s="30">
+        <f t="shared" si="0"/>
+        <v>0.80794001375018898</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="1"/>
+        <v>0.79003269553597311</v>
+      </c>
+      <c r="G16" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.72165961803602563</v>
+      </c>
+      <c r="H16" s="30">
+        <v>-0.72636715957160303</v>
+      </c>
+      <c r="I16" s="90">
+        <f t="shared" si="3"/>
+        <v>0.32149503217302311</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0.31149134468011203</v>
+      </c>
+      <c r="K16" s="113">
         <f t="shared" si="6"/>
-        <v>0.33390333868940164</v>
-      </c>
-      <c r="F16" s="30">
+        <v>0.23162363821467546</v>
+      </c>
+      <c r="L16" s="158"/>
+      <c r="M16" s="126">
+        <v>1.8052015447252701E-2</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.65232159565597236</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="5"/>
+        <v>3.1116149525841728</v>
+      </c>
+      <c r="P16" s="189">
         <f t="shared" si="7"/>
-        <v>0.22302936491459346</v>
-      </c>
-      <c r="G16" s="90">
-        <f t="shared" si="8"/>
-        <v>-0.1743713790050801</v>
-      </c>
-      <c r="H16" s="30">
-        <v>-0.23443812529143099</v>
-      </c>
-      <c r="I16" s="90">
-        <f t="shared" si="0"/>
-        <v>0.13905653453927863</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0.18780054897422499</v>
-      </c>
-      <c r="K16" s="126">
-        <v>8.0419705098214195E-2</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="1"/>
-        <v>34.447594914415923</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="2"/>
-        <v>35.053379257900225</v>
-      </c>
-      <c r="N16" s="119">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="119">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="O16" s="234">
+      <c r="R16" s="240">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="P16" s="275">
+      <c r="S16" s="286">
         <v>1.1344986861228901</v>
       </c>
-      <c r="Q16" s="123">
+      <c r="T16" s="123">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="R16" s="288">
-        <f>K15+K16+K17</f>
-        <v>4.0323231025556391E-2</v>
-      </c>
-      <c r="S16" s="303">
-        <v>0.14579811590467601</v>
-      </c>
-      <c r="T16" s="303">
-        <v>8.0937587487820595E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
+      <c r="U16" s="295">
+        <f>M15+M16+M17</f>
+        <v>-2.3529370910404974E-3</v>
+      </c>
+      <c r="V16" s="302">
+        <v>0.137911809141127</v>
+      </c>
+      <c r="W16" s="302">
+        <v>0.51568724964624202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="215"/>
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="31">
-        <v>0.22622098718265299</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="D17" s="31">
-        <v>0.13894313075300799</v>
+        <v>0.93301270189221897</v>
       </c>
       <c r="E17" s="31">
+        <f t="shared" si="0"/>
+        <v>0.96592582628906765</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.96303622820069212</v>
+      </c>
+      <c r="G17" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.93022156447106152</v>
+      </c>
+      <c r="H17" s="31">
+        <v>-0.93301270189221897</v>
+      </c>
+      <c r="I17" s="93">
+        <f t="shared" si="3"/>
+        <v>0.24925211698203556</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0.249999999999999</v>
+      </c>
+      <c r="K17" s="113">
         <f t="shared" si="6"/>
-        <v>0.26548282171421472</v>
-      </c>
-      <c r="F17" s="31">
+        <v>0.36856265093685381</v>
+      </c>
+      <c r="L17" s="159"/>
+      <c r="M17" s="127">
+        <v>0</v>
+      </c>
+      <c r="N17" s="19">
+        <f t="shared" si="4"/>
+        <v>0.30005081883309442</v>
+      </c>
+      <c r="O17" s="102">
+        <f t="shared" si="5"/>
+        <v>0.30005081883310281</v>
+      </c>
+      <c r="P17" s="188">
         <f t="shared" si="7"/>
-        <v>0.11959785362525914</v>
-      </c>
-      <c r="G17" s="93">
-        <f t="shared" si="8"/>
-        <v>-6.2592751224866738E-2</v>
-      </c>
-      <c r="H17" s="31">
-        <v>-9.3570629844627898E-2</v>
-      </c>
-      <c r="I17" s="93">
-        <f t="shared" si="0"/>
-        <v>0.10191071624648143</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0.119169270156912</v>
-      </c>
-      <c r="K17" s="127">
-        <v>-2.09473189465029E-2</v>
-      </c>
-      <c r="L17" s="19">
-        <f t="shared" si="1"/>
-        <v>49.49115994034517</v>
-      </c>
-      <c r="M17" s="102">
-        <f t="shared" si="2"/>
-        <v>16.934974599421913</v>
-      </c>
-      <c r="N17" s="120"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
-        <v>67</v>
+        <v>100</v>
+      </c>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="285"/>
+      <c r="S17" s="287"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="296"/>
+      <c r="V17" s="303"/>
+      <c r="W17" s="303"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="213" t="s">
+        <v>114</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="5">
-        <v>0.39008509039914102</v>
+        <v>0.31133214968949902</v>
       </c>
       <c r="D18" s="5">
-        <v>0.24205055766328401</v>
+        <v>-0.49109580408029302</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="6"/>
-        <v>0.45908043981072943</v>
+        <f t="shared" si="0"/>
+        <v>0.58146607486211455</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.38744764581092966</v>
+        <f t="shared" si="1"/>
+        <v>0.53403587841561473</v>
       </c>
       <c r="G18" s="88">
-        <f t="shared" si="8"/>
-        <v>-0.20428210527228444</v>
+        <f t="shared" si="2"/>
+        <v>0.45103711197671054</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.20361845640537399</v>
+        <v>0.45103711197671098</v>
       </c>
       <c r="I18" s="88">
-        <f t="shared" si="0"/>
-        <v>0.32921801243242288</v>
+        <f>F18*C18/E18</f>
+        <v>0.28593678157041197</v>
       </c>
       <c r="J18" s="5">
-        <v>0.330064925268372</v>
-      </c>
-      <c r="K18" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.32486882099921666</v>
-      </c>
-      <c r="M18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.25724984781109528</v>
-      </c>
-      <c r="N18" s="117">
+        <v>0.28593678157041202</v>
+      </c>
+      <c r="K18" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E18 * E18 - 0.04) -0.08 * LN(5 * E18) - 0.5 * 0.04 * 0.04 * (1/E18/E18 - 25))</f>
+        <v>8.8223125848530579E-2</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="4"/>
+        <v>9.845957196377964E-14</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="5"/>
+        <v>1.9413784727652534E-14</v>
+      </c>
+      <c r="P18" s="36">
+        <f>ABS((K18-L18)/K18)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q18" s="117">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
-        <v>-0.17714505627851754</v>
-      </c>
-      <c r="O18" s="293">
+        <v>0.111458045423386</v>
+      </c>
+      <c r="R18" s="168">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
-        <v>-0.95388437356372024</v>
-      </c>
-      <c r="P18" s="270">
+        <v>-1.0942440745313051</v>
+      </c>
+      <c r="S18" s="170">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
-        <v>1.1294489597696131</v>
-      </c>
-      <c r="Q18" s="121">
+        <v>0.98908925880202847</v>
+      </c>
+      <c r="T18" s="121">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
-        <v>0.17714505627851754</v>
-      </c>
-      <c r="R18" s="298">
-        <v>-4.6216095055825798E-3</v>
-      </c>
-      <c r="S18" s="301">
+        <v>-0.111458045423386</v>
+      </c>
+      <c r="U18" s="172">
+        <v>-4.49849201298115E-4</v>
+      </c>
+      <c r="V18" s="185">
         <f>1/0.96/0.96*(C18-0.08*C18/(C18*C18+D18*D18)-0.5*0.04*0.04*2*C18/(POWER(C18*C18+D18*D18,2)))</f>
-        <v>0.24735454129767298</v>
-      </c>
-      <c r="T18" s="301">
+        <v>0.25315633713118235</v>
+      </c>
+      <c r="W18" s="185">
         <f>1/0.96/0.96*(D18-0.08*D18/(C18*C18+D18*D18)-0.5*0.04*0.04*2*D18/(POWER(C18*C18+D18*D18,2)))</f>
-        <v>0.15348524241309838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
+        <v>-0.39932918930939787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="214"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="30">
-        <v>0.455713651858564</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0.186443664387938</v>
-      </c>
-      <c r="E19" s="30">
+      <c r="C19" s="158">
+        <v>0.38204106659149101</v>
+      </c>
+      <c r="D19" s="158">
+        <v>-0.449110797408868</v>
+      </c>
+      <c r="E19" s="158">
+        <f t="shared" si="0"/>
+        <v>0.58962351115910683</v>
+      </c>
+      <c r="F19" s="158">
+        <f t="shared" si="1"/>
+        <v>0.54352459501867567</v>
+      </c>
+      <c r="G19" s="90">
+        <f t="shared" si="2"/>
+        <v>0.41399767760329287</v>
+      </c>
+      <c r="H19" s="158">
+        <v>0.41232651668722298</v>
+      </c>
+      <c r="I19" s="90">
+        <f>F19*C19/E19</f>
+        <v>0.35217170290824806</v>
+      </c>
+      <c r="J19" s="158">
+        <v>0.35749074951548998</v>
+      </c>
+      <c r="K19" s="158">
         <f t="shared" si="6"/>
-        <v>0.49237807879785889</v>
-      </c>
-      <c r="F19" s="30">
+        <v>9.2267218364421075E-2</v>
+      </c>
+      <c r="L19" s="158"/>
+      <c r="M19" s="126">
+        <v>0.13335875839748401</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="4"/>
+        <v>0.40366432143884068</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5103560460187508</v>
+      </c>
+      <c r="P19" s="189">
         <f t="shared" si="7"/>
-        <v>0.42827051422666923</v>
-      </c>
-      <c r="G19" s="90">
-        <f t="shared" si="8"/>
-        <v>-0.16216872249202571</v>
-      </c>
-      <c r="H19" s="30">
-        <v>-0.163882011377116</v>
-      </c>
-      <c r="I19" s="90">
-        <f t="shared" si="0"/>
-        <v>0.396379791111101</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0.39936987018611902</v>
-      </c>
-      <c r="K19" s="126">
-        <v>-0.12358051977053899</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0564854053003552</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.75434700306906899</v>
-      </c>
-      <c r="N19" s="118"/>
-      <c r="O19" s="294"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="295"/>
-      <c r="S19" s="302"/>
-      <c r="T19" s="302"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
+        <v>100</v>
+      </c>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="214"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="30">
-        <v>0.43767799115533501</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0.30855667592349001</v>
-      </c>
-      <c r="E20" s="30">
+      <c r="C20" s="158">
+        <v>0.222221318157757</v>
+      </c>
+      <c r="D20" s="158">
+        <v>-0.48859329927265899</v>
+      </c>
+      <c r="E20" s="158">
+        <f t="shared" si="0"/>
+        <v>0.536754810260619</v>
+      </c>
+      <c r="F20" s="158">
+        <f t="shared" si="1"/>
+        <v>0.4814925921387459</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" si="2"/>
+        <v>0.43828960574044601</v>
+      </c>
+      <c r="H20" s="158">
+        <v>0.43874583814825902</v>
+      </c>
+      <c r="I20" s="90">
+        <f>F20*C20/E20</f>
+        <v>0.19934226291575291</v>
+      </c>
+      <c r="J20" s="158">
+        <v>0.201682953696359</v>
+      </c>
+      <c r="K20" s="113">
         <f t="shared" si="6"/>
-        <v>0.53550839974618802</v>
-      </c>
-      <c r="F20" s="30">
+        <v>6.7597853943368549E-2</v>
+      </c>
+      <c r="L20" s="158"/>
+      <c r="M20" s="126">
+        <v>-7.9783176357517596E-2</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1040938233162632</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1742069877050214</v>
+      </c>
+      <c r="P20" s="189">
         <f t="shared" si="7"/>
-        <v>0.48001356887306179</v>
-      </c>
-      <c r="G20" s="90">
-        <f t="shared" si="8"/>
-        <v>-0.27658089262435981</v>
-      </c>
-      <c r="H20" s="30">
-        <v>-0.27858397278539698</v>
-      </c>
-      <c r="I20" s="90">
-        <f t="shared" si="0"/>
-        <v>0.39232134295417326</v>
-      </c>
-      <c r="J20" s="30">
-        <v>0.39071233441443498</v>
-      </c>
-      <c r="K20" s="126">
-        <v>8.2216584473887702E-2</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="1"/>
-        <v>0.72422940790695567</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.41012516107904529</v>
-      </c>
-      <c r="N20" s="119">
-        <v>-5.6957584114745899E-2</v>
-      </c>
-      <c r="O20" s="234">
-        <v>-0.95759798272257901</v>
-      </c>
-      <c r="P20" s="275">
-        <v>1.1344986861228901</v>
-      </c>
-      <c r="Q20" s="123">
-        <v>5.2676185244459398E-2</v>
-      </c>
-      <c r="R20" s="288">
-        <f>K19+K20+K21</f>
-        <v>-4.6216095055818945E-3</v>
-      </c>
-      <c r="S20" s="303">
-        <v>0.26502318375103501</v>
-      </c>
-      <c r="T20" s="303">
-        <v>0.193669042946988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="220"/>
+        <v>100</v>
+      </c>
+      <c r="Q20" s="119">
+        <v>0.138104716632167</v>
+      </c>
+      <c r="R20" s="160">
+        <v>-1.07050713037479</v>
+      </c>
+      <c r="S20" s="163">
+        <v>0.98159061692759597</v>
+      </c>
+      <c r="T20" s="123">
+        <v>-8.1823273502626706E-2</v>
+      </c>
+      <c r="U20" s="165">
+        <f>M19+M20+M21</f>
+        <v>-3.1575996537858142E-4</v>
+      </c>
+      <c r="V20" s="182">
+        <v>0.26478945956039002</v>
+      </c>
+      <c r="W20" s="182">
+        <v>-0.45057251237367202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="215"/>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="31">
-        <v>0.30970835329033097</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0.24363297654796201</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="C21" s="159">
+        <v>0.312589692162144</v>
+      </c>
+      <c r="D21" s="159">
+        <v>-0.57195810859801299</v>
+      </c>
+      <c r="E21" s="159">
+        <f t="shared" si="0"/>
+        <v>0.651803953376351</v>
+      </c>
+      <c r="F21" s="159">
+        <f t="shared" si="1"/>
+        <v>0.61503729962872311</v>
+      </c>
+      <c r="G21" s="93">
+        <f t="shared" si="2"/>
+        <v>0.53969536206503943</v>
+      </c>
+      <c r="H21" s="159">
+        <v>0.53549143665926102</v>
+      </c>
+      <c r="I21" s="93">
+        <f>F21*C21/E21</f>
+        <v>0.29495727843211073</v>
+      </c>
+      <c r="J21" s="159">
+        <v>0.30089030373211101</v>
+      </c>
+      <c r="K21" s="113">
         <f t="shared" si="6"/>
-        <v>0.39405112784945595</v>
-      </c>
-      <c r="F21" s="31">
+        <v>0.125897412055689</v>
+      </c>
+      <c r="L21" s="159"/>
+      <c r="M21" s="127">
+        <v>-5.3891342005344997E-2</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.77894414169002757</v>
+      </c>
+      <c r="O21" s="102">
+        <f t="shared" si="5"/>
+        <v>2.0114863181333114</v>
+      </c>
+      <c r="P21" s="188">
         <f t="shared" si="7"/>
-        <v>0.30473068513065271</v>
-      </c>
-      <c r="G21" s="93">
-        <f t="shared" si="8"/>
-        <v>-0.18840814964560751</v>
-      </c>
-      <c r="H21" s="31">
-        <v>-0.18554090555397601</v>
-      </c>
-      <c r="I21" s="93">
-        <f t="shared" si="0"/>
-        <v>0.23950607425974685</v>
-      </c>
-      <c r="J21" s="31">
-        <v>0.23748255535377899</v>
-      </c>
-      <c r="K21" s="127">
-        <v>3.6742325791069397E-2</v>
-      </c>
-      <c r="L21" s="19">
-        <f t="shared" si="1"/>
-        <v>1.5218259385407349</v>
-      </c>
-      <c r="M21" s="102">
-        <f t="shared" si="2"/>
-        <v>0.84487164353641009</v>
-      </c>
-      <c r="N21" s="120"/>
-      <c r="O21" s="274"/>
-      <c r="P21" s="276"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="289"/>
-      <c r="S21" s="304"/>
-      <c r="T21" s="304"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="195" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.39008509039914102</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.24205055766328401</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ref="E22:E29" si="9">SQRT(D22*D22+C22*C22)</f>
-        <v>0.45908043981072943</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F29" si="10">1/0.96*(E22-0.04/E22)</f>
-        <v>0.38744764581092966</v>
-      </c>
-      <c r="G22" s="88">
-        <f t="shared" ref="G22:G28" si="11">-F22*D22/E22</f>
-        <v>-0.20428210527228444</v>
-      </c>
-      <c r="H22" s="5">
-        <v>-0.20361845640537399</v>
-      </c>
-      <c r="I22" s="88">
-        <f t="shared" si="0"/>
-        <v>0.32921801243242288</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.330064925268372</v>
-      </c>
-      <c r="K22" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.32486882099921666</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.25724984781109528</v>
-      </c>
-      <c r="N22" s="117">
-        <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
-        <v>-0.17714505627851754</v>
-      </c>
-      <c r="O22" s="293">
-        <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
-        <v>-0.95388437356372024</v>
-      </c>
-      <c r="P22" s="270">
-        <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
-        <v>1.1294489597696131</v>
-      </c>
-      <c r="Q22" s="121">
-        <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
-        <v>0.17714505627851754</v>
-      </c>
-      <c r="R22" s="298">
-        <v>5.9126179060860602E-2</v>
-      </c>
-      <c r="S22" s="301">
-        <f>1/0.96/0.96*(C22-0.08*C22/(C22*C22+D22*D22)-0.5*0.04*0.04*2*C22/(POWER(C22*C22+D22*D22,2)))</f>
-        <v>0.24735454129767298</v>
-      </c>
-      <c r="T22" s="301">
-        <f>1/0.96/0.96*(D22-0.08*D22/(C22*C22+D22*D22)-0.5*0.04*0.04*2*D22/(POWER(C22*C22+D22*D22,2)))</f>
-        <v>0.15348524241309838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="195"/>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="30">
-        <v>0.455713651858564</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0.186443664387938</v>
-      </c>
-      <c r="E23" s="30">
-        <f t="shared" si="9"/>
-        <v>0.49237807879785889</v>
-      </c>
-      <c r="F23" s="30">
-        <f t="shared" si="10"/>
-        <v>0.42827051422666923</v>
-      </c>
-      <c r="G23" s="90">
-        <f t="shared" si="11"/>
-        <v>-0.16216872249202571</v>
-      </c>
-      <c r="H23" s="30">
-        <v>-9.2213600873070997E-2</v>
-      </c>
-      <c r="I23" s="90">
-        <f t="shared" si="0"/>
-        <v>0.396379791111101</v>
-      </c>
-      <c r="J23" s="30">
-        <v>0.25256679995706899</v>
-      </c>
-      <c r="K23" s="126">
-        <v>-7.67018916246021E-2</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="1"/>
-        <v>43.137246531861038</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="2"/>
-        <v>36.281615354533244</v>
-      </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="271"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="295"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0.43767799115533501</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0.30855667592349001</v>
-      </c>
-      <c r="E24" s="30">
-        <f t="shared" si="9"/>
-        <v>0.53550839974618802</v>
-      </c>
-      <c r="F24" s="30">
-        <f t="shared" si="10"/>
-        <v>0.48001356887306179</v>
-      </c>
-      <c r="G24" s="90">
-        <f t="shared" si="11"/>
-        <v>-0.27658089262435981</v>
-      </c>
-      <c r="H24" s="30">
-        <v>-0.249148420634765</v>
-      </c>
-      <c r="I24" s="90">
-        <f t="shared" si="0"/>
-        <v>0.39232134295417326</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0.40821995712584502</v>
-      </c>
-      <c r="K24" s="126">
-        <v>9.0695793797376606E-2</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="1"/>
-        <v>9.9184262981074411</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="2"/>
-        <v>4.0524469181195855</v>
-      </c>
-      <c r="N24" s="119">
-        <v>-5.6957584114745899E-2</v>
-      </c>
-      <c r="O24" s="234">
-        <v>-0.95759798272257901</v>
-      </c>
-      <c r="P24" s="275">
-        <v>1.1344986861228901</v>
-      </c>
-      <c r="Q24" s="123">
-        <v>5.2676185244459398E-2</v>
-      </c>
-      <c r="R24" s="288">
-        <f>K23+K24+K25</f>
-        <v>5.9126179060860505E-2</v>
-      </c>
-      <c r="S24" s="303">
-        <v>0.26502318375103501</v>
-      </c>
-      <c r="T24" s="303">
-        <v>0.193669042946988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="31">
-        <v>0.30970835329033097</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0.24363297654796201</v>
-      </c>
-      <c r="E25" s="31">
-        <f t="shared" si="9"/>
-        <v>0.39405112784945595</v>
-      </c>
-      <c r="F25" s="31">
-        <f t="shared" si="10"/>
-        <v>0.30473068513065271</v>
-      </c>
-      <c r="G25" s="93">
-        <f t="shared" si="11"/>
-        <v>-0.18840814964560751</v>
-      </c>
-      <c r="H25" s="31">
-        <v>-0.217046816661215</v>
-      </c>
-      <c r="I25" s="93">
-        <f t="shared" si="0"/>
-        <v>0.23950607425974685</v>
-      </c>
-      <c r="J25" s="31">
-        <v>0.21820442256157499</v>
-      </c>
-      <c r="K25" s="127">
-        <v>4.5132276888086E-2</v>
-      </c>
-      <c r="L25" s="19">
-        <f t="shared" si="1"/>
-        <v>15.200333461942241</v>
-      </c>
-      <c r="M25" s="102">
-        <f t="shared" si="2"/>
-        <v>8.8939922563592244</v>
-      </c>
-      <c r="N25" s="120"/>
-      <c r="O25" s="274"/>
-      <c r="P25" s="276"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="289"/>
-      <c r="S25" s="304"/>
-      <c r="T25" s="304"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.21369687781951299</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.81093605056284601</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="9"/>
-        <v>0.83862007708632547</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="10"/>
-        <v>0.82387778523416422</v>
-      </c>
-      <c r="G26" s="88">
-        <f t="shared" si="11"/>
-        <v>-0.79668042246916526</v>
-      </c>
-      <c r="H26" s="5">
-        <v>-0.79768972897205603</v>
-      </c>
-      <c r="I26" s="88">
-        <f t="shared" si="0"/>
-        <v>0.20994025211165193</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.20354624043290701</v>
-      </c>
-      <c r="K26" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12668900533072111</v>
-      </c>
-      <c r="M26" s="7">
-        <f t="shared" si="2"/>
-        <v>3.0456339908291703</v>
-      </c>
-      <c r="N26" s="117">
-        <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
-        <v>-2.9197288200581158E-2</v>
-      </c>
-      <c r="O26" s="293">
-        <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
-        <v>-1.0932185255859852</v>
-      </c>
-      <c r="P26" s="270">
-        <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
-        <v>0.99011480774734817</v>
-      </c>
-      <c r="Q26" s="121">
-        <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
-        <v>2.9197288200581158E-2</v>
-      </c>
-      <c r="R26" s="298">
-        <v>-2.3529370910404901E-3</v>
-      </c>
-      <c r="S26" s="301">
-        <f>1/0.96/0.96*(C26-0.08*C26/(C26*C26+D26*D26)-0.5*0.04*0.04*2*C26/(POWER(C26*C26+D26*D26,2)))</f>
-        <v>0.20474948049889674</v>
-      </c>
-      <c r="T26" s="301">
-        <f>1/0.96/0.96*(D26-0.08*D26/(C26*C26+D26*D26)-0.5*0.04*0.04*2*D26/(POWER(C26*C26+D26*D26,2)))</f>
-        <v>0.77698250327646345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="195"/>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="30">
-        <v>7.8782216460385301E-2</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0.80500445235153695</v>
-      </c>
-      <c r="E27" s="30">
-        <f t="shared" si="9"/>
-        <v>0.80885029884163906</v>
-      </c>
-      <c r="F27" s="30">
-        <f t="shared" si="10"/>
-        <v>0.79103894803920183</v>
-      </c>
-      <c r="G27" s="90">
-        <f t="shared" si="11"/>
-        <v>-0.78727778931031545</v>
-      </c>
-      <c r="H27" s="30">
-        <v>-0.78669057342002002</v>
-      </c>
-      <c r="I27" s="90">
-        <f t="shared" si="0"/>
-        <v>7.7047386546396243E-2</v>
-      </c>
-      <c r="J27" s="30">
-        <v>6.7870822556525406E-2</v>
-      </c>
-      <c r="K27" s="126">
-        <v>-2.0404952538293199E-2</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="1"/>
-        <v>7.4588143888810285E-2</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="2"/>
-        <v>11.910285865887108</v>
-      </c>
-      <c r="N27" s="118"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="295"/>
-      <c r="S27" s="302"/>
-      <c r="T27" s="302"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="195"/>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="30">
-        <v>0.32878221646038502</v>
-      </c>
-      <c r="D28" s="30">
-        <v>0.73801715424375602</v>
-      </c>
-      <c r="E28" s="30">
-        <f t="shared" si="9"/>
-        <v>0.80794001375018898</v>
-      </c>
-      <c r="F28" s="30">
-        <f t="shared" si="10"/>
-        <v>0.79003269553597311</v>
-      </c>
-      <c r="G28" s="90">
-        <f t="shared" si="11"/>
-        <v>-0.72165961803602563</v>
-      </c>
-      <c r="H28" s="30">
-        <v>-0.72636715957160303</v>
-      </c>
-      <c r="I28" s="90">
-        <f t="shared" si="0"/>
-        <v>0.32149503217302311</v>
-      </c>
-      <c r="J28" s="30">
-        <v>0.31149134468011203</v>
-      </c>
-      <c r="K28" s="126">
-        <v>1.8052015447252701E-2</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.65232159565597236</v>
-      </c>
-      <c r="M28" s="8">
-        <f t="shared" si="2"/>
-        <v>3.1116149525841728</v>
-      </c>
-      <c r="N28" s="119">
-        <v>-5.6957584114745899E-2</v>
-      </c>
-      <c r="O28" s="234">
-        <v>-0.95759798272257901</v>
-      </c>
-      <c r="P28" s="275">
-        <v>1.1344986861228901</v>
-      </c>
-      <c r="Q28" s="123">
-        <v>5.2676185244459398E-2</v>
-      </c>
-      <c r="R28" s="288">
-        <f>K27+K28+K29</f>
-        <v>-2.3529370910404974E-3</v>
-      </c>
-      <c r="S28" s="303">
-        <v>0.137911809141127</v>
-      </c>
-      <c r="T28" s="303">
-        <v>0.51568724964624202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="31">
-        <v>0.249999999999999</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0.93301270189221897</v>
-      </c>
-      <c r="E29" s="31">
-        <f t="shared" si="9"/>
-        <v>0.96592582628906765</v>
-      </c>
-      <c r="F29" s="31">
-        <f t="shared" si="10"/>
-        <v>0.96303622820069212</v>
-      </c>
-      <c r="G29" s="93">
-        <f>-F29*D29/E29</f>
-        <v>-0.93022156447106152</v>
-      </c>
-      <c r="H29" s="31">
-        <v>-0.93301270189221897</v>
-      </c>
-      <c r="I29" s="93">
-        <f t="shared" si="0"/>
-        <v>0.24925211698203556</v>
-      </c>
-      <c r="J29" s="31">
-        <v>0.249999999999999</v>
-      </c>
-      <c r="K29" s="127">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <f t="shared" si="1"/>
-        <v>0.30005081883309442</v>
-      </c>
-      <c r="M29" s="102">
-        <f t="shared" si="2"/>
-        <v>0.30005081883310281</v>
-      </c>
-      <c r="N29" s="120"/>
-      <c r="O29" s="274"/>
-      <c r="P29" s="276"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="289"/>
-      <c r="S29" s="304"/>
-      <c r="T29" s="304"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="194" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.31133214968949902</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-0.49109580408029302</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:E33" si="12">SQRT(D30*D30+C30*C30)</f>
-        <v>0.58146607486211455</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:F33" si="13">1/0.96*(E30-0.04/E30)</f>
-        <v>0.53403587841561473</v>
-      </c>
-      <c r="G30" s="88">
-        <f t="shared" ref="G30:G33" si="14">-F30*D30/E30</f>
-        <v>0.45103711197671054</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.45103711197671098</v>
-      </c>
-      <c r="I30" s="88">
-        <f t="shared" ref="I30:I33" si="15">F30*C30/E30</f>
-        <v>0.28593678157041197</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.28593678157041202</v>
-      </c>
-      <c r="K30" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" ref="L30:L33" si="16">ABS((G30-H30)/G30)*100</f>
-        <v>9.845957196377964E-14</v>
-      </c>
-      <c r="M30" s="7">
-        <f t="shared" ref="M30:M33" si="17">ABS((I30-J30)/I30)*100</f>
-        <v>1.9413784727652534E-14</v>
-      </c>
-      <c r="N30" s="117">
-        <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
-        <v>0.111458045423386</v>
-      </c>
-      <c r="O30" s="181">
-        <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
-        <v>-1.0942440745313051</v>
-      </c>
-      <c r="P30" s="183">
-        <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
-        <v>0.98908925880202847</v>
-      </c>
-      <c r="Q30" s="121">
-        <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
-        <v>-0.111458045423386</v>
-      </c>
-      <c r="R30" s="185">
-        <v>-4.49849201298115E-4</v>
-      </c>
-      <c r="S30" s="308">
-        <f>1/0.96/0.96*(C30-0.08*C30/(C30*C30+D30*D30)-0.5*0.04*0.04*2*C30/(POWER(C30*C30+D30*D30,2)))</f>
-        <v>0.25315633713118235</v>
-      </c>
-      <c r="T30" s="308">
-        <f>1/0.96/0.96*(D30-0.08*D30/(C30*C30+D30*D30)-0.5*0.04*0.04*2*D30/(POWER(C30*C30+D30*D30,2)))</f>
-        <v>-0.39932918930939787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="171">
-        <v>0.38204106659149101</v>
-      </c>
-      <c r="D31" s="171">
-        <v>-0.449110797408868</v>
-      </c>
-      <c r="E31" s="171">
-        <f t="shared" si="12"/>
-        <v>0.58962351115910683</v>
-      </c>
-      <c r="F31" s="171">
-        <f t="shared" si="13"/>
-        <v>0.54352459501867567</v>
-      </c>
-      <c r="G31" s="90">
-        <f t="shared" si="14"/>
-        <v>0.41399767760329287</v>
-      </c>
-      <c r="H31" s="171">
-        <v>0.41232651668722298</v>
-      </c>
-      <c r="I31" s="90">
-        <f t="shared" si="15"/>
-        <v>0.35217170290824806</v>
-      </c>
-      <c r="J31" s="171">
-        <v>0.35749074951548998</v>
-      </c>
-      <c r="K31" s="126">
-        <v>0.13335875839748401</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="16"/>
-        <v>0.40366432143884068</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="17"/>
-        <v>1.5103560460187508</v>
-      </c>
-      <c r="N31" s="118"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="309"/>
-      <c r="T31" s="309"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="195"/>
-      <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="171">
-        <v>0.222221318157757</v>
-      </c>
-      <c r="D32" s="171">
-        <v>-0.48859329927265899</v>
-      </c>
-      <c r="E32" s="171">
-        <f t="shared" si="12"/>
-        <v>0.536754810260619</v>
-      </c>
-      <c r="F32" s="171">
-        <f t="shared" si="13"/>
-        <v>0.4814925921387459</v>
-      </c>
-      <c r="G32" s="90">
-        <f t="shared" si="14"/>
-        <v>0.43828960574044601</v>
-      </c>
-      <c r="H32" s="171">
-        <v>0.43874583814825902</v>
-      </c>
-      <c r="I32" s="90">
-        <f t="shared" si="15"/>
-        <v>0.19934226291575291</v>
-      </c>
-      <c r="J32" s="171">
-        <v>0.201682953696359</v>
-      </c>
-      <c r="K32" s="126">
-        <v>-7.9783176357517596E-2</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="16"/>
-        <v>0.1040938233162632</v>
-      </c>
-      <c r="M32" s="8">
-        <f t="shared" si="17"/>
-        <v>1.1742069877050214</v>
-      </c>
-      <c r="N32" s="119">
-        <v>0.138104716632167</v>
-      </c>
-      <c r="O32" s="173">
-        <v>-1.07050713037479</v>
-      </c>
-      <c r="P32" s="176">
-        <v>0.98159061692759597</v>
-      </c>
-      <c r="Q32" s="123">
-        <v>-8.1823273502626706E-2</v>
-      </c>
-      <c r="R32" s="178">
-        <f>K31+K32+K33</f>
-        <v>-3.1575996537858142E-4</v>
-      </c>
-      <c r="S32" s="305">
-        <v>0.26478945956039002</v>
-      </c>
-      <c r="T32" s="305">
-        <v>-0.45057251237367202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="172">
-        <v>0.312589692162144</v>
-      </c>
-      <c r="D33" s="172">
-        <v>-0.57195810859801299</v>
-      </c>
-      <c r="E33" s="172">
-        <f t="shared" si="12"/>
-        <v>0.651803953376351</v>
-      </c>
-      <c r="F33" s="172">
-        <f t="shared" si="13"/>
-        <v>0.61503729962872311</v>
-      </c>
-      <c r="G33" s="93">
-        <f>-F33*D33/E33</f>
-        <v>0.53969536206503943</v>
-      </c>
-      <c r="H33" s="172">
-        <v>0.53549143665926102</v>
-      </c>
-      <c r="I33" s="93">
-        <f t="shared" si="15"/>
-        <v>0.29495727843211073</v>
-      </c>
-      <c r="J33" s="172">
-        <v>0.30089030373211101</v>
-      </c>
-      <c r="K33" s="127">
-        <v>-5.3891342005344997E-2</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="16"/>
-        <v>0.77894414169002757</v>
-      </c>
-      <c r="M33" s="102">
-        <f t="shared" si="17"/>
-        <v>2.0114863181333114</v>
-      </c>
-      <c r="N33" s="120"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="101">
-        <f>(625 * E2 *E2 * E2 * E2 - 50 * E2 * E2 + 1)/(576 * E2 * E2 * E2)</f>
-        <v>1.0516026512668088E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="101">
-        <f>(E2-0.08/E2+0.04*0.04/E2/E2/E2)/0.96/0.96</f>
-        <v>1.0516026512668071E-2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
+  <mergeCells count="45">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V6:V7"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:M5">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="N2:O5">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:M9">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="N6:O9">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M13">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="N14:O17">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:M29">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="N10:O13">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:M17">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="N18:O21">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:M21">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="P2:P5">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:M25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:M33">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P6:P21">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17056,346 +16498,709 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="100"/>
+    <col min="2" max="2" width="11.375" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="100" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="100" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="100" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="100" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="100"/>
+    <col min="11" max="11" width="11.375" style="100" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="101" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="181" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="187" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="181" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="181" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="181" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="181" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="180" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="B1">
-        <v>0.471681273945385</v>
-      </c>
-      <c r="C1">
-        <v>5.7546117565155401E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="158">
-        <v>0.49174985721075398</v>
-      </c>
-      <c r="C2">
-        <v>9.0238421150407293E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3">
-        <v>0.50374495212450898</v>
-      </c>
-      <c r="C3">
-        <v>6.5721405478509701E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="299" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="299"/>
-      <c r="B7" s="100">
+    </row>
+    <row r="2" spans="1:23" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="100">
-        <v>0.37073695703180898</v>
-      </c>
-      <c r="D7" s="100">
-        <v>5.8743147664902601E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
-      <c r="B8" s="100">
-        <v>1</v>
-      </c>
-      <c r="C8" s="100">
-        <v>0.1202906705054</v>
-      </c>
-      <c r="D8" s="100">
-        <v>-1.0498167238699899E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
-      <c r="B9" s="100">
-        <v>2</v>
-      </c>
-      <c r="C9" s="100">
-        <v>6.9573764255448201E-2</v>
-      </c>
-      <c r="D9" s="100">
-        <v>-2.8329643351018501E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="268" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="134" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="134" t="s">
+      <c r="C2" s="5">
+        <v>0.39008509039914102</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.24205055766328401</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E5" si="0">SQRT(D2*D2+C2*C2)</f>
+        <v>0.45908043981072943</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F9" si="1">1/0.96*(E2-0.04/E2)</f>
+        <v>0.38744764581092966</v>
+      </c>
+      <c r="G2" s="88">
+        <f t="shared" ref="G2:G5" si="2">-F2*D2/E2</f>
+        <v>-0.20428210527228444</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.20361845640537399</v>
+      </c>
+      <c r="I2" s="88">
+        <f t="shared" ref="I2:I5" si="3">F2*C2/E2</f>
+        <v>0.32921801243242288</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.330064925268372</v>
+      </c>
+      <c r="K2" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E2 * E2 - 0.04) -0.08 * LN(5 * E2) - 0.5 * 0.04 * 0.04 * (1/E2/E2 - 25))</f>
+        <v>3.8095593987146507E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.8095593987146799E-2</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" ref="N2:N5" si="4">ABS((G2-H2)/G2)*100</f>
+        <v>0.32486882099921666</v>
+      </c>
+      <c r="O2" s="7">
+        <f t="shared" ref="O2:O5" si="5">ABS((I2-J2)/I2)*100</f>
+        <v>0.25724984781109528</v>
+      </c>
+      <c r="P2" s="36">
+        <f>ABS((K2-L2)/K2)*100</f>
+        <v>7.6500590609621039E-13</v>
+      </c>
+      <c r="Q2" s="117">
+        <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
+        <v>-0.17714505627851754</v>
+      </c>
+      <c r="R2" s="275">
+        <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
+        <v>-0.95388437356372024</v>
+      </c>
+      <c r="S2" s="277">
+        <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
+        <v>1.1294489597696131</v>
+      </c>
+      <c r="T2" s="121">
+        <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
+        <v>0.17714505627851754</v>
+      </c>
+      <c r="U2" s="304">
+        <v>-4.6216095055825798E-3</v>
+      </c>
+      <c r="V2" s="300">
+        <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>0.24735454129767298</v>
+      </c>
+      <c r="W2" s="300">
+        <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
+        <v>0.15348524241309838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="101" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="214"/>
+      <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="134" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="300"/>
-      <c r="B12" s="146">
+      <c r="C3" s="175">
+        <v>0.419842861882326</v>
+      </c>
+      <c r="D3" s="175">
+        <v>0.25714776854933802</v>
+      </c>
+      <c r="E3" s="175">
+        <f t="shared" si="0"/>
+        <v>0.49233423966188433</v>
+      </c>
+      <c r="F3" s="175">
+        <f t="shared" si="1"/>
+        <v>0.42821731330842028</v>
+      </c>
+      <c r="G3" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.22365929017464992</v>
+      </c>
+      <c r="H3" s="175">
+        <v>-0.163882011377116</v>
+      </c>
+      <c r="I3" s="90">
+        <f t="shared" si="3"/>
+        <v>0.36516652274770967</v>
+      </c>
+      <c r="J3" s="175">
+        <v>0.39936987018611902</v>
+      </c>
+      <c r="K3" s="305">
+        <f t="shared" ref="K3:K5" si="6">1 /0.96 /0.96 * (0.5 * ( E3 * E3 - 0.04) -0.08 * LN(5 * E3) - 0.5 * 0.04 * 0.04 * (1/E3/E3 - 25))</f>
+        <v>4.9727472896975017E-2</v>
+      </c>
+      <c r="L3" s="175"/>
+      <c r="M3" s="126">
+        <v>-0.12358051977053899</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" si="4"/>
+        <v>26.726937544537204</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="5"/>
+        <v>9.3665068695358347</v>
+      </c>
+      <c r="P3" s="189">
+        <f t="shared" ref="P3:P5" si="7">ABS((K3-L3)/K3)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="276"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="301"/>
+      <c r="W3" s="301"/>
+    </row>
+    <row r="4" spans="1:23" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="214"/>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="175">
+        <v>0.43767799115533501</v>
+      </c>
+      <c r="D4" s="175">
+        <v>0.30855667592349001</v>
+      </c>
+      <c r="E4" s="175">
+        <f t="shared" si="0"/>
+        <v>0.53550839974618802</v>
+      </c>
+      <c r="F4" s="175">
+        <f t="shared" si="1"/>
+        <v>0.48001356887306179</v>
+      </c>
+      <c r="G4" s="90">
+        <f t="shared" si="2"/>
+        <v>-0.27658089262435981</v>
+      </c>
+      <c r="H4" s="175">
+        <v>-0.27858397278539698</v>
+      </c>
+      <c r="I4" s="90">
+        <f t="shared" si="3"/>
+        <v>0.39232134295417326</v>
+      </c>
+      <c r="J4" s="175">
+        <v>0.39071233441443498</v>
+      </c>
+      <c r="K4" s="113">
+        <f t="shared" si="6"/>
+        <v>6.7060532722723484E-2</v>
+      </c>
+      <c r="L4" s="175"/>
+      <c r="M4" s="126">
+        <v>8.2216584473887702E-2</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" si="4"/>
+        <v>0.72422940790695567</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="5"/>
+        <v>0.41012516107904529</v>
+      </c>
+      <c r="P4" s="189">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="119">
+        <v>-5.6957584114745899E-2</v>
+      </c>
+      <c r="R4" s="240">
+        <v>-0.95759798272257901</v>
+      </c>
+      <c r="S4" s="286">
+        <v>1.1344986861228901</v>
+      </c>
+      <c r="T4" s="123">
+        <v>5.2676185244459398E-2</v>
+      </c>
+      <c r="U4" s="295">
+        <f>M3+M4+M5</f>
+        <v>-4.6216095055818945E-3</v>
+      </c>
+      <c r="V4" s="302">
+        <v>0.26502318375103501</v>
+      </c>
+      <c r="W4" s="302">
+        <v>0.193669042946988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="101" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="215"/>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="176">
+        <v>0.30970835329033097</v>
+      </c>
+      <c r="D5" s="176">
+        <v>0.24363297654796201</v>
+      </c>
+      <c r="E5" s="176">
+        <f t="shared" si="0"/>
+        <v>0.39405112784945595</v>
+      </c>
+      <c r="F5" s="176">
+        <f t="shared" si="1"/>
+        <v>0.30473068513065271</v>
+      </c>
+      <c r="G5" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.18840814964560751</v>
+      </c>
+      <c r="H5" s="176">
+        <v>-0.18554090555397601</v>
+      </c>
+      <c r="I5" s="93">
+        <f t="shared" si="3"/>
+        <v>0.23950607425974685</v>
+      </c>
+      <c r="J5" s="176">
+        <v>0.23748255535377899</v>
+      </c>
+      <c r="K5" s="113">
+        <f t="shared" si="6"/>
+        <v>1.9784044140255658E-2</v>
+      </c>
+      <c r="L5" s="176"/>
+      <c r="M5" s="127">
+        <v>3.6742325791069397E-2</v>
+      </c>
+      <c r="N5" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5218259385407349</v>
+      </c>
+      <c r="O5" s="102">
+        <f t="shared" si="5"/>
+        <v>0.84487164353641009</v>
+      </c>
+      <c r="P5" s="188">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="287"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="303"/>
+      <c r="W5" s="303"/>
+    </row>
+    <row r="6" spans="1:23" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="213" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="161">
-        <v>0.24551381376860401</v>
-      </c>
-      <c r="D12" s="161">
-        <v>0.96253884708735205</v>
-      </c>
-      <c r="E12" s="165">
-        <v>0.24857818633508</v>
-      </c>
-      <c r="F12" s="148">
-        <v>2.13505944194072E-2</v>
-      </c>
-      <c r="G12" s="148">
-        <f>C12*D12</f>
-        <v>0.23631658324885096</v>
-      </c>
-      <c r="H12" s="166">
-        <f>E12/F12</f>
-        <v>11.642682234136213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="300"/>
-      <c r="B13" s="159">
-        <v>1</v>
-      </c>
-      <c r="C13" s="162">
-        <v>9.4932217380424497E-2</v>
-      </c>
-      <c r="D13" s="162">
-        <v>-0.18318695673410099</v>
-      </c>
-      <c r="E13" s="163">
-        <v>0.191596466394993</v>
-      </c>
-      <c r="F13" s="132">
-        <v>2.13505944194072E-2</v>
-      </c>
-      <c r="G13" s="132">
-        <f>C13*D13</f>
-        <v>-1.7390343997940091E-2</v>
-      </c>
-      <c r="H13" s="167">
-        <f>E13/F13</f>
-        <v>8.9738235213178044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="269"/>
-      <c r="B14" s="168">
-        <v>2</v>
-      </c>
-      <c r="C14" s="160">
-        <v>0.22015536064362801</v>
-      </c>
-      <c r="D14" s="160">
-        <v>-0.86035566494885096</v>
-      </c>
-      <c r="E14" s="164">
-        <v>0.23730672744308001</v>
-      </c>
-      <c r="F14" s="169">
-        <v>2.13505944194072E-2</v>
-      </c>
-      <c r="G14" s="169">
-        <f>C14*D14</f>
-        <v>-0.18941191169860266</v>
-      </c>
-      <c r="H14" s="170">
-        <f>E14/F14</f>
-        <v>11.114759747736748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="268" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="134" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="134" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="300"/>
-      <c r="B17" s="146">
-        <v>0</v>
-      </c>
-      <c r="C17" s="161">
-        <v>0.29204598824893702</v>
-      </c>
-      <c r="D17" s="161">
-        <v>0.99578420321215</v>
-      </c>
-      <c r="E17" s="165">
-        <v>0.12922502054937299</v>
-      </c>
-      <c r="F17" s="148">
-        <v>6.5721405478509701E-3</v>
-      </c>
-      <c r="G17" s="148">
-        <f>C17*D17</f>
-        <v>0.29081478170977265</v>
-      </c>
-      <c r="H17" s="166">
-        <f>E17/F17</f>
-        <v>19.662546716477081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="300"/>
-      <c r="B18" s="159">
-        <v>1</v>
-      </c>
-      <c r="C18" s="162">
-        <v>0.14146439186075699</v>
-      </c>
-      <c r="D18" s="162">
-        <v>0.56899023143641003</v>
-      </c>
-      <c r="E18" s="163">
-        <v>0.132670033671275</v>
-      </c>
-      <c r="F18" s="132">
-        <v>6.5721405478509701E-3</v>
-      </c>
-      <c r="G18" s="132">
-        <f>C18*D18</f>
-        <v>8.0491857064863115E-2</v>
-      </c>
-      <c r="H18" s="167">
-        <f>E18/F18</f>
-        <v>20.186731051370607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="269"/>
-      <c r="B19" s="168">
-        <v>2</v>
-      </c>
-      <c r="C19" s="160">
-        <v>0.22015536064362801</v>
-      </c>
-      <c r="D19" s="160">
-        <v>-0.86035566494885096</v>
-      </c>
-      <c r="E19" s="164">
-        <v>0.23730672744308001</v>
-      </c>
-      <c r="F19" s="169">
-        <v>6.5721405478509701E-3</v>
-      </c>
-      <c r="G19" s="169">
-        <f>C19*D19</f>
-        <v>-0.18941191169860266</v>
-      </c>
-      <c r="H19" s="170">
-        <f>E19/F19</f>
-        <v>36.107981214838311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="154">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5.5247601130158697E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.17620145261923401</v>
-      </c>
-      <c r="D23">
-        <f>0.5*(B23+C23)</f>
-        <v>0.11572452687469635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>-0.23074400502558101</v>
-      </c>
-      <c r="C24">
-        <v>-0.43491219231170802</v>
-      </c>
-      <c r="D24">
-        <f>0.5*(B24+C24)</f>
-        <v>-0.33282809866864449</v>
-      </c>
+      <c r="C6" s="5">
+        <v>0.49099131816298902</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.12069024662016101</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E9" si="8">SQRT(D6*D6+C6*C6)</f>
+        <v>0.50560716978763742</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44426496626660661</v>
+      </c>
+      <c r="G6" s="88">
+        <f t="shared" ref="G6:G9" si="9">-F6*D6/E6</f>
+        <v>-0.10604764241364459</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-0.20361845640537399</v>
+      </c>
+      <c r="I6" s="88">
+        <f t="shared" ref="I6:I9" si="10">F6*C6/E6</f>
+        <v>0.43142236589029187</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.330064925268372</v>
+      </c>
+      <c r="K6" s="5">
+        <f>1 /0.96 /0.96 * (0.5 * ( E6 * E6 - 0.04) -0.08 * LN(5 * E6) - 0.5 * 0.04 * 0.04 * (1/E6/E6 - 25))</f>
+        <v>5.4790011699011605E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.4790011699011897E-2</v>
+      </c>
+      <c r="M6" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N9" si="11">ABS((G6-H6)/G6)*100</f>
+        <v>92.006584749097144</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" ref="O6:O9" si="12">ABS((I6-J6)/I6)*100</f>
+        <v>23.493784429269589</v>
+      </c>
+      <c r="P6" s="36">
+        <f>ABS((K6-L6)/K6)*100</f>
+        <v>5.3190998674191007E-13</v>
+      </c>
+      <c r="Q6" s="117">
+        <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
+        <v>-7.5563461809953048E-2</v>
+      </c>
+      <c r="R6" s="275">
+        <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
+        <v>-0.89725036357031118</v>
+      </c>
+      <c r="S6" s="277">
+        <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
+        <v>1.1860829697630224</v>
+      </c>
+      <c r="T6" s="121">
+        <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
+        <v>7.5563461809953048E-2</v>
+      </c>
+      <c r="U6" s="304">
+        <v>-4.6216095055825798E-3</v>
+      </c>
+      <c r="V6" s="300">
+        <f>1/0.96/0.96*(C6-0.08*C6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*C6/(POWER(C6*C6+D6*D6,2)))</f>
+        <v>0.35299328988736034</v>
+      </c>
+      <c r="W6" s="300">
+        <f>1/0.96/0.96*(D6-0.08*D6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*D6/(POWER(C6*C6+D6*D6,2)))</f>
+        <v>8.6769043842085017E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="101" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="214"/>
+      <c r="B7" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="175">
+        <v>0.489465506306346</v>
+      </c>
+      <c r="D7" s="175">
+        <v>0.11991614620120999</v>
+      </c>
+      <c r="E7" s="175">
+        <f t="shared" si="8"/>
+        <v>0.50394083381234112</v>
+      </c>
+      <c r="F7" s="175">
+        <f t="shared" si="1"/>
+        <v>0.44225670461501559</v>
+      </c>
+      <c r="G7" s="90">
+        <f t="shared" si="9"/>
+        <v>-0.10523798845169272</v>
+      </c>
+      <c r="H7" s="175">
+        <v>-0.163882011377116</v>
+      </c>
+      <c r="I7" s="90">
+        <f t="shared" si="10"/>
+        <v>0.42955320807040254</v>
+      </c>
+      <c r="J7" s="175">
+        <v>0.39936987018611902</v>
+      </c>
+      <c r="K7" s="305">
+        <f t="shared" ref="K7:K9" si="13">1 /0.96 /0.96 * (0.5 * ( E7 * E7 - 0.04) -0.08 * LN(5 * E7) - 0.5 * 0.04 * 0.04 * (1/E7/E7 - 25))</f>
+        <v>5.4141400173230027E-2</v>
+      </c>
+      <c r="L7" s="175"/>
+      <c r="M7" s="126">
+        <v>-0.12358051977053899</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="11"/>
+        <v>55.725146202640104</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="12"/>
+        <v>7.0266819842575936</v>
+      </c>
+      <c r="P7" s="189">
+        <f t="shared" ref="P7:P9" si="14">ABS((K7-L7)/K7)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="276"/>
+      <c r="S7" s="278"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="297"/>
+      <c r="V7" s="301"/>
+      <c r="W7" s="301"/>
+    </row>
+    <row r="8" spans="1:23" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="214"/>
+      <c r="B8" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="175">
+        <v>0.43767799115533501</v>
+      </c>
+      <c r="D8" s="175">
+        <v>0.30855667592349001</v>
+      </c>
+      <c r="E8" s="175">
+        <f t="shared" si="8"/>
+        <v>0.53550839974618802</v>
+      </c>
+      <c r="F8" s="175">
+        <f t="shared" si="1"/>
+        <v>0.48001356887306179</v>
+      </c>
+      <c r="G8" s="90">
+        <f t="shared" si="9"/>
+        <v>-0.27658089262435981</v>
+      </c>
+      <c r="H8" s="175">
+        <v>-0.27858397278539698</v>
+      </c>
+      <c r="I8" s="90">
+        <f t="shared" si="10"/>
+        <v>0.39232134295417326</v>
+      </c>
+      <c r="J8" s="175">
+        <v>0.39071233441443498</v>
+      </c>
+      <c r="K8" s="113">
+        <f t="shared" si="13"/>
+        <v>6.7060532722723484E-2</v>
+      </c>
+      <c r="L8" s="175"/>
+      <c r="M8" s="126">
+        <v>8.2216584473887702E-2</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="11"/>
+        <v>0.72422940790695567</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="12"/>
+        <v>0.41012516107904529</v>
+      </c>
+      <c r="P8" s="189">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="119">
+        <v>-5.6957584114745899E-2</v>
+      </c>
+      <c r="R8" s="240">
+        <v>-0.95759798272257901</v>
+      </c>
+      <c r="S8" s="286">
+        <v>1.1344986861228901</v>
+      </c>
+      <c r="T8" s="123">
+        <v>5.2676185244459398E-2</v>
+      </c>
+      <c r="U8" s="295">
+        <f>M7+M8+M9</f>
+        <v>-4.6216095055818945E-3</v>
+      </c>
+      <c r="V8" s="302">
+        <v>0.26502318375103501</v>
+      </c>
+      <c r="W8" s="302">
+        <v>0.193669042946988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="101" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="215"/>
+      <c r="B9" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="176">
+        <v>0.30970835329033097</v>
+      </c>
+      <c r="D9" s="176">
+        <v>0.24363297654796201</v>
+      </c>
+      <c r="E9" s="176">
+        <f t="shared" si="8"/>
+        <v>0.39405112784945595</v>
+      </c>
+      <c r="F9" s="176">
+        <f t="shared" si="1"/>
+        <v>0.30473068513065271</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="9"/>
+        <v>-0.18840814964560751</v>
+      </c>
+      <c r="H9" s="176">
+        <v>-0.18554090555397601</v>
+      </c>
+      <c r="I9" s="93">
+        <f t="shared" si="10"/>
+        <v>0.23950607425974685</v>
+      </c>
+      <c r="J9" s="176">
+        <v>0.23748255535377899</v>
+      </c>
+      <c r="K9" s="306">
+        <f t="shared" si="13"/>
+        <v>1.9784044140255658E-2</v>
+      </c>
+      <c r="L9" s="176"/>
+      <c r="M9" s="127">
+        <v>3.6742325791069397E-2</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="11"/>
+        <v>1.5218259385407349</v>
+      </c>
+      <c r="O9" s="102">
+        <f t="shared" si="12"/>
+        <v>0.84487164353641009</v>
+      </c>
+      <c r="P9" s="179">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="287"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="22">
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
+  <conditionalFormatting sqref="N2:O5">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P5">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:O9">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>